--- a/src/main/java/data/QuizTestAppData.xlsx
+++ b/src/main/java/data/QuizTestAppData.xlsx
@@ -3,21 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Source\Java\OOP\quiz-test-app\src\main\java\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6F5B42-E8DD-40A6-A546-DC4CE309F2D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A3D74AB-B0CA-4957-A3A2-1743E0C01E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QuestionBank" sheetId="1" r:id="rId1"/>
+    <sheet name="Category" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,11 +26,318 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="73">
+  <si>
+    <t>root/IT Course</t>
+  </si>
+  <si>
+    <t>root/IT Course/Computer Achitechture</t>
+  </si>
+  <si>
+    <t>root/IT Course/Operating System</t>
+  </si>
+  <si>
+    <t>root/IT Course/Object Oriented Programing</t>
+  </si>
+  <si>
+    <t>root/IT Course/Computer Achitechture/Mid-term</t>
+  </si>
+  <si>
+    <t>root/IT Course/Computer Achitechture/Final-term</t>
+  </si>
+  <si>
+    <t>root/IT Course/Object Oriented Programing/Mid-term</t>
+  </si>
+  <si>
+    <t>root/IT Course/Object Oriented Programing/Final-term</t>
+  </si>
+  <si>
+    <t>root/IT Course/Operating System/Mid-term</t>
+  </si>
+  <si>
+    <t>root/IT Course/Operating System/Final-term</t>
+  </si>
+  <si>
+    <t>1. Tế bào làm việc trong cơ thể chúng ta bằng cách nào?</t>
+  </si>
+  <si>
+    <t>A. Chuyển đổi năng lượng hóa học thành năng lượng sinh học.
+B. Tạo ra thức ăn để cung cấp năng lượng cho cơ thể.
+C. Nhận dạng và phản ứng với các tác nhân môi trường.
+D. Nhận dạng và phản ứng với các tác nhân môi trường.`
+C. Nhận dạng và phản ứng với các tác nhân môi trường.
+D. Nhận dạng và phản ứng với các tác nhân môi trường.</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>2. Nước là một thành phần quan trọng của cơ thể con người. Nước chiếm tỷ lệ bao nhiêu phần trăm trọng lượng cơ thể trung bình?</t>
+  </si>
+  <si>
+    <t>A. 40-50%
+B. 60-70%
+C. 80-90%
+D. 100%</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>3. Loài nào sau đây là loài không có xương sống?</t>
+  </si>
+  <si>
+    <t>A. Chim
+B. Cá
+C. Cá heo
+D. Giun đất</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>4. Quá trình tiêu hóa thức ăn diễn ra chủ yếu ở đâu trong cơ thể người?</t>
+  </si>
+  <si>
+    <t>A. Dạ dày
+B. Ruột non
+C. Miệng
+D. Dạ con</t>
+  </si>
+  <si>
+    <t>5. Trong quá trình hô hấp, oxy được hấp thụ qua các mô nào?</t>
+  </si>
+  <si>
+    <t>A. Mạch máu
+B. Da
+C. Xương
+D. Gan
+B. Da
+C. Xương
+D. Gan</t>
+  </si>
+  <si>
+    <t>6. Chất gì trong lá cây giúp nó hấp thụ ánh sáng mặt trời để thực hiện quá trình quang hợp?</t>
+  </si>
+  <si>
+    <t>A. Clorophyll
+B. Protein
+C. Carbohydrate
+D. Vitamin</t>
+  </si>
+  <si>
+    <t>7. Quá trình nào dùng để xác định giới tính của một con người?</t>
+  </si>
+  <si>
+    <t>A. Tiếp xúc da
+B. Kiểm tra xương
+C. Xét nghiệm máu
+D. Xét nghiệm gen</t>
+  </si>
+  <si>
+    <t>8. Loài động vật nào sau đây có khả năng tái sinh các phần bị mất của cơ thể mình?</t>
+  </si>
+  <si>
+    <t>A. Con người
+B. Cá sấu
+C. Chim
+D. Bọ cạp</t>
+  </si>
+  <si>
+    <t>9. Các tế bào gốc làm việc trong cơ thể để thực hiện công việc gì?</t>
+  </si>
+  <si>
+    <t>A. Tiêu hóa thức ăn
+B. Tạo ra hormone
+C. Tái tạo và phục hồi các tế bào khác
+D. Phát triển cơ bắp</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>10. Quá trình nào là quá trình giúp cây hấp thụ nước và chất dinh dưỡng từ đất?</t>
+  </si>
+  <si>
+    <t>A. Quang hợp
+B. Hô hấp
+C. Vận chuyển
+D. Hấp thụ</t>
+  </si>
+  <si>
+    <t>11. Quá trình trao đổi chất trong cơ thể xảy ra chủ yếu ở đâu?</t>
+  </si>
+  <si>
+    <t>A. Lá
+B. Thân cây
+C. Cành
+D. Rễ</t>
+  </si>
+  <si>
+    <t>12. Chất nào sau đây là chất chủ yếu tạo nên tế bào trong cơ thể chúng ta?</t>
+  </si>
+  <si>
+    <t>A. Carbohydrate
+B. Chất béo
+C. Protein
+D. Vitamin</t>
+  </si>
+  <si>
+    <t>13. Loại cơ quan nào sau đây chịu trách nhiệm điều tiết nhiệt độ trong cơ thể người?</t>
+  </si>
+  <si>
+    <t>A. Não
+B. Tim
+C. Phổi
+D. Gan</t>
+  </si>
+  <si>
+    <t>14. Loài động vật nào sau đây không có mắt?</t>
+  </si>
+  <si>
+    <t>A. Rắn
+B. Cá
+C. Bướm
+D. Dơi</t>
+  </si>
+  <si>
+    <t>15. Một tế bào dịch ngoại vi trong mắt giúp chúng ta nhìn rõ hơn vào ban đêm. Chất gì trong tế bào này giúp chúng phản xạ ánh sáng?</t>
+  </si>
+  <si>
+    <t>A. Rhodopsin
+B. Melatonin
+C. Hemoglobin
+D. Insulin</t>
+  </si>
+  <si>
+    <t>16. Quá trình nào sau đây giúp cây sản xuất thức ăn?</t>
+  </si>
+  <si>
+    <t>A. Quang hợp
+B. Hô hấp
+C. Tiêu hóa
+D. Tuần hoàn</t>
+  </si>
+  <si>
+    <t>17. Chất gì trong máu chịu trách nhiệm vận chuyển oxy đến các tế bào trong cơ thể?</t>
+  </si>
+  <si>
+    <t>A. Glucose
+B. Hemoglobin
+C. Insulin
+D. Antibody</t>
+  </si>
+  <si>
+    <t>18. Loài động vật nào sau đây có khả năng bay?</t>
+  </si>
+  <si>
+    <t>A. Cá
+B. Chim
+C. Cá heo
+D. Rùa</t>
+  </si>
+  <si>
+    <t>19. Quá trình nào sau đây giúp cây thải đi nước dư thừa qua lỗ chân lông trên lá?</t>
+  </si>
+  <si>
+    <t>A. Quang hợp
+B. Hô hấp
+C. Tuần hoàn
+D. Giao phối</t>
+  </si>
+  <si>
+    <t>20. Chất gì trong tinh trùng giúp nó di chuyển để thụ tinh trứng?</t>
+  </si>
+  <si>
+    <t>A. DNA
+B. Enzyme
+C. Hormone
+D. Flagellum</t>
+  </si>
+  <si>
+    <t>21. Loài động vật nào sau đây có lông để giữ ấm cơ thể?</t>
+  </si>
+  <si>
+    <t>A. Rắn
+B. Cá
+C. Bướm
+D. Chim</t>
+  </si>
+  <si>
+    <t>22. Quá trình nào sau đây giúp cây tiếp nhận carbon dioxide từ không khí?</t>
+  </si>
+  <si>
+    <t>23. Chất gì trong miễn dịch giúp phát hiện và tiêu diệt vi khuẩn và virus?</t>
+  </si>
+  <si>
+    <t>A. Antigen
+B. Antibody
+C. Hormone
+D. Enzyme</t>
+  </si>
+  <si>
+    <t>24. Chất gì trong miễn dịch giúp phát hiện và tiêu diệt vi khuẩn và virus?</t>
+  </si>
+  <si>
+    <t>25. Loại tế bào nào trong cơ thể chúng ta chịu trách nhiệm sản xuất insulin?</t>
+  </si>
+  <si>
+    <t>A. Tế bào thần kinh
+B. Tế bào da
+C. Tế bào cơ
+D. Tế bào beta</t>
+  </si>
+  <si>
+    <t>26. Quá trình nào sau đây giúp cây truyền gen từ thế hệ này sang thế hệ khác?</t>
+  </si>
+  <si>
+    <t>A. Quang hợp
+B. Hô hấp
+C. Giao phối
+D. Sinh sản asexually</t>
+  </si>
+  <si>
+    <t>27. Loài động vật nào sau đây có cấu tạo xương sò?</t>
+  </si>
+  <si>
+    <t>A. Cá
+B. Chim
+C. Rắn
+D. Rùa</t>
+  </si>
+  <si>
+    <t>28. Quá trình nào sau đây giúp cây tiếp nhận khoáng chất từ đất?</t>
+  </si>
+  <si>
+    <t>A. Quang hợp
+B. Hô hấp
+C. Tuần hoàn
+D. Hấp thụ</t>
+  </si>
+  <si>
+    <t>29. Các tế bào dịch ngoại vi trong mắt giúp chúng ta nhìn rõ hơn vào ban đêm. Chất gì trong tế bào này giúp chúng phản xạ ánh sáng?</t>
+  </si>
+  <si>
+    <t>30. Quá trình nào sau đây giúp cây tiếp nhận năng lượng mặt trời và chuyển đổi thành năng lượng hóa học?</t>
+  </si>
+  <si>
+    <t>A. Quang hợp
+B. Hô hấp
+C. Tuần hoàn
+D. Tiêu hóa</t>
+  </si>
+  <si>
+    <t>root/IT Course/Object Oriented Programing/Mid-term/45min-test</t>
+  </si>
+  <si>
+    <t>root/IT Course/Object Oriented Programing/Mid-term/90min-test</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -341,19 +649,975 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L26" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="94.5703125" customWidth="1"/>
-    <col min="2" max="2" width="47.7109375" customWidth="1"/>
-    <col min="3" max="3" width="5.140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="94.5703125"/>
+    <col min="2" max="2" customWidth="true" width="101.5703125"/>
+    <col min="3" max="3" customWidth="true" width="5.140625"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D26" t="s" s="0">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D28" t="s" s="0">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s" s="0">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D31" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D32" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D33" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D34" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D35" t="s" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D36" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D37" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D38" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D39" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D40" t="s" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D41" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D42" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D43" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C44" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D44" t="s" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D45" t="s" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D46" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C47" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D47" t="s" s="0">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C48" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D48" t="s" s="0">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C49" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D49" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C50" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D50" t="s" s="0">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C51" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D51" t="s" s="0">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C52" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D52" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C53" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D53" t="s" s="0">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C54" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D54" t="s" s="0">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C55" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D55" t="s" s="0">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C56" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D56" t="s" s="0">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C57" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D57" t="s" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C58" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D58" t="s" s="0">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C59" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D59" t="s" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C60" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D60" t="s" s="0">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7375D0D9-A088-4E33-84C0-F60360358F66}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="65.7109375"/>
+    <col min="2" max="2" customWidth="true" width="8.140625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B7" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B8" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B9" s="0">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B10" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="B11" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/java/data/QuizTestAppData.xlsx
+++ b/src/main/java/data/QuizTestAppData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Source\Java\OOP\quiz-test-app\src\main\java\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\btl oop\quiz-test-app\src\main\java\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A3D74AB-B0CA-4957-A3A2-1743E0C01E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85739EF-2A81-4D4B-A275-E3336319F34F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QuestionBank" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="79">
   <si>
     <t>root/IT Course</t>
   </si>
@@ -58,45 +58,13 @@
     <t>root/IT Course/Operating System/Final-term</t>
   </si>
   <si>
-    <t>1. Tế bào làm việc trong cơ thể chúng ta bằng cách nào?</t>
-  </si>
-  <si>
-    <t>A. Chuyển đổi năng lượng hóa học thành năng lượng sinh học.
-B. Tạo ra thức ăn để cung cấp năng lượng cho cơ thể.
-C. Nhận dạng và phản ứng với các tác nhân môi trường.
-D. Nhận dạng và phản ứng với các tác nhân môi trường.`
-C. Nhận dạng và phản ứng với các tác nhân môi trường.
-D. Nhận dạng và phản ứng với các tác nhân môi trường.</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>2. Nước là một thành phần quan trọng của cơ thể con người. Nước chiếm tỷ lệ bao nhiêu phần trăm trọng lượng cơ thể trung bình?</t>
-  </si>
-  <si>
-    <t>A. 40-50%
-B. 60-70%
-C. 80-90%
-D. 100%</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>3. Loài nào sau đây là loài không có xương sống?</t>
-  </si>
-  <si>
-    <t>A. Chim
-B. Cá
-C. Cá heo
-D. Giun đất</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>4. Quá trình tiêu hóa thức ăn diễn ra chủ yếu ở đâu trong cơ thể người?</t>
+    <t>root/IT Course/Object Oriented Programing/Mid-term/45min-test</t>
+  </si>
+  <si>
+    <t>root/IT Course/Object Oriented Programing/Mid-term/90min-test</t>
+  </si>
+  <si>
+    <t>Quá trình tiêu hóa thức ăn diễn ra chủ yếu ở đâu trong cơ thể người?</t>
   </si>
   <si>
     <t>A. Dạ dày
@@ -105,19 +73,25 @@
 D. Dạ con</t>
   </si>
   <si>
-    <t>5. Trong quá trình hô hấp, oxy được hấp thụ qua các mô nào?</t>
+    <t>B</t>
+  </si>
+  <si>
+    <t>test ter</t>
+  </si>
+  <si>
+    <t>Trong quá trình hô hấp, oxy được hấp thụ qua các mô nào?</t>
   </si>
   <si>
     <t>A. Mạch máu
 B. Da
 C. Xương
-D. Gan
-B. Da
-C. Xương
 D. Gan</t>
   </si>
   <si>
-    <t>6. Chất gì trong lá cây giúp nó hấp thụ ánh sáng mặt trời để thực hiện quá trình quang hợp?</t>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Chất gì trong lá cây giúp nó hấp thụ ánh sáng mặt trời để thực hiện quá trình quang hợp?</t>
   </si>
   <si>
     <t>A. Clorophyll
@@ -126,7 +100,7 @@
 D. Vitamin</t>
   </si>
   <si>
-    <t>7. Quá trình nào dùng để xác định giới tính của một con người?</t>
+    <t>Quá trình nào dùng để xác định giới tính của một con người?</t>
   </si>
   <si>
     <t>A. Tiếp xúc da
@@ -135,7 +109,10 @@
 D. Xét nghiệm gen</t>
   </si>
   <si>
-    <t>8. Loài động vật nào sau đây có khả năng tái sinh các phần bị mất của cơ thể mình?</t>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Loài động vật nào sau đây có khả năng tái sinh các phần bị mất của cơ thể mình?</t>
   </si>
   <si>
     <t>A. Con người
@@ -144,7 +121,7 @@
 D. Bọ cạp</t>
   </si>
   <si>
-    <t>9. Các tế bào gốc làm việc trong cơ thể để thực hiện công việc gì?</t>
+    <t>Các tế bào gốc làm việc trong cơ thể để thực hiện công việc gì?</t>
   </si>
   <si>
     <t>A. Tiêu hóa thức ăn
@@ -156,7 +133,7 @@
     <t>C</t>
   </si>
   <si>
-    <t>10. Quá trình nào là quá trình giúp cây hấp thụ nước và chất dinh dưỡng từ đất?</t>
+    <t>Quá trình nào là quá trình giúp cây hấp thụ nước và chất dinh dưỡng từ đất?</t>
   </si>
   <si>
     <t>A. Quang hợp
@@ -165,7 +142,7 @@
 D. Hấp thụ</t>
   </si>
   <si>
-    <t>11. Quá trình trao đổi chất trong cơ thể xảy ra chủ yếu ở đâu?</t>
+    <t>Quá trình trao đổi chất trong cơ thể xảy ra chủ yếu ở đâu?</t>
   </si>
   <si>
     <t>A. Lá
@@ -192,7 +169,7 @@
 D. Gan</t>
   </si>
   <si>
-    <t>14. Loài động vật nào sau đây không có mắt?</t>
+    <t>Loài động vật nào sau đây không có mắt?</t>
   </si>
   <si>
     <t>A. Rắn
@@ -201,7 +178,7 @@
 D. Dơi</t>
   </si>
   <si>
-    <t>15. Một tế bào dịch ngoại vi trong mắt giúp chúng ta nhìn rõ hơn vào ban đêm. Chất gì trong tế bào này giúp chúng phản xạ ánh sáng?</t>
+    <t>Một tế bào dịch ngoại vi trong mắt giúp chúng ta nhìn rõ hơn vào ban đêm. Chất gì trong tế bào này giúp chúng phản xạ ánh sáng?</t>
   </si>
   <si>
     <t>A. Rhodopsin
@@ -276,9 +253,6 @@
 D. Enzyme</t>
   </si>
   <si>
-    <t>24. Chất gì trong miễn dịch giúp phát hiện và tiêu diệt vi khuẩn và virus?</t>
-  </si>
-  <si>
     <t>25. Loại tế bào nào trong cơ thể chúng ta chịu trách nhiệm sản xuất insulin?</t>
   </si>
   <si>
@@ -327,10 +301,57 @@
 D. Tiêu hóa</t>
   </si>
   <si>
-    <t>root/IT Course/Object Oriented Programing/Mid-term/45min-test</t>
-  </si>
-  <si>
-    <t>root/IT Course/Object Oriented Programing/Mid-term/90min-test</t>
+    <t>What is the correct answer to this question? Dòng cuối cùng là dòng ANSWER, mô tả đáp án đúng. Sau từ ANSWER là một dấu hai chấm và một khoảng trắng, tiếp đến là một ký tự viết hoa sau cho ký tự này nằm trong danh sách các đáp án ở trên. Sau dòng ANSWER phải có một dòng trống</t>
+  </si>
+  <si>
+    <t>A. Is it this one?
+B. Maybe this answer?
+C. Possibly this one?
+D. Must be this one!</t>
+  </si>
+  <si>
+    <t>Which LMS has the most quiz import formats?</t>
+  </si>
+  <si>
+    <t>A. Moodle
+B. ATutor
+C. Claroline
+D. Blackboard
+E. WebCT</t>
+  </si>
+  <si>
+    <t>Why did the chicken cross the road?</t>
+  </si>
+  <si>
+    <t>A. To get to the other side
+B. It wanted to live dangerously
+C. It saw Frank Perdue coming
+D. No one knows
+E. No one cares
+F. sjsjjsjs
+G. hshshssuus</t>
+  </si>
+  <si>
+    <t>Huy is very handsome, is’nt he?</t>
+  </si>
+  <si>
+    <t>A. Yes, he is
+B. Ofcourse
+C. No, I don’t think so</t>
+  </si>
+  <si>
+    <t>We will get A+ OOP, alright?</t>
+  </si>
+  <si>
+    <t>A. Ofcourse, we are
+B. No, it is terrible, we get A</t>
+  </si>
+  <si>
+    <t>Trường bị gay, đm nó</t>
+  </si>
+  <si>
+    <t>A. Ừ
+B. Không, nó thẳng như cây đũa vậy</t>
   </si>
 </sst>
 </file>
@@ -649,857 +670,468 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="B67" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="94.5703125"/>
-    <col min="2" max="2" customWidth="true" width="101.5703125"/>
-    <col min="3" max="3" customWidth="true" width="5.140625"/>
+    <col min="1" max="1" customWidth="true" width="94.54296875"/>
+    <col min="2" max="2" customWidth="true" width="101.54296875"/>
+    <col min="3" max="3" customWidth="true" width="5.1796875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s" s="0">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" t="s" s="0">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s" s="0">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>18</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s" s="0">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="B6" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>18</v>
-      </c>
       <c r="D7" t="s" s="0">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s" s="0">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>18</v>
       </c>
       <c r="D8" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s" s="0">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>31</v>
-      </c>
       <c r="D9" t="s" s="0">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>18</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s" s="0">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s" s="0">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s" s="0">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="D14" t="s" s="0">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="B15" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="C15" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="D15" t="s" s="0">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="B16" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="C16" t="s" s="0">
-        <v>12</v>
-      </c>
       <c r="D16" t="s" s="0">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" t="s" s="0">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="B18" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="C18" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="D18" t="s" s="0">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="B19" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="C19" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="D19" t="s" s="0">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20">
       <c r="A20" t="s" s="0">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" t="s" s="0">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" t="s" s="0">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" t="s" s="0">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" t="s" s="0">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" t="s" s="0">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>18</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" t="s" s="0">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s" s="0">
-        <v>64</v>
-      </c>
-      <c r="B27" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="C27" t="s" s="0">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27"/>
+    <row r="28"/>
+    <row r="29"/>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D30" t="s" s="0">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C31" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="D27" t="s" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s" s="0">
-        <v>66</v>
-      </c>
-      <c r="B28" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="C28" t="s" s="0">
+      <c r="D31" t="s" s="0">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D32" t="s" s="0">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D33" t="s" s="0">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C34" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="D28" t="s" s="0">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s" s="0">
-        <v>68</v>
-      </c>
-      <c r="B29" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="C29" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="D29" t="s" s="0">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s" s="0">
-        <v>69</v>
-      </c>
-      <c r="B30" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="C30" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="D30" t="s" s="0">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="B31" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C31" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="D31" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="B32" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C32" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="D32" t="s" s="0">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="B33" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C33" t="s" s="0">
+      <c r="D34" t="s" s="0">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="D33" t="s" s="0">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="B34" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C34" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="D34" t="s" s="0">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="B35" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C35" t="s" s="0">
-        <v>12</v>
-      </c>
       <c r="D35" t="s" s="0">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="B36" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C36" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="D36" t="s" s="0">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C37" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="D37" t="s" s="0">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="B38" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C38" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="D38" t="s" s="0">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="B39" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C39" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="D39" t="s" s="0">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="B40" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C40" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="D40" t="s" s="0">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="B41" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C41" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="D41" t="s" s="0">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="B42" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C42" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="D42" t="s" s="0">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="B43" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C43" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="D43" t="s" s="0">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="B44" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C44" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="D44" t="s" s="0">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="B45" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C45" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="D45" t="s" s="0">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="B46" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C46" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="D46" t="s" s="0">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s" s="0">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C47" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="D47" t="s" s="0">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s" s="0">
-        <v>48</v>
-      </c>
-      <c r="B48" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C48" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="D48" t="s" s="0">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="B49" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C49" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="D49" t="s" s="0">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="B50" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C50" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="D50" t="s" s="0">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="B51" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C51" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="D51" t="s" s="0">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s" s="0">
-        <v>56</v>
-      </c>
-      <c r="B52" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C52" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="D52" t="s" s="0">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s" s="0">
-        <v>57</v>
-      </c>
-      <c r="B53" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C53" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="D53" t="s" s="0">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s" s="0">
-        <v>59</v>
-      </c>
-      <c r="B54" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C54" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="D54" t="s" s="0">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s" s="0">
-        <v>60</v>
-      </c>
-      <c r="B55" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C55" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="D55" t="s" s="0">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s" s="0">
-        <v>62</v>
-      </c>
-      <c r="B56" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C56" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="D56" t="s" s="0">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s" s="0">
-        <v>64</v>
-      </c>
-      <c r="B57" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C57" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="D57" t="s" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s" s="0">
-        <v>66</v>
-      </c>
-      <c r="B58" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C58" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="D58" t="s" s="0">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" t="s" s="0">
-        <v>68</v>
-      </c>
-      <c r="B59" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C59" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="D59" t="s" s="0">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" t="s" s="0">
-        <v>69</v>
-      </c>
-      <c r="B60" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C60" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="D60" t="s" s="0">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1511,17 +1143,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7375D0D9-A088-4E33-84C0-F60360358F66}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="65.7109375"/>
-    <col min="2" max="2" customWidth="true" width="8.140625"/>
+    <col min="1" max="1" customWidth="true" width="65.7265625"/>
+    <col min="2" max="2" customWidth="true" width="8.1796875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
@@ -1529,7 +1161,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s" s="0">
         <v>1</v>
       </c>
@@ -1537,7 +1169,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s" s="0">
         <v>2</v>
       </c>
@@ -1545,7 +1177,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s" s="0">
         <v>3</v>
       </c>
@@ -1553,7 +1185,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s" s="0">
         <v>4</v>
       </c>
@@ -1561,7 +1193,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s" s="0">
         <v>5</v>
       </c>
@@ -1569,7 +1201,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s" s="0">
         <v>8</v>
       </c>
@@ -1577,7 +1209,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s" s="0">
         <v>9</v>
       </c>
@@ -1585,7 +1217,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s" s="0">
         <v>6</v>
       </c>
@@ -1593,7 +1225,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s" s="0">
         <v>7</v>
       </c>
@@ -1601,20 +1233,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s" s="0">
-        <v>71</v>
-      </c>
-      <c r="B11" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s" s="0">
-        <v>72</v>
-      </c>
-      <c r="B12" t="n" s="0">
-        <v>0.0</v>
+        <v>11</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/data/QuizTestAppData.xlsx
+++ b/src/main/java/data/QuizTestAppData.xlsx
@@ -3,104 +3,376 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\btl oop\quiz-test-app\src\main\java\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Source\Java\OOP\quiz-test-app\src\main\java\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3995CCCF-3C53-4B61-A309-68FEC1E1369B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639D9C0C-E981-4F3E-BE6B-482DF1EA1F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QuestionBank" sheetId="1" r:id="rId1"/>
     <sheet name="Category" sheetId="2" r:id="rId2"/>
+    <sheet name="Quizzes" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
-  <si>
-    <t>What is the correct answer to this question? Dòng cuối cùng là dòng ANSWER, mô tả đáp án đúng. Sau từ ANSWER là một dấu hai chấm và một khoảng trắng, tiếp đến là một ký tự viết hoa sau cho ký tự này nằm trong danh sách các đáp án ở trên. Sau dòng ANSWER phải có một dòng trống</t>
-  </si>
-  <si>
-    <t>A. Is it this one?
-B. Maybe this answer?
-C. Possibly this one?
-D. Must be this one!</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="81">
+  <si>
+    <t>root/IT Course</t>
+  </si>
+  <si>
+    <t>root/IT Course/Computer Achitechture</t>
+  </si>
+  <si>
+    <t>root/IT Course/Operating System</t>
+  </si>
+  <si>
+    <t>root/IT Course/Object Oriented Programing</t>
+  </si>
+  <si>
+    <t>root/IT Course/Computer Achitechture/Mid-term</t>
+  </si>
+  <si>
+    <t>root/IT Course/Computer Achitechture/Final-term</t>
+  </si>
+  <si>
+    <t>root/IT Course/Object Oriented Programing/Mid-term</t>
+  </si>
+  <si>
+    <t>root/IT Course/Object Oriented Programing/Final-term</t>
+  </si>
+  <si>
+    <t>root/IT Course/Operating System/Mid-term</t>
+  </si>
+  <si>
+    <t>root/IT Course/Operating System/Final-term</t>
+  </si>
+  <si>
+    <t>root/IT Course/Object Oriented Programing/Mid-term/45min-test</t>
+  </si>
+  <si>
+    <t>root/IT Course/Object Oriented Programing/Mid-term/90min-test</t>
+  </si>
+  <si>
+    <t>1. Tế bào làm việc trong cơ thể chúng ta bằng cách nào?</t>
+  </si>
+  <si>
+    <t>A. Chuyển đổi năng lượng hóa học thành năng lượng sinh học.
+B. Tạo ra thức ăn để cung cấp năng lượng cho cơ thể.
+C. Nhận dạng và phản ứng với các tác nhân môi trường.
+D. Nhận dạng và phản ứng với các tác nhân môi trường.`
+C. Nhận dạng và phản ứng với các tác nhân môi trường.
+D. Nhận dạng và phản ứng với các tác nhân môi trường.</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>2. Nước là một thành phần quan trọng của cơ thể con người. Nước chiếm tỷ lệ bao nhiêu phần trăm trọng lượng cơ thể trung bình?</t>
+  </si>
+  <si>
+    <t>A. 40-50%
+B. 60-70%
+C. 80-90%
+D. 100%</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>3. Loài nào sau đây là loài không có xương sống?</t>
+  </si>
+  <si>
+    <t>A. Chim
+B. Cá
+C. Cá heo
+D. Giun đất</t>
   </si>
   <si>
     <t>D</t>
   </si>
   <si>
-    <t>test ter</t>
-  </si>
-  <si>
-    <t>Which LMS has the most quiz import formats?</t>
-  </si>
-  <si>
-    <t>A. Moodle
-B. ATutor
-C. Claroline
-D. Blackboard
-E. WebCT</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Why did the chicken cross the road?</t>
-  </si>
-  <si>
-    <t>A. To get to the other side
-B. It wanted to live dangerously
-C. It saw Frank Perdue coming
-D. No one knows
-E. No one cares
-F. sjsjjsjs
-G. hshshssuus</t>
+    <t>4. Quá trình tiêu hóa thức ăn diễn ra chủ yếu ở đâu trong cơ thể người?</t>
+  </si>
+  <si>
+    <t>A. Dạ dày
+B. Ruột non
+C. Miệng
+D. Dạ con</t>
+  </si>
+  <si>
+    <t>5. Trong quá trình hô hấp, oxy được hấp thụ qua các mô nào?</t>
+  </si>
+  <si>
+    <t>A. Mạch máu
+B. Da
+C. Xương
+D. Gan
+B. Da
+C. Xương
+D. Gan</t>
+  </si>
+  <si>
+    <t>6. Chất gì trong lá cây giúp nó hấp thụ ánh sáng mặt trời để thực hiện quá trình quang hợp?</t>
+  </si>
+  <si>
+    <t>A. Clorophyll
+B. Protein
+C. Carbohydrate
+D. Vitamin</t>
+  </si>
+  <si>
+    <t>7. Quá trình nào dùng để xác định giới tính của một con người?</t>
+  </si>
+  <si>
+    <t>A. Tiếp xúc da
+B. Kiểm tra xương
+C. Xét nghiệm máu
+D. Xét nghiệm gen</t>
+  </si>
+  <si>
+    <t>8. Loài động vật nào sau đây có khả năng tái sinh các phần bị mất của cơ thể mình?</t>
+  </si>
+  <si>
+    <t>A. Con người
+B. Cá sấu
+C. Chim
+D. Bọ cạp</t>
+  </si>
+  <si>
+    <t>9. Các tế bào gốc làm việc trong cơ thể để thực hiện công việc gì?</t>
+  </si>
+  <si>
+    <t>A. Tiêu hóa thức ăn
+B. Tạo ra hormone
+C. Tái tạo và phục hồi các tế bào khác
+D. Phát triển cơ bắp</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t>Huy is very handsome, is’nt he?</t>
-  </si>
-  <si>
-    <t>A. Yes, he is
-B. Ofcourse
-C. No, I don’t think so</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>We will get A+ OOP, alright?</t>
-  </si>
-  <si>
-    <t>A. Ofcourse, we are
-B. No, it is terrible, we get A</t>
-  </si>
-  <si>
-    <t>Trường bị gay, đm nó</t>
-  </si>
-  <si>
-    <t>A. Ừ
-B. Không, nó thẳng như cây đũa vậy</t>
+    <t>10. Quá trình nào là quá trình giúp cây hấp thụ nước và chất dinh dưỡng từ đất?</t>
+  </si>
+  <si>
+    <t>A. Quang hợp
+B. Hô hấp
+C. Vận chuyển
+D. Hấp thụ</t>
+  </si>
+  <si>
+    <t>11. Quá trình trao đổi chất trong cơ thể xảy ra chủ yếu ở đâu?</t>
+  </si>
+  <si>
+    <t>A. Lá
+B. Thân cây
+C. Cành
+D. Rễ</t>
+  </si>
+  <si>
+    <t>12. Chất nào sau đây là chất chủ yếu tạo nên tế bào trong cơ thể chúng ta?</t>
+  </si>
+  <si>
+    <t>A. Carbohydrate
+B. Chất béo
+C. Protein
+D. Vitamin</t>
+  </si>
+  <si>
+    <t>13. Loại cơ quan nào sau đây chịu trách nhiệm điều tiết nhiệt độ trong cơ thể người?</t>
+  </si>
+  <si>
+    <t>A. Não
+B. Tim
+C. Phổi
+D. Gan</t>
+  </si>
+  <si>
+    <t>14. Loài động vật nào sau đây không có mắt?</t>
+  </si>
+  <si>
+    <t>A. Rắn
+B. Cá
+C. Bướm
+D. Dơi</t>
+  </si>
+  <si>
+    <t>15. Một tế bào dịch ngoại vi trong mắt giúp chúng ta nhìn rõ hơn vào ban đêm. Chất gì trong tế bào này giúp chúng phản xạ ánh sáng?</t>
+  </si>
+  <si>
+    <t>A. Rhodopsin
+B. Melatonin
+C. Hemoglobin
+D. Insulin</t>
+  </si>
+  <si>
+    <t>16. Quá trình nào sau đây giúp cây sản xuất thức ăn?</t>
+  </si>
+  <si>
+    <t>A. Quang hợp
+B. Hô hấp
+C. Tiêu hóa
+D. Tuần hoàn</t>
+  </si>
+  <si>
+    <t>17. Chất gì trong máu chịu trách nhiệm vận chuyển oxy đến các tế bào trong cơ thể?</t>
+  </si>
+  <si>
+    <t>A. Glucose
+B. Hemoglobin
+C. Insulin
+D. Antibody</t>
+  </si>
+  <si>
+    <t>18. Loài động vật nào sau đây có khả năng bay?</t>
+  </si>
+  <si>
+    <t>A. Cá
+B. Chim
+C. Cá heo
+D. Rùa</t>
+  </si>
+  <si>
+    <t>19. Quá trình nào sau đây giúp cây thải đi nước dư thừa qua lỗ chân lông trên lá?</t>
+  </si>
+  <si>
+    <t>A. Quang hợp
+B. Hô hấp
+C. Tuần hoàn
+D. Giao phối</t>
+  </si>
+  <si>
+    <t>20. Chất gì trong tinh trùng giúp nó di chuyển để thụ tinh trứng?</t>
+  </si>
+  <si>
+    <t>A. DNA
+B. Enzyme
+C. Hormone
+D. Flagellum</t>
+  </si>
+  <si>
+    <t>21. Loài động vật nào sau đây có lông để giữ ấm cơ thể?</t>
+  </si>
+  <si>
+    <t>A. Rắn
+B. Cá
+C. Bướm
+D. Chim</t>
+  </si>
+  <si>
+    <t>22. Quá trình nào sau đây giúp cây tiếp nhận carbon dioxide từ không khí?</t>
+  </si>
+  <si>
+    <t>23. Chất gì trong miễn dịch giúp phát hiện và tiêu diệt vi khuẩn và virus?</t>
+  </si>
+  <si>
+    <t>A. Antigen
+B. Antibody
+C. Hormone
+D. Enzyme</t>
+  </si>
+  <si>
+    <t>24. Chất gì trong miễn dịch giúp phát hiện và tiêu diệt vi khuẩn và virus?</t>
+  </si>
+  <si>
+    <t>25. Loại tế bào nào trong cơ thể chúng ta chịu trách nhiệm sản xuất insulin?</t>
+  </si>
+  <si>
+    <t>A. Tế bào thần kinh
+B. Tế bào da
+C. Tế bào cơ
+D. Tế bào beta</t>
+  </si>
+  <si>
+    <t>26. Quá trình nào sau đây giúp cây truyền gen từ thế hệ này sang thế hệ khác?</t>
+  </si>
+  <si>
+    <t>A. Quang hợp
+B. Hô hấp
+C. Giao phối
+D. Sinh sản asexually</t>
+  </si>
+  <si>
+    <t>27. Loài động vật nào sau đây có cấu tạo xương sò?</t>
+  </si>
+  <si>
+    <t>A. Cá
+B. Chim
+C. Rắn
+D. Rùa</t>
+  </si>
+  <si>
+    <t>28. Quá trình nào sau đây giúp cây tiếp nhận khoáng chất từ đất?</t>
+  </si>
+  <si>
+    <t>A. Quang hợp
+B. Hô hấp
+C. Tuần hoàn
+D. Hấp thụ</t>
+  </si>
+  <si>
+    <t>29. Các tế bào dịch ngoại vi trong mắt giúp chúng ta nhìn rõ hơn vào ban đêm. Chất gì trong tế bào này giúp chúng phản xạ ánh sáng?</t>
+  </si>
+  <si>
+    <t>30. Quá trình nào sau đây giúp cây tiếp nhận năng lượng mặt trời và chuyển đổi thành năng lượng hóa học?</t>
+  </si>
+  <si>
+    <t>A. Quang hợp
+B. Hô hấp
+C. Tuần hoàn
+D. Tiêu hóa</t>
+  </si>
+  <si>
+    <t>10-6-2023 12-00-00</t>
+  </si>
+  <si>
+    <t>10-7-2023 12-00-00</t>
+  </si>
+  <si>
+    <t>1,3,5,7,8,9,11,12,13,14,16,18,20,22,24,30</t>
+  </si>
+  <si>
+    <t>Kiem tra giua ki 1 cong nghe</t>
+  </si>
+  <si>
+    <t>Kiem tra giua ki 1 toan</t>
+  </si>
+  <si>
+    <t>12-6-2023 12-00-00</t>
+  </si>
+  <si>
+    <t>10-8-2023 12-00-00</t>
+  </si>
+  <si>
+    <t>1,4,5,7,8,9,10,12,13,14,16,18,20,22,24,30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -412,101 +684,857 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="94.54296875"/>
-    <col min="2" max="2" customWidth="true" width="101.54296875"/>
-    <col min="3" max="3" customWidth="true" width="5.1796875"/>
+    <col min="1" max="1" width="94.5703125" customWidth="1"/>
+    <col min="2" max="2" width="101.5703125" customWidth="1"/>
+    <col min="3" max="3" width="5.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s" s="0">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s" s="0">
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" t="s">
+        <v>33</v>
+      </c>
+      <c r="D56" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>66</v>
+      </c>
+      <c r="B57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" t="s">
+        <v>20</v>
+      </c>
+      <c r="D57" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>68</v>
+      </c>
+      <c r="B58" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>70</v>
+      </c>
+      <c r="B59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>71</v>
+      </c>
+      <c r="B60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -516,18 +1544,169 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7375D0D9-A088-4E33-84C0-F60360358F66}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="65.7265625"/>
-    <col min="2" max="2" customWidth="true" width="8.1796875"/>
+    <col min="1" max="1" width="65.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E57CE46-9D74-4C06-8F20-8319158C49B7}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="38.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1">
+        <v>2700</v>
+      </c>
+      <c r="E1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2">
+        <v>5400</v>
+      </c>
+      <c r="E2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/main/java/data/QuizTestAppData.xlsx
+++ b/src/main/java/data/QuizTestAppData.xlsx
@@ -5,95 +5,353 @@
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\btl oop\quiz-test-app\src\main\java\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Source\Java\OOP\quiz-test-app\src\main\java\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3995CCCF-3C53-4B61-A309-68FEC1E1369B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD12AC5-302B-4A74-A32E-C12CF571434D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QuestionBank" sheetId="1" r:id="rId1"/>
     <sheet name="Category" sheetId="2" r:id="rId2"/>
+    <sheet name="Quizzes" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
-  <si>
-    <t>What is the correct answer to this question? Dòng cuối cùng là dòng ANSWER, mô tả đáp án đúng. Sau từ ANSWER là một dấu hai chấm và một khoảng trắng, tiếp đến là một ký tự viết hoa sau cho ký tự này nằm trong danh sách các đáp án ở trên. Sau dòng ANSWER phải có một dòng trống</t>
-  </si>
-  <si>
-    <t>A. Is it this one?
-B. Maybe this answer?
-C. Possibly this one?
-D. Must be this one!</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="76">
+  <si>
+    <t>root/IT Course/Object Oriented Programing/Mid-term/45min-test</t>
+  </si>
+  <si>
+    <t>1. Tế bào làm việc trong cơ thể chúng ta bằng cách nào?</t>
+  </si>
+  <si>
+    <t>A. Chuyển đổi năng lượng hóa học thành năng lượng sinh học.
+B. Tạo ra thức ăn để cung cấp năng lượng cho cơ thể.
+C. Nhận dạng và phản ứng với các tác nhân môi trường.
+D. Nhận dạng và phản ứng với các tác nhân môi trường.`
+C. Nhận dạng và phản ứng với các tác nhân môi trường.
+D. Nhận dạng và phản ứng với các tác nhân môi trường.</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>2. Nước là một thành phần quan trọng của cơ thể con người. Nước chiếm tỷ lệ bao nhiêu phần trăm trọng lượng cơ thể trung bình?</t>
+  </si>
+  <si>
+    <t>A. 40-50%
+B. 60-70%
+C. 80-90%
+D. 100%</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>3. Loài nào sau đây là loài không có xương sống?</t>
+  </si>
+  <si>
+    <t>A. Chim
+B. Cá
+C. Cá heo
+D. Giun đất</t>
   </si>
   <si>
     <t>D</t>
   </si>
   <si>
-    <t>test ter</t>
-  </si>
-  <si>
-    <t>Which LMS has the most quiz import formats?</t>
-  </si>
-  <si>
-    <t>A. Moodle
-B. ATutor
-C. Claroline
-D. Blackboard
-E. WebCT</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Why did the chicken cross the road?</t>
-  </si>
-  <si>
-    <t>A. To get to the other side
-B. It wanted to live dangerously
-C. It saw Frank Perdue coming
-D. No one knows
-E. No one cares
-F. sjsjjsjs
-G. hshshssuus</t>
+    <t>4. Quá trình tiêu hóa thức ăn diễn ra chủ yếu ở đâu trong cơ thể người?</t>
+  </si>
+  <si>
+    <t>A. Dạ dày
+B. Ruột non
+C. Miệng
+D. Dạ con</t>
+  </si>
+  <si>
+    <t>5. Trong quá trình hô hấp, oxy được hấp thụ qua các mô nào?</t>
+  </si>
+  <si>
+    <t>A. Mạch máu
+B. Da
+C. Xương
+D. Gan
+B. Da
+C. Xương
+D. Gan</t>
+  </si>
+  <si>
+    <t>6. Chất gì trong lá cây giúp nó hấp thụ ánh sáng mặt trời để thực hiện quá trình quang hợp?</t>
+  </si>
+  <si>
+    <t>A. Clorophyll
+B. Protein
+C. Carbohydrate
+D. Vitamin</t>
+  </si>
+  <si>
+    <t>7. Quá trình nào dùng để xác định giới tính của một con người?</t>
+  </si>
+  <si>
+    <t>A. Tiếp xúc da
+B. Kiểm tra xương
+C. Xét nghiệm máu
+D. Xét nghiệm gen</t>
+  </si>
+  <si>
+    <t>8. Loài động vật nào sau đây có khả năng tái sinh các phần bị mất của cơ thể mình?</t>
+  </si>
+  <si>
+    <t>A. Con người
+B. Cá sấu
+C. Chim
+D. Bọ cạp</t>
+  </si>
+  <si>
+    <t>9. Các tế bào gốc làm việc trong cơ thể để thực hiện công việc gì?</t>
+  </si>
+  <si>
+    <t>A. Tiêu hóa thức ăn
+B. Tạo ra hormone
+C. Tái tạo và phục hồi các tế bào khác
+D. Phát triển cơ bắp</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t>Huy is very handsome, is’nt he?</t>
-  </si>
-  <si>
-    <t>A. Yes, he is
-B. Ofcourse
-C. No, I don’t think so</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>We will get A+ OOP, alright?</t>
-  </si>
-  <si>
-    <t>A. Ofcourse, we are
-B. No, it is terrible, we get A</t>
-  </si>
-  <si>
-    <t>Trường bị gay, đm nó</t>
-  </si>
-  <si>
-    <t>A. Ừ
-B. Không, nó thẳng như cây đũa vậy</t>
+    <t>10. Quá trình nào là quá trình giúp cây hấp thụ nước và chất dinh dưỡng từ đất?</t>
+  </si>
+  <si>
+    <t>A. Quang hợp
+B. Hô hấp
+C. Vận chuyển
+D. Hấp thụ</t>
+  </si>
+  <si>
+    <t>11. Quá trình trao đổi chất trong cơ thể xảy ra chủ yếu ở đâu?</t>
+  </si>
+  <si>
+    <t>A. Lá
+B. Thân cây
+C. Cành
+D. Rễ</t>
+  </si>
+  <si>
+    <t>12. Chất nào sau đây là chất chủ yếu tạo nên tế bào trong cơ thể chúng ta?</t>
+  </si>
+  <si>
+    <t>A. Carbohydrate
+B. Chất béo
+C. Protein
+D. Vitamin</t>
+  </si>
+  <si>
+    <t>13. Loại cơ quan nào sau đây chịu trách nhiệm điều tiết nhiệt độ trong cơ thể người?</t>
+  </si>
+  <si>
+    <t>A. Não
+B. Tim
+C. Phổi
+D. Gan</t>
+  </si>
+  <si>
+    <t>14. Loài động vật nào sau đây không có mắt?</t>
+  </si>
+  <si>
+    <t>A. Rắn
+B. Cá
+C. Bướm
+D. Dơi</t>
+  </si>
+  <si>
+    <t>15. Một tế bào dịch ngoại vi trong mắt giúp chúng ta nhìn rõ hơn vào ban đêm. Chất gì trong tế bào này giúp chúng phản xạ ánh sáng?</t>
+  </si>
+  <si>
+    <t>A. Rhodopsin
+B. Melatonin
+C. Hemoglobin
+D. Insulin</t>
+  </si>
+  <si>
+    <t>16. Quá trình nào sau đây giúp cây sản xuất thức ăn?</t>
+  </si>
+  <si>
+    <t>A. Quang hợp
+B. Hô hấp
+C. Tiêu hóa
+D. Tuần hoàn</t>
+  </si>
+  <si>
+    <t>17. Chất gì trong máu chịu trách nhiệm vận chuyển oxy đến các tế bào trong cơ thể?</t>
+  </si>
+  <si>
+    <t>A. Glucose
+B. Hemoglobin
+C. Insulin
+D. Antibody</t>
+  </si>
+  <si>
+    <t>18. Loài động vật nào sau đây có khả năng bay?</t>
+  </si>
+  <si>
+    <t>A. Cá
+B. Chim
+C. Cá heo
+D. Rùa</t>
+  </si>
+  <si>
+    <t>19. Quá trình nào sau đây giúp cây thải đi nước dư thừa qua lỗ chân lông trên lá?</t>
+  </si>
+  <si>
+    <t>A. Quang hợp
+B. Hô hấp
+C. Tuần hoàn
+D. Giao phối</t>
+  </si>
+  <si>
+    <t>20. Chất gì trong tinh trùng giúp nó di chuyển để thụ tinh trứng?</t>
+  </si>
+  <si>
+    <t>A. DNA
+B. Enzyme
+C. Hormone
+D. Flagellum</t>
+  </si>
+  <si>
+    <t>21. Loài động vật nào sau đây có lông để giữ ấm cơ thể?</t>
+  </si>
+  <si>
+    <t>A. Rắn
+B. Cá
+C. Bướm
+D. Chim</t>
+  </si>
+  <si>
+    <t>22. Quá trình nào sau đây giúp cây tiếp nhận carbon dioxide từ không khí?</t>
+  </si>
+  <si>
+    <t>23. Chất gì trong miễn dịch giúp phát hiện và tiêu diệt vi khuẩn và virus?</t>
+  </si>
+  <si>
+    <t>A. Antigen
+B. Antibody
+C. Hormone
+D. Enzyme</t>
+  </si>
+  <si>
+    <t>24. Chất gì trong miễn dịch giúp phát hiện và tiêu diệt vi khuẩn và virus?</t>
+  </si>
+  <si>
+    <t>25. Loại tế bào nào trong cơ thể chúng ta chịu trách nhiệm sản xuất insulin?</t>
+  </si>
+  <si>
+    <t>A. Tế bào thần kinh
+B. Tế bào da
+C. Tế bào cơ
+D. Tế bào beta</t>
+  </si>
+  <si>
+    <t>26. Quá trình nào sau đây giúp cây truyền gen từ thế hệ này sang thế hệ khác?</t>
+  </si>
+  <si>
+    <t>A. Quang hợp
+B. Hô hấp
+C. Giao phối
+D. Sinh sản asexually</t>
+  </si>
+  <si>
+    <t>27. Loài động vật nào sau đây có cấu tạo xương sò?</t>
+  </si>
+  <si>
+    <t>A. Cá
+B. Chim
+C. Rắn
+D. Rùa</t>
+  </si>
+  <si>
+    <t>28. Quá trình nào sau đây giúp cây tiếp nhận khoáng chất từ đất?</t>
+  </si>
+  <si>
+    <t>A. Quang hợp
+B. Hô hấp
+C. Tuần hoàn
+D. Hấp thụ</t>
+  </si>
+  <si>
+    <t>29. Các tế bào dịch ngoại vi trong mắt giúp chúng ta nhìn rõ hơn vào ban đêm. Chất gì trong tế bào này giúp chúng phản xạ ánh sáng?</t>
+  </si>
+  <si>
+    <t>30. Quá trình nào sau đây giúp cây tiếp nhận năng lượng mặt trời và chuyển đổi thành năng lượng hóa học?</t>
+  </si>
+  <si>
+    <t>A. Quang hợp
+B. Hô hấp
+C. Tuần hoàn
+D. Tiêu hóa</t>
+  </si>
+  <si>
+    <t>10-6-2023 12-00-00</t>
+  </si>
+  <si>
+    <t>10-7-2023 12-00-00</t>
+  </si>
+  <si>
+    <t>1,3,5,7,8,9,11,12,13,14,16,18,20,22,24,30</t>
+  </si>
+  <si>
+    <t>Kiem tra giua ki 1 cong nghe</t>
+  </si>
+  <si>
+    <t>Kiem tra giua ki 1 toan</t>
+  </si>
+  <si>
+    <t>12-6-2023 12-00-00</t>
+  </si>
+  <si>
+    <t>10-8-2023 12-00-00</t>
+  </si>
+  <si>
+    <t>1,4,5,7,8,9,10,12,13,14,16,18,20,22,24,30</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
+    <t>bai1`bai2</t>
+  </si>
+  <si>
+    <t>bai1</t>
+  </si>
+  <si>
+    <t>undefine</t>
+  </si>
+  <si>
+    <t>bai2</t>
+  </si>
+  <si>
+    <t>bai2.1</t>
   </si>
 </sst>
 </file>
@@ -412,39 +670,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="94.54296875"/>
-    <col min="2" max="2" customWidth="true" width="101.54296875"/>
-    <col min="3" max="3" customWidth="true" width="5.1796875"/>
+    <col min="1" max="1" customWidth="true" width="94.5703125"/>
+    <col min="2" max="2" customWidth="true" width="101.5703125"/>
+    <col min="3" max="3" customWidth="true" width="5.140625"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>6</v>
@@ -453,12 +711,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s" s="0">
         <v>7</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>9</v>
@@ -467,46 +725,802 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s" s="0">
         <v>10</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s" s="0">
         <v>11</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="B5" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s" s="0">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="D5" t="s" s="0">
+      <c r="D17" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D26" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D28" t="s" s="0">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D30" t="s" s="0">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D31" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D33" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D35" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s" s="0">
         <v>14</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
+      <c r="B36" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D36" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B6" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s" s="0">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D37" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D38" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D39" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D40" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D41" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D42" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D43" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C44" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D44" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D45" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D46" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="D6" t="s" s="0">
-        <v>16</v>
+      <c r="D47" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C48" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D48" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C49" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D49" t="s" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C50" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D50" t="s" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C51" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D51" t="s" s="0">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C52" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D52" t="s" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C53" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D53" t="s" s="0">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C54" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D54" t="s" s="0">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C55" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D55" t="s" s="0">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C56" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D56" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C57" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D57" t="s" s="0">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C58" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D58" t="s" s="0">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C59" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D59" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C60" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D60" t="s" s="0">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -516,18 +1530,117 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7375D0D9-A088-4E33-84C0-F60360358F66}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="65.7265625"/>
-    <col min="2" max="2" customWidth="true" width="8.1796875"/>
+    <col min="1" max="1" customWidth="true" width="25.7109375"/>
+    <col min="2" max="2" customWidth="true" width="16.42578125"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>120.0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="C2" s="0">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>60.0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E57CE46-9D74-4C06-8F20-8319158C49B7}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="35.5703125"/>
+    <col min="2" max="2" customWidth="true" width="19.28515625"/>
+    <col min="3" max="3" customWidth="true" width="17.42578125"/>
+    <col min="5" max="5" customWidth="true" width="38.7109375"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="D1" s="0">
+        <v>2700</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="D2" s="0">
+        <v>5400</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/main/java/data/QuizTestAppData.xlsx
+++ b/src/main/java/data/QuizTestAppData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\btl oop\quiz-test-app\src\main\java\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3995CCCF-3C53-4B61-A309-68FEC1E1369B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD84334-74F5-411D-962B-A46DF7E34CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QuestionBank" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="74">
   <si>
     <t>What is the correct answer to this question? Dòng cuối cùng là dòng ANSWER, mô tả đáp án đúng. Sau từ ANSWER là một dấu hai chấm và một khoảng trắng, tiếp đến là một ký tự viết hoa sau cho ký tự này nằm trong danh sách các đáp án ở trên. Sau dòng ANSWER phải có một dòng trống</t>
   </si>
@@ -94,6 +94,276 @@
   <si>
     <t>A. Ừ
 B. Không, nó thẳng như cây đũa vậy</t>
+  </si>
+  <si>
+    <t>Quá trình tiêu hóa thức ăn diễn ra chủ yếu ở đâu trong cơ thể người?</t>
+  </si>
+  <si>
+    <t>A. Dạ dày
+B. Ruột non
+C. Miệng
+D. Dạ con</t>
+  </si>
+  <si>
+    <t>Chất gì trong lá cây giúp nó hấp thụ ánh sáng mặt trời để thực hiện quá trình quang hợp?</t>
+  </si>
+  <si>
+    <t>A. Clorophyll
+B. Protein
+C. Carbohydrate
+D. Vitamin</t>
+  </si>
+  <si>
+    <t>Quá trình nào dùng để xác định giới tính của một con người?</t>
+  </si>
+  <si>
+    <t>A. Tiếp xúc da
+B. Kiểm tra xương
+C. Xét nghiệm máu
+D. Xét nghiệm gen</t>
+  </si>
+  <si>
+    <t>Loài động vật nào sau đây có khả năng tái sinh các phần bị mất của cơ thể mình?</t>
+  </si>
+  <si>
+    <t>A. Con người
+B. Cá sấu
+C. Chim
+D. Bọ cạp</t>
+  </si>
+  <si>
+    <t>Các tế bào gốc làm việc trong cơ thể để thực hiện công việc gì?</t>
+  </si>
+  <si>
+    <t>A. Tiêu hóa thức ăn
+B. Tạo ra hormone
+C. Tái tạo và phục hồi các tế bào khác
+D. Phát triển cơ bắp</t>
+  </si>
+  <si>
+    <t>Quá trình nào là quá trình giúp cây hấp thụ nước và chất dinh dưỡng từ đất?</t>
+  </si>
+  <si>
+    <t>A. Quang hợp
+B. Hô hấp
+C. Vận chuyển
+D. Hấp thụ</t>
+  </si>
+  <si>
+    <t>Quá trình trao đổi chất trong cơ thể xảy ra chủ yếu ở đâu?</t>
+  </si>
+  <si>
+    <t>A. Lá
+B. Thân cây
+C. Cành
+D. Rễ</t>
+  </si>
+  <si>
+    <t>12. Chất nào sau đây là chất chủ yếu tạo nên tế bào trong cơ thể chúng ta?</t>
+  </si>
+  <si>
+    <t>A. Carbohydrate
+B. Chất béo
+C. Protein
+D. Vitamin</t>
+  </si>
+  <si>
+    <t>13. Loại cơ quan nào sau đây chịu trách nhiệm điều tiết nhiệt độ trong cơ thể người?</t>
+  </si>
+  <si>
+    <t>A. Não
+B. Tim
+C. Phổi
+D. Gan</t>
+  </si>
+  <si>
+    <t>Loài động vật nào sau đây không có mắt?</t>
+  </si>
+  <si>
+    <t>A. Rắn
+B. Cá
+C. Bướm
+D. Dơi</t>
+  </si>
+  <si>
+    <t>Một tế bào dịch ngoại vi trong mắt giúp chúng ta nhìn rõ hơn vào ban đêm. Chất gì trong tế bào này giúp chúng phản xạ ánh sáng?</t>
+  </si>
+  <si>
+    <t>A. Rhodopsin
+B. Melatonin
+C. Hemoglobin
+D. Insulin</t>
+  </si>
+  <si>
+    <t>16. Quá trình nào sau đây giúp cây sản xuất thức ăn?</t>
+  </si>
+  <si>
+    <t>A. Quang hợp
+B. Hô hấp
+C. Tiêu hóa
+D. Tuần hoàn</t>
+  </si>
+  <si>
+    <t>17. Chất gì trong máu chịu trách nhiệm vận chuyển oxy đến các tế bào trong cơ thể?</t>
+  </si>
+  <si>
+    <t>A. Glucose
+B. Hemoglobin
+C. Insulin
+D. Antibody</t>
+  </si>
+  <si>
+    <t>18. Loài động vật nào sau đây có khả năng bay?</t>
+  </si>
+  <si>
+    <t>A. Cá
+B. Chim
+C. Cá heo
+D. Rùa</t>
+  </si>
+  <si>
+    <t>19. Quá trình nào sau đây giúp cây thải đi nước dư thừa qua lỗ chân lông trên lá?</t>
+  </si>
+  <si>
+    <t>A. Quang hợp
+B. Hô hấp
+C. Tuần hoàn
+D. Giao phối</t>
+  </si>
+  <si>
+    <t>20. Chất gì trong tinh trùng giúp nó di chuyển để thụ tinh trứng?</t>
+  </si>
+  <si>
+    <t>A. DNA
+B. Enzyme
+C. Hormone
+D. Flagellum</t>
+  </si>
+  <si>
+    <t>21. Loài động vật nào sau đây có lông để giữ ấm cơ thể?</t>
+  </si>
+  <si>
+    <t>A. Rắn
+B. Cá
+C. Bướm
+D. Chim</t>
+  </si>
+  <si>
+    <t>22. Quá trình nào sau đây giúp cây tiếp nhận carbon dioxide từ không khí?</t>
+  </si>
+  <si>
+    <t>23. Chất gì trong miễn dịch giúp phát hiện và tiêu diệt vi khuẩn và virus?</t>
+  </si>
+  <si>
+    <t>A. Antigen
+B. Antibody
+C. Hormone
+D. Enzyme</t>
+  </si>
+  <si>
+    <t>25. Loại tế bào nào trong cơ thể chúng ta chịu trách nhiệm sản xuất insulin?</t>
+  </si>
+  <si>
+    <t>A. Tế bào thần kinh
+B. Tế bào da
+C. Tế bào cơ
+D. Tế bào beta</t>
+  </si>
+  <si>
+    <t>26. Quá trình nào sau đây giúp cây truyền gen từ thế hệ này sang thế hệ khác?</t>
+  </si>
+  <si>
+    <t>A. Quang hợp
+B. Hô hấp
+C. Giao phối
+D. Sinh sản asexually</t>
+  </si>
+  <si>
+    <t>27. Loài động vật nào sau đây có cấu tạo xương sò?</t>
+  </si>
+  <si>
+    <t>A. Cá
+B. Chim
+C. Rắn
+D. Rùa</t>
+  </si>
+  <si>
+    <t>28. Quá trình nào sau đây giúp cây tiếp nhận khoáng chất từ đất?</t>
+  </si>
+  <si>
+    <t>A. Quang hợp
+B. Hô hấp
+C. Tuần hoàn
+D. Hấp thụ</t>
+  </si>
+  <si>
+    <t>29. Các tế bào dịch ngoại vi trong mắt giúp chúng ta nhìn rõ hơn vào ban đêm. Chất gì trong tế bào này giúp chúng phản xạ ánh sáng?</t>
+  </si>
+  <si>
+    <t>30. Quá trình nào sau đây giúp cây tiếp nhận năng lượng mặt trời và chuyển đổi thành năng lượng hóa học?</t>
+  </si>
+  <si>
+    <t>A. Quang hợp
+B. Hô hấp
+C. Tuần hoàn
+D. Tiêu hóa</t>
+  </si>
+  <si>
+    <t>When is Huy's birth day?</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+A. 19/8
+B. 20/8
+C. 21/8
+D. 22/8
+null
+null
+null
+null
+null
+null</t>
+  </si>
+  <si>
+    <t>This is a question</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+A. 1
+B. 2
+C. 3
+D. 4
+null
+null
+null
+null
+null
+null</t>
+  </si>
+  <si>
+    <t>This is a test question</t>
+  </si>
+  <si>
+    <t>This is a blue question</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+A. bla blo ble
+B. CCluee
+C. BLomm
+D. Slam
+null
+null
+null
+null
+null
+null</t>
   </si>
 </sst>
 </file>
@@ -412,20 +682,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D147"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="94.54296875"/>
-    <col min="2" max="2" customWidth="true" width="101.54296875"/>
-    <col min="3" max="3" customWidth="true" width="5.1796875"/>
+    <col min="1" max="1" customWidth="true" width="94.5546875"/>
+    <col min="2" max="2" customWidth="true" width="101.5546875"/>
+    <col min="3" max="3" customWidth="true" width="5.21875"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
@@ -439,7 +709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
@@ -453,7 +723,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s" s="0">
         <v>7</v>
       </c>
@@ -467,7 +737,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s" s="0">
         <v>10</v>
       </c>
@@ -481,7 +751,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s" s="0">
         <v>13</v>
       </c>
@@ -495,7 +765,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s" s="0">
         <v>15</v>
       </c>
@@ -509,6 +779,1824 @@
         <v>16</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s" s="0">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s" s="0">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s" s="0">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="D33" t="s" s="0">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="D34" t="s" s="0">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="D35" t="s" s="0">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D36" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D37" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D40" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D41" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D42" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D43" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D44" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D46" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D47" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D48" t="s" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C49" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D49" t="s" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D50" t="s" s="0">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C51" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D51" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C52" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D52" t="s" s="0">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D53" t="s" s="0">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C54" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D54" t="s" s="0">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C55" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D55" t="s" s="0">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C56" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D56" t="s" s="0">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C57" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D57" t="s" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C58" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D58" t="s" s="0">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D59" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C60" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D60" t="s" s="0">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="61"/>
+    <row r="62"/>
+    <row r="63"/>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B64" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C64" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D64" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B65" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C65" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D65" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B66" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C66" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D66" t="s" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B67" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C67" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D67" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B68" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C68" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D68" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C69" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D69" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C70" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D70" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B71" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C71" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D71" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="B72" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C72" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D72" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B73" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C73" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D73" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="B74" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C74" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D74" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B75" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C75" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D75" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B76" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C76" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D76" t="s" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B77" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C77" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D77" t="s" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B78" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C78" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D78" t="s" s="0">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B79" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C79" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D79" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B80" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C80" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D80" t="s" s="0">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B81" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C81" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D81" t="s" s="0">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B82" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C82" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D82" t="s" s="0">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B83" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C83" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D83" t="s" s="0">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="B84" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C84" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D84" t="s" s="0">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B85" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C85" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D85" t="s" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="B86" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C86" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D86" t="s" s="0">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="B87" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C87" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D87" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="B88" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C88" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D88" t="s" s="0">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="89"/>
+    <row r="90"/>
+    <row r="91"/>
+    <row r="92">
+      <c r="A92" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B92" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C92" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D92" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B93" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C93" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D93" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B94" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C94" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D94" t="s" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B95" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C95" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D95" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B96" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C96" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D96" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B97" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C97" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D97" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B98" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C98" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D98" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B99" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C99" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D99" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="B100" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C100" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D100" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B101" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C101" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D101" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="B102" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C102" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D102" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B103" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C103" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D103" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B104" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C104" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D104" t="s" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B105" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C105" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D105" t="s" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B106" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C106" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D106" t="s" s="0">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B107" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C107" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D107" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B108" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C108" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D108" t="s" s="0">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B109" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C109" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D109" t="s" s="0">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B110" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C110" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D110" t="s" s="0">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B111" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C111" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D111" t="s" s="0">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="B112" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C112" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D112" t="s" s="0">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B113" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C113" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D113" t="s" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="B114" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C114" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D114" t="s" s="0">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="B115" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C115" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D115" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="B116" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C116" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D116" t="s" s="0">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="117"/>
+    <row r="118"/>
+    <row r="119"/>
+    <row r="120">
+      <c r="A120" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B120" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C120" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D120" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B121" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C121" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D121" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B122" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C122" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D122" t="s" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B123" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C123" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D123" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B124" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C124" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D124" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B125" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C125" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D125" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B126" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C126" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D126" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B127" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C127" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D127" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="B128" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C128" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D128" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B129" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C129" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D129" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="B130" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C130" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D130" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B131" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C131" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D131" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B132" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C132" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D132" t="s" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B133" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C133" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D133" t="s" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B134" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C134" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D134" t="s" s="0">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B135" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C135" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D135" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B136" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C136" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D136" t="s" s="0">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B137" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C137" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D137" t="s" s="0">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B138" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C138" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D138" t="s" s="0">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B139" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C139" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D139" t="s" s="0">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="B140" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C140" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D140" t="s" s="0">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B141" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C141" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D141" t="s" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="B142" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C142" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D142" t="s" s="0">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="B143" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C143" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D143" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="B144" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C144" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D144" t="s" s="0">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="145"/>
+    <row r="146"/>
+    <row r="147"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -518,14 +2606,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7375D0D9-A088-4E33-84C0-F60360358F66}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="65.7265625"/>
-    <col min="2" max="2" customWidth="true" width="8.1796875"/>
+    <col min="1" max="1" customWidth="true" width="65.77734375"/>
+    <col min="2" max="2" customWidth="true" width="8.21875"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/java/data/QuizTestAppData.xlsx
+++ b/src/main/java/data/QuizTestAppData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Source\Java\OOP\quiz-test-app\src\main\java\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD12AC5-302B-4A74-A32E-C12CF571434D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A96E83C-0E56-4C09-83D0-DFFEFBDC63C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4185" yWindow="1290" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QuestionBank" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="82">
   <si>
     <t>root/IT Course/Object Oriented Programing/Mid-term/45min-test</t>
   </si>
@@ -336,22 +336,40 @@
     <t>1,4,5,7,8,9,10,12,13,14,16,18,20,22,24,30</t>
   </si>
   <si>
+    <t>root/IT Course</t>
+  </si>
+  <si>
+    <t>root/IT Course/Computer Achitechture</t>
+  </si>
+  <si>
+    <t>root/IT Course/Operating System</t>
+  </si>
+  <si>
+    <t>root/IT Course/Object Oriented Programing</t>
+  </si>
+  <si>
+    <t>root/IT Course/Computer Achitechture/Mid-term</t>
+  </si>
+  <si>
+    <t>root/IT Course/Computer Achitechture/Final-term</t>
+  </si>
+  <si>
+    <t>root/IT Course/Operating System/Mid term</t>
+  </si>
+  <si>
+    <t>root/IT Course/Operating System/Final term</t>
+  </si>
+  <si>
+    <t>root/IT Course/Object Oriented Programing/Mid-term</t>
+  </si>
+  <si>
+    <t>root/IT Course/Object Oriented Programing/Mid-term/Final-term</t>
+  </si>
+  <si>
     <t>root</t>
   </si>
   <si>
-    <t>bai1`bai2</t>
-  </si>
-  <si>
-    <t>bai1</t>
-  </si>
-  <si>
-    <t>undefine</t>
-  </si>
-  <si>
-    <t>bai2</t>
-  </si>
-  <si>
-    <t>bai2.1</t>
+    <t>root/Other</t>
   </si>
 </sst>
 </file>
@@ -1530,60 +1548,120 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7375D0D9-A088-4E33-84C0-F60360358F66}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="25.7109375"/>
+    <col min="1" max="1" customWidth="true" width="66.28515625"/>
     <col min="2" max="2" customWidth="true" width="16.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>102.0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B3" s="0" t="n">
+        <v>101.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="C1" s="0" t="n">
-        <v>120.0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s" s="0">
+      <c r="B4" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B5" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="C2" s="0">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s" s="0">
+      <c r="B6" s="0" t="n">
+        <v>51.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B7" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="C3" s="0" t="n">
-        <v>60.0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s" s="0">
-        <v>75</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>73</v>
-      </c>
-      <c r="C4" t="n" s="0">
-        <v>60.0</v>
+      <c r="B8" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="B9" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="B10" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="B12" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B13" t="n" s="0">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
@@ -1593,9 +1671,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E57CE46-9D74-4C06-8F20-8319158C49B7}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1639,6 +1719,40 @@
         <v>69</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="D3" s="0">
+        <v>2700</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="D4" s="0">
+        <v>5400</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/src/main/java/data/QuizTestAppData.xlsx
+++ b/src/main/java/data/QuizTestAppData.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="86">
   <si>
     <t>root/IT Course/Object Oriented Programing/Mid-term/45min-test</t>
   </si>
@@ -370,6 +370,21 @@
   </si>
   <si>
     <t>root/Other</t>
+  </si>
+  <si>
+    <t>dasdas</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>dasd
+dasd</t>
+  </si>
+  <si>
+    <t>A. dep trai vl
+B. dasdsd
+C. dong nay co 5 chu</t>
   </si>
 </sst>
 </file>
@@ -843,16 +858,16 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s" s="0">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>26</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">

--- a/src/main/java/data/QuizTestAppData.xlsx
+++ b/src/main/java/data/QuizTestAppData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\btl oop\quiz-test-app\src\main\java\data\"/>
     </mc:Choice>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="453">
   <si>
     <t>root/IT Course/Object Oriented Programing/Mid-term/45min-test</t>
   </si>
@@ -609,11 +609,1277 @@
 B. Microsoft Excel
 C. Adobe Illustrator</t>
   </si>
+  <si>
+    <t>Thành phố nào là thủ đô của Brazil?</t>
+  </si>
+  <si>
+    <t>A. Brasília
+B. Rio de Janeiro
+C. São Paulo</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Dòng sông nổi tiếng chảy qua thung lũng lịch sử nổi tiếng Mesopotamia là:</t>
+  </si>
+  <si>
+    <t>A. Sông Amazon
+B. Sông Nile
+C. Sông Eufrat</t>
+  </si>
+  <si>
+    <t>Đồng bằng nổi tiếng và phù hợp cho nông nghiệp nằm ở miền Bắc Việt Nam là:</t>
+  </si>
+  <si>
+    <t>A. Đồng bằng Sông Cửu Long
+B. Đồng bằng Sông Hồng
+C. Đồng bằng Sông Mê Kông</t>
+  </si>
+  <si>
+    <t>Quốc gia nào không nằm ở châu Á?</t>
+  </si>
+  <si>
+    <t>A. Nhật Bản
+B. Ấn Độ
+C. Brazil</t>
+  </si>
+  <si>
+    <t>Thành phố lớn nhất nước Mỹ là:</t>
+  </si>
+  <si>
+    <t>A. New York
+B. Los Angeles
+C. Chicago</t>
+  </si>
+  <si>
+    <t>Quốc gia nằm ở Đông Nam Á, có thủ đô là Jakarta là:</t>
+  </si>
+  <si>
+    <t>A. Indonesia
+B. Malaysia
+C. Philippines</t>
+  </si>
+  <si>
+    <t>Đỉnh núi nổi tiếng ở châu Phi là:</t>
+  </si>
+  <si>
+    <t>A. Everest
+B. Kilimanjaro
+C. Mont Blanc</t>
+  </si>
+  <si>
+    <t>Quốc gia nào nằm ở Bán đảo Iberia?</t>
+  </si>
+  <si>
+    <t>A. Tây Ban Nha
+B. Italia
+C. Hy Lạp</t>
+  </si>
+  <si>
+    <t>Đảo nổi tiếng với tượng chúa Kitô Vua là:</t>
+  </si>
+  <si>
+    <t>A. Đảo Hawaii
+B. Đảo Jeju
+C. Đảo Corcovado</t>
+  </si>
+  <si>
+    <t>Thành phố nổi tiếng với Cung điện Buckingham là:</t>
+  </si>
+  <si>
+    <t>A. Paris
+B. London
+C. Moscow</t>
+  </si>
+  <si>
+    <t>Quốc gia nào có dân số đông nhất thế giới?</t>
+  </si>
+  <si>
+    <t>A. Trung Quốc
+B. Ấn Độ
+C. Mỹ</t>
+  </si>
+  <si>
+    <t>Dòng sông Mississippi chảy qua bao nhiêu bang của Mỹ?</t>
+  </si>
+  <si>
+    <t>A. 1
+B. 2
+C. 3</t>
+  </si>
+  <si>
+    <t>Thành phố nào là thủ đô của Ý?</t>
+  </si>
+  <si>
+    <t>A. Roma
+B. Milano
+C. Napoli</t>
+  </si>
+  <si>
+    <t>Đảo nằm giữa biển Địa Trung Hải và được biết đến với cung điện Alhambra là:</t>
+  </si>
+  <si>
+    <t>A. Đảo Balearic
+B. Đảo Corsica
+C. Đảo Sicily</t>
+  </si>
+  <si>
+    <t>Hệ thống đường sắt lớn nhất châu Âu là:</t>
+  </si>
+  <si>
+    <t>A. Eurostar
+B. TGV
+C. Trans-Siberian</t>
+  </si>
+  <si>
+    <t>Quốc gia nào là quê hương của đền Taj Mahal?</t>
+  </si>
+  <si>
+    <t>A. Ấn Độ
+B. Trung Quốc
+C. Nhật Bản</t>
+  </si>
+  <si>
+    <t>Dải đất hẹp nằm giữa biển Đen và biển Địa Trung Hải là:</t>
+  </si>
+  <si>
+    <t>A. Bán đảo Balkan
+B. Bán đảo Iberia
+C. Bán đảo Scandinavia</t>
+  </si>
+  <si>
+    <t>Núi lửa Vesuvius nằm ở quốc gia nào?</t>
+  </si>
+  <si>
+    <t>A. Ý
+B. Tây Ban Nha
+C. Hy Lạp</t>
+  </si>
+  <si>
+    <t>Quốc gia nào là quê hương của vịnh Hạ Long?</t>
+  </si>
+  <si>
+    <t>A. Việt Nam
+B. Thái Lan
+C. Indonesia</t>
+  </si>
+  <si>
+    <t>Dải đất hẹp nằm giữa biển Caribe và Đại Tây Dương là:</t>
+  </si>
+  <si>
+    <t>A. Bán đảo Florida
+B. Bán đảo Yucatan
+C. Bán đảo Labrador</t>
+  </si>
+  <si>
+    <t>Thành phố nào được gọi là "thành phố không bao giờ ngủ"?</t>
+  </si>
+  <si>
+    <t>A. Tokyo
+B. New York
+C. London</t>
+  </si>
+  <si>
+    <t>Đồng bằng lớn nhất thế giới là:</t>
+  </si>
+  <si>
+    <t>A. Đồng bằng Sông Cửu Long
+B. Đồng bằng Ganges-Brahmaputra
+C. Đồng bằng Amazon</t>
+  </si>
+  <si>
+    <t>Quốc gia nào là quê hương của vùng đất tuyết Alaska?</t>
+  </si>
+  <si>
+    <t>A. Canada
+B. Mỹ
+C. Nga</t>
+  </si>
+  <si>
+    <t>Đảo nổi tiếng với khối núi Phật A Di Đà là:</t>
+  </si>
+  <si>
+    <t>A. Đảo Bali
+B. Đảo Lombok
+C. Đảo Jeju</t>
+  </si>
+  <si>
+    <t>Dòng sông nào là dòng sông dài nhất châu Á?</t>
+  </si>
+  <si>
+    <t>A. Sông Mekong
+B. Sông Ganges
+C. Sông Yangtze</t>
+  </si>
+  <si>
+    <t>Quốc gia nào nằm ở Bắc Âu?</t>
+  </si>
+  <si>
+    <t>A. Phần Lan
+B. Hà Lan
+C. Đan Mạch</t>
+  </si>
+  <si>
+    <t>Quốc gia nào nằm ở khu vực Đông Nam Á?</t>
+  </si>
+  <si>
+    <t>A. Argentina
+B. Malaysia
+C. Ba Lan</t>
+  </si>
+  <si>
+    <t>Đại ngàn nổi tiếng của Việt Nam là:</t>
+  </si>
+  <si>
+    <t>A. Đại Sơn
+B. Trường Sơn
+C. Trường Giang</t>
+  </si>
+  <si>
+    <t>Nước nào là quốc gia lớn nhất thế giới về diện tích?</t>
+  </si>
+  <si>
+    <t>A. Nga
+B. Trung Quốc
+C. Mỹ</t>
+  </si>
+  <si>
+    <t>Kênh đào nổi tiếng nằm ở Ai Cập là:</t>
+  </si>
+  <si>
+    <t>A. Kênh Panama
+B. Kênh Suez
+C. Kênh Kiel</t>
+  </si>
+  <si>
+    <t>Theo em đâu là phát biểu đúng về mô tả hệ thống sau đây:</t>
+  </si>
+  <si>
+    <t>Một ban quản lý xây dựng của phường cần có phần mềm lưu trữ thông tin của các công trình xây dựng trên địa bàn. Một công trình (Building) có các thông số về diện tích (sqr kiểu double), số định danh (id kiểu String) và địa chỉ (adr kiểu String) và số người sống trong công trình (peo kiểu int). </t>
+  </si>
+  <si>
+    <t>A. Lớp Building có 5 thuộc tính tất cả.
+B. Lớp Building có 1 thuộc tính tĩnh và các thuộc tính khác không tĩnh.
+C. Lớp Building có 4 thuộc tính không tĩnh nhưng trong đó 2 thuộc tính hằng.
+D. Lớp Building có 2 thuộc tính với kiểu String
+E. Lớp Building có một thuộc tính với kiểu dữ liệu tự định nghĩa dạng enum.</t>
+  </si>
+  <si>
+    <t>Khi xây dựng hệ thống thương mại điện tử, bên khách hàng yêu cầu rằng một đơn hàng chỉ có thể được tạo nếu như xác định được người bán, người mua và danh sách các mặt hàng cần bán. Danh sách này có thể là một đối tượng của Product hoặc một mảng các đối tượng. Theo em phát biểu nào là hợp lý nhất về việc khai báo phương thức khởi dựng, giả sử đơn hàng là đối tượng của Order</t>
+  </si>
+  <si>
+    <t>A. public Order(Buyer b, Seller s, Product p)
+B. public Order(Person p, Person p, Product [] p)
+C. public Order(Product… p, Buyer b, Seller s)
+D. public Order( )
+E. public Order(Buyer b, Seller s, Product… p).</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Theo em việc sử dụng this sau đây nhằm mục đích gì?</t>
+  </si>
+  <si>
+    <t>class Rectangle{</t>
+  </si>
+  <si>
+    <t>private Point pA, pB, pC, pD;</t>
+  </si>
+  <si>
+    <t>public Rectangle (Point A, Point B, Point C, Point D){</t>
+  </si>
+  <si>
+    <t>pA = A; pB = B; pC = C; pD = D;</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>public boolean checkCollision(Rectangle r){</t>
+  </si>
+  <si>
+    <t>return (this.pA.equals(r.getPoint(1))</t>
+  </si>
+  <si>
+    <t>|| this.pB.equals(r.getPoint(2))</t>
+  </si>
+  <si>
+    <t>|| this.pC.equals(r.getPoint(3))</t>
+  </si>
+  <si>
+    <t>|| this.pD.equals(r.getPoint(4)));</t>
+  </si>
+  <si>
+    <t>public Point getPoint(int x){</t>
+  </si>
+  <si>
+    <t>if(x  == 1) return pA;</t>
+  </si>
+  <si>
+    <t>if(x  == 2) return pB;</t>
+  </si>
+  <si>
+    <t>if(x  == 3) return pC;</t>
+  </si>
+  <si>
+    <t>return pD;</t>
+  </si>
+  <si>
+    <t>A. Nhằm mục đích phân biệt khi phương thức thành phần thao tác trên hai hay nhiều đối tượng
+B. Nhằm mục đích nhấn mạnh đâu là thành phần dữ liệu của lớp.
+C. Nhằm mục đích nhấn mạnh đâu là thành phần phương thức của lớp
+D. Tất cả đều sai</t>
+  </si>
+  <si>
+    <t>class Account{</t>
+  </si>
+  <si>
+    <t>private double balance;</t>
+  </si>
+  <si>
+    <t>public Account(double balance){</t>
+  </si>
+  <si>
+    <t>this.balance = balance;</t>
+  </si>
+  <si>
+    <t>A. Nhằm mục đích phân biệt khi phương thức thành phần thao tác trên hai hay nhiều đối tượng.
+B. Nhằm mục đích xóa đi sự nhập nhằng giữa một tham số với thành phần dữ liệu của lớp
+C. Nhằm mục đích xóa đi sự nhập nhằng giữa một biến cục bộ với thành phần dữ liệu của lớp.
+D. Tất cả đều sai.</t>
+  </si>
+  <si>
+    <t>Theo em trong đoạn mã sau thì phương thức nào là phương thức cuối cùng của obj được gọi (không kể phương thức main)</t>
+  </si>
+  <si>
+    <t>public class A{</t>
+  </si>
+  <si>
+    <t>public void m( ){ }</t>
+  </si>
+  <si>
+    <t>public static void main(String []args){</t>
+  </si>
+  <si>
+    <t>A obj = new A( );</t>
+  </si>
+  <si>
+    <t>obj.m( );</t>
+  </si>
+  <si>
+    <t>obj.equals(obj);</t>
+  </si>
+  <si>
+    <t>A. Phương thức huỷ ~A( )
+B. Phương thức m( )
+C. Phương thức equals( )
+D. Phương thức toString( )
+E. Phương thức finalize( ).</t>
+  </si>
+  <si>
+    <t>Theo em phát biểu nào đúng</t>
+  </si>
+  <si>
+    <t>String x = new String(“hello”);</t>
+  </si>
+  <si>
+    <t>String y = “hello”;</t>
+  </si>
+  <si>
+    <t>String z1 = “hel”</t>
+  </si>
+  <si>
+    <t>String z2 = “lo”;</t>
+  </si>
+  <si>
+    <t>String z = z1 + z2;</t>
+  </si>
+  <si>
+    <t>String t = new String(“hello”);</t>
+  </si>
+  <si>
+    <t>A. Bạn An bảo rằng x == y sẽ trả về true 
+B. Bạn Bảo cho rằng y == z sẽ trả về true 
+C. Bạn Cường cho rằng z == t sẽ trả về true 
+D. Bạn Duy cho rằng t == x sẽ trả về true 
+E. Bạn Yến cho rằng x == z sẽ trả về true  
+F. Tất cả đều sai.</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>String z = “hello” + “”;</t>
+  </si>
+  <si>
+    <t>A. Bạn An bảo rằng x == y sẽ trả về true 
+B. Bạn Bảo cho rằng y == z sẽ trả về true. 
+C. Bạn Cường cho rằng z == t sẽ trả về true 
+D. Bạn Duy cho rằng t == x sẽ trả về true 
+E. Bạn Yến cho rằng x == z sẽ trả về true  
+F. Tất cả đều sai</t>
+  </si>
+  <si>
+    <t>Khi xây dựng phần mềm cho phép các bé vẽ được các hình ảnh trên phần mềm, bên khách hàng yêu cầu rằng sẽ chỉ nối các điểm thành tứ giác nếu như bé đã chấm đủ 4 chấm trên mặt vẽ và 4 chấm này tạo thành một tứ giác lồi. Hãy xác định xem phát biểu nào là đúng về lớp đại diện cho tứ giác</t>
+  </si>
+  <si>
+    <t>A. Lớp đó không cần viết phương thức khởi tạo nào cả.
+B. Lớp đó chỉ cần duy nhất một phương thức khởi tạo không có tham số
+C. Lớp đó chỉ cần một phương thức khởi tạo có tham số là mảng của các đối tượng Point
+D. Lớp đó chỉ cần một phương thức khởi tạo có tham số là bốn đối tượng Point.
+E. Lớp đó chỉ cần một phương thức khởi tạo có tham số là một đối tượng Point</t>
+  </si>
+  <si>
+    <t>Một lớp có các thuộc tính private và lại có các phương thức get/set public, chẳng hạn</t>
+  </si>
+  <si>
+    <t>class A{</t>
+  </si>
+  <si>
+    <t>private int x;</t>
+  </si>
+  <si>
+    <t>public int getX( ) { return x;}</t>
+  </si>
+  <si>
+    <t>public void setX(int x) { this.x = x; }</t>
+  </si>
+  <si>
+    <t>Theo em phát biểu nào đúng về việc getX, setX là public</t>
+  </si>
+  <si>
+    <t>A. Để việc truy cập thuộc tính x sẽ trở nên nhanh hơn do gọi phương thức
+B. Để việc truy cập thuộc tính x sẽ trở nên tiết kiệm bộ nhớ hơn do gọi phương thức
+C. Để việc truy cập thuộc tính x có thể được quản lý tốt hơn do gọi phương thức.
+D. Tất cả phát biểu giải thích nguyên nhân đều sai
+E. Tất cả phát biểu giải thích nguyên nhân đều đúng</t>
+  </si>
+  <si>
+    <t>Để tổ chức các loại phần tử khác nhau (types of elements) vào bên trong các nhóm (groups) ta sử dụng:</t>
+  </si>
+  <si>
+    <t>A. Package.
+B. Class
+C. Class và interface
+D. Component</t>
+  </si>
+  <si>
+    <t>Người ta xây dựng phần mềm quản lý kho. Trong đó có mô tả các thao tác của bảo vệ (Guard). Người bảo vệ cần phải trả lời câu hỏi cho bất kỳ ai rằng họ có được vào kho hay không? Việc trả lời đó được mô hình hoá bằng phương thức check( ). Chỉ người bảo vệ mới được phép sắp xếp lại hàng trong kho (arrange) và không ai được phép ra lệnh đó cho họ. Có một nhóm bảo vệ đặc biệt là Robot cũng phải trả lời câu hỏi nhưng chúng không được sắp xếp lại hàng. Dù máy hay người đều được phép tự kiểm kho (validate) và không ai được phép ra lệnh này. Theo em phát biểu nào đúng về chỉ định truy cập?</t>
+  </si>
+  <si>
+    <t>A. check nên là private
+B. arrange nên là public
+C. validate nên là protected
+D. Tất cả chỉ định trên đều sai
+E. Tất cả chỉ định trên đều đúng</t>
+  </si>
+  <si>
+    <t>Người ta muốn xây dựng hệ thống đăng ký dạy và học tín chỉ, trong hệ thống này Student được phép đăng ký khoá học (register) và bỏ đăng ký (cancel). Lecturer được phép đăng ký dạy (teach) và đổi cho người khác dạy (transfer) cũng như thay đổi nội dung dạy (modify). Trong đó modify chỉ được gọi từ các phương thức teach và transfer. Còn các phương thức khác có thể gọi từ bất kỳ đâu. Theo em đâu là phát biểu đúng:</t>
+  </si>
+  <si>
+    <t>A. Việc xác định teach, transfer, modify thuộc về Lecturer là đóng gói dữ liệu
+B. Việc xác định register và cancel thuộc về Student là trừu tượng hoá 
+C. Việc xác định transfer có chỉ định truy cập private là che giấu dữ liệu
+D. Việc xác định modify có chỉ định truy cập private là che giấu dữ liệu
+E. Việc xác định teach có chỉ định truy cập private là che giấu dữ liệu
+F. Việc xác định cancel có chỉ định truy cập private là che giấu dữ liệu
+G. Tất cả các việc xác định đều là sai
+H. Tất cả các việc xác định đều là đúng</t>
+  </si>
+  <si>
+    <t>Theo em đâu là các tên hợp lệ để đặt cho lớp khi xây dựng phần mềm quản lý nhân viên và hàng hoá ở một siêu thị (bán quần áo, thức ăn, hải sản, gia dụng…)</t>
+  </si>
+  <si>
+    <t>A. People, Vegetable, Meat 
+B. Kéo, Dao, Bua
+C. Quần dài, Car, Cake
+D. Scissors, Trousers, Animal.
+E. Tất cả đều sai
+F. Tất cả các tên ở các phát biểu đều đúng
+G. Scissor, Trouser, Animal</t>
+  </si>
+  <si>
+    <t>Khi được giao xây dựng lớp HinhChuNhat và cài đặt các phương thức trong đó. Một trong các yêu cầu xây dựng phương thức là cài đặt phương thức (không static) kiểm tra hai hình chữ nhật có va chạm nhau không? Khi nhìn vào mô tả phương thức với kiểu trả về boolean, tên là checkCollision, tham số là MỘT đối tượng của HinhChuNhat thì các bạn có phát biểu sau. Theo em phát biểu nào đúng</t>
+  </si>
+  <si>
+    <t>A. Bạn An cho rằng phương thức cần có hai tham số vì kiểm tra hai hình chữ nhật có va chạm hay không?
+B. Bạn Bảo cho rằng phương thức cần có 3 tham số vì cần một biến boolean truyền vào để lưu true/false.
+C. Bạn Cường cho rằng cần có thêm 1 tham số là biến boolean truyền vào để lưu true/false.
+D. Bạn Duy cho rằng một tham số là đủ nhưng tham số đó là mảng các đối tượng của lớp HinhChuNhat.
+E. Tất cả phát biểu đều sai</t>
+  </si>
+  <si>
+    <t>Theo em đâu là phát biểu đúng về hành động “trừu tượng hoá điều khiển" trong việc xây dựng phần mềm quản lý điểm và phần mềm quản lý y tế  cho các học viên của một trường</t>
+  </si>
+  <si>
+    <t>A. Phần mềm quản lý điểm chỉ quan tâm đến hành động đăng ký khoá học, đăng ký lớp, nộp học phí, đi thi và đăng ký thi lại (nếu hợp lệ). Quản lý điểm không quan tâm đến việc khám sức khoẻ thường xuyên
+B. Phần mềm quản lý y tế bỏ qua các hành động đăng ký khoá học, đăng ký lớp, nộp học phí, đi thi và đăng ký thi bù (nếu hợp lệ). Quản lý y tế không quan tâm đến việc đóng phí bảo hiểm y tế thường xuyên.
+C. Phần mềm quản lý y tế chỉ quan tâm đến chiều cao, cân nặng, nhóm máu, màu mắt… mà không quan tâm đến đăng ký khoá học, đăng ký lớp, nộp học phí, đi thi và đăng ký thi bù (nếu hợp lệ).
+D. Phần mềm quản lý điểm không quan tâm đến chiều cao, cân nặng, nhóm máu, màu mắt…không. Phần mềm này quan tâm đến đăng ký khoá học, đăng ký lớp, nộp học phí, đi thi và đăng ký thi bù (nếu hợp lệ).
+E. Tất cả phát biểu về việc quan tâm và không quan tâm trong câu này đều đúng.
+F.  Tất cả phát biểu về việc quan tâm và không quan tâm trong câu này đều sai.</t>
+  </si>
+  <si>
+    <t>Giả sử người ta muốn xây dựng phần mềm hướng đối tượng quản lý việc đăng ký tín chỉ của SV trong trường ĐH BK. Theo em đâu không phải là các đối tượng của việc mô hình hoá hệ thống đăng ký tín chỉ trong thế giới thực</t>
+  </si>
+  <si>
+    <t>A. Đối tượng sinh viên 
+B. Đối tượng khoá học
+C. Đối tượng giảng viên dạy khoá học
+D. Đối tượng cảnh sát cơ động</t>
+  </si>
+  <si>
+    <t>Hãy chọn mốc ra đời của Java</t>
+  </si>
+  <si>
+    <t>A. 1990
+B. 1991
+C. 1992
+D. 1993</t>
+  </si>
+  <si>
+    <t>Theo em nguyên nhân nào góp phần giải thích việc phát triển phần mềm bằng ngôn ngữ hướng đối tượng (như Java, C#) sẽ mau chóng hơn ngôn ngữ C/C++</t>
+  </si>
+  <si>
+    <t>A. Các prorgram viết bằng OOP đều cho phép khởi tạo đối tượng
+B. Các Program viết bằng OOP đều bắt đầu chạy từ hàm main
+C. Các Program viết bằng OOP đều cho phép đa kế thừa
+D. Các Program viết bằng OOP đều có cơ chế xử lý ngoại lệ tốt
+E. Các program viết bằng OOP đều cho phép dùng assert
+F. Tất cả các đáp án trên đều sai</t>
+  </si>
+  <si>
+    <t>Theo em phát biểu nào đúng về việc sử dụng của OOT trong phát triển phần mềm</t>
+  </si>
+  <si>
+    <t>A. Các website không thể phát triển bằng OOP
+B. Các hệ nhúng vẫn có thể phát triển bằng OOP
+C. Phần mềm điều khiển vệ tinh không thể viết bằng OOP
+D. Tất cả đều sai</t>
+  </si>
+  <si>
+    <t>Khi sử dụng công nghệ hướng đối tượng để xây dựng phần mềm nào dưới đây thì một số đối tượng của phần mềm thuộc loại chỉ cảm nhận được trong thế giới thực</t>
+  </si>
+  <si>
+    <t>A. Phần mềm quản lý cơ sở vật chất của đại học
+B. Phần mềm quản lý các con thú trong vườn thú
+C. Phần mềm dự báo nhiệt độ, độ ẩm
+D. Phần mềm dự đoán sự di chuyển của mây</t>
+  </si>
+  <si>
+    <t>Theo em đâu là phát biểu đúng về hạn chế của ngôn ngữ hướng đối tượng như Java</t>
+  </si>
+  <si>
+    <t>A. Có tối đa 10 đối tượng một lúc trong phần mềm
+B. Có tối đa 100 đối tượng của một lớp cùng xuất hiện trong phần mềm
+C. Các đối tượng có thể thay đổi số lượng thuộc tính và số lượng phương thức
+D. Các đối tượng không thể thay đổi số lượng thuộc tính và số lượng phương thức
+E. Các đối tượng không thể thay đổi thông số của tất cả thuộc tính của chúng
+F. Tất cả đều sai</t>
+  </si>
+  <si>
+    <t>Theo em khái niệm “thông điệp" được xuất hiện trong việc phát triển phần mềm theo hướng nào?</t>
+  </si>
+  <si>
+    <t>A. Hướng cấu trúc
+B. Hướng đối tượng
+C. Tất cả đều sai</t>
+  </si>
+  <si>
+    <t>Theo em giải thích nào sau đây giúp làm sáng tỏ lập trình hướng đối tượng có ưu thế so với lập trình cấu trúc</t>
+  </si>
+  <si>
+    <t>A. Lập trình hướng đối tượng giúp phần mềm hoạt động nhanh hơn
+B. Lập trình hướng đối tượng giúp phần mềm tiêu tốn ít bộ nhớ
+C. Lập trình hướng đối tượng giúp phần mềm dễ song song hoá hơn
+D. Lập trình hướng đối tượng giúp mô hình hoá giống thế giới thực hơn</t>
+  </si>
+  <si>
+    <t>Theo em lý do nào giúp giải thích Lập trình hướng đối tượng (LTHDT) giúp mô hình hoá giống thế giới thực hơn so với lập trình cấu trúc (LTCT)</t>
+  </si>
+  <si>
+    <t>A. Vì LTHDT sẽ giúp tạo ra đối tượng có thêm hành vi so với LTCT
+B. Vì LTHDT sẽ giúp tạo ra đối tượng chỉ có trạng thái so với LTCT
+C. Vì LTHDT sẽ giúp tạo ra đối tượng mô hình hoá được thế giới thực
+D. Vì LTHDT sẽ giúp tạo ra đối tượng không có hành vi và không có trạng thái so với LTCT</t>
+  </si>
+  <si>
+    <t>Việc khai báo dưới đây, nếu chương trình chạy được thì câu lệnh sau thể hiện một tính chất nào của lập trình hướng đối tượng:</t>
+  </si>
+  <si>
+    <t>A obj = new B( );</t>
+  </si>
+  <si>
+    <t>A. Tính chất trừu tượng hoá
+B. Tính chất đóng gói
+C. Tính chất kế thừa
+D. Tính chất đa hình</t>
+  </si>
+  <si>
+    <t>Trong các hành động sau đây để xây dựng phần mềm quản lý điểm của HSSV tại một trường, hành động nào được coi là trừu tượng hoá dữ liệu</t>
+  </si>
+  <si>
+    <t>A. Loại bỏ đi các thông tin về thẻ BHYT, nhóm máu, cân nặng mà quan tâm đến họ tên, điểm, MSSV
+B. Tìm kiếm các điểm chung nhất giữa HSSV và giáo viên 
+C. Xác định các chức năng nào của phần mềm mà cả HSSV cùng giáo viên đều có thể sử dụng chung với nhau
+D. Xác định các chức năng nào của phần mềm mà chỉ có giáo viên và SV được sử dụng còn HS thì không
+E. Tất cả đều đúng</t>
+  </si>
+  <si>
+    <t>Theo em phát biểu nào đúng về tính chất của Java</t>
+  </si>
+  <si>
+    <t>A. Đơn luồng
+B. Đa luồng
+C. Thông luồng
+D. Tất cả đều sai</t>
+  </si>
+  <si>
+    <t>Loại máy in nào sử dụng mực để in ảnh và tài liệu?</t>
+  </si>
+  <si>
+    <t>A. Máy in laser
+B. Máy in kim
+C. Máy in phun mực</t>
+  </si>
+  <si>
+    <t>Phần mềm nào được sử dụng để chỉnh sửa ảnh chuyên nghiệp?</t>
+  </si>
+  <si>
+    <t>A. Adobe Photoshop
+B. Microsoft Excel
+C. Windows Media Player</t>
+  </si>
+  <si>
+    <t>Biển lớn nhất trên Trái Đất là:</t>
+  </si>
+  <si>
+    <t>A. Thái Bình Dương
+B. Ấn Độ Dương
+C. Đại Tây Dương</t>
+  </si>
+  <si>
+    <t>Dòng sông lớn nhất châu Á là:</t>
+  </si>
+  <si>
+    <t>A. Sông Nile
+B. Sông Mekong
+C. Sông Dương Tử</t>
+  </si>
+  <si>
+    <t>Dãy núi cao nhất thế giới là:</t>
+  </si>
+  <si>
+    <t>A. Dãy Andes
+B. Dãy Himalaya
+C. Dãy Alps</t>
+  </si>
+  <si>
+    <t>Hòn đảo lớn nhất trên Trái Đất là:</t>
+  </si>
+  <si>
+    <t>A. Đảo Borneo
+B. Đảo Madagascar
+C. Đảo Greenland</t>
+  </si>
+  <si>
+    <t>Đảo lớn nhất của Việt Nam là:</t>
+  </si>
+  <si>
+    <t>A. Phú Quốc
+B. Cát Bà
+C. Hòn Tre</t>
+  </si>
+  <si>
+    <t>Châu lục có dân số đông nhất là:</t>
+  </si>
+  <si>
+    <t>A. Châu Á
+B. Châu Âu
+C. Châu Phi</t>
+  </si>
+  <si>
+    <t>Thành phố có dân số đông nhất thế giới là:</t>
+  </si>
+  <si>
+    <t>A. Tokyo
+B. New York
+C. Delhi</t>
+  </si>
+  <si>
+    <t>Núi cao nhất thế giới là:</t>
+  </si>
+  <si>
+    <t>A. Everest
+B. K2
+C. Kangchenjunga</t>
+  </si>
+  <si>
+    <t>Quốc gia nào là nơi sinh sống của người Eskimo?</t>
+  </si>
+  <si>
+    <t>A. Canada
+B. Greenland
+C. Alaska</t>
+  </si>
+  <si>
+    <t>Thành phố Paris nằm ở nước nào?</t>
+  </si>
+  <si>
+    <t>A. Pháp
+B. Ý
+C. Anh</t>
+  </si>
+  <si>
+    <t>Dòng sông Nile chảy qua bao nhiêu quốc gia?</t>
+  </si>
+  <si>
+    <t>Quốc gia nào được gọi là "đất nụ cười"?</t>
+  </si>
+  <si>
+    <t>A. Brazil
+B. Ý
+C. Thái Lan</t>
+  </si>
+  <si>
+    <t>Dãy núi Andes nằm ở:</t>
+  </si>
+  <si>
+    <t>A. Nam Mỹ
+B. Bắc Mỹ
+C. Châu Âu</t>
+  </si>
+  <si>
+    <t>Thành phố nổi tiếng với ngọn núi Phật Di Lặc là:</t>
+  </si>
+  <si>
+    <t>A. Tokyo
+B. Kathmandu
+C. Hong Kong</t>
+  </si>
+  <si>
+    <t>Kỳ quan thế giới Machu Picchu nằm ở quốc gia nào?</t>
+  </si>
+  <si>
+    <t>A. Peru
+B. Brazil
+C. Colombia</t>
+  </si>
+  <si>
+    <t>Địa danh nổi tiếng "Vịnh Hạ Long" nằm ở tỉnh nào của Việt Nam?</t>
+  </si>
+  <si>
+    <t>A. Quảng Ninh
+B. Thanh Hóa
+C. Nghệ An</t>
+  </si>
+  <si>
+    <t>Hệ thống sông Mê Kông chảy qua bao nhiêu quốc gia?</t>
+  </si>
+  <si>
+    <t>A. 2
+B. 4
+C. 6</t>
+  </si>
+  <si>
+    <t>Thành phố Moscow nằm ở quốc gia nào?</t>
+  </si>
+  <si>
+    <t>A. Nga
+B. Pháp
+C. Đức</t>
+  </si>
+  <si>
+    <t>Đảo Jeju nằm ở quốc gia nào?</t>
+  </si>
+  <si>
+    <t>A. Nhật Bản
+B. Hàn Quốc
+C. Indonesia</t>
+  </si>
+  <si>
+    <t>Dãy núi Alps nằm ở:</t>
+  </si>
+  <si>
+    <t>A. Châu Phi
+B. Châu Mỹ
+C. Châu Âu</t>
+  </si>
+  <si>
+    <t>Quốc gia nào là quê hương của người Maori?</t>
+  </si>
+  <si>
+    <t>A. Úc
+B. New Zealand
+C. Hawaii</t>
+  </si>
+  <si>
+    <t>Quốc gia nào là quê hương của kim cương?</t>
+  </si>
+  <si>
+    <t>A. Nam Phi
+B. Nga
+C. Ấn Độ</t>
+  </si>
+  <si>
+    <t>Thành phố nào được gọi là "thành phố của tình yêu"?</t>
+  </si>
+  <si>
+    <t>A. Paris
+B. Rome
+C. Barcelona</t>
+  </si>
+  <si>
+    <t>Đại dương nằm giữa châu lục Mỹ và châu lục châu Á là:</t>
+  </si>
+  <si>
+    <t>A. Đại Tây Dương
+B. Ấn Độ Dương
+C. Thái Bình Dương</t>
+  </si>
+  <si>
+    <t>Quốc gia nào nằm ở khu vực Châu Phi?</t>
+  </si>
+  <si>
+    <t>A. Argentina
+B. Nigeria
+C. Thụy Điển</t>
+  </si>
+  <si>
+    <t>Kênh đào Panama nằm ở đất nước nào?</t>
+  </si>
+  <si>
+    <t>A. Mexico
+B. Panama
+C. Colombia</t>
+  </si>
+  <si>
+    <t>Thành phố Sydney nằm ở quốc gia nào?</t>
+  </si>
+  <si>
+    <t>A. Úc
+B. New Zealand
+C. Canada</t>
+  </si>
+  <si>
+    <t>Hệ điều hành là gì?</t>
+  </si>
+  <si>
+    <t>A. Một phần mềm cho phép người dùng tương tác với phần cứng máy tính.
+B. Một ứng dụng dùng để xử lý văn bản và bảng tính.
+C. Một hình thức lưu trữ dữ liệu trên đám mây.
+D. Một công nghệ mạng cho phép truyền tải dữ liệu nhanh chóng.</t>
+  </si>
+  <si>
+    <t>Hệ điều hành nào là mã nguồn mở?</t>
+  </si>
+  <si>
+    <t>A. Windows
+B. macOS
+C. Linux
+D. iOS</t>
+  </si>
+  <si>
+    <t>Đâu không phải là một loại hệ điều hành?</t>
+  </si>
+  <si>
+    <t>A. Windows
+B. Android
+C. Microsoft Office
+D. macOS</t>
+  </si>
+  <si>
+    <t>Hệ điều hành nào được phát triển bởi Apple?</t>
+  </si>
+  <si>
+    <t>A. Windows
+B. Linux
+C. Android
+D. macOS</t>
+  </si>
+  <si>
+    <t>Giao diện người dùng đồ họa (GUI) cung cấp cho người dùng một cách nào để tương tác với hệ điều hành?</t>
+  </si>
+  <si>
+    <t>A. Dòng lệnh
+B. Biểu đồ hình tròn
+C. Các tệp tin văn bản
+D. Các biểu tượng và cửa sổ</t>
+  </si>
+  <si>
+    <t>Hệ điều hành Android được phát triển bởi công ty nào?</t>
+  </si>
+  <si>
+    <t>A. Microsoft
+B. Google
+C. Apple
+D. Facebook</t>
+  </si>
+  <si>
+    <t>Hệ điều hành nào sử dụng kernel Linux?</t>
+  </si>
+  <si>
+    <t>A. Windows
+B. macOS
+C. Android
+D. iOS</t>
+  </si>
+  <si>
+    <t>Hệ điều hành Windows hỗ trợ chạy trên nền tảng nào?</t>
+  </si>
+  <si>
+    <t>A. Máy tính cá nhân
+B. Điện thoại di động
+C. Máy tính bảng
+D. Cả A, B và C</t>
+  </si>
+  <si>
+    <t>Đâu không phải là một hệ điều hành máy tính cá nhân?</t>
+  </si>
+  <si>
+    <t>A. Windows
+B. Linux
+C. macOS
+D. iOS</t>
+  </si>
+  <si>
+    <t>Hệ điều hành Linux có bao nhiêu phiên bản chính?</t>
+  </si>
+  <si>
+    <t>A. 1
+B. 2
+C. 3
+D. Không giới hạn</t>
+  </si>
+  <si>
+    <t>Hệ điều hành macOS phát triển dựa trên nền tảng nào?</t>
+  </si>
+  <si>
+    <t>A. Windows
+B. Linux
+C. UNIX
+D. Android</t>
+  </si>
+  <si>
+    <t>Đâu là một hệ điều hành mã nguồn mở?</t>
+  </si>
+  <si>
+    <t>A. Windows
+B. macOS
+C. iOS
+D. Ubuntu</t>
+  </si>
+  <si>
+    <t>Vui lòng cho biết</t>
+  </si>
+  <si>
+    <t>hệ điều hành nào được sử dụng phổ biến nhất trên máy tính cá nhân?</t>
+  </si>
+  <si>
+    <t>A. Windows
+B. macOS
+C. Linux
+D. Chrome OS</t>
+  </si>
+  <si>
+    <t>Hệ điều hành nào được sử dụng phổ biến nhất trên điện thoại di động?</t>
+  </si>
+  <si>
+    <t>A. Windows
+B. iOS
+C. Linux
+D. Android</t>
+  </si>
+  <si>
+    <t>Hệ điều hành iOS được phát triển bởi công ty nào?</t>
+  </si>
+  <si>
+    <t>Hệ điều hành Android được phát triển dựa trên nền tảng nào?</t>
+  </si>
+  <si>
+    <t>Hệ điều hành Windows phổ biến nhất trên máy tính cá nhân nhưng không được sử dụng rộng rãi trên thiết bị nào sau đây?</t>
+  </si>
+  <si>
+    <t>A. Máy tính xách tay
+B. Máy tính để bàn
+C. Máy tính bảng
+D. Điện thoại di động</t>
+  </si>
+  <si>
+    <t>Định dạng tệp tin thực thi (.exe) thường được sử dụng trong hệ điều hành nào?</t>
+  </si>
+  <si>
+    <t>A. Windows
+B. macOS
+C. Linux
+D. Android</t>
+  </si>
+  <si>
+    <t>Giao diện dòng lệnh (Command Line Interface) là một phương pháp tương tác với hệ điều hành thông qua:</t>
+  </si>
+  <si>
+    <t>A. Các biểu đồ và hình ảnh
+B. Các biểu tượng và cửa sổ
+C. Các lệnh văn bản
+D. Các phím chức năng</t>
+  </si>
+  <si>
+    <t>Trình duyệt web nào phổ biến nhất trên hệ điều hành Windows?</t>
+  </si>
+  <si>
+    <t>A. Google Chrome
+B. Mozilla Firefox
+C. Microsoft Edge
+D. Safari</t>
+  </si>
+  <si>
+    <t>Trình duyệt web Safari được phát triển bởi công ty nào?</t>
+  </si>
+  <si>
+    <t>A. Google
+B. Mozilla
+C. Apple
+D. Microsoft</t>
+  </si>
+  <si>
+    <t>Cơ chế nào cho phép nhiều ứng dụng chạy cùng lúc trên hệ điều hành?</t>
+  </si>
+  <si>
+    <t>A. Multi-threading
+B. Multi-tasking
+C. Multi-processing
+D. Multi-user</t>
+  </si>
+  <si>
+    <t>Trình quản lý tác vụ (Task Manager) là một tính năng của hệ điều hành nào?</t>
+  </si>
+  <si>
+    <t>Hệ điều hành Android phát triển bởi công ty nào?</t>
+  </si>
+  <si>
+    <t>Ngôn ngữ lập</t>
+  </si>
+  <si>
+    <t>trình nào phổ biến cho việc phát triển ứng dụng trên hệ điều hành iOS?</t>
+  </si>
+  <si>
+    <t>A. Java
+B. C++
+C. Swift
+D. Python</t>
+  </si>
+  <si>
+    <t>Hệ điều hành Ubuntu dựa trên nền tảng nào?</t>
+  </si>
+  <si>
+    <t>Hệ điều hành Windows phát triển bởi công ty nào?</t>
+  </si>
+  <si>
+    <t>A. Microsoft
+B. Apple
+C. Google
+D. Linux Foundation</t>
+  </si>
+  <si>
+    <t>Hệ điều hành Android được phát triển dựa trên nền tảng mã nguồn mở nào?</t>
+  </si>
+  <si>
+    <t>Hệ điều hành Android được sử dụng rộng rãi trên các thiết bị nào?</t>
+  </si>
+  <si>
+    <t>A. Máy tính cá nhân
+B. Điện thoại di động
+C. Máy tính bảng
+D. Cả B và C</t>
+  </si>
+  <si>
+    <t>Trình duyệt web nào không phổ biến trên hệ điều hành Windows?</t>
+  </si>
+  <si>
+    <t>Các hệ điều hành Linux phổ biến nhất là gì?</t>
+  </si>
+  <si>
+    <t>A. Ubuntu
+B. Fedora
+C. CentOS
+D. Tất cả đều đúng</t>
+  </si>
+  <si>
+    <t>Ngôn ngữ lập trình nào phổ biến cho việc phát triển ứng dụng trên hệ điều hành Android?</t>
+  </si>
+  <si>
+    <t>Trình duyệt web nào phổ biến nhất trên hệ điều hành macOS?</t>
+  </si>
+  <si>
+    <t>A. Google Chrome
+B. Mozilla Firefox
+C. Safari
+D. Microsoft Edge</t>
+  </si>
+  <si>
+    <t>Hệ điều hành Ubuntu được phát triển bởi công ty nào?</t>
+  </si>
+  <si>
+    <t>A. Microsoft
+B. Apple
+C. Canonical Ltd.
+D. Google</t>
+  </si>
+  <si>
+    <t>Hệ điều hành Android dựa trên nền tảng mã nguồn mở nào?</t>
+  </si>
+  <si>
+    <t>Cơ chế nào cho phép chia sẻ tài nguyên giữa các máy tính trong mạng LAN?</t>
+  </si>
+  <si>
+    <t>A. VPN
+B. LAN
+C. WLAN
+D. P2P</t>
+  </si>
+  <si>
+    <t>Hệ điều hành Linux phát triển dựa trên kernel nào?</t>
+  </si>
+  <si>
+    <t>A. Windows Kernel
+B. macOS Kernel
+C. Linux Kernel
+D. UNIX Kernel</t>
+  </si>
+  <si>
+    <t>Hệ điều hành macOS chỉ chạy được trên phần cứng của hãng nào?</t>
+  </si>
+  <si>
+    <t>A. Dell
+B. HP
+C. Apple
+D. Lenovo</t>
+  </si>
+  <si>
+    <t>Hệ điều hành Windows hỗ trợ giao diện người dùng tiếng Việt?</t>
+  </si>
+  <si>
+    <t>A. Có
+B. Không</t>
+  </si>
+  <si>
+    <t>Hệ điều hành Windows sử dụng kernel nào?</t>
+  </si>
+  <si>
+    <t>A. NT Kernel
+B. Darwin Kernel
+C. Linux Kernel
+D. Unix Kernel</t>
+  </si>
+  <si>
+    <t>Hệ điều hành Linux phát triển dựa trên nền tảng nào?</t>
+  </si>
+  <si>
+    <t>Hệ điều hành Android phổ biến trên điện thoại di động do công ty nào phát triển?</t>
+  </si>
+  <si>
+    <t>A. Microsoft
+B. Google
+C. Apple
+D. Samsung</t>
+  </si>
+  <si>
+    <t>Trình duyệt web nào phổ biến trên hệ điều hành Windows?</t>
+  </si>
+  <si>
+    <t>Hệ điều hành macOS phát triển bởi công ty nào?</t>
+  </si>
+  <si>
+    <t>Hệ điều</t>
+  </si>
+  <si>
+    <t>What is the correct answer to this question? Dòng cuối cùng là dòng ANSWER, mô tả đáp án đúng. Sau từ ANSWER là một dấu hai chấm và một khoảng trắng, tiếp đến là một ký tự viết hoa sau cho ký tự này nằm trong danh sách các đáp án ở trên. Sau dòng ANSWER phải có một dòng trống</t>
+  </si>
+  <si>
+    <t>A. Is it this one?
+B. Maybe this answer?
+C. Possibly this one?
+D. Must be this one!</t>
+  </si>
+  <si>
+    <t>Which LMS has the most quiz import formats?</t>
+  </si>
+  <si>
+    <t>A. Moodle
+B. ATutor
+C. Claroline
+D. Blackboard
+E. WebCT</t>
+  </si>
+  <si>
+    <t>Why did the chicken cross the road?</t>
+  </si>
+  <si>
+    <t>A. To get to the other side
+B. It wanted to live dangerously
+C. It saw Frank Perdue coming
+D. No one knows
+E. No one cares
+F. sjsjjsjs
+G. hshshssuus</t>
+  </si>
+  <si>
+    <t>Huy is very handsome, is’nt he?</t>
+  </si>
+  <si>
+    <t>A. Yes, he is
+B. Ofcourse
+C. No, I don’t think so</t>
+  </si>
+  <si>
+    <t>We will get A+ OOP, alright?</t>
+  </si>
+  <si>
+    <t>A. Ofcourse, we are
+B. No, it is terrible, we get A</t>
+  </si>
+  <si>
+    <t>Trường bị gay, đm nó</t>
+  </si>
+  <si>
+    <t>A. Ừ
+B. Không, nó thẳng như cây đũa vậy</t>
+  </si>
+  <si>
+    <t>Quá trình tiêu hóa thức ăn diễn ra chủ yếu ở đâu trong cơ thể người?</t>
+  </si>
+  <si>
+    <t>Chất gì trong lá cây giúp nó hấp thụ ánh sáng mặt trời để thực hiện quá trình quang hợp?</t>
+  </si>
+  <si>
+    <t>Quá trình nào dùng để xác định giới tính của một con người?</t>
+  </si>
+  <si>
+    <t>Loài động vật nào sau đây có khả năng tái sinh các phần bị mất của cơ thể mình?</t>
+  </si>
+  <si>
+    <t>Các tế bào gốc làm việc trong cơ thể để thực hiện công việc gì?</t>
+  </si>
+  <si>
+    <t>Quá trình nào là quá trình giúp cây hấp thụ nước và chất dinh dưỡng từ đất?</t>
+  </si>
+  <si>
+    <t>Quá trình trao đổi chất trong cơ thể xảy ra chủ yếu ở đâu?</t>
+  </si>
+  <si>
+    <t>Loài động vật nào sau đây không có mắt?</t>
+  </si>
+  <si>
+    <t>Một tế bào dịch ngoại vi trong mắt giúp chúng ta nhìn rõ hơn vào ban đêm. Chất gì trong tế bào này giúp chúng phản xạ ánh sáng?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -925,7 +2191,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:D284"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A48" sqref="A48"/>
@@ -933,1243 +2199,3688 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="94.54296875" customWidth="1"/>
-    <col min="2" max="2" width="101.54296875" customWidth="1"/>
-    <col min="3" max="3" width="5.1796875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="94.54296875"/>
+    <col min="2" max="2" customWidth="true" width="101.54296875"/>
+    <col min="3" max="3" customWidth="true" width="5.1796875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="B1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B5" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s" s="0">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="B6" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s" s="0">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B9" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="0">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="B10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B10" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="0">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="s" s="0">
         <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="B12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B12" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" t="s" s="0">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="B13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="B13" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s" s="0">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B14" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="B15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="B15" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s" s="0">
         <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="B16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="B16" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s" s="0">
         <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="B17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B17" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" t="s" s="0">
         <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="B18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B18" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" t="s" s="0">
         <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="B19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="B19" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s" s="0">
         <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="B20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B20" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" t="s" s="0">
         <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="B21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B21" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="B22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="B22" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s" s="0">
         <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="B23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B23" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" t="s" s="0">
         <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="A24" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="B24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B24" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" t="s" s="0">
         <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="A25" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="B25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B25" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" t="s" s="0">
         <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="A26" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="B26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B26" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" t="s" s="0">
         <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="A27" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="B27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B27" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" t="s" s="0">
         <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="A28" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="B28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B28" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" t="s" s="0">
         <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="A29" t="s" s="0">
         <v>59</v>
       </c>
-      <c r="B29" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="B29" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D29" t="s" s="0">
         <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+      <c r="A30" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="B30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="B30" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D30" t="s" s="0">
         <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+      <c r="A31" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" t="s">
-        <v>3</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="B31" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D31" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+      <c r="A32" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="B32" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+      <c r="A33" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B33" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="B33" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+      <c r="A34" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B34" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="B34" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+      <c r="A35" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B35" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="B35" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D35" t="s" s="0">
         <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+      <c r="A36" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B36" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36" t="s">
-        <v>3</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="B36" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D36" t="s" s="0">
         <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+      <c r="A37" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="B37" t="s">
-        <v>0</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B37" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" t="s" s="0">
         <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+      <c r="A38" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="B38" t="s">
-        <v>0</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="B38" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+      <c r="A39" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="B39" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="B39" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C39" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" t="s" s="0">
         <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+      <c r="A40" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="B40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="B40" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" t="s" s="0">
         <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+      <c r="A41" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="B41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="B41" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D41" t="s" s="0">
         <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+      <c r="A42" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="B42" t="s">
-        <v>0</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="B42" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" t="s" s="0">
         <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+      <c r="A43" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="B43" t="s">
-        <v>0</v>
-      </c>
-      <c r="C43" t="s">
-        <v>3</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="B43" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D43" t="s" s="0">
         <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+      <c r="A44" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B44" t="s">
-        <v>0</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="B44" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C44" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+      <c r="A45" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="B45" t="s">
-        <v>0</v>
-      </c>
-      <c r="C45" t="s">
-        <v>3</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="B45" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D45" t="s" s="0">
         <v>34</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+      <c r="A46" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="B46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C46" t="s">
-        <v>3</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="B46" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D46" t="s" s="0">
         <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+      <c r="A47" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="B47" t="s">
-        <v>0</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="B47" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" t="s" s="0">
         <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+      <c r="A48" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="B48" t="s">
-        <v>0</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="B48" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C48" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" t="s" s="0">
         <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+      <c r="A49" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="B49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C49" t="s">
-        <v>3</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="B49" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C49" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D49" t="s" s="0">
         <v>42</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+      <c r="A50" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="B50" t="s">
-        <v>0</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="B50" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C50" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" t="s" s="0">
         <v>44</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+      <c r="A51" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="B51" t="s">
-        <v>0</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="B51" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C51" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+      <c r="A52" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="B52" t="s">
-        <v>0</v>
-      </c>
-      <c r="C52" t="s">
-        <v>3</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="B52" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C52" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D52" t="s" s="0">
         <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
+      <c r="A53" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="B53" t="s">
-        <v>0</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="B53" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C53" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" t="s" s="0">
         <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
+      <c r="A54" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="B54" t="s">
-        <v>0</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="B54" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C54" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" t="s" s="0">
         <v>49</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
+      <c r="A55" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="B55" t="s">
-        <v>0</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="B55" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C55" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" t="s" s="0">
         <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
+      <c r="A56" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="B56" t="s">
-        <v>0</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="B56" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C56" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" t="s" s="0">
         <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
+      <c r="A57" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="B57" t="s">
-        <v>0</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="B57" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C57" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" t="s" s="0">
         <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
+      <c r="A58" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="B58" t="s">
-        <v>0</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="B58" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C58" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" t="s" s="0">
         <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
+      <c r="A59" t="s" s="0">
         <v>59</v>
       </c>
-      <c r="B59" t="s">
-        <v>0</v>
-      </c>
-      <c r="C59" t="s">
-        <v>3</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="B59" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C59" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D59" t="s" s="0">
         <v>34</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
+      <c r="A60" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="B60" t="s">
-        <v>0</v>
-      </c>
-      <c r="C60" t="s">
-        <v>3</v>
-      </c>
-      <c r="D60" t="s">
+      <c r="B60" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C60" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D60" t="s" s="0">
         <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
+      <c r="A61" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="C61" t="s">
-        <v>3</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="C61" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D61" t="s" s="0">
         <v>86</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
+      <c r="A62" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="C62" t="s">
-        <v>3</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="C62" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D62" t="s" s="0">
         <v>89</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
+      <c r="A63" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" t="s" s="0">
         <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
+      <c r="A64" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" t="s" s="0">
         <v>93</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
+      <c r="A65" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="C65" t="s">
-        <v>3</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="C65" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D65" t="s" s="0">
         <v>95</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
+      <c r="A66" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" t="s" s="0">
         <v>97</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
+      <c r="A67" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="C67" t="s">
-        <v>3</v>
-      </c>
-      <c r="D67" t="s">
+      <c r="C67" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D67" t="s" s="0">
         <v>99</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
+      <c r="A68" t="s" s="0">
         <v>100</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" t="s" s="0">
         <v>101</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
+      <c r="A69" t="s" s="0">
         <v>102</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="C69" t="s">
-        <v>3</v>
-      </c>
-      <c r="D69" t="s">
+      <c r="C69" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D69" t="s" s="0">
         <v>103</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
+      <c r="A70" t="s" s="0">
         <v>104</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" t="s" s="0">
         <v>105</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
+      <c r="A71" t="s" s="0">
         <v>106</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" t="s" s="0">
         <v>107</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
+      <c r="A72" t="s" s="0">
         <v>108</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="C72" t="s">
-        <v>3</v>
-      </c>
-      <c r="D72" t="s">
+      <c r="C72" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D72" t="s" s="0">
         <v>109</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
+      <c r="A73" t="s" s="0">
         <v>110</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="C73" t="s">
-        <v>3</v>
-      </c>
-      <c r="D73" t="s">
+      <c r="C73" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D73" t="s" s="0">
         <v>111</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
+      <c r="A74" t="s" s="0">
         <v>112</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="C74" t="s">
-        <v>3</v>
-      </c>
-      <c r="D74" t="s">
+      <c r="C74" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D74" t="s" s="0">
         <v>113</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
+      <c r="A75" t="s" s="0">
         <v>114</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" t="s" s="0">
         <v>115</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
+      <c r="A76" t="s" s="0">
         <v>116</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="C76" t="s">
-        <v>3</v>
-      </c>
-      <c r="D76" t="s">
+      <c r="C76" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D76" t="s" s="0">
         <v>117</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
+      <c r="A77" t="s" s="0">
         <v>118</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" t="s" s="0">
         <v>119</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
+      <c r="A78" t="s" s="0">
         <v>120</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" t="s" s="0">
         <v>121</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
+      <c r="A79" t="s" s="0">
         <v>122</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="C79" t="s">
-        <v>3</v>
-      </c>
-      <c r="D79" t="s">
+      <c r="C79" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D79" t="s" s="0">
         <v>123</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
+      <c r="A80" t="s" s="0">
         <v>124</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" t="s" s="0">
         <v>125</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
+      <c r="A81" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" t="s" s="0">
         <v>127</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
+      <c r="A82" t="s" s="0">
         <v>128</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" t="s" s="0">
         <v>129</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
+      <c r="A83" t="s" s="0">
         <v>130</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="C83" t="s">
-        <v>3</v>
-      </c>
-      <c r="D83" t="s">
+      <c r="C83" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D83" t="s" s="0">
         <v>131</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
+      <c r="A84" t="s" s="0">
         <v>132</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" t="s" s="0">
         <v>133</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
+      <c r="A85" t="s" s="0">
         <v>134</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="C85" t="s">
-        <v>3</v>
-      </c>
-      <c r="D85" t="s">
+      <c r="C85" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D85" t="s" s="0">
         <v>135</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
+      <c r="A86" t="s" s="0">
         <v>136</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" t="s" s="0">
         <v>137</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
+      <c r="A87" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="C87" t="s">
-        <v>3</v>
-      </c>
-      <c r="D87" t="s">
+      <c r="C87" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D87" t="s" s="0">
         <v>139</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
+      <c r="A88" t="s" s="0">
         <v>140</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="C88" t="s">
-        <v>3</v>
-      </c>
-      <c r="D88" t="s">
+      <c r="C88" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D88" t="s" s="0">
         <v>141</v>
       </c>
     </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="B89" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C89" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D89" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="90"/>
+    <row r="91">
+      <c r="A91" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="B91" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C91" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D91" t="s" s="0">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="B92" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C92" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="D92" t="s" s="0">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="B93" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C93" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D93" t="s" s="0">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="B94" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C94" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D94" t="s" s="0">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="B95" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C95" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="D95" t="s" s="0">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="B96" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C96" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="D96" t="s" s="0">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="97"/>
+    <row r="98"/>
+    <row r="99">
+      <c r="A99" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="B99" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C99" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D99" t="s" s="0">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="B100" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C100" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D100" t="s" s="0">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="0">
+        <v>257</v>
+      </c>
+      <c r="B101" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C101" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D101" t="s" s="0">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="B102" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C102" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D102" t="s" s="0">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="103"/>
+    <row r="104">
+      <c r="A104" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="B104" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C104" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D104" t="s" s="0">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="0">
+        <v>263</v>
+      </c>
+      <c r="B105" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C105" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D105" t="s" s="0">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="106"/>
+    <row r="107">
+      <c r="A107" t="s" s="0">
+        <v>265</v>
+      </c>
+      <c r="B107" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C107" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D107" t="s" s="0">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="0">
+        <v>267</v>
+      </c>
+      <c r="B108" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C108" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="D108" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="B109" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C109" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D109" t="s" s="0">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="0">
+        <v>271</v>
+      </c>
+      <c r="B110" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C110" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D110" t="s" s="0">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="0">
+        <v>273</v>
+      </c>
+      <c r="B111" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C111" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D111" t="s" s="0">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="0">
+        <v>275</v>
+      </c>
+      <c r="B112" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C112" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D112" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="0">
+        <v>277</v>
+      </c>
+      <c r="B113" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C113" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D113" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="0">
+        <v>279</v>
+      </c>
+      <c r="B114" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C114" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D114" t="s" s="0">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="0">
+        <v>281</v>
+      </c>
+      <c r="B115" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C115" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D115" t="s" s="0">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="0">
+        <v>283</v>
+      </c>
+      <c r="B116" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C116" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D116" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="B117" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C117" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D117" t="s" s="0">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="0">
+        <v>287</v>
+      </c>
+      <c r="B118" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C118" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D118" t="s" s="0">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="0">
+        <v>290</v>
+      </c>
+      <c r="B119" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C119" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D119" t="s" s="0">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="B120" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C120" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D120" t="s" s="0">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="B121" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C121" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D121" t="s" s="0">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="122"/>
+    <row r="123"/>
+    <row r="124"/>
+    <row r="125"/>
+    <row r="126"/>
+    <row r="127"/>
+    <row r="128"/>
+    <row r="129">
+      <c r="A129" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="B129" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C129" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D129" t="s" s="0">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B130" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C130" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D130" t="s" s="0">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B131" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C131" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D131" t="s" s="0">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B132" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C132" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D132" t="s" s="0">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="B133" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C133" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D133" t="s" s="0">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B134" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C134" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D134" t="s" s="0">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B135" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C135" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D135" t="s" s="0">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B136" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C136" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D136" t="s" s="0">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B137" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C137" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D137" t="s" s="0">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="B138" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C138" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D138" t="s" s="0">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="B139" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C139" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D139" t="s" s="0">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="B140" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C140" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D140" t="s" s="0">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="B141" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C141" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D141" t="s" s="0">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="B142" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C142" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D142" t="s" s="0">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="B143" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C143" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D143" t="s" s="0">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="B144" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C144" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D144" t="s" s="0">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="B145" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C145" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D145" t="s" s="0">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="B146" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C146" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D146" t="s" s="0">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="B147" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C147" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D147" t="s" s="0">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="B148" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C148" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D148" t="s" s="0">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="B149" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C149" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D149" t="s" s="0">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="B150" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C150" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D150" t="s" s="0">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="B151" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C151" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D151" t="s" s="0">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B152" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C152" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D152" t="s" s="0">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="B153" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C153" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D153" t="s" s="0">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="B154" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C154" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D154" t="s" s="0">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="B155" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C155" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D155" t="s" s="0">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="B156" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C156" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D156" t="s" s="0">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="157"/>
+    <row r="158"/>
+    <row r="159">
+      <c r="A159" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="B159" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C159" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D159" t="s" s="0">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="B160" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C160" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D160" t="s" s="0">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="B161" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C161" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D161" t="s" s="0">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="B162" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C162" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D162" t="s" s="0">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s" s="0">
+        <v>308</v>
+      </c>
+      <c r="B163" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C163" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D163" t="s" s="0">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="B164" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C164" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D164" t="s" s="0">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="B165" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C165" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D165" t="s" s="0">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s" s="0">
+        <v>314</v>
+      </c>
+      <c r="B166" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C166" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D166" t="s" s="0">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s" s="0">
+        <v>316</v>
+      </c>
+      <c r="B167" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C167" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D167" t="s" s="0">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s" s="0">
+        <v>318</v>
+      </c>
+      <c r="B168" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C168" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D168" t="s" s="0">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s" s="0">
+        <v>320</v>
+      </c>
+      <c r="B169" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C169" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D169" t="s" s="0">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s" s="0">
+        <v>321</v>
+      </c>
+      <c r="B170" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C170" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D170" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s" s="0">
+        <v>323</v>
+      </c>
+      <c r="B171" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C171" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D171" t="s" s="0">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s" s="0">
+        <v>325</v>
+      </c>
+      <c r="B172" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C172" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D172" t="s" s="0">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="B173" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C173" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D173" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="B174" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C174" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D174" t="s" s="0">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="B175" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C175" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D175" t="s" s="0">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s" s="0">
+        <v>327</v>
+      </c>
+      <c r="B176" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C176" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D176" t="s" s="0">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s" s="0">
+        <v>329</v>
+      </c>
+      <c r="B177" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C177" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D177" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s" s="0">
+        <v>331</v>
+      </c>
+      <c r="B178" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C178" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D178" t="s" s="0">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s" s="0">
+        <v>333</v>
+      </c>
+      <c r="B179" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C179" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D179" t="s" s="0">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s" s="0">
+        <v>335</v>
+      </c>
+      <c r="B180" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C180" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D180" t="s" s="0">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s" s="0">
+        <v>337</v>
+      </c>
+      <c r="B181" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C181" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D181" t="s" s="0">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s" s="0">
+        <v>339</v>
+      </c>
+      <c r="B182" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C182" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D182" t="s" s="0">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s" s="0">
+        <v>341</v>
+      </c>
+      <c r="B183" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C183" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D183" t="s" s="0">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s" s="0">
+        <v>343</v>
+      </c>
+      <c r="B184" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C184" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D184" t="s" s="0">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s" s="0">
+        <v>345</v>
+      </c>
+      <c r="B185" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C185" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D185" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="B186" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C186" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D186" t="s" s="0">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s" s="0">
+        <v>349</v>
+      </c>
+      <c r="B187" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C187" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D187" t="s" s="0">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="B188" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C188" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D188" t="s" s="0">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="189"/>
+    <row r="190"/>
+    <row r="191">
+      <c r="A191" t="s" s="0">
+        <v>353</v>
+      </c>
+      <c r="B191" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C191" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D191" t="s" s="0">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s" s="0">
+        <v>355</v>
+      </c>
+      <c r="B192" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C192" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D192" t="s" s="0">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B193" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C193" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D193" t="s" s="0">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s" s="0">
+        <v>359</v>
+      </c>
+      <c r="B194" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C194" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D194" t="s" s="0">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s" s="0">
+        <v>361</v>
+      </c>
+      <c r="B195" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C195" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D195" t="s" s="0">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s" s="0">
+        <v>363</v>
+      </c>
+      <c r="B196" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C196" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D196" t="s" s="0">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s" s="0">
+        <v>365</v>
+      </c>
+      <c r="B197" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C197" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D197" t="s" s="0">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s" s="0">
+        <v>367</v>
+      </c>
+      <c r="B198" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C198" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D198" t="s" s="0">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s" s="0">
+        <v>369</v>
+      </c>
+      <c r="B199" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C199" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D199" t="s" s="0">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s" s="0">
+        <v>371</v>
+      </c>
+      <c r="B200" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C200" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D200" t="s" s="0">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s" s="0">
+        <v>373</v>
+      </c>
+      <c r="B201" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C201" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D201" t="s" s="0">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="B202" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C202" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D202" t="s" s="0">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s" s="0">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s" s="0">
+        <v>378</v>
+      </c>
+      <c r="B204" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C204" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D204" t="s" s="0">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s" s="0">
+        <v>380</v>
+      </c>
+      <c r="B205" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C205" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D205" t="s" s="0">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s" s="0">
+        <v>382</v>
+      </c>
+      <c r="B206" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C206" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D206" t="s" s="0">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s" s="0">
+        <v>383</v>
+      </c>
+      <c r="B207" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C207" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D207" t="s" s="0">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s" s="0">
+        <v>384</v>
+      </c>
+      <c r="B208" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C208" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D208" t="s" s="0">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s" s="0">
+        <v>383</v>
+      </c>
+      <c r="B209" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C209" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D209" t="s" s="0">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s" s="0">
+        <v>386</v>
+      </c>
+      <c r="B210" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C210" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D210" t="s" s="0">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="B211" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C211" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D211" t="s" s="0">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s" s="0">
+        <v>390</v>
+      </c>
+      <c r="B212" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C212" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D212" t="s" s="0">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s" s="0">
+        <v>392</v>
+      </c>
+      <c r="B213" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C213" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D213" t="s" s="0">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s" s="0">
+        <v>394</v>
+      </c>
+      <c r="B214" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C214" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D214" t="s" s="0">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s" s="0">
+        <v>396</v>
+      </c>
+      <c r="B215" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C215" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D215" t="s" s="0">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s" s="0">
+        <v>397</v>
+      </c>
+      <c r="B216" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C216" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D216" t="s" s="0">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s" s="0">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="B218" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C218" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D218" t="s" s="0">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s" s="0">
+        <v>401</v>
+      </c>
+      <c r="B219" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C219" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D219" t="s" s="0">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s" s="0">
+        <v>402</v>
+      </c>
+      <c r="B220" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C220" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D220" t="s" s="0">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s" s="0">
+        <v>404</v>
+      </c>
+      <c r="B221" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C221" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D221" t="s" s="0">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="B222" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C222" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D222" t="s" s="0">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s" s="0">
+        <v>407</v>
+      </c>
+      <c r="B223" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C223" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D223" t="s" s="0">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s" s="0">
+        <v>408</v>
+      </c>
+      <c r="B224" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C224" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D224" t="s" s="0">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s" s="0">
+        <v>373</v>
+      </c>
+      <c r="B225" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C225" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D225" t="s" s="0">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s" s="0">
+        <v>410</v>
+      </c>
+      <c r="B226" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C226" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D226" t="s" s="0">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s" s="0">
+        <v>411</v>
+      </c>
+      <c r="B227" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C227" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D227" t="s" s="0">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s" s="0">
+        <v>413</v>
+      </c>
+      <c r="B228" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C228" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D228" t="s" s="0">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s" s="0">
+        <v>415</v>
+      </c>
+      <c r="B229" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C229" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D229" t="s" s="0">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s" s="0">
+        <v>416</v>
+      </c>
+      <c r="B230" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C230" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D230" t="s" s="0">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s" s="0">
+        <v>418</v>
+      </c>
+      <c r="B231" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C231" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D231" t="s" s="0">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s" s="0">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="233"/>
+    <row r="234">
+      <c r="B234" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C234" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D234" t="s" s="0">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s" s="0">
+        <v>422</v>
+      </c>
+      <c r="B235" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C235" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D235" t="s" s="0">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s" s="0">
+        <v>397</v>
+      </c>
+      <c r="B236" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C236" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D236" t="s" s="0">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s" s="0">
+        <v>424</v>
+      </c>
+      <c r="B237" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C237" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D237" t="s" s="0">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s" s="0">
+        <v>426</v>
+      </c>
+      <c r="B238" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C238" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D238" t="s" s="0">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s" s="0">
+        <v>427</v>
+      </c>
+      <c r="B239" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C239" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D239" t="s" s="0">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s" s="0">
+        <v>429</v>
+      </c>
+      <c r="B240" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C240" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D240" t="s" s="0">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s" s="0">
+        <v>430</v>
+      </c>
+      <c r="B241" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C241" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D241" t="s" s="0">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s" s="0">
+        <v>404</v>
+      </c>
+      <c r="B242" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C242" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D242" t="s" s="0">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s" s="0">
+        <v>402</v>
+      </c>
+      <c r="B243" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C243" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D243" t="s" s="0">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="B244" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C244" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D244" t="s" s="0">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s" s="0">
+        <v>401</v>
+      </c>
+      <c r="B245" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C245" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D245" t="s" s="0">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s" s="0">
+        <v>371</v>
+      </c>
+      <c r="B246" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C246" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D246" t="s" s="0">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s" s="0">
+        <v>373</v>
+      </c>
+      <c r="B247" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C247" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D247" t="s" s="0">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s" s="0">
+        <v>410</v>
+      </c>
+      <c r="B248" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C248" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D248" t="s" s="0">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s" s="0">
+        <v>411</v>
+      </c>
+      <c r="B249" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C249" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D249" t="s" s="0">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s" s="0">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s" s="0">
+        <v>432</v>
+      </c>
+      <c r="B251" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C251" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D251" t="s" s="0">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s" s="0">
+        <v>434</v>
+      </c>
+      <c r="B252" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C252" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D252" t="s" s="0">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s" s="0">
+        <v>436</v>
+      </c>
+      <c r="B253" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C253" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D253" t="s" s="0">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s" s="0">
+        <v>438</v>
+      </c>
+      <c r="B254" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C254" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D254" t="s" s="0">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s" s="0">
+        <v>440</v>
+      </c>
+      <c r="B255" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C255" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D255" t="s" s="0">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s" s="0">
+        <v>442</v>
+      </c>
+      <c r="B256" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C256" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D256" t="s" s="0">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s" s="0">
+        <v>444</v>
+      </c>
+      <c r="B257" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C257" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D257" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s" s="0">
+        <v>445</v>
+      </c>
+      <c r="B258" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C258" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D258" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s" s="0">
+        <v>446</v>
+      </c>
+      <c r="B259" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C259" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D259" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s" s="0">
+        <v>447</v>
+      </c>
+      <c r="B260" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C260" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D260" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s" s="0">
+        <v>448</v>
+      </c>
+      <c r="B261" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C261" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D261" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s" s="0">
+        <v>449</v>
+      </c>
+      <c r="B262" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C262" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D262" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s" s="0">
+        <v>450</v>
+      </c>
+      <c r="B263" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C263" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D263" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B264" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C264" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D264" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B265" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C265" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D265" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s" s="0">
+        <v>451</v>
+      </c>
+      <c r="B266" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C266" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D266" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s" s="0">
+        <v>452</v>
+      </c>
+      <c r="B267" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C267" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D267" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B268" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C268" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D268" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="B269" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C269" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D269" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B270" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C270" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D270" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B271" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C271" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D271" t="s" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B272" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C272" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D272" t="s" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B273" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C273" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D273" t="s" s="0">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B274" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C274" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D274" t="s" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="B275" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C275" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D275" t="s" s="0">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B276" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C276" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D276" t="s" s="0">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B277" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C277" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D277" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B278" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C278" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D278" t="s" s="0">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B279" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C279" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D279" t="s" s="0">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="B280" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C280" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D280" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="B281" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C281" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D281" t="s" s="0">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="282"/>
+    <row r="283"/>
+    <row r="284"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2185,110 +5896,110 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="66.26953125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="66.26953125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>80</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>76</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>78</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13">
+      <c r="A13" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B13" s="0">
         <v>0</v>
       </c>
     </row>
@@ -2307,77 +6018,77 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.54296875" customWidth="1"/>
-    <col min="2" max="2" width="19.26953125" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
-    <col min="5" max="5" width="38.7265625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="35.54296875"/>
+    <col min="2" max="2" customWidth="true" width="19.26953125"/>
+    <col min="3" max="3" customWidth="true" width="17.453125"/>
+    <col min="5" max="5" customWidth="true" width="38.7265625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="0">
         <v>2700</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="0">
         <v>5400</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="0">
         <v>2700</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="0">
         <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="0">
         <v>5400</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="0">
         <v>69</v>
       </c>
     </row>

--- a/src/main/java/data/QuizTestAppData.xlsx
+++ b/src/main/java/data/QuizTestAppData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\btl oop\quiz-test-app\src\main\java\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\JavaProjects\QuizApp\quiz-test-app\src\main\java\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A7AB38-2BC6-4487-9069-4BEB660B8D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC596134-E12A-4E2F-85FC-2ACB5E722993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QuestionBank" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="141">
   <si>
     <t>10-6-2023 12-00-00</t>
   </si>
@@ -119,9 +119,6 @@
   </si>
   <si>
     <t>root/Course : IT/OOP/GK</t>
-  </si>
-  <si>
-    <t>root/Course : Junior high school/Sinh học 7/CK</t>
   </si>
   <si>
     <t>Quá trình tiêu hóa thức ăn diễn ra chủ yếu ở đâu trong cơ thể người?</t>
@@ -349,24 +346,260 @@
 D. Tiêu hóa</t>
   </si>
   <si>
-    <t>Các tế bào gốc làm gì?</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>A. Tiêu hóa thức ăn
-B. Tạo ra hormone
-C. Tái tạo và phục hồi các tế bào khác
-D. Phát triển cơ bắp
-E. Làm cơ thể tồn tại</t>
-  </si>
-  <si>
-    <t>A. Cá
-B. Chim
-C. Rắn
-D. Rùa
-E. Sò</t>
+    <t>thang huy co ny chua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+A. khong
+B. Ko
+C.KHum
+null
+null
+null
+null
+null
+null
+null</t>
+  </si>
+  <si>
+    <t>Biển lớn nhất trên Trái Đất là:</t>
+  </si>
+  <si>
+    <t>A. Thái Bình Dương
+B. Ấn Độ Dương
+C. Đại Tây Dương</t>
+  </si>
+  <si>
+    <t>Dòng sông lớn nhất châu Á là:</t>
+  </si>
+  <si>
+    <t>A. Sông Nile
+B. Sông Mekong
+C. Sông Dương Tử</t>
+  </si>
+  <si>
+    <t>Dãy núi cao nhất thế giới là:</t>
+  </si>
+  <si>
+    <t>A. Dãy Andes
+B. Dãy Himalaya
+C. Dãy Alps</t>
+  </si>
+  <si>
+    <t>Hòn đảo lớn nhất trên Trái Đất là:</t>
+  </si>
+  <si>
+    <t>A. Đảo Borneo
+B. Đảo Madagascar
+C. Đảo Greenland</t>
+  </si>
+  <si>
+    <t>Đảo lớn nhất của Việt Nam là:</t>
+  </si>
+  <si>
+    <t>A. Phú Quốc
+B. Cát Bà
+C. Hòn Tre</t>
+  </si>
+  <si>
+    <t>Châu lục có dân số đông nhất là:</t>
+  </si>
+  <si>
+    <t>A. Châu Á
+B. Châu Âu
+C. Châu Phi</t>
+  </si>
+  <si>
+    <t>Thành phố có dân số đông nhất thế giới là:</t>
+  </si>
+  <si>
+    <t>A. Tokyo
+B. New York
+C. Delhi</t>
+  </si>
+  <si>
+    <t>Núi cao nhất thế giới là:</t>
+  </si>
+  <si>
+    <t>A. Everest
+B. K2
+C. Kangchenjunga</t>
+  </si>
+  <si>
+    <t>Quốc gia nào là nơi sinh sống của người Eskimo?</t>
+  </si>
+  <si>
+    <t>A. Canada
+B. Greenland
+C. Alaska</t>
+  </si>
+  <si>
+    <t>Thành phố Paris nằm ở nước nào?</t>
+  </si>
+  <si>
+    <t>A. Pháp
+B. Ý
+C. Anh</t>
+  </si>
+  <si>
+    <t>Dòng sông Nile chảy qua bao nhiêu quốc gia?</t>
+  </si>
+  <si>
+    <t>A. 1
+B. 2
+C. 3</t>
+  </si>
+  <si>
+    <t>Quốc gia nào được gọi là "đất nụ cười"?</t>
+  </si>
+  <si>
+    <t>A. Brazil
+B. Ý
+C. Thái Lan</t>
+  </si>
+  <si>
+    <t>Dãy núi Andes nằm ở:</t>
+  </si>
+  <si>
+    <t>A. Nam Mỹ
+B. Bắc Mỹ
+C. Châu Âu</t>
+  </si>
+  <si>
+    <t>Thành phố nổi tiếng với ngọn núi Phật Di Lặc là:</t>
+  </si>
+  <si>
+    <t>A. Tokyo
+B. Kathmandu
+C. Hong Kong</t>
+  </si>
+  <si>
+    <t>Kênh đào nổi tiếng nằm ở Ai Cập là:</t>
+  </si>
+  <si>
+    <t>A. Kênh Panama
+B. Kênh Suez
+C. Kênh Kiel</t>
+  </si>
+  <si>
+    <t>Nước nào là quốc gia lớn nhất thế giới về diện tích?</t>
+  </si>
+  <si>
+    <t>A. Nga
+B. Trung Quốc
+C. Mỹ</t>
+  </si>
+  <si>
+    <t>Đại ngàn nổi tiếng của Việt Nam là:</t>
+  </si>
+  <si>
+    <t>A. Đại Sơn
+B. Trường Sơn
+C. Trường Giang</t>
+  </si>
+  <si>
+    <t>Kỳ quan thế giới Machu Picchu nằm ở quốc gia nào?</t>
+  </si>
+  <si>
+    <t>A. Peru
+B. Brazil
+C. Colombia</t>
+  </si>
+  <si>
+    <t>Địa danh nổi tiếng "Vịnh Hạ Long" nằm ở tỉnh nào của Việt Nam?</t>
+  </si>
+  <si>
+    <t>A. Quảng Ninh
+B. Thanh Hóa
+C. Nghệ An</t>
+  </si>
+  <si>
+    <t>Hệ thống sông Mê Kông chảy qua bao nhiêu quốc gia?</t>
+  </si>
+  <si>
+    <t>A. 2
+B. 4
+C. 6</t>
+  </si>
+  <si>
+    <t>Thành phố Moscow nằm ở quốc gia nào?</t>
+  </si>
+  <si>
+    <t>A. Nga
+B. Pháp
+C. Đức</t>
+  </si>
+  <si>
+    <t>Đảo Jeju nằm ở quốc gia nào?</t>
+  </si>
+  <si>
+    <t>A. Nhật Bản
+B. Hàn Quốc
+C. Indonesia</t>
+  </si>
+  <si>
+    <t>Dãy núi Alps nằm ở:</t>
+  </si>
+  <si>
+    <t>A. Châu Phi
+B. Châu Mỹ
+C. Châu Âu</t>
+  </si>
+  <si>
+    <t>Quốc gia nào là quê hương của người Maori?</t>
+  </si>
+  <si>
+    <t>A. Úc
+B. New Zealand
+C. Hawaii</t>
+  </si>
+  <si>
+    <t>Quốc gia nào là quê hương của kim cương?</t>
+  </si>
+  <si>
+    <t>A. Nam Phi
+B. Nga
+C. Ấn Độ</t>
+  </si>
+  <si>
+    <t>Thành phố nào được gọi là "thành phố của tình yêu"?</t>
+  </si>
+  <si>
+    <t>A. Paris
+B. Rome
+C. Barcelona</t>
+  </si>
+  <si>
+    <t>Đại dương nằm giữa châu lục Mỹ và châu lục châu Á là:</t>
+  </si>
+  <si>
+    <t>A. Đại Tây Dương
+B. Ấn Độ Dương
+C. Thái Bình Dương</t>
+  </si>
+  <si>
+    <t>Quốc gia nào nằm ở khu vực Châu Phi?</t>
+  </si>
+  <si>
+    <t>A. Argentina
+B. Nigeria
+C. Thụy Điển</t>
+  </si>
+  <si>
+    <t>Kênh đào Panama nằm ở đất nước nào?</t>
+  </si>
+  <si>
+    <t>A. Mexico
+B. Panama
+C. Colombia</t>
+  </si>
+  <si>
+    <t>Thành phố Sydney nằm ở quốc gia nào?</t>
+  </si>
+  <si>
+    <t>A. Úc
+B. New Zealand
+C. Canada</t>
   </si>
 </sst>
 </file>
@@ -685,367 +918,808 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="94.5546875"/>
+    <col min="2" max="2" customWidth="true" width="101.5546875"/>
+    <col min="3" max="3" customWidth="true" width="5.21875"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s" s="0">
         <v>28</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>29</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s" s="0">
         <v>31</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s" s="0">
         <v>34</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>35</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s" s="0">
         <v>37</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>38</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s" s="0">
         <v>19</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>82</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s" s="0">
         <v>42</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>43</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s" s="0">
         <v>44</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>45</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s" s="0">
         <v>46</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>41</v>
-      </c>
-      <c r="D8" t="s" s="0">
-        <v>47</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s" s="0">
         <v>48</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="D9" t="s" s="0">
-        <v>49</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s" s="0">
         <v>50</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="D10" t="s" s="0">
-        <v>51</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s" s="0">
         <v>52</v>
-      </c>
-      <c r="B11" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="D11" t="s" s="0">
-        <v>53</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s" s="0">
         <v>54</v>
-      </c>
-      <c r="B12" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="D12" t="s" s="0">
-        <v>55</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s" s="0">
         <v>56</v>
-      </c>
-      <c r="B13" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="C13" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="D13" t="s" s="0">
-        <v>57</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s" s="0">
         <v>58</v>
-      </c>
-      <c r="B14" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="C14" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="D14" t="s" s="0">
-        <v>59</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s" s="0">
         <v>60</v>
-      </c>
-      <c r="B15" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="C15" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="D15" t="s" s="0">
-        <v>61</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s" s="0">
         <v>62</v>
-      </c>
-      <c r="B16" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="C16" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="D16" t="s" s="0">
-        <v>63</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s" s="0">
         <v>64</v>
-      </c>
-      <c r="B17" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="C17" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="D17" t="s" s="0">
-        <v>65</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B18" t="s" s="0">
         <v>19</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D19" t="s" s="0">
         <v>67</v>
-      </c>
-      <c r="B19" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="C19" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="D19" t="s" s="0">
-        <v>68</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="D20" t="s" s="0">
         <v>69</v>
-      </c>
-      <c r="B20" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="C20" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="D20" t="s" s="0">
-        <v>70</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="D21" t="s" s="0">
         <v>71</v>
-      </c>
-      <c r="B21" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="C21" t="s" s="0">
-        <v>41</v>
-      </c>
-      <c r="D21" t="s" s="0">
-        <v>72</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="D22" t="s" s="0">
         <v>73</v>
-      </c>
-      <c r="B22" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="C22" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="D22" t="s" s="0">
-        <v>83</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="D23" t="s" s="0">
         <v>75</v>
-      </c>
-      <c r="B23" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="C23" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="D23" t="s" s="0">
-        <v>76</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B24" t="s" s="0">
         <v>19</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D25" t="s" s="0">
         <v>78</v>
-      </c>
-      <c r="B25" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="C25" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="D25" t="s" s="0">
-        <v>79</v>
       </c>
     </row>
     <row r="26"/>
     <row r="27"/>
     <row r="28"/>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D30" t="s" s="0">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D31" t="s" s="0">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D32" t="s" s="0">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="D33" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D34" t="s" s="0">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D35" t="s" s="0">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D36" t="s" s="0">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D37" t="s" s="0">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D38" t="s" s="0">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D39" t="s" s="0">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="D40" t="s" s="0">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="D41" t="s" s="0">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D42" t="s" s="0">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D43" t="s" s="0">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C44" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D44" t="s" s="0">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D45" t="s" s="0">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D46" t="s" s="0">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C47" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D47" t="s" s="0">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C48" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D48" t="s" s="0">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C49" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D49" t="s" s="0">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C50" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D50" t="s" s="0">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C51" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D51" t="s" s="0">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C52" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="D52" t="s" s="0">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C53" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D53" t="s" s="0">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C54" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D54" t="s" s="0">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C55" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D55" t="s" s="0">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C56" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="D56" t="s" s="0">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C57" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D57" t="s" s="0">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C58" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D58" t="s" s="0">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C59" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D59" t="s" s="0">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="60"/>
+    <row r="61"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1053,26 +1727,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7375D0D9-A088-4E33-84C0-F60360358F66}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="66.26953125"/>
+    <col min="1" max="1" customWidth="true" width="66.21875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s" s="0">
         <v>8</v>
       </c>
       <c r="B1" s="0" t="n">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>61.0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s" s="0">
         <v>9</v>
       </c>
@@ -1080,7 +1754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s" s="0">
         <v>10</v>
       </c>
@@ -1088,7 +1762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s" s="0">
         <v>11</v>
       </c>
@@ -1096,7 +1770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s" s="0">
         <v>12</v>
       </c>
@@ -1104,7 +1778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s" s="0">
         <v>13</v>
       </c>
@@ -1112,7 +1786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s" s="0">
         <v>14</v>
       </c>
@@ -1120,7 +1794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s" s="0">
         <v>15</v>
       </c>
@@ -1128,7 +1802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s" s="0">
         <v>16</v>
       </c>
@@ -1136,7 +1810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s" s="0">
         <v>17</v>
       </c>
@@ -1144,7 +1818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s" s="0">
         <v>18</v>
       </c>
@@ -1152,31 +1826,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s" s="0">
         <v>22</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+        <v>61.0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s" s="0">
         <v>19</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+        <v>29.0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="B14" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B14" s="0" t="n">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s" s="0">
         <v>21</v>
       </c>
@@ -1184,7 +1858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s" s="0">
         <v>23</v>
       </c>
@@ -1192,7 +1866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s" s="0">
         <v>24</v>
       </c>
@@ -1200,7 +1874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s" s="0">
         <v>25</v>
       </c>
@@ -1208,19 +1882,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s" s="0">
         <v>26</v>
       </c>
       <c r="B19" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="B20" s="0">
         <v>0</v>
       </c>
     </row>
@@ -1237,15 +1903,15 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.54296875"/>
-    <col min="2" max="2" customWidth="true" width="19.26953125"/>
-    <col min="3" max="3" customWidth="true" width="17.453125"/>
-    <col min="5" max="5" customWidth="true" width="38.7265625"/>
+    <col min="1" max="1" customWidth="true" width="35.5546875"/>
+    <col min="2" max="2" customWidth="true" width="19.21875"/>
+    <col min="3" max="3" customWidth="true" width="17.44140625"/>
+    <col min="5" max="5" customWidth="true" width="38.77734375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s" s="0">
         <v>3</v>
       </c>
@@ -1262,7 +1928,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
@@ -1279,7 +1945,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s" s="0">
         <v>3</v>
       </c>
@@ -1296,7 +1962,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s" s="0">
         <v>4</v>
       </c>

--- a/src/main/java/data/QuizTestAppData.xlsx
+++ b/src/main/java/data/QuizTestAppData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\btl oop\quiz-test-app\src\main\java\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A7AB38-2BC6-4487-9069-4BEB660B8D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03F77C3-85BA-488D-9E10-D116A8CACE2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="160">
   <si>
     <t>10-6-2023 12-00-00</t>
   </si>
@@ -349,24 +349,342 @@
 D. Tiêu hóa</t>
   </si>
   <si>
-    <t>Các tế bào gốc làm gì?</t>
+    <t>Quá trình tiêu văn hóa thức ăn diễn ra chủ yếu ở đâu trong cơ thể người?</t>
+  </si>
+  <si>
+    <t>Hệ điều hành là gì?</t>
+  </si>
+  <si>
+    <t>A. Một phần mềm cho phép người dùng tương tác với phần cứng máy tính.
+B. Một ứng dụng dùng để xử lý văn bản và bảng tính.
+C. Một hình thức lưu trữ dữ liệu trên đám mây.
+D. Một công nghệ mạng cho phép truyền tải dữ liệu nhanh chóng.</t>
+  </si>
+  <si>
+    <t>Hệ điều hành nào là mã nguồn mở?</t>
+  </si>
+  <si>
+    <t>A. Windows
+B. macOS
+C. Linux
+D. iOS</t>
+  </si>
+  <si>
+    <t>Đâu không phải là một loại hệ điều hành?</t>
+  </si>
+  <si>
+    <t>A. Windows
+B. Android
+C. Microsoft Office
+D. macOS</t>
+  </si>
+  <si>
+    <t>Hệ điều hành nào được phát triển bởi Apple?</t>
+  </si>
+  <si>
+    <t>A. Windows
+B. Linux
+C. Android
+D. macOS</t>
+  </si>
+  <si>
+    <t>Giao diện người dùng đồ họa (GUI) cung cấp cho người dùng một cách nào để tương tác với hệ điều hành?</t>
+  </si>
+  <si>
+    <t>A. Dòng lệnh
+B. Biểu đồ hình tròn
+C. Các tệp tin văn bản
+D. Các biểu tượng và cửa sổ</t>
+  </si>
+  <si>
+    <t>Hệ điều hành Android được phát triển bởi công ty nào?</t>
+  </si>
+  <si>
+    <t>A. Microsoft
+B. Google
+C. Apple
+D. Facebook</t>
+  </si>
+  <si>
+    <t>Hệ điều hành nào sử dụng kernel Linux?</t>
+  </si>
+  <si>
+    <t>A. Windows
+B. macOS
+C. Android
+D. iOS</t>
+  </si>
+  <si>
+    <t>Hệ điều hành Windows hỗ trợ chạy trên nền tảng nào?</t>
+  </si>
+  <si>
+    <t>A. Máy tính cá nhân
+B. Điện thoại di động
+C. Máy tính bảng
+D. Cả A, B và C</t>
+  </si>
+  <si>
+    <t>Đâu không phải là một hệ điều hành máy tính cá nhân?</t>
+  </si>
+  <si>
+    <t>A. Windows
+B. Linux
+C. macOS
+D. iOS</t>
+  </si>
+  <si>
+    <t>Hệ điều hành Linux có bao nhiêu phiên bản chính?</t>
+  </si>
+  <si>
+    <t>A. 1
+B. 2
+C. 3
+D. Không giới hạn</t>
+  </si>
+  <si>
+    <t>Hệ điều hành macOS phát triển dựa trên nền tảng nào?</t>
+  </si>
+  <si>
+    <t>A. Windows
+B. Linux
+C. UNIX
+D. Android</t>
+  </si>
+  <si>
+    <t>Đâu là một hệ điều hành mã nguồn mở?</t>
+  </si>
+  <si>
+    <t>A. Windows
+B. macOS
+C. iOS
+D. Ubuntu</t>
+  </si>
+  <si>
+    <t>Vui lòng cho biết hệ điều hành nào được sử dụng phổ biến nhất trên máy tính cá nhân?</t>
+  </si>
+  <si>
+    <t>A. Windows
+B. macOS
+C. Linux
+D. Chrome OS</t>
+  </si>
+  <si>
+    <t>Hệ điều hành nào được sử dụng phổ biến nhất trên điện thoại di động?</t>
+  </si>
+  <si>
+    <t>A. Windows
+B. iOS
+C. Linux
+D. Android</t>
+  </si>
+  <si>
+    <t>Hệ điều hành iOS được phát triển bởi công ty nào?</t>
+  </si>
+  <si>
+    <t>Hệ điều hành Android được phát triển dựa trên nền tảng nào?</t>
+  </si>
+  <si>
+    <t>Hệ điều hành Windows phổ biến nhất trên máy tính cá nhân nhưng không được sử dụng rộng rãi trên thiết bị nào sau đây?</t>
+  </si>
+  <si>
+    <t>A. Máy tính xách tay
+B. Máy tính để bàn
+C. Máy tính bảng
+D. Điện thoại di động</t>
+  </si>
+  <si>
+    <t>Định dạng tệp tin thực thi (.exe) thường được sử dụng trong hệ điều hành nào?</t>
+  </si>
+  <si>
+    <t>A. Windows
+B. macOS
+C. Linux
+D. Android</t>
+  </si>
+  <si>
+    <t>Giao diện dòng lệnh (Command Line Interface) là một phương pháp tương tác với hệ điều hành thông qua:</t>
+  </si>
+  <si>
+    <t>A. Các biểu đồ và hình ảnh
+B. Các biểu tượng và cửa sổ
+C. Các lệnh văn bản
+D. Các phím chức năng</t>
+  </si>
+  <si>
+    <t>Trình duyệt web nào phổ biến nhất trên hệ điều hành Windows?</t>
+  </si>
+  <si>
+    <t>A. Google Chrome
+B. Mozilla Firefox
+C. Microsoft Edge
+D. Safari</t>
+  </si>
+  <si>
+    <t>Trình duyệt web Safari được phát triển bởi công ty nào?</t>
+  </si>
+  <si>
+    <t>A. Google
+B. Mozilla
+C. Apple
+D. Microsoft</t>
+  </si>
+  <si>
+    <t>Cơ chế nào cho phép nhiều ứng dụng chạy cùng lúc trên hệ điều hành?</t>
+  </si>
+  <si>
+    <t>A. Multi-threading
+B. Multi-tasking
+C. Multi-processing
+D. Multi-user</t>
+  </si>
+  <si>
+    <t>Trình quản lý tác vụ (Task Manager) là một tính năng của hệ điều hành nào?</t>
+  </si>
+  <si>
+    <t>Hệ điều hành Android phát triển bởi công ty nào?</t>
+  </si>
+  <si>
+    <t>Ngôn ngữ lập trình nào phổ biến cho việc phát triển ứng dụng trên hệ điều hành iOS?</t>
+  </si>
+  <si>
+    <t>A. Java
+B. C++
+C. Swift
+D. Python</t>
+  </si>
+  <si>
+    <t>Hệ điều hành Ubuntu dựa trên nền tảng nào?</t>
+  </si>
+  <si>
+    <t>Hệ điều hành Windows phát triển bởi công ty nào?</t>
+  </si>
+  <si>
+    <t>A. Microsoft
+B. Apple
+C. Google
+D. Linux Foundation</t>
+  </si>
+  <si>
+    <t>Hệ điều hành Android được phát triển dựa trên nền tảng mã nguồn mở nào?</t>
+  </si>
+  <si>
+    <t>Hệ điều hành Android được sử dụng rộng rãi trên các thiết bị nào?</t>
+  </si>
+  <si>
+    <t>A. Máy tính cá nhân
+B. Điện thoại di động
+C. Máy tính bảng
+D. Cả B và C</t>
+  </si>
+  <si>
+    <t>Trình duyệt web nào không phổ biến trên hệ điều hành Windows?</t>
+  </si>
+  <si>
+    <t>Các hệ điều hành Linux phổ biến nhất là gì?</t>
+  </si>
+  <si>
+    <t>A. Ubuntu
+B. Fedora
+C. CentOS
+D. Tất cả đều đúng</t>
+  </si>
+  <si>
+    <t>Ngôn ngữ lập trình nào phổ biến cho việc phát triển ứng dụng trên hệ điều hành Android?</t>
+  </si>
+  <si>
+    <t>Trình duyệt web nào phổ biến nhất trên hệ điều hành macOS?</t>
+  </si>
+  <si>
+    <t>A. Google Chrome
+B. Mozilla Firefox
+C. Safari
+D. Microsoft Edge</t>
+  </si>
+  <si>
+    <t>Hệ điều hành Ubuntu được phát triển bởi công ty nào?</t>
+  </si>
+  <si>
+    <t>A. Microsoft
+B. Apple
+C. Canonical Ltd.
+D. Google</t>
+  </si>
+  <si>
+    <t>Hệ điều hành Android dựa trên nền tảng mã nguồn mở nào?</t>
+  </si>
+  <si>
+    <t>Cơ chế nào cho phép chia sẻ tài nguyên giữa các máy tính trong mạng LAN?</t>
+  </si>
+  <si>
+    <t>A. VPN
+B. LAN
+C. WLAN
+D. P2P</t>
+  </si>
+  <si>
+    <t>Hệ điều hành Linux phát triển dựa trên kernel nào?</t>
+  </si>
+  <si>
+    <t>A. Windows Kernel
+B. macOS Kernel
+C. Linux Kernel
+D. UNIX Kernel</t>
+  </si>
+  <si>
+    <t>Hệ điều hành macOS chỉ chạy được trên phần cứng của hãng nào?</t>
+  </si>
+  <si>
+    <t>A. Dell
+B. HP
+C. Apple
+D. Lenovo</t>
+  </si>
+  <si>
+    <t>Hệ điều hành Windows hỗ trợ giao diện người dùng tiếng Việt?</t>
+  </si>
+  <si>
+    <t>A. Có
+B. Không</t>
+  </si>
+  <si>
+    <t>Hệ điều hành Windows sử dụng kernel nào?</t>
+  </si>
+  <si>
+    <t>A. NT Kernel
+B. Darwin Kernel
+C. Linux Kernel
+D. Unix Kernel</t>
+  </si>
+  <si>
+    <t>Hệ điều hành Linux phát triển dựa trên nền tảng nào?</t>
+  </si>
+  <si>
+    <t>Hệ điều hành Android phổ biến trên điện thoại di động do công ty nào phát triển?</t>
+  </si>
+  <si>
+    <t>A. Microsoft
+B. Google
+C. Apple
+D. Samsung</t>
+  </si>
+  <si>
+    <t>Trình duyệt web nào phổ biến trên hệ điều hành Windows?</t>
+  </si>
+  <si>
+    <t>Hệ điều hành macOS phát triển bởi công ty nào?</t>
+  </si>
+  <si>
+    <t>Hệ điều hành là cái thứ gì?</t>
   </si>
   <si>
     <t>E</t>
   </si>
   <si>
-    <t>A. Tiêu hóa thức ăn
-B. Tạo ra hormone
-C. Tái tạo và phục hồi các tế bào khác
-D. Phát triển cơ bắp
-E. Làm cơ thể tồn tại</t>
-  </si>
-  <si>
-    <t>A. Cá
-B. Chim
-C. Rắn
-D. Rùa
-E. Sò</t>
+    <t>A. Một phần mềm cho phép người dùng tương tác với phần cứng máy tính.
+B. Một ứng dụng dùng để xử lý văn bản và bảng tính.
+C. Một hình thức lưu trữ dữ liệu trên đám mây.
+D. Một công nghệ mạng cho phép truyền tải dữ liệu nhanh chóng.
+E. Nơi giao tiếp phần mềm và phần cứng</t>
   </si>
 </sst>
 </file>
@@ -685,17 +1003,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection sqref="A1:XFD55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="B1" t="s" s="0">
         <v>19</v>
@@ -751,16 +1069,16 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s" s="0">
         <v>19</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>82</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
@@ -995,10 +1313,10 @@
         <v>19</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23">
@@ -1046,6 +1364,777 @@
     <row r="26"/>
     <row r="27"/>
     <row r="28"/>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="D30" t="s" s="0">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="D31" t="s" s="0">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="D32" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="D33" t="s" s="0">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="D34" t="s" s="0">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="D35" t="s" s="0">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="D36" t="s" s="0">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="D37" t="s" s="0">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="D38" t="s" s="0">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="D39" t="s" s="0">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="D40" t="s" s="0">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="D41" t="s" s="0">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="D42" t="s" s="0">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="D43" t="s" s="0">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C44" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="D44" t="s" s="0">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="D45" t="s" s="0">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="D46" t="s" s="0">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C47" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="D47" t="s" s="0">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C48" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="D48" t="s" s="0">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C49" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="D49" t="s" s="0">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C50" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="D50" t="s" s="0">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C51" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="D51" t="s" s="0">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C52" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="D52" t="s" s="0">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C53" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="D53" t="s" s="0">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C54" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="D54" t="s" s="0">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C55" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="D55" t="s" s="0">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C56" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="D56" t="s" s="0">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C57" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="D57" t="s" s="0">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C58" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="D58" t="s" s="0">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C59" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="D59" t="s" s="0">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C60" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="D60" t="s" s="0">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B61" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C61" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="D61" t="s" s="0">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="B62" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C62" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="D62" t="s" s="0">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C63" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="D63" t="s" s="0">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="B64" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C64" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="D64" t="s" s="0">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="B65" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C65" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="D65" t="s" s="0">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="B66" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C66" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="D66" t="s" s="0">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="B67" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C67" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="D67" t="s" s="0">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="B68" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C68" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="D68" t="s" s="0">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C69" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="D69" t="s" s="0">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C70" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="D70" t="s" s="0">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="B71" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C71" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="D71" t="s" s="0">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="B72" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C72" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="D72" t="s" s="0">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="B73" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C73" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="D73" t="s" s="0">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="B74" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C74" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="D74" t="s" s="0">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="B75" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C75" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="D75" t="s" s="0">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="B76" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C76" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="D76" t="s" s="0">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="B77" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C77" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="D77" t="s" s="0">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="B78" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C78" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="D78" t="s" s="0">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="B79" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C79" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="D79" t="s" s="0">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B80" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C80" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="D80" t="s" s="0">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B81" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C81" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="D81" t="s" s="0">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="B82" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C82" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="D82" t="s" s="0">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="B83" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C83" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="D83" t="s" s="0">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="84"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1069,23 +2158,23 @@
         <v>8</v>
       </c>
       <c r="B1" s="0" t="n">
-        <v>28.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="B2" s="0">
-        <v>0</v>
+      <c r="B2" s="0" t="n">
+        <v>56.0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B3" s="0">
-        <v>0</v>
+      <c r="B3" s="0" t="n">
+        <v>56.0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -1188,8 +2277,8 @@
       <c r="A16" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="B16" s="0">
-        <v>0</v>
+      <c r="B16" s="0" t="n">
+        <v>56.0</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -1234,7 +2323,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/src/main/java/data/QuizTestAppData.xlsx
+++ b/src/main/java/data/QuizTestAppData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\btl oop\quiz-test-app\src\main\java\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3061E72-3467-4D86-BF6F-59D0B6BDCC76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4840A02C-1321-443D-9825-342F98DCAFBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="284">
   <si>
     <t>10-6-2023 12-00-00</t>
   </si>
@@ -940,6 +940,257 @@
     <t>A. Úc
 B. New Zealand
 C. Canada</t>
+  </si>
+  <si>
+    <t>Thi gi do</t>
+  </si>
+  <si>
+    <t>10/9/2023</t>
+  </si>
+  <si>
+    <t>11/9/2023</t>
+  </si>
+  <si>
+    <t>1, 4, 7, 9</t>
+  </si>
+  <si>
+    <t>Đơn vị đo dung lượng bộ nhớ được sử dụng trong máy tính là:</t>
+  </si>
+  <si>
+    <t>A. Byte
+B. Bit
+C. Kilobyte</t>
+  </si>
+  <si>
+    <t>Đâu là phần mềm văn bản phổ biến nhất?</t>
+  </si>
+  <si>
+    <t>A. Microsoft Word
+B. Adobe Photoshop
+C. Google Chrome</t>
+  </si>
+  <si>
+    <t>Loại màn hình nào có khả năng hiển thị hình ảnh chất lượng cao nhất?</t>
+  </si>
+  <si>
+    <t>A. LCD
+B. LED
+C. OLED</t>
+  </si>
+  <si>
+    <t>Thiết bị nào dùng để lưu trữ dữ liệu lâu dài và có khả năng di động?</t>
+  </si>
+  <si>
+    <t>A. USB
+B. CD/DVD
+C. Ổ cứng di động</t>
+  </si>
+  <si>
+    <t>Giao thức truyền thông phổ biến trong mạng Internet là:</t>
+  </si>
+  <si>
+    <t>A. HTTP
+B. FTP
+C. SMTP</t>
+  </si>
+  <si>
+    <t>Đâu không phải là phần cứng của máy tính?</t>
+  </si>
+  <si>
+    <t>A. Bàn phím
+B. Hệ điều hành
+C. Chuột</t>
+  </si>
+  <si>
+    <t>Định dạng file hình ảnh phổ biến là:</t>
+  </si>
+  <si>
+    <t>A. JPG
+B. MP3
+C. PDF</t>
+  </si>
+  <si>
+    <t>Loại kết nối không dây phổ biến cho các thiết bị di động là:</t>
+  </si>
+  <si>
+    <t>A. Wi-Fi
+B. Bluetooth
+C. NFC</t>
+  </si>
+  <si>
+    <t>Giao diện nào được sử dụng phổ biến trong các thiết bị di động?</t>
+  </si>
+  <si>
+    <t>A. Touchscreen
+B. Keyboard
+C. Mouse</t>
+  </si>
+  <si>
+    <t>Công nghệ nào cho phép chuyển dữ liệu từ thiết bị di động sang máy tính một cách nhanh chóng và không cần dây?</t>
+  </si>
+  <si>
+    <t>A. Bluetooth
+B. Wi-Fi
+C. NFC</t>
+  </si>
+  <si>
+    <t>Loại pin nào được sử dụng phổ biến trong các thiết bị di động?</t>
+  </si>
+  <si>
+    <t>A. Pin kiềm
+B. Pin lithium-ion
+C. Pin axit chì</t>
+  </si>
+  <si>
+    <t>Loại máy tính nào có kích thước nhỏ gọn, dễ dàng mang theo?</t>
+  </si>
+  <si>
+    <t>A. Máy tính xách tay
+B. Máy tính để bàn
+C. Máy tính siêu việt</t>
+  </si>
+  <si>
+    <t>Đâu là trình duyệt web phổ biến nhất?</t>
+  </si>
+  <si>
+    <t>A. Google Chrome
+B. Safari
+C. Mozilla Firefox</t>
+  </si>
+  <si>
+    <t>Loại kết nối dùng để truyền dữ liệu giữa máy tính và máy in là:</t>
+  </si>
+  <si>
+    <t>A. USB
+B. HDMI
+C. Ethernet</t>
+  </si>
+  <si>
+    <t>Loại kết nối dùng để truyền âm thanh và hình ảnh chất lượng cao từ máy tính ra TV là:</t>
+  </si>
+  <si>
+    <t>A. VGA
+B. HDMI
+C. DVI</t>
+  </si>
+  <si>
+    <t>Phần mềm nào được sử dụng để tạo bài thuyết trình?</t>
+  </si>
+  <si>
+    <t>A. Microsoft PowerPoint
+B. Adobe Illustrator
+C. Google Docs</t>
+  </si>
+  <si>
+    <t>Đơn vị đo tốc độ mạng là:</t>
+  </si>
+  <si>
+    <t>A. Kilobyte
+B. Megabyte
+C. Megabit</t>
+  </si>
+  <si>
+    <t>Loại máy tính nào được sử dụng phổ biến trong việc xử lý đồ họa và video?</t>
+  </si>
+  <si>
+    <t>A. Máy tính để bàn
+B. Máy tính xách tay
+C. Máy tính Workstation</t>
+  </si>
+  <si>
+    <t>Phần mềm nào được sử dụng để chỉnh sửa video chuyên nghiệp?</t>
+  </si>
+  <si>
+    <t>A. Adobe Premiere Pro
+B. Microsoft Word
+C. Windows Media Player</t>
+  </si>
+  <si>
+    <t>Loại màn hình nào được sử dụng phổ biến trong các thiết bị di động?</t>
+  </si>
+  <si>
+    <t>A. LCD
+B. AMOLED
+C. IPS</t>
+  </si>
+  <si>
+    <t>Loại ổ đĩa nào không dùng để lưu trữ dữ liệu trong máy tính?</t>
+  </si>
+  <si>
+    <t>A. Ổ cứng SSD
+B. Ổ đĩa CD/DVD
+C. Ổ đĩa RAM</t>
+  </si>
+  <si>
+    <t>Giao diện nào cho phép kết nối nhanh chóng và dễ dàng giữa các thiết bị điện tử?</t>
+  </si>
+  <si>
+    <t>A. USB
+B. Bluetooth
+C. HDMI</t>
+  </si>
+  <si>
+    <t>Phần mềm nào được sử dụng để xử lý và tính toán dữ liệu số lớn?</t>
+  </si>
+  <si>
+    <t>A. Microsoft Excel
+B. Adobe Photoshop
+C. Google Chrome</t>
+  </si>
+  <si>
+    <t>Công nghệ nào cho phép truyền tải dữ liệu không dây trong phạm vi gần?</t>
+  </si>
+  <si>
+    <t>A. Wi-Fi
+B. NFC
+C. Ethernet</t>
+  </si>
+  <si>
+    <t>Loại máy quét nào được sử dụng để chuyển đổi tài liệu giấy thành dạng số?</t>
+  </si>
+  <si>
+    <t>A. Máy quét phẳng
+B. Máy quét mã vạch
+C. Máy quét 3D</t>
+  </si>
+  <si>
+    <t>Phần mềm nào được sử dụng để duyệt và tìm kiếm thông tin trên Internet?</t>
+  </si>
+  <si>
+    <t>A. Google Chrome
+B. Microsoft Word
+C. Adobe Photoshop</t>
+  </si>
+  <si>
+    <t>Loại ứng dụng nào được sử dụng để giao tiếp và chia sẻ thông tin trong mạng xã hội?</t>
+  </si>
+  <si>
+    <t>A. Facebook
+B. Microsoft Excel
+C. Adobe Illustrator</t>
+  </si>
+  <si>
+    <t>ques for fun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. sbsbs
+B. snsksks
+null
+null
+null
+null
+null
+null
+null
+null
+</t>
+  </si>
+  <si>
+    <t>A. sbsbs
+B. snsksks</t>
+  </si>
+  <si>
+    <t>ques for fun abcdefxyz</t>
   </si>
 </sst>
 </file>
@@ -1258,10 +1509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D117"/>
+  <dimension ref="A1:D144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1285,7 +1536,7 @@
         <v>30</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>32</v>
@@ -2064,7 +2315,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s" s="0">
         <v>114</v>
       </c>
@@ -2078,7 +2329,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s" s="0">
         <v>116</v>
       </c>
@@ -2092,7 +2343,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s" s="0">
         <v>118</v>
       </c>
@@ -2106,7 +2357,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s" s="0">
         <v>120</v>
       </c>
@@ -2120,7 +2371,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s" s="0">
         <v>122</v>
       </c>
@@ -2134,7 +2385,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s" s="0">
         <v>124</v>
       </c>
@@ -2148,7 +2399,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s" s="0">
         <v>126</v>
       </c>
@@ -2162,7 +2413,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s" s="0">
         <v>128</v>
       </c>
@@ -2176,7 +2427,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s" s="0">
         <v>130</v>
       </c>
@@ -2190,7 +2441,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s" s="0">
         <v>132</v>
       </c>
@@ -2204,7 +2455,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s" s="0">
         <v>134</v>
       </c>
@@ -2218,7 +2469,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s" s="0">
         <v>136</v>
       </c>
@@ -2232,7 +2483,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s" s="0">
         <v>138</v>
       </c>
@@ -2246,7 +2497,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s" s="0">
         <v>140</v>
       </c>
@@ -2260,7 +2511,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s" s="0">
         <v>142</v>
       </c>
@@ -2274,7 +2525,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s" s="0">
         <v>144</v>
       </c>
@@ -2288,7 +2539,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s" s="0">
         <v>146</v>
       </c>
@@ -2302,7 +2553,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s" s="0">
         <v>148</v>
       </c>
@@ -2316,7 +2567,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s" s="0">
         <v>149</v>
       </c>
@@ -2330,7 +2581,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s" s="0">
         <v>151</v>
       </c>
@@ -2344,7 +2595,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s" s="0">
         <v>153</v>
       </c>
@@ -2358,7 +2609,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s" s="0">
         <v>155</v>
       </c>
@@ -2372,7 +2623,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s" s="0">
         <v>157</v>
       </c>
@@ -2386,7 +2637,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s" s="0">
         <v>159</v>
       </c>
@@ -2400,7 +2651,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s" s="0">
         <v>160</v>
       </c>
@@ -2414,10 +2665,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="83"/>
-    <row r="84"/>
-    <row r="85"/>
-    <row r="86">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s" s="0">
         <v>162</v>
       </c>
@@ -2431,7 +2679,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s" s="0">
         <v>164</v>
       </c>
@@ -2445,7 +2693,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s" s="0">
         <v>166</v>
       </c>
@@ -2459,7 +2707,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s" s="0">
         <v>168</v>
       </c>
@@ -2473,7 +2721,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s" s="0">
         <v>170</v>
       </c>
@@ -2487,7 +2735,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s" s="0">
         <v>172</v>
       </c>
@@ -2501,7 +2749,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s" s="0">
         <v>174</v>
       </c>
@@ -2515,7 +2763,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s" s="0">
         <v>176</v>
       </c>
@@ -2529,7 +2777,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s" s="0">
         <v>178</v>
       </c>
@@ -2543,7 +2791,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s" s="0">
         <v>180</v>
       </c>
@@ -2557,7 +2805,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="s" s="0">
         <v>182</v>
       </c>
@@ -2571,7 +2819,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s" s="0">
         <v>184</v>
       </c>
@@ -2585,7 +2833,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s" s="0">
         <v>186</v>
       </c>
@@ -2599,7 +2847,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" t="s" s="0">
         <v>188</v>
       </c>
@@ -2613,7 +2861,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="s" s="0">
         <v>190</v>
       </c>
@@ -2627,7 +2875,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s" s="0">
         <v>192</v>
       </c>
@@ -2641,7 +2889,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s" s="0">
         <v>194</v>
       </c>
@@ -2655,7 +2903,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="s" s="0">
         <v>196</v>
       </c>
@@ -2669,7 +2917,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" t="s" s="0">
         <v>198</v>
       </c>
@@ -2683,7 +2931,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" t="s" s="0">
         <v>200</v>
       </c>
@@ -2697,7 +2945,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" t="s" s="0">
         <v>202</v>
       </c>
@@ -2711,7 +2959,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" t="s" s="0">
         <v>204</v>
       </c>
@@ -2725,7 +2973,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" t="s" s="0">
         <v>206</v>
       </c>
@@ -2739,7 +2987,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" t="s" s="0">
         <v>208</v>
       </c>
@@ -2753,7 +3001,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" t="s" s="0">
         <v>210</v>
       </c>
@@ -2767,7 +3015,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" t="s" s="0">
         <v>212</v>
       </c>
@@ -2781,7 +3029,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" t="s" s="0">
         <v>214</v>
       </c>
@@ -2795,7 +3043,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" t="s" s="0">
         <v>216</v>
       </c>
@@ -2809,7 +3057,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" t="s" s="0">
         <v>218</v>
       </c>
@@ -2823,7 +3071,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" t="s" s="0">
         <v>220</v>
       </c>
@@ -2837,8 +3085,412 @@
         <v>221</v>
       </c>
     </row>
-    <row r="116"/>
-    <row r="117"/>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A116" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="B116" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C116" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D116" t="s" s="0">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A117" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="B117" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C117" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D117" t="s" s="0">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A118" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="B118" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C118" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D118" t="s" s="0">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A119" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="B119" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C119" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D119" t="s" s="0">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A120" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="B120" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C120" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D120" t="s" s="0">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A121" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="B121" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C121" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="D121" t="s" s="0">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A122" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="B122" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C122" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D122" t="s" s="0">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A123" t="s" s="0">
+        <v>240</v>
+      </c>
+      <c r="B123" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C123" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="D123" t="s" s="0">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A124" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="B124" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C124" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D124" t="s" s="0">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A125" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="B125" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C125" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D125" t="s" s="0">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A126" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="B126" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C126" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="D126" t="s" s="0">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A127" t="s" s="0">
+        <v>248</v>
+      </c>
+      <c r="B127" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C127" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D127" t="s" s="0">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A128" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="B128" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C128" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D128" t="s" s="0">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A129" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="B129" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C129" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D129" t="s" s="0">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A130" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="B130" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C130" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="D130" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A131" t="s" s="0">
+        <v>256</v>
+      </c>
+      <c r="B131" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C131" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D131" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A132" t="s" s="0">
+        <v>258</v>
+      </c>
+      <c r="B132" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C132" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D132" t="s" s="0">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A133" t="s" s="0">
+        <v>260</v>
+      </c>
+      <c r="B133" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C133" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D133" t="s" s="0">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A134" t="s" s="0">
+        <v>262</v>
+      </c>
+      <c r="B134" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C134" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D134" t="s" s="0">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A135" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="B135" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C135" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="D135" t="s" s="0">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A136" t="s" s="0">
+        <v>266</v>
+      </c>
+      <c r="B136" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C136" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D136" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A137" t="s" s="0">
+        <v>268</v>
+      </c>
+      <c r="B137" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C137" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="D137" t="s" s="0">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A138" t="s" s="0">
+        <v>270</v>
+      </c>
+      <c r="B138" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C138" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D138" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A139" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="B139" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C139" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="D139" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A140" t="s" s="0">
+        <v>274</v>
+      </c>
+      <c r="B140" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C140" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D140" t="s" s="0">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A141" t="s" s="0">
+        <v>283</v>
+      </c>
+      <c r="B141" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="C141" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D141" t="s" s="0">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A142" t="s" s="0">
+        <v>276</v>
+      </c>
+      <c r="B142" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C142" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D142" t="s" s="0">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A143" t="s" s="0">
+        <v>278</v>
+      </c>
+      <c r="B143" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C143" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D143" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A144" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="B144" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="C144" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D144" t="s" s="0">
+        <v>281</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2854,15 +3506,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="66.26953125"/>
+    <col min="1" max="1" customWidth="true" width="66.1796875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B1" s="0" t="n">
-        <v>118.0</v>
+      <c r="B1" s="0">
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -2878,7 +3530,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="0">
-        <v>56</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -2886,7 +3538,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="0">
-        <v>56</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -2902,7 +3554,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="0">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -2957,24 +3609,24 @@
       <c r="A13" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="B13" s="0" t="n">
-        <v>62.0</v>
+      <c r="B13" s="0">
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="B14" s="0" t="n">
-        <v>30.0</v>
+      <c r="B14" s="0">
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="B15" s="0" t="n">
-        <v>32.0</v>
+      <c r="B15" s="0">
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -3030,7 +3682,7 @@
         <v>108</v>
       </c>
       <c r="B22" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3043,15 +3695,15 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="35.54296875"/>
-    <col min="2" max="2" customWidth="true" width="19.26953125"/>
+    <col min="2" max="2" customWidth="true" width="19.1796875"/>
     <col min="3" max="3" customWidth="true" width="17.453125"/>
-    <col min="5" max="5" customWidth="true" width="38.7265625"/>
+    <col min="5" max="5" customWidth="true" width="38.81640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -3090,36 +3742,36 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s" s="0">
-        <v>3</v>
+        <v>222</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>1</v>
+        <v>224</v>
       </c>
       <c r="D3" s="0">
-        <v>2700</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>2</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s" s="0">
-        <v>4</v>
+        <v>222</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>5</v>
+        <v>223</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>6</v>
+        <v>224</v>
       </c>
       <c r="D4" s="0">
-        <v>5400</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>7</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/data/QuizTestAppData.xlsx
+++ b/src/main/java/data/QuizTestAppData.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\btl oop\quiz-test-app\src\main\java\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Source\Java\OOP\quiz-test-app\src\main\java\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4840A02C-1321-443D-9825-342F98DCAFBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE125997-DE8E-4BCB-A1E0-3F81C9B71FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5415" yWindow="4365" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QuestionBank" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="278">
   <si>
     <t>10-6-2023 12-00-00</t>
   </si>
@@ -1154,38 +1154,6 @@
 C. Máy quét 3D</t>
   </si>
   <si>
-    <t>Phần mềm nào được sử dụng để duyệt và tìm kiếm thông tin trên Internet?</t>
-  </si>
-  <si>
-    <t>A. Google Chrome
-B. Microsoft Word
-C. Adobe Photoshop</t>
-  </si>
-  <si>
-    <t>Loại ứng dụng nào được sử dụng để giao tiếp và chia sẻ thông tin trong mạng xã hội?</t>
-  </si>
-  <si>
-    <t>A. Facebook
-B. Microsoft Excel
-C. Adobe Illustrator</t>
-  </si>
-  <si>
-    <t>ques for fun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A. sbsbs
-B. snsksks
-null
-null
-null
-null
-null
-null
-null
-null
-</t>
-  </si>
-  <si>
     <t>A. sbsbs
 B. snsksks</t>
   </si>
@@ -1197,7 +1165,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1509,1990 +1476,1952 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D144"/>
+  <dimension ref="A1:D141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A132" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A142" sqref="A142:L151"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="70.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="0">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>107</v>
       </c>
-      <c r="B1" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D1" t="s" s="0">
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D2" t="s" s="0">
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="0">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>33</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s" s="0">
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s" s="0">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>35</v>
       </c>
-      <c r="B4" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s" s="0">
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>37</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s" s="0">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>38</v>
       </c>
-      <c r="B5" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s" s="0">
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>37</v>
       </c>
-      <c r="D5" t="s" s="0">
+      <c r="D5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s" s="0">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>40</v>
       </c>
-      <c r="B6" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s" s="0">
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>42</v>
       </c>
-      <c r="D6" t="s" s="0">
+      <c r="D6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s" s="0">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>43</v>
       </c>
-      <c r="B7" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D7" t="s" s="0">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s" s="0">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>45</v>
       </c>
-      <c r="B8" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s" s="0">
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>37</v>
       </c>
-      <c r="D8" t="s" s="0">
+      <c r="D8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s" s="0">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>47</v>
       </c>
-      <c r="B9" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s" s="0">
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>37</v>
       </c>
-      <c r="D9" t="s" s="0">
+      <c r="D9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s" s="0">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>49</v>
       </c>
-      <c r="B10" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s" s="0">
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>37</v>
       </c>
-      <c r="D10" t="s" s="0">
+      <c r="D10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s" s="0">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>51</v>
       </c>
-      <c r="B11" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D11" t="s" s="0">
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s" s="0">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>53</v>
       </c>
-      <c r="B12" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s" s="0">
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>37</v>
       </c>
-      <c r="D12" t="s" s="0">
+      <c r="D12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" t="s" s="0">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>55</v>
       </c>
-      <c r="B13" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D13" t="s" s="0">
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" t="s" s="0">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>57</v>
       </c>
-      <c r="B14" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s" s="0">
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
         <v>37</v>
       </c>
-      <c r="D14" t="s" s="0">
+      <c r="D14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" t="s" s="0">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>59</v>
       </c>
-      <c r="B15" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D15" t="s" s="0">
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" t="s" s="0">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>60</v>
       </c>
-      <c r="B16" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D16" t="s" s="0">
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" t="s" s="0">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>61</v>
       </c>
-      <c r="B17" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="C17" t="s" s="0">
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
         <v>37</v>
       </c>
-      <c r="D17" t="s" s="0">
+      <c r="D17" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" t="s" s="0">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>60</v>
       </c>
-      <c r="B18" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="C18" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="0">
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" t="s" s="0">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>63</v>
       </c>
-      <c r="B19" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="C19" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D19" t="s" s="0">
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" t="s" s="0">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>65</v>
       </c>
-      <c r="B20" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="C20" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D20" t="s" s="0">
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" t="s" s="0">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>67</v>
       </c>
-      <c r="B21" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="C21" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D21" t="s" s="0">
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" t="s" s="0">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>69</v>
       </c>
-      <c r="B22" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="C22" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D22" t="s" s="0">
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" t="s" s="0">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>71</v>
       </c>
-      <c r="B23" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="C23" t="s" s="0">
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
         <v>42</v>
       </c>
-      <c r="D23" t="s" s="0">
+      <c r="D23" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" t="s" s="0">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>73</v>
       </c>
-      <c r="B24" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="C24" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D24" t="s" s="0">
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" t="s" s="0">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>74</v>
       </c>
-      <c r="B25" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="C25" t="s" s="0">
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
         <v>42</v>
       </c>
-      <c r="D25" t="s" s="0">
+      <c r="D25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" t="s" s="0">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>75</v>
       </c>
-      <c r="B26" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="C26" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D26" t="s" s="0">
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" t="s" s="0">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>77</v>
       </c>
-      <c r="B27" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="C27" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D27" t="s" s="0">
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" t="s" s="0">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>78</v>
       </c>
-      <c r="B28" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="C28" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D28" t="s" s="0">
+      <c r="B28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" t="s" s="0">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>80</v>
       </c>
-      <c r="B29" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="C29" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D29" t="s" s="0">
+      <c r="B29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" t="s" s="0">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>81</v>
       </c>
-      <c r="B30" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="C30" t="s" s="0">
+      <c r="B30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" t="s">
         <v>37</v>
       </c>
-      <c r="D30" t="s" s="0">
+      <c r="D30" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" t="s" s="0">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>83</v>
       </c>
-      <c r="B31" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="C31" t="s" s="0">
+      <c r="B31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" t="s">
         <v>37</v>
       </c>
-      <c r="D31" t="s" s="0">
+      <c r="D31" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" t="s" s="0">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>84</v>
       </c>
-      <c r="B32" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="C32" t="s" s="0">
+      <c r="B32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" t="s">
         <v>37</v>
       </c>
-      <c r="D32" t="s" s="0">
+      <c r="D32" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" t="s" s="0">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>51</v>
       </c>
-      <c r="B33" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="C33" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D33" t="s" s="0">
+      <c r="B33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" t="s" s="0">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>86</v>
       </c>
-      <c r="B34" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="C34" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D34" t="s" s="0">
+      <c r="B34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" t="s" s="0">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>87</v>
       </c>
-      <c r="B35" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="C35" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D35" t="s" s="0">
+      <c r="B35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" t="s" s="0">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>89</v>
       </c>
-      <c r="B36" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="C36" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D36" t="s" s="0">
+      <c r="B36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" t="s" s="0">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>91</v>
       </c>
-      <c r="B37" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="C37" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D37" t="s" s="0">
+      <c r="B37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" t="s" s="0">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>92</v>
       </c>
-      <c r="B38" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="C38" t="s" s="0">
+      <c r="B38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" t="s">
         <v>42</v>
       </c>
-      <c r="D38" t="s" s="0">
+      <c r="D38" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" t="s" s="0">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>94</v>
       </c>
-      <c r="B39" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="C39" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D39" t="s" s="0">
+      <c r="B39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" t="s" s="0">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>96</v>
       </c>
-      <c r="B40" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="C40" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D40" t="s" s="0">
+      <c r="B40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" t="s" s="0">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>98</v>
       </c>
-      <c r="B41" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="C41" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D41" t="s" s="0">
+      <c r="B41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" t="s" s="0">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>74</v>
       </c>
-      <c r="B42" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="C42" t="s" s="0">
+      <c r="B42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" t="s">
         <v>42</v>
       </c>
-      <c r="D42" t="s" s="0">
+      <c r="D42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" t="s" s="0">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>100</v>
       </c>
-      <c r="B43" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="C43" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D43" t="s" s="0">
+      <c r="B43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" t="s" s="0">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>102</v>
       </c>
-      <c r="B44" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="C44" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D44" t="s" s="0">
+      <c r="B44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" t="s" s="0">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>103</v>
       </c>
-      <c r="B45" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="C45" t="s" s="0">
+      <c r="B45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" t="s">
         <v>42</v>
       </c>
-      <c r="D45" t="s" s="0">
+      <c r="D45" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" t="s" s="0">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>105</v>
       </c>
-      <c r="B46" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="C46" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D46" t="s" s="0">
+      <c r="B46" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" t="s">
+        <v>29</v>
+      </c>
+      <c r="D46" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" t="s" s="0">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>106</v>
       </c>
-      <c r="B47" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="C47" t="s" s="0">
+      <c r="B47" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" t="s">
         <v>42</v>
       </c>
-      <c r="D47" t="s" s="0">
+      <c r="D47" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" t="s" s="0">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>80</v>
       </c>
-      <c r="B48" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="C48" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D48" t="s" s="0">
+      <c r="B48" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" t="s" s="0">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>78</v>
       </c>
-      <c r="B49" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="C49" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D49" t="s" s="0">
+      <c r="B49" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" t="s" s="0">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>81</v>
       </c>
-      <c r="B50" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="C50" t="s" s="0">
+      <c r="B50" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" t="s">
         <v>37</v>
       </c>
-      <c r="D50" t="s" s="0">
+      <c r="D50" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" t="s" s="0">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>77</v>
       </c>
-      <c r="B51" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="C51" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D51" t="s" s="0">
+      <c r="B51" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" t="s">
+        <v>32</v>
+      </c>
+      <c r="D51" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" t="s" s="0">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>49</v>
       </c>
-      <c r="B52" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="C52" t="s" s="0">
+      <c r="B52" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" t="s">
         <v>37</v>
       </c>
-      <c r="D52" t="s" s="0">
+      <c r="D52" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" t="s" s="0">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>51</v>
       </c>
-      <c r="B53" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="C53" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D53" t="s" s="0">
+      <c r="B53" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" t="s">
+        <v>32</v>
+      </c>
+      <c r="D53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" t="s" s="0">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>86</v>
       </c>
-      <c r="B54" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="C54" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D54" t="s" s="0">
+      <c r="B54" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54" t="s">
+        <v>29</v>
+      </c>
+      <c r="D54" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" t="s" s="0">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>87</v>
       </c>
-      <c r="B55" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="C55" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D55" t="s" s="0">
+      <c r="B55" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" t="s">
+        <v>32</v>
+      </c>
+      <c r="D55" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" t="s" s="0">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>109</v>
       </c>
-      <c r="B56" t="s" s="0">
+      <c r="B56" t="s">
         <v>19</v>
       </c>
-      <c r="C56" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D56" t="s" s="0">
+      <c r="C56" t="s">
+        <v>32</v>
+      </c>
+      <c r="D56" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" t="s" s="0">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>112</v>
       </c>
-      <c r="B57" t="s" s="0">
+      <c r="B57" t="s">
         <v>108</v>
       </c>
-      <c r="C57" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D57" t="s" s="0">
+      <c r="C57" t="s">
+        <v>29</v>
+      </c>
+      <c r="D57" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" t="s" s="0">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>114</v>
       </c>
-      <c r="B58" t="s" s="0">
+      <c r="B58" t="s">
         <v>19</v>
       </c>
-      <c r="C58" t="s" s="0">
+      <c r="C58" t="s">
         <v>42</v>
       </c>
-      <c r="D58" t="s" s="0">
+      <c r="D58" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" t="s" s="0">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>116</v>
       </c>
-      <c r="B59" t="s" s="0">
+      <c r="B59" t="s">
         <v>19</v>
       </c>
-      <c r="C59" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D59" t="s" s="0">
+      <c r="C59" t="s">
+        <v>29</v>
+      </c>
+      <c r="D59" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" t="s" s="0">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>118</v>
       </c>
-      <c r="B60" t="s" s="0">
+      <c r="B60" t="s">
         <v>19</v>
       </c>
-      <c r="C60" t="s" s="0">
+      <c r="C60" t="s">
         <v>37</v>
       </c>
-      <c r="D60" t="s" s="0">
+      <c r="D60" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" t="s" s="0">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>120</v>
       </c>
-      <c r="B61" t="s" s="0">
+      <c r="B61" t="s">
         <v>19</v>
       </c>
-      <c r="C61" t="s" s="0">
+      <c r="C61" t="s">
         <v>37</v>
       </c>
-      <c r="D61" t="s" s="0">
+      <c r="D61" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" t="s" s="0">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>122</v>
       </c>
-      <c r="B62" t="s" s="0">
+      <c r="B62" t="s">
         <v>19</v>
       </c>
-      <c r="C62" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D62" t="s" s="0">
+      <c r="C62" t="s">
+        <v>32</v>
+      </c>
+      <c r="D62" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" t="s" s="0">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>124</v>
       </c>
-      <c r="B63" t="s" s="0">
+      <c r="B63" t="s">
         <v>19</v>
       </c>
-      <c r="C63" t="s" s="0">
+      <c r="C63" t="s">
         <v>37</v>
       </c>
-      <c r="D63" t="s" s="0">
+      <c r="D63" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" t="s" s="0">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>126</v>
       </c>
-      <c r="B64" t="s" s="0">
+      <c r="B64" t="s">
         <v>19</v>
       </c>
-      <c r="C64" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D64" t="s" s="0">
+      <c r="C64" t="s">
+        <v>29</v>
+      </c>
+      <c r="D64" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" t="s" s="0">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>128</v>
       </c>
-      <c r="B65" t="s" s="0">
+      <c r="B65" t="s">
         <v>19</v>
       </c>
-      <c r="C65" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D65" t="s" s="0">
+      <c r="C65" t="s">
+        <v>32</v>
+      </c>
+      <c r="D65" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" t="s" s="0">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>130</v>
       </c>
-      <c r="B66" t="s" s="0">
+      <c r="B66" t="s">
         <v>19</v>
       </c>
-      <c r="C66" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D66" t="s" s="0">
+      <c r="C66" t="s">
+        <v>29</v>
+      </c>
+      <c r="D66" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" t="s" s="0">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>132</v>
       </c>
-      <c r="B67" t="s" s="0">
+      <c r="B67" t="s">
         <v>19</v>
       </c>
-      <c r="C67" t="s" s="0">
+      <c r="C67" t="s">
         <v>37</v>
       </c>
-      <c r="D67" t="s" s="0">
+      <c r="D67" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" t="s" s="0">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>134</v>
       </c>
-      <c r="B68" t="s" s="0">
+      <c r="B68" t="s">
         <v>19</v>
       </c>
-      <c r="C68" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D68" t="s" s="0">
+      <c r="C68" t="s">
+        <v>29</v>
+      </c>
+      <c r="D68" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" t="s" s="0">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>136</v>
       </c>
-      <c r="B69" t="s" s="0">
+      <c r="B69" t="s">
         <v>19</v>
       </c>
-      <c r="C69" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D69" t="s" s="0">
+      <c r="C69" t="s">
+        <v>29</v>
+      </c>
+      <c r="D69" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" t="s" s="0">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>138</v>
       </c>
-      <c r="B70" t="s" s="0">
+      <c r="B70" t="s">
         <v>19</v>
       </c>
-      <c r="C70" t="s" s="0">
+      <c r="C70" t="s">
         <v>42</v>
       </c>
-      <c r="D70" t="s" s="0">
+      <c r="D70" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" t="s" s="0">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>140</v>
       </c>
-      <c r="B71" t="s" s="0">
+      <c r="B71" t="s">
         <v>19</v>
       </c>
-      <c r="C71" t="s" s="0">
+      <c r="C71" t="s">
         <v>42</v>
       </c>
-      <c r="D71" t="s" s="0">
+      <c r="D71" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" t="s" s="0">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>142</v>
       </c>
-      <c r="B72" t="s" s="0">
+      <c r="B72" t="s">
         <v>19</v>
       </c>
-      <c r="C72" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D72" t="s" s="0">
+      <c r="C72" t="s">
+        <v>29</v>
+      </c>
+      <c r="D72" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73" t="s" s="0">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>144</v>
       </c>
-      <c r="B73" t="s" s="0">
+      <c r="B73" t="s">
         <v>19</v>
       </c>
-      <c r="C73" t="s" s="0">
+      <c r="C73" t="s">
         <v>37</v>
       </c>
-      <c r="D73" t="s" s="0">
+      <c r="D73" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" t="s" s="0">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>146</v>
       </c>
-      <c r="B74" t="s" s="0">
+      <c r="B74" t="s">
         <v>19</v>
       </c>
-      <c r="C74" t="s" s="0">
+      <c r="C74" t="s">
         <v>37</v>
       </c>
-      <c r="D74" t="s" s="0">
+      <c r="D74" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75" t="s" s="0">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>148</v>
       </c>
-      <c r="B75" t="s" s="0">
+      <c r="B75" t="s">
         <v>19</v>
       </c>
-      <c r="C75" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D75" t="s" s="0">
+      <c r="C75" t="s">
+        <v>29</v>
+      </c>
+      <c r="D75" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A76" t="s" s="0">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>149</v>
       </c>
-      <c r="B76" t="s" s="0">
+      <c r="B76" t="s">
         <v>19</v>
       </c>
-      <c r="C76" t="s" s="0">
+      <c r="C76" t="s">
         <v>42</v>
       </c>
-      <c r="D76" t="s" s="0">
+      <c r="D76" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" t="s" s="0">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>151</v>
       </c>
-      <c r="B77" t="s" s="0">
+      <c r="B77" t="s">
         <v>19</v>
       </c>
-      <c r="C77" t="s" s="0">
+      <c r="C77" t="s">
         <v>37</v>
       </c>
-      <c r="D77" t="s" s="0">
+      <c r="D77" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A78" t="s" s="0">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>153</v>
       </c>
-      <c r="B78" t="s" s="0">
+      <c r="B78" t="s">
         <v>19</v>
       </c>
-      <c r="C78" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D78" t="s" s="0">
+      <c r="C78" t="s">
+        <v>32</v>
+      </c>
+      <c r="D78" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A79" t="s" s="0">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>155</v>
       </c>
-      <c r="B79" t="s" s="0">
+      <c r="B79" t="s">
         <v>19</v>
       </c>
-      <c r="C79" t="s" s="0">
+      <c r="C79" t="s">
         <v>37</v>
       </c>
-      <c r="D79" t="s" s="0">
+      <c r="D79" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A80" t="s" s="0">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>157</v>
       </c>
-      <c r="B80" t="s" s="0">
+      <c r="B80" t="s">
         <v>19</v>
       </c>
-      <c r="C80" t="s" s="0">
+      <c r="C80" t="s">
         <v>37</v>
       </c>
-      <c r="D80" t="s" s="0">
+      <c r="D80" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A81" t="s" s="0">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>159</v>
       </c>
-      <c r="B81" t="s" s="0">
+      <c r="B81" t="s">
         <v>19</v>
       </c>
-      <c r="C81" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D81" t="s" s="0">
+      <c r="C81" t="s">
+        <v>29</v>
+      </c>
+      <c r="D81" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A82" t="s" s="0">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>160</v>
       </c>
-      <c r="B82" t="s" s="0">
+      <c r="B82" t="s">
         <v>19</v>
       </c>
-      <c r="C82" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D82" t="s" s="0">
+      <c r="C82" t="s">
+        <v>29</v>
+      </c>
+      <c r="D82" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A86" t="s" s="0">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>162</v>
       </c>
-      <c r="B86" t="s" s="0">
+      <c r="B86" t="s">
         <v>20</v>
       </c>
-      <c r="C86" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D86" t="s" s="0">
+      <c r="C86" t="s">
+        <v>29</v>
+      </c>
+      <c r="D86" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A87" t="s" s="0">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>164</v>
       </c>
-      <c r="B87" t="s" s="0">
+      <c r="B87" t="s">
         <v>20</v>
       </c>
-      <c r="C87" t="s" s="0">
+      <c r="C87" t="s">
         <v>42</v>
       </c>
-      <c r="D87" t="s" s="0">
+      <c r="D87" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A88" t="s" s="0">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>166</v>
       </c>
-      <c r="B88" t="s" s="0">
+      <c r="B88" t="s">
         <v>20</v>
       </c>
-      <c r="C88" t="s" s="0">
+      <c r="C88" t="s">
         <v>42</v>
       </c>
-      <c r="D88" t="s" s="0">
+      <c r="D88" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A89" t="s" s="0">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>168</v>
       </c>
-      <c r="B89" t="s" s="0">
+      <c r="B89" t="s">
         <v>20</v>
       </c>
-      <c r="C89" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D89" t="s" s="0">
+      <c r="C89" t="s">
+        <v>32</v>
+      </c>
+      <c r="D89" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A90" t="s" s="0">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>170</v>
       </c>
-      <c r="B90" t="s" s="0">
+      <c r="B90" t="s">
         <v>20</v>
       </c>
-      <c r="C90" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D90" t="s" s="0">
+      <c r="C90" t="s">
+        <v>29</v>
+      </c>
+      <c r="D90" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A91" t="s" s="0">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>172</v>
       </c>
-      <c r="B91" t="s" s="0">
+      <c r="B91" t="s">
         <v>20</v>
       </c>
-      <c r="C91" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D91" t="s" s="0">
+      <c r="C91" t="s">
+        <v>29</v>
+      </c>
+      <c r="D91" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A92" t="s" s="0">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>174</v>
       </c>
-      <c r="B92" t="s" s="0">
+      <c r="B92" t="s">
         <v>20</v>
       </c>
-      <c r="C92" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D92" t="s" s="0">
+      <c r="C92" t="s">
+        <v>29</v>
+      </c>
+      <c r="D92" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A93" t="s" s="0">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>176</v>
       </c>
-      <c r="B93" t="s" s="0">
+      <c r="B93" t="s">
         <v>20</v>
       </c>
-      <c r="C93" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D93" t="s" s="0">
+      <c r="C93" t="s">
+        <v>29</v>
+      </c>
+      <c r="D93" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A94" t="s" s="0">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>178</v>
       </c>
-      <c r="B94" t="s" s="0">
+      <c r="B94" t="s">
         <v>20</v>
       </c>
-      <c r="C94" t="s" s="0">
+      <c r="C94" t="s">
         <v>42</v>
       </c>
-      <c r="D94" t="s" s="0">
+      <c r="D94" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A95" t="s" s="0">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>180</v>
       </c>
-      <c r="B95" t="s" s="0">
+      <c r="B95" t="s">
         <v>20</v>
       </c>
-      <c r="C95" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D95" t="s" s="0">
+      <c r="C95" t="s">
+        <v>29</v>
+      </c>
+      <c r="D95" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A96" t="s" s="0">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>182</v>
       </c>
-      <c r="B96" t="s" s="0">
+      <c r="B96" t="s">
         <v>20</v>
       </c>
-      <c r="C96" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D96" t="s" s="0">
+      <c r="C96" t="s">
+        <v>32</v>
+      </c>
+      <c r="D96" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A97" t="s" s="0">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>184</v>
       </c>
-      <c r="B97" t="s" s="0">
+      <c r="B97" t="s">
         <v>20</v>
       </c>
-      <c r="C97" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D97" t="s" s="0">
+      <c r="C97" t="s">
+        <v>32</v>
+      </c>
+      <c r="D97" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A98" t="s" s="0">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>186</v>
       </c>
-      <c r="B98" t="s" s="0">
+      <c r="B98" t="s">
         <v>20</v>
       </c>
-      <c r="C98" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D98" t="s" s="0">
+      <c r="C98" t="s">
+        <v>29</v>
+      </c>
+      <c r="D98" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A99" t="s" s="0">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>188</v>
       </c>
-      <c r="B99" t="s" s="0">
+      <c r="B99" t="s">
         <v>20</v>
       </c>
-      <c r="C99" t="s" s="0">
+      <c r="C99" t="s">
         <v>42</v>
       </c>
-      <c r="D99" t="s" s="0">
+      <c r="D99" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A100" t="s" s="0">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>190</v>
       </c>
-      <c r="B100" t="s" s="0">
+      <c r="B100" t="s">
         <v>20</v>
       </c>
-      <c r="C100" t="s" s="0">
+      <c r="C100" t="s">
         <v>42</v>
       </c>
-      <c r="D100" t="s" s="0">
+      <c r="D100" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A101" t="s" s="0">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>192</v>
       </c>
-      <c r="B101" t="s" s="0">
+      <c r="B101" t="s">
         <v>20</v>
       </c>
-      <c r="C101" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D101" t="s" s="0">
+      <c r="C101" t="s">
+        <v>29</v>
+      </c>
+      <c r="D101" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A102" t="s" s="0">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>194</v>
       </c>
-      <c r="B102" t="s" s="0">
+      <c r="B102" t="s">
         <v>20</v>
       </c>
-      <c r="C102" t="s" s="0">
+      <c r="C102" t="s">
         <v>42</v>
       </c>
-      <c r="D102" t="s" s="0">
+      <c r="D102" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A103" t="s" s="0">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>196</v>
       </c>
-      <c r="B103" t="s" s="0">
+      <c r="B103" t="s">
         <v>20</v>
       </c>
-      <c r="C103" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D103" t="s" s="0">
+      <c r="C103" t="s">
+        <v>29</v>
+      </c>
+      <c r="D103" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A104" t="s" s="0">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>198</v>
       </c>
-      <c r="B104" t="s" s="0">
+      <c r="B104" t="s">
         <v>20</v>
       </c>
-      <c r="C104" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D104" t="s" s="0">
+      <c r="C104" t="s">
+        <v>29</v>
+      </c>
+      <c r="D104" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A105" t="s" s="0">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>200</v>
       </c>
-      <c r="B105" t="s" s="0">
+      <c r="B105" t="s">
         <v>20</v>
       </c>
-      <c r="C105" t="s" s="0">
+      <c r="C105" t="s">
         <v>42</v>
       </c>
-      <c r="D105" t="s" s="0">
+      <c r="D105" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A106" t="s" s="0">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>202</v>
       </c>
-      <c r="B106" t="s" s="0">
+      <c r="B106" t="s">
         <v>20</v>
       </c>
-      <c r="C106" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D106" t="s" s="0">
+      <c r="C106" t="s">
+        <v>29</v>
+      </c>
+      <c r="D106" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A107" t="s" s="0">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>204</v>
       </c>
-      <c r="B107" t="s" s="0">
+      <c r="B107" t="s">
         <v>20</v>
       </c>
-      <c r="C107" t="s" s="0">
+      <c r="C107" t="s">
         <v>42</v>
       </c>
-      <c r="D107" t="s" s="0">
+      <c r="D107" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A108" t="s" s="0">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>206</v>
       </c>
-      <c r="B108" t="s" s="0">
+      <c r="B108" t="s">
         <v>20</v>
       </c>
-      <c r="C108" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D108" t="s" s="0">
+      <c r="C108" t="s">
+        <v>32</v>
+      </c>
+      <c r="D108" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A109" t="s" s="0">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>208</v>
       </c>
-      <c r="B109" t="s" s="0">
+      <c r="B109" t="s">
         <v>20</v>
       </c>
-      <c r="C109" t="s" s="0">
+      <c r="C109" t="s">
         <v>42</v>
       </c>
-      <c r="D109" t="s" s="0">
+      <c r="D109" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A110" t="s" s="0">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>210</v>
       </c>
-      <c r="B110" t="s" s="0">
+      <c r="B110" t="s">
         <v>20</v>
       </c>
-      <c r="C110" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D110" t="s" s="0">
+      <c r="C110" t="s">
+        <v>29</v>
+      </c>
+      <c r="D110" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A111" t="s" s="0">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>212</v>
       </c>
-      <c r="B111" t="s" s="0">
+      <c r="B111" t="s">
         <v>20</v>
       </c>
-      <c r="C111" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D111" t="s" s="0">
+      <c r="C111" t="s">
+        <v>29</v>
+      </c>
+      <c r="D111" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A112" t="s" s="0">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>214</v>
       </c>
-      <c r="B112" t="s" s="0">
+      <c r="B112" t="s">
         <v>20</v>
       </c>
-      <c r="C112" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D112" t="s" s="0">
+      <c r="C112" t="s">
+        <v>32</v>
+      </c>
+      <c r="D112" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A113" t="s" s="0">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>216</v>
       </c>
-      <c r="B113" t="s" s="0">
+      <c r="B113" t="s">
         <v>20</v>
       </c>
-      <c r="C113" t="s" s="0">
+      <c r="C113" t="s">
         <v>42</v>
       </c>
-      <c r="D113" t="s" s="0">
+      <c r="D113" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A114" t="s" s="0">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>218</v>
       </c>
-      <c r="B114" t="s" s="0">
+      <c r="B114" t="s">
         <v>20</v>
       </c>
-      <c r="C114" t="s" s="0">
+      <c r="C114" t="s">
         <v>42</v>
       </c>
-      <c r="D114" t="s" s="0">
+      <c r="D114" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A115" t="s" s="0">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>220</v>
       </c>
-      <c r="B115" t="s" s="0">
+      <c r="B115" t="s">
         <v>20</v>
       </c>
-      <c r="C115" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D115" t="s" s="0">
+      <c r="C115" t="s">
+        <v>29</v>
+      </c>
+      <c r="D115" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A116" t="s" s="0">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>226</v>
       </c>
-      <c r="B116" t="s" s="0">
+      <c r="B116" t="s">
         <v>12</v>
       </c>
-      <c r="C116" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D116" t="s" s="0">
+      <c r="C116" t="s">
+        <v>29</v>
+      </c>
+      <c r="D116" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A117" t="s" s="0">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>228</v>
       </c>
-      <c r="B117" t="s" s="0">
+      <c r="B117" t="s">
         <v>12</v>
       </c>
-      <c r="C117" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D117" t="s" s="0">
+      <c r="C117" t="s">
+        <v>29</v>
+      </c>
+      <c r="D117" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A118" t="s" s="0">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>230</v>
       </c>
-      <c r="B118" t="s" s="0">
+      <c r="B118" t="s">
         <v>12</v>
       </c>
-      <c r="C118" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D118" t="s" s="0">
+      <c r="C118" t="s">
+        <v>32</v>
+      </c>
+      <c r="D118" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A119" t="s" s="0">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>232</v>
       </c>
-      <c r="B119" t="s" s="0">
+      <c r="B119" t="s">
         <v>12</v>
       </c>
-      <c r="C119" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D119" t="s" s="0">
+      <c r="C119" t="s">
+        <v>32</v>
+      </c>
+      <c r="D119" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A120" t="s" s="0">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
         <v>234</v>
       </c>
-      <c r="B120" t="s" s="0">
+      <c r="B120" t="s">
         <v>12</v>
       </c>
-      <c r="C120" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D120" t="s" s="0">
+      <c r="C120" t="s">
+        <v>29</v>
+      </c>
+      <c r="D120" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A121" t="s" s="0">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
         <v>236</v>
       </c>
-      <c r="B121" t="s" s="0">
+      <c r="B121" t="s">
         <v>12</v>
       </c>
-      <c r="C121" t="s" s="0">
+      <c r="C121" t="s">
         <v>42</v>
       </c>
-      <c r="D121" t="s" s="0">
+      <c r="D121" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A122" t="s" s="0">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>238</v>
       </c>
-      <c r="B122" t="s" s="0">
+      <c r="B122" t="s">
         <v>12</v>
       </c>
-      <c r="C122" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D122" t="s" s="0">
+      <c r="C122" t="s">
+        <v>29</v>
+      </c>
+      <c r="D122" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A123" t="s" s="0">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>240</v>
       </c>
-      <c r="B123" t="s" s="0">
+      <c r="B123" t="s">
         <v>12</v>
       </c>
-      <c r="C123" t="s" s="0">
+      <c r="C123" t="s">
         <v>42</v>
       </c>
-      <c r="D123" t="s" s="0">
+      <c r="D123" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A124" t="s" s="0">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>242</v>
       </c>
-      <c r="B124" t="s" s="0">
+      <c r="B124" t="s">
         <v>12</v>
       </c>
-      <c r="C124" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D124" t="s" s="0">
+      <c r="C124" t="s">
+        <v>29</v>
+      </c>
+      <c r="D124" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A125" t="s" s="0">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
         <v>244</v>
       </c>
-      <c r="B125" t="s" s="0">
+      <c r="B125" t="s">
         <v>12</v>
       </c>
-      <c r="C125" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D125" t="s" s="0">
+      <c r="C125" t="s">
+        <v>32</v>
+      </c>
+      <c r="D125" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A126" t="s" s="0">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
         <v>246</v>
       </c>
-      <c r="B126" t="s" s="0">
+      <c r="B126" t="s">
         <v>12</v>
       </c>
-      <c r="C126" t="s" s="0">
+      <c r="C126" t="s">
         <v>42</v>
       </c>
-      <c r="D126" t="s" s="0">
+      <c r="D126" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A127" t="s" s="0">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
         <v>248</v>
       </c>
-      <c r="B127" t="s" s="0">
+      <c r="B127" t="s">
         <v>12</v>
       </c>
-      <c r="C127" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D127" t="s" s="0">
+      <c r="C127" t="s">
+        <v>29</v>
+      </c>
+      <c r="D127" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A128" t="s" s="0">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
         <v>250</v>
       </c>
-      <c r="B128" t="s" s="0">
+      <c r="B128" t="s">
         <v>12</v>
       </c>
-      <c r="C128" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D128" t="s" s="0">
+      <c r="C128" t="s">
+        <v>29</v>
+      </c>
+      <c r="D128" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A129" t="s" s="0">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
         <v>252</v>
       </c>
-      <c r="B129" t="s" s="0">
+      <c r="B129" t="s">
         <v>12</v>
       </c>
-      <c r="C129" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D129" t="s" s="0">
+      <c r="C129" t="s">
+        <v>29</v>
+      </c>
+      <c r="D129" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A130" t="s" s="0">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>254</v>
       </c>
-      <c r="B130" t="s" s="0">
+      <c r="B130" t="s">
         <v>12</v>
       </c>
-      <c r="C130" t="s" s="0">
+      <c r="C130" t="s">
         <v>42</v>
       </c>
-      <c r="D130" t="s" s="0">
+      <c r="D130" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A131" t="s" s="0">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
         <v>256</v>
       </c>
-      <c r="B131" t="s" s="0">
+      <c r="B131" t="s">
         <v>12</v>
       </c>
-      <c r="C131" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D131" t="s" s="0">
+      <c r="C131" t="s">
+        <v>29</v>
+      </c>
+      <c r="D131" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A132" t="s" s="0">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
         <v>258</v>
       </c>
-      <c r="B132" t="s" s="0">
+      <c r="B132" t="s">
         <v>12</v>
       </c>
-      <c r="C132" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D132" t="s" s="0">
+      <c r="C132" t="s">
+        <v>32</v>
+      </c>
+      <c r="D132" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A133" t="s" s="0">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
         <v>260</v>
       </c>
-      <c r="B133" t="s" s="0">
+      <c r="B133" t="s">
         <v>12</v>
       </c>
-      <c r="C133" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D133" t="s" s="0">
+      <c r="C133" t="s">
+        <v>32</v>
+      </c>
+      <c r="D133" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A134" t="s" s="0">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
         <v>262</v>
       </c>
-      <c r="B134" t="s" s="0">
+      <c r="B134" t="s">
         <v>12</v>
       </c>
-      <c r="C134" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D134" t="s" s="0">
+      <c r="C134" t="s">
+        <v>29</v>
+      </c>
+      <c r="D134" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A135" t="s" s="0">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
         <v>264</v>
       </c>
-      <c r="B135" t="s" s="0">
+      <c r="B135" t="s">
         <v>12</v>
       </c>
-      <c r="C135" t="s" s="0">
+      <c r="C135" t="s">
         <v>42</v>
       </c>
-      <c r="D135" t="s" s="0">
+      <c r="D135" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A136" t="s" s="0">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
         <v>266</v>
       </c>
-      <c r="B136" t="s" s="0">
+      <c r="B136" t="s">
         <v>12</v>
       </c>
-      <c r="C136" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D136" t="s" s="0">
+      <c r="C136" t="s">
+        <v>32</v>
+      </c>
+      <c r="D136" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A137" t="s" s="0">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
         <v>268</v>
       </c>
-      <c r="B137" t="s" s="0">
+      <c r="B137" t="s">
         <v>12</v>
       </c>
-      <c r="C137" t="s" s="0">
+      <c r="C137" t="s">
         <v>42</v>
       </c>
-      <c r="D137" t="s" s="0">
+      <c r="D137" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A138" t="s" s="0">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
         <v>270</v>
       </c>
-      <c r="B138" t="s" s="0">
+      <c r="B138" t="s">
         <v>12</v>
       </c>
-      <c r="C138" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D138" t="s" s="0">
+      <c r="C138" t="s">
+        <v>29</v>
+      </c>
+      <c r="D138" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A139" t="s" s="0">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
         <v>272</v>
       </c>
-      <c r="B139" t="s" s="0">
+      <c r="B139" t="s">
         <v>12</v>
       </c>
-      <c r="C139" t="s" s="0">
+      <c r="C139" t="s">
         <v>42</v>
       </c>
-      <c r="D139" t="s" s="0">
+      <c r="D139" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A140" t="s" s="0">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
         <v>274</v>
       </c>
-      <c r="B140" t="s" s="0">
+      <c r="B140" t="s">
         <v>12</v>
       </c>
-      <c r="C140" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D140" t="s" s="0">
+      <c r="C140" t="s">
+        <v>29</v>
+      </c>
+      <c r="D140" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A141" t="s" s="0">
-        <v>283</v>
-      </c>
-      <c r="B141" t="s" s="0">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>277</v>
+      </c>
+      <c r="B141" t="s">
         <v>108</v>
       </c>
-      <c r="C141" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D141" t="s" s="0">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A142" t="s" s="0">
+      <c r="C141" t="s">
+        <v>29</v>
+      </c>
+      <c r="D141" t="s">
         <v>276</v>
-      </c>
-      <c r="B142" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="C142" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D142" t="s" s="0">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A143" t="s" s="0">
-        <v>278</v>
-      </c>
-      <c r="B143" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="C143" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D143" t="s" s="0">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A144" t="s" s="0">
-        <v>280</v>
-      </c>
-      <c r="B144" t="s" s="0">
-        <v>108</v>
-      </c>
-      <c r="C144" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D144" t="s" s="0">
-        <v>281</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3504,184 +3433,184 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="66.1796875"/>
+    <col min="1" max="1" width="66.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="0">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="0">
+      <c r="B1">
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="0">
+      <c r="B2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="0">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="0">
+      <c r="B3">
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s" s="0">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="0">
+      <c r="B4">
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s" s="0">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="0">
+      <c r="B5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s" s="0">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="0">
+      <c r="B6">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s" s="0">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="0">
+      <c r="B7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s" s="0">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="0">
+      <c r="B8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s" s="0">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="0">
+      <c r="B9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s" s="0">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="0">
+      <c r="B10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s" s="0">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="0">
+      <c r="B11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s" s="0">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="0">
+      <c r="B12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s" s="0">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="0">
+      <c r="B13">
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s" s="0">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="0">
+      <c r="B14">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s" s="0">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s" s="0">
+      <c r="B15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="0">
+      <c r="B16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="B17" s="0">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17">
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s" s="0">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="0">
+      <c r="B18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s" s="0">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="0">
+      <c r="B19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s" s="0">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="0">
+      <c r="B20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s" s="0">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="0">
+      <c r="B21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s" s="0">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>108</v>
       </c>
-      <c r="B22" s="0">
+      <c r="B22">
         <v>2</v>
       </c>
     </row>
@@ -3698,79 +3627,79 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.54296875"/>
-    <col min="2" max="2" customWidth="true" width="19.1796875"/>
-    <col min="3" max="3" customWidth="true" width="17.453125"/>
-    <col min="5" max="5" customWidth="true" width="38.81640625"/>
+    <col min="1" max="1" width="35.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="0">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="0">
+      <c r="D1">
         <v>2700</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="0">
+      <c r="D2">
         <v>5400</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="0">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>222</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>223</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C3" t="s">
         <v>224</v>
       </c>
-      <c r="D3" s="0">
+      <c r="D3">
         <v>30</v>
       </c>
-      <c r="E3" t="s" s="0">
+      <c r="E3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s" s="0">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>222</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s">
         <v>223</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="C4" t="s">
         <v>224</v>
       </c>
-      <c r="D4" s="0">
+      <c r="D4">
         <v>30</v>
       </c>
-      <c r="E4" t="s" s="0">
+      <c r="E4" t="s">
         <v>225</v>
       </c>
     </row>

--- a/src/main/java/data/QuizTestAppData.xlsx
+++ b/src/main/java/data/QuizTestAppData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Source\Java\OOP\quiz-test-app\src\main\java\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE125997-DE8E-4BCB-A1E0-3F81C9B71FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E5ED0C-DA96-4984-80C8-4F6A025B1712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5415" yWindow="4365" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4290" yWindow="3060" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QuestionBank" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="284">
   <si>
     <t>10-6-2023 12-00-00</t>
   </si>
@@ -1152,6 +1152,38 @@
     <t>A. Máy quét phẳng
 B. Máy quét mã vạch
 C. Máy quét 3D</t>
+  </si>
+  <si>
+    <t>Phần mềm nào được sử dụng để duyệt và tìm kiếm thông tin trên Internet?</t>
+  </si>
+  <si>
+    <t>A. Google Chrome
+B. Microsoft Word
+C. Adobe Photoshop</t>
+  </si>
+  <si>
+    <t>Loại ứng dụng nào được sử dụng để giao tiếp và chia sẻ thông tin trong mạng xã hội?</t>
+  </si>
+  <si>
+    <t>A. Facebook
+B. Microsoft Excel
+C. Adobe Illustrator</t>
+  </si>
+  <si>
+    <t>ques for fun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. sbsbs
+B. snsksks
+null
+null
+null
+null
+null
+null
+null
+null
+</t>
   </si>
   <si>
     <t>A. sbsbs
@@ -1476,15 +1508,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D141"/>
+  <dimension ref="A1:D144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A142" sqref="A142:L151"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="70.42578125" customWidth="1"/>
+    <col min="1" max="1" width="50.28515625" customWidth="1"/>
+    <col min="2" max="2" width="42.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -3407,7 +3440,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="B141" t="s">
         <v>108</v>
@@ -3416,12 +3449,53 @@
         <v>29</v>
       </c>
       <c r="D141" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
         <v>276</v>
+      </c>
+      <c r="B142" t="s">
+        <v>12</v>
+      </c>
+      <c r="C142" t="s">
+        <v>29</v>
+      </c>
+      <c r="D142" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>278</v>
+      </c>
+      <c r="B143" t="s">
+        <v>12</v>
+      </c>
+      <c r="C143" t="s">
+        <v>29</v>
+      </c>
+      <c r="D143" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>280</v>
+      </c>
+      <c r="B144" t="s">
+        <v>108</v>
+      </c>
+      <c r="C144" t="s">
+        <v>29</v>
+      </c>
+      <c r="D144" t="s">
+        <v>281</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3443,7 +3517,7 @@
         <v>8</v>
       </c>
       <c r="B1">
-        <v>149</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3539,7 +3613,7 @@
         <v>22</v>
       </c>
       <c r="B13">
-        <v>63</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -3547,7 +3621,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -3624,7 +3698,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection sqref="A1:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/java/data/QuizTestAppData.xlsx
+++ b/src/main/java/data/QuizTestAppData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\btl oop\quiz-test-app\src\main\java\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4840A02C-1321-443D-9825-342F98DCAFBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A2BA7F-02EC-45BF-8ACF-257E75D0C7DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QuestionBank" sheetId="1" r:id="rId1"/>
@@ -38,31 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="284">
-  <si>
-    <t>10-6-2023 12-00-00</t>
-  </si>
-  <si>
-    <t>10-7-2023 12-00-00</t>
-  </si>
-  <si>
-    <t>1,3,5,7,8,9,11,12,13,14,16,18,20,22,24,30</t>
-  </si>
-  <si>
-    <t>Kiem tra giua ki 1 cong nghe</t>
-  </si>
-  <si>
-    <t>Kiem tra giua ki 1 toan</t>
-  </si>
-  <si>
-    <t>12-6-2023 12-00-00</t>
-  </si>
-  <si>
-    <t>10-8-2023 12-00-00</t>
-  </si>
-  <si>
-    <t>1,4,5,7,8,9,10,12,13,14,16,18,20,22,24,30</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="311">
   <si>
     <t>root</t>
   </si>
@@ -473,22 +449,6 @@
     <t>root/Default</t>
   </si>
   <si>
-    <t>Đây là câu hỏi thi giữa kỳ sinh học 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A. Yes
-B. No
-null
-null
-null
-null
-null
-null
-null
-null
-</t>
-  </si>
-  <si>
     <t>Quá trình tiêu hóa thức ăn diễn ra chủ yếu ở đâu trong cơ thể người?</t>
   </si>
   <si>
@@ -552,9 +512,6 @@
 D. Rễ</t>
   </si>
   <si>
-    <t>12. Chất nào sau đây là chất chủ yếu tạo nên tế bào trong cơ thể chúng ta?</t>
-  </si>
-  <si>
     <t>A. Carbohydrate
 B. Chất béo
 C. Protein
@@ -588,18 +545,12 @@
 D. Insulin</t>
   </si>
   <si>
-    <t>16. Quá trình nào sau đây giúp cây sản xuất thức ăn?</t>
-  </si>
-  <si>
     <t>A. Quang hợp
 B. Hô hấp
 C. Tiêu hóa
 D. Tuần hoàn</t>
   </si>
   <si>
-    <t>17. Chất gì trong máu chịu trách nhiệm vận chuyển oxy đến các tế bào trong cơ thể?</t>
-  </si>
-  <si>
     <t>A. Glucose
 B. Hemoglobin
 C. Insulin
@@ -645,9 +596,6 @@
     <t>22. Quá trình nào sau đây giúp cây tiếp nhận carbon dioxide từ không khí?</t>
   </si>
   <si>
-    <t>23. Chất gì trong miễn dịch giúp phát hiện và tiêu diệt vi khuẩn và virus?</t>
-  </si>
-  <si>
     <t>A. Antigen
 B. Antibody
 C. Hormone
@@ -942,18 +890,6 @@
 C. Canada</t>
   </si>
   <si>
-    <t>Thi gi do</t>
-  </si>
-  <si>
-    <t>10/9/2023</t>
-  </si>
-  <si>
-    <t>11/9/2023</t>
-  </si>
-  <si>
-    <t>1, 4, 7, 9</t>
-  </si>
-  <si>
     <t>Đơn vị đo dung lượng bộ nhớ được sử dụng trong máy tính là:</t>
   </si>
   <si>
@@ -986,14 +922,6 @@
 C. Ổ cứng di động</t>
   </si>
   <si>
-    <t>Giao thức truyền thông phổ biến trong mạng Internet là:</t>
-  </si>
-  <si>
-    <t>A. HTTP
-B. FTP
-C. SMTP</t>
-  </si>
-  <si>
     <t>Đâu không phải là phần cứng của máy tính?</t>
   </si>
   <si>
@@ -1066,14 +994,6 @@
 C. Ethernet</t>
   </si>
   <si>
-    <t>Loại kết nối dùng để truyền âm thanh và hình ảnh chất lượng cao từ máy tính ra TV là:</t>
-  </si>
-  <si>
-    <t>A. VGA
-B. HDMI
-C. DVI</t>
-  </si>
-  <si>
     <t>Phần mềm nào được sử dụng để tạo bài thuyết trình?</t>
   </si>
   <si>
@@ -1130,28 +1050,12 @@
 C. HDMI</t>
   </si>
   <si>
-    <t>Phần mềm nào được sử dụng để xử lý và tính toán dữ liệu số lớn?</t>
-  </si>
-  <si>
-    <t>A. Microsoft Excel
-B. Adobe Photoshop
-C. Google Chrome</t>
-  </si>
-  <si>
     <t>Công nghệ nào cho phép truyền tải dữ liệu không dây trong phạm vi gần?</t>
   </si>
   <si>
     <t>A. Wi-Fi
 B. NFC
 C. Ethernet</t>
-  </si>
-  <si>
-    <t>Loại máy quét nào được sử dụng để chuyển đổi tài liệu giấy thành dạng số?</t>
-  </si>
-  <si>
-    <t>A. Máy quét phẳng
-B. Máy quét mã vạch
-C. Máy quét 3D</t>
   </si>
   <si>
     <t>Phần mềm nào được sử dụng để duyệt và tìm kiếm thông tin trên Internet?</t>
@@ -1191,6 +1095,183 @@
   </si>
   <si>
     <t>ques for fun abcdefxyz</t>
+  </si>
+  <si>
+    <t>root/Default/Linh tinh</t>
+  </si>
+  <si>
+    <t>What is the correct answer to this question? Dòng cuối cùng là dòng ANSWER, mô tả đáp án đúng. Sau từ ANSWER là một dấu hai chấm và một khoảng trắng, tiếp đến là một ký tự viết hoa sau cho ký tự này nằm trong danh sách các đáp án ở trên. Sau dòng ANSWER phải có một dòng trống</t>
+  </si>
+  <si>
+    <t>A. Is it this one?
+B. Maybe this answer?
+C. Possibly this one?
+D. Must be this one!</t>
+  </si>
+  <si>
+    <t>Which LMS has the most quiz import formats?</t>
+  </si>
+  <si>
+    <t>A. Moodle
+B. ATutor
+C. Claroline
+D. Blackboard
+E. WebCT</t>
+  </si>
+  <si>
+    <t>Why did the chicken cross the road?</t>
+  </si>
+  <si>
+    <t>A. To get to the other side
+B. It wanted to live dangerously
+C. It saw Frank Perdue coming
+D. No one knows
+E. No one cares
+F. sjsjjsjs
+G. hshshssuus</t>
+  </si>
+  <si>
+    <t>Huy is very handsome, is’nt he?</t>
+  </si>
+  <si>
+    <t>A. Yes, he is
+B. Ofcourse
+C. No, I don’t think so</t>
+  </si>
+  <si>
+    <t>We will get A+ OOP, alright?</t>
+  </si>
+  <si>
+    <t>A. Ofcourse, we are
+B. No, it is terrible, we get A</t>
+  </si>
+  <si>
+    <t>Trường bị gay, đm nó</t>
+  </si>
+  <si>
+    <t>A. Ừ
+B. Không, nó thẳng như cây đũa vậy</t>
+  </si>
+  <si>
+    <t>Loại computer nào được sử dụng phổ biến trong việc xử lý đồ họa và video?</t>
+  </si>
+  <si>
+    <t>Loại nào được sử dụng để giao tiếp và chia sẻ thông tin trong mạng xã hội?</t>
+  </si>
+  <si>
+    <t>23. Chất nào trong miễn dịch giúp phát hiện và tiêu diệt vi khuẩn và virus?</t>
+  </si>
+  <si>
+    <t>Quá trình nào sau đây giúp cây sản xuất thức ăn?</t>
+  </si>
+  <si>
+    <t>Chất gì trong máu chịu trách nhiệm vận chuyển oxy đến các tế bào trong cơ thể?</t>
+  </si>
+  <si>
+    <t>Đây là một câu hỏi thi giữa kỳ sinh học 7</t>
+  </si>
+  <si>
+    <t>A. Yes
+B. No</t>
+  </si>
+  <si>
+    <t>Chất nào sau đây là chất chủ yếu tạo nên tế bào trong cơ thể chúng ta?</t>
+  </si>
+  <si>
+    <t>Kiểm tra cuối kỳ hệ điều hành</t>
+  </si>
+  <si>
+    <t>21/June/2023</t>
+  </si>
+  <si>
+    <t>22/June/2023</t>
+  </si>
+  <si>
+    <t>Thi giữa kỳ môn công nghệ lớp 7</t>
+  </si>
+  <si>
+    <t>21/March/2023</t>
+  </si>
+  <si>
+    <t>Baka</t>
+  </si>
+  <si>
+    <t>1,3,5,7,9,11,18,102,20,26</t>
+  </si>
+  <si>
+    <t>null,140</t>
+  </si>
+  <si>
+    <t>null,140,142</t>
+  </si>
+  <si>
+    <t>null,140,142,144</t>
+  </si>
+  <si>
+    <t>null,140,142,144,145</t>
+  </si>
+  <si>
+    <t>1,3,5,7,9,11,18,102,20,26,0</t>
+  </si>
+  <si>
+    <t>1,3,5,7,9,11,18,102,20,26,0,2</t>
+  </si>
+  <si>
+    <t>1,3,5,7,9,11,18,102,20,26,0,2,4</t>
+  </si>
+  <si>
+    <t>1,3,5,7,9,11,18,102,20,26,0,2,4,6</t>
+  </si>
+  <si>
+    <t>1,3,5,7,9,11,18,102,20,26,0,2,4,6,54</t>
+  </si>
+  <si>
+    <t>Thi cuối kỳ sinh học 7</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>,56</t>
+  </si>
+  <si>
+    <t>,56,57</t>
+  </si>
+  <si>
+    <t>,56,57,58</t>
+  </si>
+  <si>
+    <t>,142,144,145</t>
+  </si>
+  <si>
+    <t>,140,144,145</t>
+  </si>
+  <si>
+    <t>,140,145</t>
+  </si>
+  <si>
+    <t>,140</t>
+  </si>
+  <si>
+    <t>,140,145,142</t>
+  </si>
+  <si>
+    <t>,140,145,142,143</t>
+  </si>
+  <si>
+    <t>,140,145,142,143,141</t>
+  </si>
+  <si>
+    <t>,140,145,142,143,141,112</t>
+  </si>
+  <si>
+    <t>,1,3,5,7,9,11,18,102,20,0,2,4,6,54</t>
+  </si>
+  <si>
+    <t>,1,3,5,7,9,11,18,102,20,0,4,6,54</t>
+  </si>
+  <si>
+    <t>,1,5,7,9,11,18,102,20,0,4,6,54</t>
   </si>
 </sst>
 </file>
@@ -1509,1986 +1590,2056 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D144"/>
+  <dimension ref="A1:D146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="N60" sqref="N60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s" s="0">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s" s="0">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s" s="0">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s" s="0">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s" s="0">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s" s="0">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s" s="0">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s" s="0">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s" s="0">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s" s="0">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s" s="0">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s" s="0">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s" s="0">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s" s="0">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s" s="0">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s" s="0">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s" s="0">
         <v>23</v>
-      </c>
-      <c r="C16" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D16" t="s" s="0">
-        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s" s="0">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s" s="0">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s" s="0">
         <v>23</v>
-      </c>
-      <c r="C18" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="0">
-        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s" s="0">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s" s="0">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s" s="0">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s" s="0">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s" s="0">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s" s="0">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s" s="0">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s" s="0">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s" s="0">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B27" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D27" t="s" s="0">
         <v>23</v>
-      </c>
-      <c r="C27" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D27" t="s" s="0">
-        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s" s="0">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s" s="0">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B29" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D29" t="s" s="0">
         <v>23</v>
-      </c>
-      <c r="C29" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D29" t="s" s="0">
-        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s" s="0">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s" s="0">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s" s="0">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s" s="0">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s" s="0">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s" s="0">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s" s="0">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s" s="0">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B37" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D37" t="s" s="0">
         <v>23</v>
-      </c>
-      <c r="C37" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D37" t="s" s="0">
-        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s" s="0">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s" s="0">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s" s="0">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s" s="0">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s" s="0">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s" s="0">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s" s="0">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s" s="0">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s" s="0">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s" s="0">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s" s="0">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B48" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C48" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D48" t="s" s="0">
         <v>23</v>
-      </c>
-      <c r="C48" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D48" t="s" s="0">
-        <v>31</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s" s="0">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s" s="0">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s" s="0">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B51" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C51" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D51" t="s" s="0">
         <v>23</v>
-      </c>
-      <c r="C51" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D51" t="s" s="0">
-        <v>31</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s" s="0">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s" s="0">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s" s="0">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s" s="0">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s" s="0">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s" s="0">
-        <v>112</v>
+        <v>276</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>108</v>
+        <v>11</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>113</v>
+        <v>277</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s" s="0">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s" s="0">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D59" t="s" s="0">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s" s="0">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D60" t="s" s="0">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s" s="0">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D61" t="s" s="0">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s" s="0">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D62" t="s" s="0">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s" s="0">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D63" t="s" s="0">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s" s="0">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D64" t="s" s="0">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s" s="0">
-        <v>128</v>
+        <v>278</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D65" t="s" s="0">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s" s="0">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D66" t="s" s="0">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s" s="0">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D67" t="s" s="0">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s" s="0">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C68" t="s" s="0">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D68" t="s" s="0">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s" s="0">
-        <v>136</v>
+        <v>274</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C69" t="s" s="0">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D69" t="s" s="0">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s" s="0">
-        <v>138</v>
+        <v>275</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C70" t="s" s="0">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D70" t="s" s="0">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s" s="0">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D71" t="s" s="0">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s" s="0">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D72" t="s" s="0">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s" s="0">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D73" t="s" s="0">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s" s="0">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C74" t="s" s="0">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D74" t="s" s="0">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s" s="0">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C75" t="s" s="0">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D75" t="s" s="0">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s" s="0">
-        <v>149</v>
+        <v>273</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C76" t="s" s="0">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D76" t="s" s="0">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s" s="0">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C77" t="s" s="0">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D77" t="s" s="0">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s" s="0">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C78" t="s" s="0">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D78" t="s" s="0">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s" s="0">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C79" t="s" s="0">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D79" t="s" s="0">
-        <v>156</v>
+        <v>142</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s" s="0">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C80" t="s" s="0">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D80" t="s" s="0">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s" s="0">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C81" t="s" s="0">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D81" t="s" s="0">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s" s="0">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C82" t="s" s="0">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D82" t="s" s="0">
-        <v>161</v>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="B83" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C83" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="D83" t="s" s="0">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="B84" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C84" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="D84" t="s" s="0">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A85" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="B85" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C85" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="D85" t="s" s="0">
+        <v>153</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s" s="0">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C86" t="s" s="0">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D86" t="s" s="0">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s" s="0">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C87" t="s" s="0">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D87" t="s" s="0">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s" s="0">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C88" t="s" s="0">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D88" t="s" s="0">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s" s="0">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C89" t="s" s="0">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D89" t="s" s="0">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s" s="0">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C90" t="s" s="0">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D90" t="s" s="0">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s" s="0">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C91" t="s" s="0">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D91" t="s" s="0">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s" s="0">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C92" t="s" s="0">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D92" t="s" s="0">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s" s="0">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C93" t="s" s="0">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D93" t="s" s="0">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s" s="0">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C94" t="s" s="0">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D94" t="s" s="0">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s" s="0">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C95" t="s" s="0">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D95" t="s" s="0">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="s" s="0">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C96" t="s" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D96" t="s" s="0">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s" s="0">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C97" t="s" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D97" t="s" s="0">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s" s="0">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C98" t="s" s="0">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D98" t="s" s="0">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" t="s" s="0">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C99" t="s" s="0">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D99" t="s" s="0">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="s" s="0">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C100" t="s" s="0">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D100" t="s" s="0">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s" s="0">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C101" t="s" s="0">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D101" t="s" s="0">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s" s="0">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C102" t="s" s="0">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D102" t="s" s="0">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="s" s="0">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C103" t="s" s="0">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D103" t="s" s="0">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" t="s" s="0">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C104" t="s" s="0">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D104" t="s" s="0">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" t="s" s="0">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C105" t="s" s="0">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D105" t="s" s="0">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" t="s" s="0">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C106" t="s" s="0">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D106" t="s" s="0">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" t="s" s="0">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C107" t="s" s="0">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D107" t="s" s="0">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" t="s" s="0">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C108" t="s" s="0">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D108" t="s" s="0">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" t="s" s="0">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C109" t="s" s="0">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D109" t="s" s="0">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" t="s" s="0">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C110" t="s" s="0">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D110" t="s" s="0">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" t="s" s="0">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C111" t="s" s="0">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D111" t="s" s="0">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" t="s" s="0">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C112" t="s" s="0">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D112" t="s" s="0">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" t="s" s="0">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C113" t="s" s="0">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D113" t="s" s="0">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" t="s" s="0">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C114" t="s" s="0">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D114" t="s" s="0">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" t="s" s="0">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B115" t="s" s="0">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C115" t="s" s="0">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D115" t="s" s="0">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" t="s" s="0">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C116" t="s" s="0">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D116" t="s" s="0">
-        <v>227</v>
+        <v>215</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" t="s" s="0">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C117" t="s" s="0">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D117" t="s" s="0">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" t="s" s="0">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C118" t="s" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D118" t="s" s="0">
-        <v>231</v>
+        <v>217</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" t="s" s="0">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C119" t="s" s="0">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D119" t="s" s="0">
-        <v>233</v>
+        <v>219</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" t="s" s="0">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C120" t="s" s="0">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D120" t="s" s="0">
-        <v>235</v>
+        <v>221</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" t="s" s="0">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C121" t="s" s="0">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D121" t="s" s="0">
-        <v>237</v>
+        <v>223</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" t="s" s="0">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C122" t="s" s="0">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D122" t="s" s="0">
-        <v>239</v>
+        <v>225</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" t="s" s="0">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C123" t="s" s="0">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D123" t="s" s="0">
-        <v>241</v>
+        <v>227</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" t="s" s="0">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C124" t="s" s="0">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D124" t="s" s="0">
-        <v>243</v>
+        <v>229</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" t="s" s="0">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="B125" t="s" s="0">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C125" t="s" s="0">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D125" t="s" s="0">
-        <v>245</v>
+        <v>231</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" t="s" s="0">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="B126" t="s" s="0">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C126" t="s" s="0">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D126" t="s" s="0">
-        <v>247</v>
+        <v>233</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" t="s" s="0">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C127" t="s" s="0">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D127" t="s" s="0">
-        <v>249</v>
+        <v>239</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" t="s" s="0">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="B128" t="s" s="0">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C128" t="s" s="0">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D128" t="s" s="0">
-        <v>251</v>
+        <v>235</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="s" s="0">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="B129" t="s" s="0">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C129" t="s" s="0">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D129" t="s" s="0">
-        <v>253</v>
+        <v>237</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" t="s" s="0">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="B130" t="s" s="0">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C130" t="s" s="0">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D130" t="s" s="0">
-        <v>255</v>
+        <v>239</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" t="s" s="0">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="B131" t="s" s="0">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C131" t="s" s="0">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D131" t="s" s="0">
-        <v>257</v>
+        <v>241</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" t="s" s="0">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C132" t="s" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D132" t="s" s="0">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" t="s" s="0">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="B133" t="s" s="0">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C133" t="s" s="0">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D133" t="s" s="0">
-        <v>261</v>
+        <v>245</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" t="s" s="0">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="B134" t="s" s="0">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C134" t="s" s="0">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D134" t="s" s="0">
-        <v>263</v>
+        <v>247</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" t="s" s="0">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="B135" t="s" s="0">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C135" t="s" s="0">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D135" t="s" s="0">
-        <v>265</v>
+        <v>249</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" t="s" s="0">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="B136" t="s" s="0">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C136" t="s" s="0">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D136" t="s" s="0">
-        <v>267</v>
+        <v>253</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" t="s" s="0">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="B137" t="s" s="0">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="C137" t="s" s="0">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D137" t="s" s="0">
-        <v>269</v>
+        <v>256</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" t="s" s="0">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="B138" t="s" s="0">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C138" t="s" s="0">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D138" t="s" s="0">
-        <v>271</v>
+        <v>251</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" t="s" s="0">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="B139" t="s" s="0">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C139" t="s" s="0">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D139" t="s" s="0">
-        <v>273</v>
+        <v>253</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" t="s" s="0">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="B140" t="s" s="0">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="C140" t="s" s="0">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D140" t="s" s="0">
-        <v>275</v>
+        <v>255</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" t="s" s="0">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="B141" t="s" s="0">
-        <v>108</v>
+        <v>258</v>
       </c>
       <c r="C141" t="s" s="0">
         <v>29</v>
       </c>
       <c r="D141" t="s" s="0">
-        <v>282</v>
+        <v>260</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" t="s" s="0">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>12</v>
+        <v>258</v>
       </c>
       <c r="C142" t="s" s="0">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D142" t="s" s="0">
-        <v>277</v>
+        <v>262</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" t="s" s="0">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>12</v>
+        <v>258</v>
       </c>
       <c r="C143" t="s" s="0">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D143" t="s" s="0">
-        <v>279</v>
+        <v>264</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" t="s" s="0">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>108</v>
+        <v>258</v>
       </c>
       <c r="C144" t="s" s="0">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D144" t="s" s="0">
-        <v>281</v>
+        <v>266</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A145" t="s" s="0">
+        <v>267</v>
+      </c>
+      <c r="B145" t="s" s="0">
+        <v>258</v>
+      </c>
+      <c r="C145" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="D145" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A146" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="B146" t="s" s="0">
+        <v>258</v>
+      </c>
+      <c r="C146" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="D146" t="s" s="0">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -3498,10 +3649,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7375D0D9-A088-4E33-84C0-F60360358F66}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3511,23 +3662,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s" s="0">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s" s="0">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B2" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s" s="0">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B3" s="0">
         <v>86</v>
@@ -3535,7 +3686,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s" s="0">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B4" s="0">
         <v>86</v>
@@ -3543,7 +3694,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s" s="0">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B5" s="0">
         <v>0</v>
@@ -3551,7 +3702,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s" s="0">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B6" s="0">
         <v>30</v>
@@ -3559,7 +3710,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s" s="0">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B7" s="0">
         <v>0</v>
@@ -3567,7 +3718,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s" s="0">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B8" s="0">
         <v>0</v>
@@ -3575,7 +3726,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s" s="0">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B9" s="0">
         <v>0</v>
@@ -3583,7 +3734,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s" s="0">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B10" s="0">
         <v>0</v>
@@ -3591,7 +3742,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s" s="0">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B11" s="0">
         <v>0</v>
@@ -3599,7 +3750,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s" s="0">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B12" s="0">
         <v>0</v>
@@ -3607,7 +3758,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s" s="0">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B13" s="0">
         <v>63</v>
@@ -3615,7 +3766,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s" s="0">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B14" s="0">
         <v>31</v>
@@ -3623,7 +3774,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s" s="0">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B15" s="0">
         <v>32</v>
@@ -3631,7 +3782,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s" s="0">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B16" s="0">
         <v>0</v>
@@ -3639,7 +3790,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s" s="0">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B17" s="0">
         <v>56</v>
@@ -3647,7 +3798,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s" s="0">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B18" s="0">
         <v>0</v>
@@ -3655,7 +3806,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s" s="0">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B19" s="0">
         <v>0</v>
@@ -3663,7 +3814,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s" s="0">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B20" s="0">
         <v>0</v>
@@ -3671,7 +3822,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s" s="0">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B21" s="0">
         <v>0</v>
@@ -3679,10 +3830,18 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s" s="0">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B22" s="0">
         <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s" s="0">
+        <v>258</v>
+      </c>
+      <c r="B23" s="0">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -3694,8 +3853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E57CE46-9D74-4C06-8F20-8319158C49B7}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3708,70 +3867,67 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s" s="0">
-        <v>3</v>
+        <v>279</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>1</v>
+        <v>281</v>
       </c>
       <c r="D1" s="0">
-        <v>2700</v>
+        <v>5400</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>2</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s" s="0">
-        <v>4</v>
+        <v>282</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>5</v>
+        <v>283</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>6</v>
+        <v>283</v>
       </c>
       <c r="D2" s="0">
-        <v>5400</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>7</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s" s="0">
-        <v>222</v>
+        <v>284</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>223</v>
+        <v>283</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>224</v>
+        <v>283</v>
       </c>
       <c r="D3" s="0">
-        <v>30</v>
+        <v>600</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s" s="0">
-        <v>222</v>
+        <v>295</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>223</v>
+        <v>283</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>224</v>
-      </c>
-      <c r="D4" s="0">
-        <v>30</v>
+        <v>283</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>7200.0</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>225</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/data/QuizTestAppData.xlsx
+++ b/src/main/java/data/QuizTestAppData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Source\Java\OOP\quiz-test-app\src\main\java\data\"/>
     </mc:Choice>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="285">
   <si>
     <t>10-6-2023 12-00-00</t>
   </si>
@@ -1192,11 +1192,20 @@
   <si>
     <t>ques for fun abcdefxyz</t>
   </si>
+  <si>
+    <t xml:space="preserve">N
+N
+N
+N
+G
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1508,7 +1517,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D144"/>
+  <dimension ref="A1:E144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
@@ -1516,1981 +1525,1984 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.28515625" customWidth="1"/>
-    <col min="2" max="2" width="42.42578125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="50.28515625"/>
+    <col min="2" max="2" customWidth="true" width="42.42578125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>107</v>
       </c>
-      <c r="B1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="B1" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s" s="0">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s" s="0">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B3" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s" s="0">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="B7" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s" s="0">
         <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B9" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="0">
         <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B10" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="0">
         <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="B11" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s" s="0">
         <v>52</v>
       </c>
+      <c r="E11" t="s" s="0">
+        <v>284</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B12" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" t="s" s="0">
         <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="B13" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s" s="0">
         <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B14" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" t="s" s="0">
         <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>59</v>
       </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="B15" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s" s="0">
         <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="B16" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s" s="0">
         <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B17" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" t="s" s="0">
         <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="B18" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D18" t="s" s="0">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="B19" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D19" t="s" s="0">
         <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="B20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="B20" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D20" t="s" s="0">
         <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="B21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="B21" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D21" t="s" s="0">
         <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="B22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="B22" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D22" t="s" s="0">
         <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="B23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B23" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" t="s" s="0">
         <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="B24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="B24" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D24" t="s" s="0">
         <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="B25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B25" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" t="s" s="0">
         <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="B26" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="B26" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D26" t="s" s="0">
         <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="B27" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="B27" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D27" t="s" s="0">
         <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" t="s" s="0">
         <v>78</v>
       </c>
-      <c r="B28" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="B28" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D28" t="s" s="0">
         <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" t="s" s="0">
         <v>80</v>
       </c>
-      <c r="B29" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="B29" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D29" t="s" s="0">
         <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="B30" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="B30" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C30" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" t="s" s="0">
         <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="B31" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B31" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C31" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" t="s" s="0">
         <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="B32" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="B32" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C32" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" t="s" s="0">
         <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="B33" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="B33" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D33" t="s" s="0">
         <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="B34" t="s">
-        <v>23</v>
-      </c>
-      <c r="C34" t="s">
-        <v>29</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="B34" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D34" t="s" s="0">
         <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="B35" t="s">
-        <v>23</v>
-      </c>
-      <c r="C35" t="s">
-        <v>32</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="B35" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D35" t="s" s="0">
         <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="B36" t="s">
-        <v>23</v>
-      </c>
-      <c r="C36" t="s">
-        <v>32</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="B36" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D36" t="s" s="0">
         <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="B37" t="s">
-        <v>23</v>
-      </c>
-      <c r="C37" t="s">
-        <v>32</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="B37" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D37" t="s" s="0">
         <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="B38" t="s">
-        <v>23</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="B38" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C38" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" t="s" s="0">
         <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="B39" t="s">
-        <v>23</v>
-      </c>
-      <c r="C39" t="s">
-        <v>32</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="B39" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D39" t="s" s="0">
         <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="B40" t="s">
-        <v>23</v>
-      </c>
-      <c r="C40" t="s">
-        <v>32</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="B40" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D40" t="s" s="0">
         <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="B41" t="s">
-        <v>23</v>
-      </c>
-      <c r="C41" t="s">
-        <v>29</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="B41" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D41" t="s" s="0">
         <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="B42" t="s">
-        <v>23</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="B42" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C42" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" t="s" s="0">
         <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" t="s" s="0">
         <v>100</v>
       </c>
-      <c r="B43" t="s">
-        <v>23</v>
-      </c>
-      <c r="C43" t="s">
-        <v>29</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="B43" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D43" t="s" s="0">
         <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="A44" t="s" s="0">
         <v>102</v>
       </c>
-      <c r="B44" t="s">
-        <v>23</v>
-      </c>
-      <c r="C44" t="s">
-        <v>32</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="B44" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C44" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D44" t="s" s="0">
         <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="A45" t="s" s="0">
         <v>103</v>
       </c>
-      <c r="B45" t="s">
-        <v>23</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="B45" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C45" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" t="s" s="0">
         <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="A46" t="s" s="0">
         <v>105</v>
       </c>
-      <c r="B46" t="s">
-        <v>23</v>
-      </c>
-      <c r="C46" t="s">
-        <v>29</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="B46" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D46" t="s" s="0">
         <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="A47" t="s" s="0">
         <v>106</v>
       </c>
-      <c r="B47" t="s">
-        <v>23</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="B47" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C47" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" t="s" s="0">
         <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="A48" t="s" s="0">
         <v>80</v>
       </c>
-      <c r="B48" t="s">
-        <v>23</v>
-      </c>
-      <c r="C48" t="s">
-        <v>32</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="B48" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C48" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D48" t="s" s="0">
         <v>31</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="A49" t="s" s="0">
         <v>78</v>
       </c>
-      <c r="B49" t="s">
-        <v>23</v>
-      </c>
-      <c r="C49" t="s">
-        <v>29</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="B49" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C49" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D49" t="s" s="0">
         <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="A50" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="B50" t="s">
-        <v>23</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="B50" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C50" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" t="s" s="0">
         <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="A51" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="B51" t="s">
-        <v>23</v>
-      </c>
-      <c r="C51" t="s">
-        <v>32</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="B51" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C51" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D51" t="s" s="0">
         <v>31</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="A52" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="B52" t="s">
-        <v>23</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="B52" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C52" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" t="s" s="0">
         <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="A53" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="B53" t="s">
-        <v>23</v>
-      </c>
-      <c r="C53" t="s">
-        <v>32</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="B53" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C53" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D53" t="s" s="0">
         <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="A54" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="B54" t="s">
-        <v>23</v>
-      </c>
-      <c r="C54" t="s">
-        <v>29</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="B54" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C54" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D54" t="s" s="0">
         <v>76</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="A55" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="B55" t="s">
-        <v>23</v>
-      </c>
-      <c r="C55" t="s">
-        <v>32</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="B55" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C55" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D55" t="s" s="0">
         <v>88</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="A56" t="s" s="0">
         <v>109</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="C56" t="s">
-        <v>32</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="C56" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D56" t="s" s="0">
         <v>110</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="A57" t="s" s="0">
         <v>112</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" t="s" s="0">
         <v>108</v>
       </c>
-      <c r="C57" t="s">
-        <v>29</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="C57" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D57" t="s" s="0">
         <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="A58" t="s" s="0">
         <v>114</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" t="s" s="0">
         <v>115</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="A59" t="s" s="0">
         <v>116</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="C59" t="s">
-        <v>29</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="C59" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D59" t="s" s="0">
         <v>117</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="A60" t="s" s="0">
         <v>118</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" t="s" s="0">
         <v>119</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="A61" t="s" s="0">
         <v>120</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" t="s" s="0">
         <v>121</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="A62" t="s" s="0">
         <v>122</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="C62" t="s">
-        <v>32</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="C62" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D62" t="s" s="0">
         <v>123</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="A63" t="s" s="0">
         <v>124</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" t="s" s="0">
         <v>125</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="A64" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="C64" t="s">
-        <v>29</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="C64" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D64" t="s" s="0">
         <v>127</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="A65" t="s" s="0">
         <v>128</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="C65" t="s">
-        <v>32</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="C65" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D65" t="s" s="0">
         <v>129</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="A66" t="s" s="0">
         <v>130</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="C66" t="s">
-        <v>29</v>
-      </c>
-      <c r="D66" t="s">
+      <c r="C66" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D66" t="s" s="0">
         <v>131</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="A67" t="s" s="0">
         <v>132</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" t="s" s="0">
         <v>133</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="A68" t="s" s="0">
         <v>134</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="C68" t="s">
-        <v>29</v>
-      </c>
-      <c r="D68" t="s">
+      <c r="C68" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D68" t="s" s="0">
         <v>135</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="A69" t="s" s="0">
         <v>136</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="C69" t="s">
-        <v>29</v>
-      </c>
-      <c r="D69" t="s">
+      <c r="C69" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D69" t="s" s="0">
         <v>137</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="A70" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" t="s" s="0">
         <v>139</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="A71" t="s" s="0">
         <v>140</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" t="s" s="0">
         <v>141</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="A72" t="s" s="0">
         <v>142</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="C72" t="s">
-        <v>29</v>
-      </c>
-      <c r="D72" t="s">
+      <c r="C72" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D72" t="s" s="0">
         <v>143</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="A73" t="s" s="0">
         <v>144</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" t="s" s="0">
         <v>145</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="A74" t="s" s="0">
         <v>146</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" t="s" s="0">
         <v>147</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="A75" t="s" s="0">
         <v>148</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="C75" t="s">
-        <v>29</v>
-      </c>
-      <c r="D75" t="s">
+      <c r="C75" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D75" t="s" s="0">
         <v>143</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="A76" t="s" s="0">
         <v>149</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" t="s" s="0">
         <v>150</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="A77" t="s" s="0">
         <v>151</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" t="s" s="0">
         <v>152</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="A78" t="s" s="0">
         <v>153</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="C78" t="s">
-        <v>32</v>
-      </c>
-      <c r="D78" t="s">
+      <c r="C78" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D78" t="s" s="0">
         <v>154</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="A79" t="s" s="0">
         <v>155</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" t="s" s="0">
         <v>156</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="A80" t="s" s="0">
         <v>157</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" t="s" s="0">
         <v>158</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="A81" t="s" s="0">
         <v>159</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="C81" t="s">
-        <v>29</v>
-      </c>
-      <c r="D81" t="s">
+      <c r="C81" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D81" t="s" s="0">
         <v>135</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="A82" t="s" s="0">
         <v>160</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="C82" t="s">
-        <v>29</v>
-      </c>
-      <c r="D82" t="s">
+      <c r="C82" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D82" t="s" s="0">
         <v>161</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="A86" t="s" s="0">
         <v>162</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="C86" t="s">
-        <v>29</v>
-      </c>
-      <c r="D86" t="s">
+      <c r="C86" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D86" t="s" s="0">
         <v>163</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="A87" t="s" s="0">
         <v>164</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" t="s" s="0">
         <v>165</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="A88" t="s" s="0">
         <v>166</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" t="s" s="0">
         <v>167</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="A89" t="s" s="0">
         <v>168</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="C89" t="s">
-        <v>32</v>
-      </c>
-      <c r="D89" t="s">
+      <c r="C89" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D89" t="s" s="0">
         <v>169</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="A90" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="C90" t="s">
-        <v>29</v>
-      </c>
-      <c r="D90" t="s">
+      <c r="C90" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D90" t="s" s="0">
         <v>171</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="A91" t="s" s="0">
         <v>172</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="C91" t="s">
-        <v>29</v>
-      </c>
-      <c r="D91" t="s">
+      <c r="C91" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D91" t="s" s="0">
         <v>173</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="A92" t="s" s="0">
         <v>174</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="C92" t="s">
-        <v>29</v>
-      </c>
-      <c r="D92" t="s">
+      <c r="C92" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D92" t="s" s="0">
         <v>175</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="A93" t="s" s="0">
         <v>176</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="C93" t="s">
-        <v>29</v>
-      </c>
-      <c r="D93" t="s">
+      <c r="C93" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D93" t="s" s="0">
         <v>177</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="A94" t="s" s="0">
         <v>178</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" t="s" s="0">
         <v>179</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="A95" t="s" s="0">
         <v>180</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="C95" t="s">
-        <v>29</v>
-      </c>
-      <c r="D95" t="s">
+      <c r="C95" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D95" t="s" s="0">
         <v>181</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="A96" t="s" s="0">
         <v>182</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="C96" t="s">
-        <v>32</v>
-      </c>
-      <c r="D96" t="s">
+      <c r="C96" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D96" t="s" s="0">
         <v>183</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="A97" t="s" s="0">
         <v>184</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="C97" t="s">
-        <v>32</v>
-      </c>
-      <c r="D97" t="s">
+      <c r="C97" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D97" t="s" s="0">
         <v>185</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="A98" t="s" s="0">
         <v>186</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="C98" t="s">
-        <v>29</v>
-      </c>
-      <c r="D98" t="s">
+      <c r="C98" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D98" t="s" s="0">
         <v>187</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="A99" t="s" s="0">
         <v>188</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" t="s" s="0">
         <v>189</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="A100" t="s" s="0">
         <v>190</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" t="s" s="0">
         <v>191</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="A101" t="s" s="0">
         <v>192</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="C101" t="s">
-        <v>29</v>
-      </c>
-      <c r="D101" t="s">
+      <c r="C101" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D101" t="s" s="0">
         <v>193</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="A102" t="s" s="0">
         <v>194</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" t="s" s="0">
         <v>195</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="A103" t="s" s="0">
         <v>196</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="C103" t="s">
-        <v>29</v>
-      </c>
-      <c r="D103" t="s">
+      <c r="C103" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D103" t="s" s="0">
         <v>197</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="A104" t="s" s="0">
         <v>198</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="C104" t="s">
-        <v>29</v>
-      </c>
-      <c r="D104" t="s">
+      <c r="C104" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D104" t="s" s="0">
         <v>199</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="A105" t="s" s="0">
         <v>200</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" t="s" s="0">
         <v>201</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="A106" t="s" s="0">
         <v>202</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="C106" t="s">
-        <v>29</v>
-      </c>
-      <c r="D106" t="s">
+      <c r="C106" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D106" t="s" s="0">
         <v>203</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="A107" t="s" s="0">
         <v>204</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107" t="s" s="0">
         <v>205</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="A108" t="s" s="0">
         <v>206</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="C108" t="s">
-        <v>32</v>
-      </c>
-      <c r="D108" t="s">
+      <c r="C108" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D108" t="s" s="0">
         <v>207</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="A109" t="s" s="0">
         <v>208</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" t="s" s="0">
         <v>209</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="A110" t="s" s="0">
         <v>210</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="C110" t="s">
-        <v>29</v>
-      </c>
-      <c r="D110" t="s">
+      <c r="C110" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D110" t="s" s="0">
         <v>211</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+      <c r="A111" t="s" s="0">
         <v>212</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="C111" t="s">
-        <v>29</v>
-      </c>
-      <c r="D111" t="s">
+      <c r="C111" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D111" t="s" s="0">
         <v>213</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+      <c r="A112" t="s" s="0">
         <v>214</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="C112" t="s">
-        <v>32</v>
-      </c>
-      <c r="D112" t="s">
+      <c r="C112" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D112" t="s" s="0">
         <v>215</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+      <c r="A113" t="s" s="0">
         <v>216</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113" t="s" s="0">
         <v>217</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+      <c r="A114" t="s" s="0">
         <v>218</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D114" t="s" s="0">
         <v>219</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+      <c r="A115" t="s" s="0">
         <v>220</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="C115" t="s">
-        <v>29</v>
-      </c>
-      <c r="D115" t="s">
+      <c r="C115" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D115" t="s" s="0">
         <v>221</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+      <c r="A116" t="s" s="0">
         <v>226</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="C116" t="s">
-        <v>29</v>
-      </c>
-      <c r="D116" t="s">
+      <c r="C116" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D116" t="s" s="0">
         <v>227</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+      <c r="A117" t="s" s="0">
         <v>228</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="C117" t="s">
-        <v>29</v>
-      </c>
-      <c r="D117" t="s">
+      <c r="C117" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D117" t="s" s="0">
         <v>229</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="A118" t="s" s="0">
         <v>230</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="C118" t="s">
-        <v>32</v>
-      </c>
-      <c r="D118" t="s">
+      <c r="C118" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D118" t="s" s="0">
         <v>231</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+      <c r="A119" t="s" s="0">
         <v>232</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="C119" t="s">
-        <v>32</v>
-      </c>
-      <c r="D119" t="s">
+      <c r="C119" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D119" t="s" s="0">
         <v>233</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+      <c r="A120" t="s" s="0">
         <v>234</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="C120" t="s">
-        <v>29</v>
-      </c>
-      <c r="D120" t="s">
+      <c r="C120" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D120" t="s" s="0">
         <v>235</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+      <c r="A121" t="s" s="0">
         <v>236</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D121" t="s" s="0">
         <v>237</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+      <c r="A122" t="s" s="0">
         <v>238</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="C122" t="s">
-        <v>29</v>
-      </c>
-      <c r="D122" t="s">
+      <c r="C122" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D122" t="s" s="0">
         <v>239</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+      <c r="A123" t="s" s="0">
         <v>240</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D123" t="s" s="0">
         <v>241</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+      <c r="A124" t="s" s="0">
         <v>242</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="C124" t="s">
-        <v>29</v>
-      </c>
-      <c r="D124" t="s">
+      <c r="C124" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D124" t="s" s="0">
         <v>243</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+      <c r="A125" t="s" s="0">
         <v>244</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="C125" t="s">
-        <v>32</v>
-      </c>
-      <c r="D125" t="s">
+      <c r="C125" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D125" t="s" s="0">
         <v>245</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+      <c r="A126" t="s" s="0">
         <v>246</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C126" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D126" t="s" s="0">
         <v>247</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+      <c r="A127" t="s" s="0">
         <v>248</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="C127" t="s">
-        <v>29</v>
-      </c>
-      <c r="D127" t="s">
+      <c r="C127" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D127" t="s" s="0">
         <v>249</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+      <c r="A128" t="s" s="0">
         <v>250</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="C128" t="s">
-        <v>29</v>
-      </c>
-      <c r="D128" t="s">
+      <c r="C128" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D128" t="s" s="0">
         <v>251</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+      <c r="A129" t="s" s="0">
         <v>252</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="C129" t="s">
-        <v>29</v>
-      </c>
-      <c r="D129" t="s">
+      <c r="C129" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D129" t="s" s="0">
         <v>253</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+      <c r="A130" t="s" s="0">
         <v>254</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C130" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D130" t="s" s="0">
         <v>255</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+      <c r="A131" t="s" s="0">
         <v>256</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="C131" t="s">
-        <v>29</v>
-      </c>
-      <c r="D131" t="s">
+      <c r="C131" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D131" t="s" s="0">
         <v>257</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+      <c r="A132" t="s" s="0">
         <v>258</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="C132" t="s">
-        <v>32</v>
-      </c>
-      <c r="D132" t="s">
+      <c r="C132" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D132" t="s" s="0">
         <v>259</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+      <c r="A133" t="s" s="0">
         <v>260</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="C133" t="s">
-        <v>32</v>
-      </c>
-      <c r="D133" t="s">
+      <c r="C133" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D133" t="s" s="0">
         <v>261</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+      <c r="A134" t="s" s="0">
         <v>262</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="C134" t="s">
-        <v>29</v>
-      </c>
-      <c r="D134" t="s">
+      <c r="C134" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D134" t="s" s="0">
         <v>263</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+      <c r="A135" t="s" s="0">
         <v>264</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C135" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D135" t="s" s="0">
         <v>265</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+      <c r="A136" t="s" s="0">
         <v>266</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="C136" t="s">
-        <v>32</v>
-      </c>
-      <c r="D136" t="s">
+      <c r="C136" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D136" t="s" s="0">
         <v>267</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+      <c r="A137" t="s" s="0">
         <v>268</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C137" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="D137" t="s">
+      <c r="D137" t="s" s="0">
         <v>269</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+      <c r="A138" t="s" s="0">
         <v>270</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="C138" t="s">
-        <v>29</v>
-      </c>
-      <c r="D138" t="s">
+      <c r="C138" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D138" t="s" s="0">
         <v>271</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+      <c r="A139" t="s" s="0">
         <v>272</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C139" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D139" t="s" s="0">
         <v>273</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+      <c r="A140" t="s" s="0">
         <v>274</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="C140" t="s">
-        <v>29</v>
-      </c>
-      <c r="D140" t="s">
+      <c r="C140" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D140" t="s" s="0">
         <v>275</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+      <c r="A141" t="s" s="0">
         <v>283</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" t="s" s="0">
         <v>108</v>
       </c>
-      <c r="C141" t="s">
-        <v>29</v>
-      </c>
-      <c r="D141" t="s">
+      <c r="C141" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D141" t="s" s="0">
         <v>282</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+      <c r="A142" t="s" s="0">
         <v>276</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="C142" t="s">
-        <v>29</v>
-      </c>
-      <c r="D142" t="s">
+      <c r="C142" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D142" t="s" s="0">
         <v>277</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+      <c r="A143" t="s" s="0">
         <v>278</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="C143" t="s">
-        <v>29</v>
-      </c>
-      <c r="D143" t="s">
+      <c r="C143" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D143" t="s" s="0">
         <v>279</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+      <c r="A144" t="s" s="0">
         <v>280</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" t="s" s="0">
         <v>108</v>
       </c>
-      <c r="C144" t="s">
-        <v>29</v>
-      </c>
-      <c r="D144" t="s">
+      <c r="C144" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D144" t="s" s="0">
         <v>281</v>
       </c>
     </row>
@@ -3509,182 +3521,182 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="66.140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="66.140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="0">
         <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>111</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0">
         <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0">
         <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="0">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="0">
         <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="0">
         <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17">
+      <c r="A17" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B17" s="0">
         <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>108</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="0">
         <v>2</v>
       </c>
     </row>
@@ -3703,77 +3715,77 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="5" max="5" width="38.85546875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="35.5703125"/>
+    <col min="2" max="2" customWidth="true" width="19.140625"/>
+    <col min="3" max="3" customWidth="true" width="17.42578125"/>
+    <col min="5" max="5" customWidth="true" width="38.85546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="0">
         <v>2700</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="0">
         <v>5400</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>222</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>223</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>224</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="0">
         <v>30</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="0">
         <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>222</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>223</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>224</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="0">
         <v>30</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="0">
         <v>225</v>
       </c>
     </row>

--- a/src/main/java/data/QuizTestAppData.xlsx
+++ b/src/main/java/data/QuizTestAppData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\btl oop\quiz-test-app\src\main\java\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6EAE6C5-FBF9-4E1A-943A-BFDB811BD867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6122E3DE-7F7A-4783-896C-CBA7F9939EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QuestionBank" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="293">
   <si>
     <t>10-6-2023 12-00-00</t>
   </si>
@@ -471,19 +471,6 @@
   </si>
   <si>
     <t>Đây là câu hỏi thi giữa kỳ sinh học 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A. Yes
-B. No
-null
-null
-null
-null
-null
-null
-null
-null
-</t>
   </si>
   <si>
     <t>Quá trình tiêu hóa thức ăn diễn ra chủ yếu ở đâu trong cơ thể người?</t>
@@ -1201,9 +1188,6 @@
     <t>2/July/2023</t>
   </si>
   <si>
-    <t>,8,18,19,24,11,5,16,10,13,17,23,25,14,12,20,15,2,9,7,3,0,6,22,4,21</t>
-  </si>
-  <si>
     <t>A. Yes
 B. No</t>
   </si>
@@ -1229,13 +1213,33 @@
 D. Voi</t>
   </si>
   <si>
-    <t>,24,8,25,23,4,18,19,17,10,3,12,6,13,5,14,7,11,15,0,22,20,21,2,16,9</t>
-  </si>
-  <si>
-    <t>,8,18,19,11,5,16,10,13,17,23,25,14,12,20,15,2,9,7,3,0,6,22,4,21</t>
-  </si>
-  <si>
     <t>,2,22,21,25,23,7,15,19,9,13,20,17,3,5,6,10,8,14,4,12,16,11,0,18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+P
+P
+P
+N
+N
+N
+N
+N
+N
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N
+N
+N
+N
+N
+N
+N
+N
+N
+N
+</t>
   </si>
 </sst>
 </file>
@@ -1272,8 +1276,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1556,8 +1563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E143"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="K142" sqref="K142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1720,7 +1727,7 @@
         <v>51</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -2364,12 +2371,12 @@
         <v>28</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s" s="0">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B58" t="s" s="0">
         <v>18</v>
@@ -2378,12 +2385,12 @@
         <v>41</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s" s="0">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B59" t="s" s="0">
         <v>18</v>
@@ -2392,12 +2399,12 @@
         <v>28</v>
       </c>
       <c r="D59" t="s" s="0">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s" s="0">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B60" t="s" s="0">
         <v>18</v>
@@ -2406,12 +2413,12 @@
         <v>36</v>
       </c>
       <c r="D60" t="s" s="0">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s" s="0">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B61" t="s" s="0">
         <v>18</v>
@@ -2420,12 +2427,12 @@
         <v>36</v>
       </c>
       <c r="D61" t="s" s="0">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s" s="0">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B62" t="s" s="0">
         <v>18</v>
@@ -2434,12 +2441,12 @@
         <v>31</v>
       </c>
       <c r="D62" t="s" s="0">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s" s="0">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B63" t="s" s="0">
         <v>18</v>
@@ -2448,12 +2455,12 @@
         <v>36</v>
       </c>
       <c r="D63" t="s" s="0">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s" s="0">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B64" t="s" s="0">
         <v>18</v>
@@ -2462,12 +2469,12 @@
         <v>28</v>
       </c>
       <c r="D64" t="s" s="0">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s" s="0">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B65" t="s" s="0">
         <v>18</v>
@@ -2476,12 +2483,12 @@
         <v>31</v>
       </c>
       <c r="D65" t="s" s="0">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s" s="0">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B66" t="s" s="0">
         <v>18</v>
@@ -2490,12 +2497,12 @@
         <v>28</v>
       </c>
       <c r="D66" t="s" s="0">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s" s="0">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B67" t="s" s="0">
         <v>18</v>
@@ -2504,12 +2511,12 @@
         <v>36</v>
       </c>
       <c r="D67" t="s" s="0">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s" s="0">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B68" t="s" s="0">
         <v>18</v>
@@ -2518,12 +2525,12 @@
         <v>28</v>
       </c>
       <c r="D68" t="s" s="0">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s" s="0">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B69" t="s" s="0">
         <v>18</v>
@@ -2532,12 +2539,12 @@
         <v>28</v>
       </c>
       <c r="D69" t="s" s="0">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s" s="0">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B70" t="s" s="0">
         <v>18</v>
@@ -2546,12 +2553,12 @@
         <v>41</v>
       </c>
       <c r="D70" t="s" s="0">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s" s="0">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B71" t="s" s="0">
         <v>18</v>
@@ -2560,12 +2567,12 @@
         <v>41</v>
       </c>
       <c r="D71" t="s" s="0">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s" s="0">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B72" t="s" s="0">
         <v>18</v>
@@ -2574,12 +2581,12 @@
         <v>28</v>
       </c>
       <c r="D72" t="s" s="0">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s" s="0">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B73" t="s" s="0">
         <v>18</v>
@@ -2588,12 +2595,12 @@
         <v>36</v>
       </c>
       <c r="D73" t="s" s="0">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s" s="0">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B74" t="s" s="0">
         <v>18</v>
@@ -2602,12 +2609,12 @@
         <v>36</v>
       </c>
       <c r="D74" t="s" s="0">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s" s="0">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B75" t="s" s="0">
         <v>18</v>
@@ -2616,12 +2623,12 @@
         <v>28</v>
       </c>
       <c r="D75" t="s" s="0">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s" s="0">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B76" t="s" s="0">
         <v>26</v>
@@ -2630,12 +2637,12 @@
         <v>41</v>
       </c>
       <c r="D76" t="s" s="0">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s" s="0">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B77" t="s" s="0">
         <v>18</v>
@@ -2644,12 +2651,12 @@
         <v>36</v>
       </c>
       <c r="D77" t="s" s="0">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s" s="0">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B78" t="s" s="0">
         <v>18</v>
@@ -2658,12 +2665,12 @@
         <v>31</v>
       </c>
       <c r="D78" t="s" s="0">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s" s="0">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B79" t="s" s="0">
         <v>18</v>
@@ -2672,12 +2679,12 @@
         <v>36</v>
       </c>
       <c r="D79" t="s" s="0">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s" s="0">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B80" t="s" s="0">
         <v>18</v>
@@ -2686,12 +2693,12 @@
         <v>36</v>
       </c>
       <c r="D80" t="s" s="0">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s" s="0">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B81" t="s" s="0">
         <v>18</v>
@@ -2700,12 +2707,12 @@
         <v>28</v>
       </c>
       <c r="D81" t="s" s="0">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s" s="0">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B82" t="s" s="0">
         <v>18</v>
@@ -2714,12 +2721,12 @@
         <v>28</v>
       </c>
       <c r="D82" t="s" s="0">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s" s="0">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B83" t="s" s="0">
         <v>19</v>
@@ -2728,12 +2735,12 @@
         <v>28</v>
       </c>
       <c r="D83" t="s" s="0">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s" s="0">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B84" t="s" s="0">
         <v>19</v>
@@ -2742,12 +2749,12 @@
         <v>41</v>
       </c>
       <c r="D84" t="s" s="0">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s" s="0">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B85" t="s" s="0">
         <v>19</v>
@@ -2756,12 +2763,12 @@
         <v>41</v>
       </c>
       <c r="D85" t="s" s="0">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s" s="0">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B86" t="s" s="0">
         <v>19</v>
@@ -2770,12 +2777,12 @@
         <v>31</v>
       </c>
       <c r="D86" t="s" s="0">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s" s="0">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B87" t="s" s="0">
         <v>19</v>
@@ -2784,12 +2791,12 @@
         <v>28</v>
       </c>
       <c r="D87" t="s" s="0">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s" s="0">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B88" t="s" s="0">
         <v>19</v>
@@ -2798,12 +2805,12 @@
         <v>28</v>
       </c>
       <c r="D88" t="s" s="0">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s" s="0">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B89" t="s" s="0">
         <v>19</v>
@@ -2812,12 +2819,12 @@
         <v>28</v>
       </c>
       <c r="D89" t="s" s="0">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s" s="0">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B90" t="s" s="0">
         <v>19</v>
@@ -2826,12 +2833,12 @@
         <v>28</v>
       </c>
       <c r="D90" t="s" s="0">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s" s="0">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B91" t="s" s="0">
         <v>19</v>
@@ -2840,12 +2847,12 @@
         <v>41</v>
       </c>
       <c r="D91" t="s" s="0">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s" s="0">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B92" t="s" s="0">
         <v>19</v>
@@ -2854,12 +2861,12 @@
         <v>28</v>
       </c>
       <c r="D92" t="s" s="0">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s" s="0">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B93" t="s" s="0">
         <v>19</v>
@@ -2868,12 +2875,12 @@
         <v>31</v>
       </c>
       <c r="D93" t="s" s="0">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s" s="0">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B94" t="s" s="0">
         <v>19</v>
@@ -2882,12 +2889,12 @@
         <v>31</v>
       </c>
       <c r="D94" t="s" s="0">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s" s="0">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B95" t="s" s="0">
         <v>19</v>
@@ -2896,12 +2903,12 @@
         <v>28</v>
       </c>
       <c r="D95" t="s" s="0">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="s" s="0">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B96" t="s" s="0">
         <v>19</v>
@@ -2910,12 +2917,12 @@
         <v>41</v>
       </c>
       <c r="D96" t="s" s="0">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s" s="0">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B97" t="s" s="0">
         <v>19</v>
@@ -2924,12 +2931,12 @@
         <v>41</v>
       </c>
       <c r="D97" t="s" s="0">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s" s="0">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B98" t="s" s="0">
         <v>19</v>
@@ -2938,12 +2945,12 @@
         <v>28</v>
       </c>
       <c r="D98" t="s" s="0">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" t="s" s="0">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B99" t="s" s="0">
         <v>19</v>
@@ -2952,12 +2959,12 @@
         <v>41</v>
       </c>
       <c r="D99" t="s" s="0">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="s" s="0">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B100" t="s" s="0">
         <v>19</v>
@@ -2966,12 +2973,12 @@
         <v>28</v>
       </c>
       <c r="D100" t="s" s="0">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s" s="0">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B101" t="s" s="0">
         <v>19</v>
@@ -2980,12 +2987,12 @@
         <v>28</v>
       </c>
       <c r="D101" t="s" s="0">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s" s="0">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B102" t="s" s="0">
         <v>19</v>
@@ -2994,12 +3001,12 @@
         <v>41</v>
       </c>
       <c r="D102" t="s" s="0">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="s" s="0">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B103" t="s" s="0">
         <v>19</v>
@@ -3008,12 +3015,12 @@
         <v>28</v>
       </c>
       <c r="D103" t="s" s="0">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" t="s" s="0">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B104" t="s" s="0">
         <v>19</v>
@@ -3022,12 +3029,12 @@
         <v>41</v>
       </c>
       <c r="D104" t="s" s="0">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" t="s" s="0">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B105" t="s" s="0">
         <v>19</v>
@@ -3036,12 +3043,12 @@
         <v>31</v>
       </c>
       <c r="D105" t="s" s="0">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" t="s" s="0">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B106" t="s" s="0">
         <v>19</v>
@@ -3050,12 +3057,12 @@
         <v>41</v>
       </c>
       <c r="D106" t="s" s="0">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" t="s" s="0">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B107" t="s" s="0">
         <v>19</v>
@@ -3064,12 +3071,12 @@
         <v>28</v>
       </c>
       <c r="D107" t="s" s="0">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" t="s" s="0">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B108" t="s" s="0">
         <v>19</v>
@@ -3078,12 +3085,12 @@
         <v>28</v>
       </c>
       <c r="D108" t="s" s="0">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" t="s" s="0">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B109" t="s" s="0">
         <v>19</v>
@@ -3092,12 +3099,12 @@
         <v>31</v>
       </c>
       <c r="D109" t="s" s="0">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" t="s" s="0">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B110" t="s" s="0">
         <v>19</v>
@@ -3106,12 +3113,12 @@
         <v>41</v>
       </c>
       <c r="D110" t="s" s="0">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" t="s" s="0">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B111" t="s" s="0">
         <v>19</v>
@@ -3120,12 +3127,12 @@
         <v>41</v>
       </c>
       <c r="D111" t="s" s="0">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" t="s" s="0">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B112" t="s" s="0">
         <v>19</v>
@@ -3134,12 +3141,12 @@
         <v>28</v>
       </c>
       <c r="D112" t="s" s="0">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" t="s" s="0">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B113" t="s" s="0">
         <v>11</v>
@@ -3148,12 +3155,12 @@
         <v>28</v>
       </c>
       <c r="D113" t="s" s="0">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" t="s" s="0">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B114" t="s" s="0">
         <v>11</v>
@@ -3162,12 +3169,12 @@
         <v>28</v>
       </c>
       <c r="D114" t="s" s="0">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" t="s" s="0">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B115" t="s" s="0">
         <v>11</v>
@@ -3176,12 +3183,12 @@
         <v>31</v>
       </c>
       <c r="D115" t="s" s="0">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" t="s" s="0">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B116" t="s" s="0">
         <v>11</v>
@@ -3190,12 +3197,12 @@
         <v>31</v>
       </c>
       <c r="D116" t="s" s="0">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" t="s" s="0">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B117" t="s" s="0">
         <v>11</v>
@@ -3204,12 +3211,12 @@
         <v>28</v>
       </c>
       <c r="D117" t="s" s="0">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" t="s" s="0">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B118" t="s" s="0">
         <v>11</v>
@@ -3218,12 +3225,12 @@
         <v>41</v>
       </c>
       <c r="D118" t="s" s="0">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" t="s" s="0">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B119" t="s" s="0">
         <v>11</v>
@@ -3232,12 +3239,12 @@
         <v>28</v>
       </c>
       <c r="D119" t="s" s="0">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" t="s" s="0">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B120" t="s" s="0">
         <v>11</v>
@@ -3246,12 +3253,12 @@
         <v>41</v>
       </c>
       <c r="D120" t="s" s="0">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" t="s" s="0">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B121" t="s" s="0">
         <v>11</v>
@@ -3260,12 +3267,12 @@
         <v>28</v>
       </c>
       <c r="D121" t="s" s="0">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" t="s" s="0">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B122" t="s" s="0">
         <v>11</v>
@@ -3274,12 +3281,12 @@
         <v>31</v>
       </c>
       <c r="D122" t="s" s="0">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" t="s" s="0">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B123" t="s" s="0">
         <v>11</v>
@@ -3288,12 +3295,12 @@
         <v>41</v>
       </c>
       <c r="D123" t="s" s="0">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" t="s" s="0">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B124" t="s" s="0">
         <v>11</v>
@@ -3302,12 +3309,12 @@
         <v>28</v>
       </c>
       <c r="D124" t="s" s="0">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" t="s" s="0">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B125" t="s" s="0">
         <v>11</v>
@@ -3316,12 +3323,12 @@
         <v>28</v>
       </c>
       <c r="D125" t="s" s="0">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" t="s" s="0">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B126" t="s" s="0">
         <v>11</v>
@@ -3330,12 +3337,12 @@
         <v>28</v>
       </c>
       <c r="D126" t="s" s="0">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" t="s" s="0">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B127" t="s" s="0">
         <v>11</v>
@@ -3344,12 +3351,12 @@
         <v>41</v>
       </c>
       <c r="D127" t="s" s="0">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" t="s" s="0">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B128" t="s" s="0">
         <v>11</v>
@@ -3358,12 +3365,12 @@
         <v>28</v>
       </c>
       <c r="D128" t="s" s="0">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A129" t="s" s="0">
         <v>252</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A129" t="s" s="0">
-        <v>253</v>
       </c>
       <c r="B129" t="s" s="0">
         <v>11</v>
@@ -3372,12 +3379,12 @@
         <v>31</v>
       </c>
       <c r="D129" t="s" s="0">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A130" t="s" s="0">
         <v>254</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A130" t="s" s="0">
-        <v>255</v>
       </c>
       <c r="B130" t="s" s="0">
         <v>11</v>
@@ -3386,12 +3393,12 @@
         <v>31</v>
       </c>
       <c r="D130" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A131" t="s" s="0">
         <v>256</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A131" t="s" s="0">
-        <v>257</v>
       </c>
       <c r="B131" t="s" s="0">
         <v>11</v>
@@ -3400,12 +3407,12 @@
         <v>28</v>
       </c>
       <c r="D131" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A132" t="s" s="0">
         <v>258</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A132" t="s" s="0">
-        <v>259</v>
       </c>
       <c r="B132" t="s" s="0">
         <v>11</v>
@@ -3414,12 +3421,12 @@
         <v>41</v>
       </c>
       <c r="D132" t="s" s="0">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A133" t="s" s="0">
         <v>260</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A133" t="s" s="0">
-        <v>261</v>
       </c>
       <c r="B133" t="s" s="0">
         <v>11</v>
@@ -3428,12 +3435,12 @@
         <v>31</v>
       </c>
       <c r="D133" t="s" s="0">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A134" t="s" s="0">
         <v>262</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A134" t="s" s="0">
-        <v>263</v>
       </c>
       <c r="B134" t="s" s="0">
         <v>11</v>
@@ -3442,12 +3449,12 @@
         <v>41</v>
       </c>
       <c r="D134" t="s" s="0">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A135" t="s" s="0">
         <v>264</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A135" t="s" s="0">
-        <v>265</v>
       </c>
       <c r="B135" t="s" s="0">
         <v>11</v>
@@ -3456,12 +3463,12 @@
         <v>28</v>
       </c>
       <c r="D135" t="s" s="0">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A136" t="s" s="0">
         <v>266</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A136" t="s" s="0">
-        <v>267</v>
       </c>
       <c r="B136" t="s" s="0">
         <v>11</v>
@@ -3470,12 +3477,12 @@
         <v>41</v>
       </c>
       <c r="D136" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A137" t="s" s="0">
         <v>268</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A137" t="s" s="0">
-        <v>269</v>
       </c>
       <c r="B137" t="s" s="0">
         <v>11</v>
@@ -3484,12 +3491,12 @@
         <v>28</v>
       </c>
       <c r="D137" t="s" s="0">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" t="s" s="0">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B138" t="s" s="0">
         <v>107</v>
@@ -3498,12 +3505,12 @@
         <v>28</v>
       </c>
       <c r="D138" t="s" s="0">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" t="s" s="0">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B139" t="s" s="0">
         <v>11</v>
@@ -3512,12 +3519,12 @@
         <v>28</v>
       </c>
       <c r="D139" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A140" t="s" s="0">
         <v>272</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A140" t="s" s="0">
-        <v>273</v>
       </c>
       <c r="B140" t="s" s="0">
         <v>11</v>
@@ -3526,12 +3533,12 @@
         <v>28</v>
       </c>
       <c r="D140" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A141" t="s" s="0">
         <v>274</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A141" t="s" s="0">
-        <v>275</v>
       </c>
       <c r="B141" t="s" s="0">
         <v>107</v>
@@ -3540,35 +3547,38 @@
         <v>28</v>
       </c>
       <c r="D141" t="s" s="0">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="142">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A142" t="s" s="0">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C142" t="s" s="0">
         <v>31</v>
       </c>
       <c r="D142" t="s" s="0">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="143">
+        <v>287</v>
+      </c>
+      <c r="E142" t="s" s="0">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" t="s" s="0">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C143" t="s" s="0">
         <v>36</v>
       </c>
       <c r="D143" t="s" s="0">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -3593,8 +3603,8 @@
       <c r="A1" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B1" s="0" t="n">
-        <v>165.0</v>
+      <c r="B1" s="0">
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -3609,8 +3619,8 @@
       <c r="A3" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>88.0</v>
+      <c r="B3" s="0">
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -3689,16 +3699,16 @@
       <c r="A13" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="B13" s="0" t="n">
-        <v>77.0</v>
+      <c r="B13" s="0">
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="B14" s="0" t="n">
-        <v>45.0</v>
+      <c r="B14" s="0">
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -3753,24 +3763,24 @@
       <c r="A21" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="B21" s="0" t="n">
-        <v>1.0</v>
+      <c r="B21" s="0">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s" s="0">
         <v>107</v>
       </c>
-      <c r="B22" s="0" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="23">
+      <c r="B22" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s" s="0">
-        <v>287</v>
-      </c>
-      <c r="B23" t="n" s="0">
-        <v>2.0</v>
+        <v>285</v>
+      </c>
+      <c r="B23" s="0">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3782,8 +3792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E57CE46-9D74-4C06-8F20-8319158C49B7}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3808,10 +3818,10 @@
         <v>2700</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F1" t="s" s="0">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -3833,22 +3843,22 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s" s="0">
+        <v>281</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>282</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="C3" t="s" s="0">
         <v>283</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>284</v>
       </c>
       <c r="D3" s="0">
         <v>600</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/data/QuizTestAppData.xlsx
+++ b/src/main/java/data/QuizTestAppData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\btl oop\quiz-test-app\src\main\java\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6122E3DE-7F7A-4783-896C-CBA7F9939EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04FC818-044B-4E63-9797-E092553491B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="456">
   <si>
     <t>10-6-2023 12-00-00</t>
   </si>
@@ -47,18 +47,6 @@
   </si>
   <si>
     <t>Kiem tra giua ki 1 cong nghe</t>
-  </si>
-  <si>
-    <t>Kiem tra giua ki 1 toan</t>
-  </si>
-  <si>
-    <t>12-6-2023 12-00-00</t>
-  </si>
-  <si>
-    <t>10-8-2023 12-00-00</t>
-  </si>
-  <si>
-    <t>1,4,5,7,8,9,10,12,13,14,16,18,20,22,24,30</t>
   </si>
   <si>
     <t>root</t>
@@ -1216,7 +1204,8 @@
     <t>,2,22,21,25,23,7,15,19,9,13,20,17,3,5,6,10,8,14,4,12,16,11,0,18</t>
   </si>
   <si>
-    <t xml:space="preserve">P
+    <t xml:space="preserve">N
+P
 P
 P
 P
@@ -1225,11 +1214,10 @@
 N
 N
 N
-N
 </t>
   </si>
   <si>
-    <t xml:space="preserve">N
+    <t xml:space="preserve">P
 N
 N
 N
@@ -1240,6 +1228,745 @@
 N
 N
 </t>
+  </si>
+  <si>
+    <t>Quiz có ảnh</t>
+  </si>
+  <si>
+    <t>QUIZ sinh học</t>
+  </si>
+  <si>
+    <t>,65,81,61,63,60,62,55,64,80</t>
+  </si>
+  <si>
+    <t>What's name of this planet?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G
+N
+N
+N
+N
+N
+N
+N
+N
+N
+</t>
+  </si>
+  <si>
+    <t>,141,142,143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. Earth
+B. Sun
+C. Satturn
+</t>
+  </si>
+  <si>
+    <t>Bạn biết bao nhiêu hệ điều hành?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 1
+B. 2
+C. 3
+</t>
+  </si>
+  <si>
+    <t>root/Bảo hiểm</t>
+  </si>
+  <si>
+    <t>Đối với sản phẩm bảo hiểm liên kết đơn vị, phí chuyển đổi quỹ liên kết đơn vị là:</t>
+  </si>
+  <si>
+    <t>A. Khoản phí dùng để trang trải chi phí phát hành hợp đồng bảo hiểm, chi phí thẩm định bảo hiểm, chi phí kiểm tra y tế, chi hoa hồng đại lý và chi phí khác.
+B. Khoản phí bên mua bảo hiểm phải trả cho doanh nghiệp bảo hiểm khi thực hiện chuyển đổi tài sản đầu tư giữa các quỹ liên kết đơn vị.
+C. Khoản phí để bù đắp chi phí liên quan đến việc duy trì hợp đồng bảo hiểm và cung cấp thông tin liên quan đến hợp đồng bảo hiểm cho bên mua bảo hiểm.
+D. Khoản phí đối với quyền lợi bảo hiểm rủi ro theo cam kết tại hợp đồng bảo hiểm.</t>
+  </si>
+  <si>
+    <t>2. Theo quy định của Pháp luật, Văn phòng đại diện của doanh nghiệp bảo hiểm, doanh nghiệp môi giới bảo hiểm nước ngoài tại Việt Nam được thực hiện hoạt động nào sau đây:</t>
+  </si>
+  <si>
+    <t>A. Xúc tiến xây dựng các dự án đầu tư của doanh nghiệp bảo hiểm, doanh nghiệp môi giới bảo hiểm nước ngoài.
+B. Thúc đẩy và theo dõi việc thực hiện các dự án do doanh nghiệp bảo hiểm, doanh nghiệp môi giới bảo hiểm nước ngoài tài trợ tại Việt Nam.
+C. Nghiên cứu thị trường.
+D. A, B, C đúng.</t>
+  </si>
+  <si>
+    <t>3. Đại lý bảo hiểm không có quyền nào sau đây:</t>
+  </si>
+  <si>
+    <t>A. Yêu cầu doanh nghiệp bảo hiểm hoàn trả tiền ký quĩ hoặc thế chấp tài sản theo thỏa thuận trong hợp đồng đại lý bảo hiểm.
+B. Tham dự các lớp đào tạo, bồi dưỡng, nâng cao trình độ cho đại lý bảo hiểm do doanh nghiệp bảo hiểm tổ chức.
+C. Ký thay khách hàng.
+D. Hưởng hoa hồng và các quyền, lợi ích hợp pháp khác từ hoạt động đại lý bảo hiểm.</t>
+  </si>
+  <si>
+    <t>4. Anh A 33 tuổi tham gia một hợp đồng Bảo Hiểm Ung Thư 360 vào ngày 01/05/2019 với STBH 01 tỷ đồng. Trong thời gian hợp đồng có hiệu lực, anh A lần lượt gặp các rủi ro sau: Ngày 04/07/2025: được chẩn đoán mắc ung thư dạ dày giai đoạn sớm.  Ngày 30/10/2025: phẫu thuật tái tạo hình dạng dạ dày (Phẫu Thuật Phục Hồi). Ngày 07/09/2028: tử vong do tai nạn. Giả sử các sự kiện trên đều được Manulife chấp thuận chi trả, tổng số tiền mà anh A sẽ nhận được là: </t>
+  </si>
+  <si>
+    <t>A. 1,7 tỷ đồng. 
+B. 2,7 tỷ đồng. 
+C. 1,5 tỷ đồng. 
+D. 2,5 tỷ đồng.</t>
+  </si>
+  <si>
+    <t>5. Khách hàng A tham gia Sản phẩm Bảo hiểm Ung Thư 360 vào ngày 1/1/2019 với số tiền bảo hiểm là 500 triệu đồng. Ngày 17/03/2019, khách hàng A được chẩn đoán mắc ung thư giai đoạn sớm. Quyền lợi ung thư giai đoạn sớm khách hàng A nhận được là:</t>
+  </si>
+  <si>
+    <t>A. 250 triệu đồng
+B. 300 triệu đồng
+C. 0 đồng
+D. 500 triệu đồng</t>
+  </si>
+  <si>
+    <t>6. Kể từ sau thời điểm Manulife đồng ý chi trả quyền lợi Ung Thư Giai Đoạn Cuối cho Người Được Bảo Hiểm của hợp đồng Bảo hiểm Ung Thư 360, vào mỗi ngày kỷ niệm hợp đồng hàng tháng, Manulife sẽ chi trả QLBH Trợ Cấp Thu Nhập bằng:</t>
+  </si>
+  <si>
+    <t>A. 1% Số Tiền Bảo Hiểm
+B. 0,5% Số Tiền Bảo Hiểm
+C. 1,5% Số Tiền Bảo Hiểm</t>
+  </si>
+  <si>
+    <t>7. Doanh nghiệp bảo hiểm có quyền từ chối trả tiền bảo hiểm cho người thụ hưởng hoặc từ chối bồi thường cho người được bảo hiểm trong trường hợp:</t>
+  </si>
+  <si>
+    <t>A. Sự kiện bảo hiểm xảy ra không thuộc phạm vi trách nhiệm bảo hiểm theo thỏa thuận trong hợp đồng bảo hiểm (A).
+B. Sự kiện bảo hiểm xảy ra thuộc các trường hợp loại trừ trách nhiệm bảo hiểm theo thỏa thuận trong hợp đồng bảo hiểm (B).
+C. Sự kiện bảo hiểm xảy ra trong thời gian gia hạn nộp phí bảo hiểm.  
+D. A, B đúng. </t>
+  </si>
+  <si>
+    <t>8. Đối với hợp đồng bảo hiểm con người, trường hợp một hoặc một số người thụ hưởng cố ý gây ra cái chết hoặc thương tật vĩnh viễn cho người được bảo hiểm thì:</t>
+  </si>
+  <si>
+    <t>A. Doanh nghiệp bảo hiểm không phải trả tiền bảo hiểm.
+B. Doanh nghiệp bảo hiểm vẫn trả tiền cho tất cả người thụ hưởng bảo hiểm.
+C. Doanh nghiệp bảo hiểm vẫn phải trả tiền bảo hiểm cho những người thụ hưởng khác theo thoả thuận trong hợp đồng bảo hiểm.
+D. Không trường hợp nào đúng.</t>
+  </si>
+  <si>
+    <t>9. Doanh nghiệp bảo hiểm có nghĩa vụ:</t>
+  </si>
+  <si>
+    <t>A. Chi trả tất cả các chi phí khai thác hợp đồng bảo hiểm cho đại lý ngoài hoa hồng bảo hiểm (A).
+B. Yêu cầu đại lý bảo hiểm phải có tài sản thế chấp.
+C. Chịu trách nhiệm về những thiệt hại hay tổn thất do hoạt động đại lý bảo hiểm của mình gây ra theo thỏa thuận trong hợp đồng đại lý bảo hiểm (C).
+D. A, C đúng.</t>
+  </si>
+  <si>
+    <t>10. Trong Sản phẩm Bảo hiểm Ung Thư 360, quyền lợi nào sau đây sẽ chấm dứt ngay khi Manulife chấp nhận chi trả:</t>
+  </si>
+  <si>
+    <t>A. Quyền lợi bảo hiểm Ung Thư Giai Đoạn Cuối
+B. Quyền lợi bảo hiểm Ung Thư Chi Phí Lớn
+C. Quyền lợi bảo hiểm Miễn Đóng Phí
+D. Cả ba đáp án A, B và C.</t>
+  </si>
+  <si>
+    <t>11. Khách hàng A tham gia Sản phẩm Bảo hiểm Ung Thư 360 với số tiền bảo hiểm là 800 triệu đồng. Trong thời gian hợp đồng có hiệu lực, khách hàng A được chẩn đoán mắc 2 bệnh ung thư giai đoạn sớm thuộc phạm vi bảo hiểm, được chẩn đoán trong cùng 1 ngày. Tổng quyền lợi ung thư giai đoạn sớm khách hàng nhận được là:</t>
+  </si>
+  <si>
+    <t>A. 480 triệu đồng
+B. 920 triệu đồng
+C. 600 triệu đồng
+D. 800 triệu đồng</t>
+  </si>
+  <si>
+    <t>12. Theo qui định của Pháp luật, chương trình đào tạo Phần kiến thức chung dành cho đại lý bảo hiểm gồm:</t>
+  </si>
+  <si>
+    <t>A. Kiến thức chung về bảo hiểm; Pháp luật về kinh doanh bảo hiểm
+B. Trách nhiệm của đại lý, đạo đức hành nghề đại lý; Quyền và nghĩa vụ của doanh nghiệp bảo hiểm, chi nhánh doanh nghiệp bảo hiểm phi nhân thọ nước ngoài, đại lý bảo hiểm trong hoạt động đại lý bảo hiểm
+C. Kỹ năng bán bảo hiểm
+D. Cả A,B,C</t>
+  </si>
+  <si>
+    <t>13. Mức vốn pháp định của doanh nghiệp bảo hiểm nhân thọ, kinh doanh bảo hiểm nhân thọ (trừ bảo hiểm liên kết đơn vị, bảo hiểm hưu trí) và bảo hiểm sức khỏe là:</t>
+  </si>
+  <si>
+    <t>A. 1.000 tỷ đồng Việt Nam
+B. 800 tỷ đồng Việt Nam
+C. 600 tỷ đồng Việt Nam
+D. 300 tỷ đồng Việt Nam</t>
+  </si>
+  <si>
+    <t>14. Đại lý bảo hiểm không được doanh nghiệp bảo hiểm uỷ quyền tiến hành hoạt động nào dưới đây:</t>
+  </si>
+  <si>
+    <t>A. Thu xếp việc giao kết hợp đồng bảo hiểm.
+B. Thu xếp giải quyết bồi thường, trả tiền bảo hiểm khi xảy ra sự kiện bảo hiểm.
+C. Thu phí bảo hiểm.
+D. Trực tiếp ký kết hợp đồng bảo hiểm.</t>
+  </si>
+  <si>
+    <t>15. Theo Luật kinh doanh bảo hiểm, thời gian 15 ngày là quy định về thời hạn nào trong những thời hạn dưới đây:</t>
+  </si>
+  <si>
+    <t>A. Thời hiệu khởi kiện về hợp đồng bảo hiểm, kể từ ngày pháp sinh tranh chấp.
+B. Thời hạn doanh nghiệp bảo hiểm phải trả tiền bảo hiểm hoặc bồi thường kể từ ngày nhận được đầy đủ hồ sơ hợp lệ về yêu cầu trả tiền bảo hiểm hoặc bồi thường (trừ trường hợp có thỏa thuận khác về thời hạn trong hợp đồng bảo hiểm).
+C. Thời hạn yêu cầu trả tiền bảo hiểm hoặc bồi thường theo hợp đồng bảo hiểm, kể từ ngày xảy ra sự kiện bảo hiểm.</t>
+  </si>
+  <si>
+    <t>16.  Chọn 1 phương án đúng về đặc điểm của nghiệp vụ bảo hiểm trọn đời:</t>
+  </si>
+  <si>
+    <t>A. Doanh nghiệp bảo hiểm trả tiền bảo hiểm cho người thụ hưởng khi bên mua bảo hiểm chết ở bất kỳ thời điểm nào trong suốt cuộc đời của người đó
+B. Doanh nghiệp bảo hiểm trả tiền bảo hiểm cho người thụ hưởng khi người được bảo hiểm vẫn sống tại thời điểm kết thúc hiệu lực hợp đồng
+C. Doanh nghiệp bảo hiểm trả tiền bảo hiểm cho người thụ hưởng khi người được bảo hiểm chết vào bất kỳ thời điểm nào trong suốt cuộc đời của người đó</t>
+  </si>
+  <si>
+    <t>17. Trong trường hợp NĐBH của Sản phẩm Bảo hiểm Ung Thư 360 tử vong và Manulife đã chi trả QLBH Trợ Cấp Thu Nhập vượt quá thời điểm này, Manulife sẽ: </t>
+  </si>
+  <si>
+    <t>A. Không cấn trừ số tiền đã chi trả dư vào quyền lợi Tử Vong. 
+B. Cấn trừ số tiền đã chi trả dư vào quyền lợi Tử Vong. 
+C. Cả hai đáp án trên đều đúng. </t>
+  </si>
+  <si>
+    <t>18. Chọn phương án sai về trường hợp Hợp đồng bảo hiểm vô hiệu:</t>
+  </si>
+  <si>
+    <t>A. Tại thời điểm giao kết hợp đồng bảo hiểm, đối tượng bảo hiểm không tồn tại.
+B. Tại thời điểm giao kết hợp đồng bảo hiểm, bên mua bảo hiểm biết sự kiện bảo hiểm đã xảy ra.
+C. Đại lý bảo hiểm không nộp phí bảo hiểm đã thu của bên mua bảo hiểm cho doanh nghiệp bảo hiểm.
+D. Bên mua bảo hiểm không có quyền lợi có thể được bảo hiểm.</t>
+  </si>
+  <si>
+    <t>19. Đại lý bảo hiểm không được tranh giành khách hàng dưới các hình thức ngăn cản, lôi kéo, mua chuộc, đe dọa nhân viên hoặc khách hàng của:</t>
+  </si>
+  <si>
+    <t>A. Doanh nghiệp bảo hiểm khác
+B. Đại lý bảo hiểm khác
+C. Doanh nghiệp môi giới bảo hiểm khác
+D. Cả A, B, C</t>
+  </si>
+  <si>
+    <t>20. Theo quy định của Pháp luật, hợp đồng bảo hiểm chấm dứt nếu bên mua bảo hiểm không đóng đủ phí bảo hiểm hoặc không đóng phí bảo hiểm theo thời hạn thỏa thuận trong hợp đồng bảo hiểm (trừ trường hợp các bên có thỏa thuận khác). Khi đó, bên mua bảo hiểm vẫn phải đóng đủ phí bảo hiểm đến thời điểm chấm dứt hợp đồng bảo hiểm nếu hợp đồng bảo hiểm đó là:</t>
+  </si>
+  <si>
+    <t>A. Hợp đồng bảo hiểm con người (A)
+B. Hợp đồng bảo hiểm tài sản (B)
+C. Hợp đồng bảo hiểm trách nhiệm dân sự (C)
+D. B, C đúng</t>
+  </si>
+  <si>
+    <t>21. Trong Sản phẩm Bảo hiểm Ung Thư 360, trong trường hợp con của Người Được Bảo Hiểm được Manulife chấp thuận cấp quyền lợi Bảo Hiểm Miễn Phí Dành Cho Con Của Người Được Bảo Hiểm, ngày bắt đầu bảo hiểm sẽ là:</t>
+  </si>
+  <si>
+    <t>A. Ngày Manulife đồng ý cấp quyền lợi Bảo Hiểm Miễn Phí Dành Cho Con Của Người Được Bảo Hiểm
+B. Ngày Manulife chấp nhận chi trả quyền lợi Ung Thư Giai Đoạn Cuối cho Người Được Bảo Hiểm.
+C. Ngày hoàn thành hồ sơ yêu cầu cấp quyền lợi Bảo Hiểm Miễn Phí Dành Cho Con Của Người Được Bảo Hiểm
+D. Ngày Người Được Bảo Hiểm được chẩn đoán mắc bệnh Ung Thư Giai Đoạn Cuối</t>
+  </si>
+  <si>
+    <t>22. Khoản tiền mà bên mua bảo hiểm đóng cho doanh nghiệp bảo hiểm theo thỏa thuận trong hợp đồng bảo hiểm là:</t>
+  </si>
+  <si>
+    <t>A. Số tiền bảo hiểm.
+B. Giá trị bảo hiểm.
+C. Số tiền bồi thường.
+D. Phí bảo hiểm.</t>
+  </si>
+  <si>
+    <t>23. Trong trường hợp không có thỏa thuận về thời hạn, doanh nghiệp bảo hiểm phải trả tiền bảo hiểm hoặc bồi thường cho người được bảo hiểm trong vòng:</t>
+  </si>
+  <si>
+    <t>A. 45 ngày kể từ ngày nhận được đầy đủ hồ sơ hợp lệ về yêu cầu trả tiền bảo hiểm hoặc bồi thường.
+B. 30 ngày kể từ ngày nhận được đầy đủ hồ sơ hợp lệ về yêu cầu trả tiền bảo hiểm hoặc bồi thường. 
+C. 60 ngày kể từ ngày nhận được đầy đủ hồ sơ hợp lệ về yêu cầu trả tiền bảo hiểm hoặc bồi thường.
+D. 15 ngày kể từ ngày nhận được đầy đủ hồ sơ hợp lệ về yêu cầu trả tiền bảo hiểm hoặc bồi thường. </t>
+  </si>
+  <si>
+    <t>24. Việc yêu cầu tham gia bảo hiểm được thực hiện bởi: </t>
+  </si>
+  <si>
+    <t>A. Môi giới bảo hiểm.
+B. Doanh nghiệp bảo hiểm
+C. Đại lý bảo hiểm.
+D. Bên mua bảo hiểm.</t>
+  </si>
+  <si>
+    <t>25. Trong nghiệp vụ bảo hiểm trả tiền định kỳ, khi người được bảo hiểm còn sống nhưng chưa đạt đến thời hạn nhất định theo thỏa thuận trong hợp đồng bảo hiểm, doanh nghiệp bảo hiểm có trách nhiệm:</t>
+  </si>
+  <si>
+    <t>A. Chi trả tiền bảo hiểm cho Bên mua bảo hiểm
+B. Chi trả tiền bảo hiểm cho Người thụ hưởng
+C. Không chi trả bất cứ quyền lợi bảo hiểm nào cả
+D. Chi trả tiền bảo hiểm cho Người được bảo hiểm</t>
+  </si>
+  <si>
+    <t>26. Đại lý bảo hiểm có thể:</t>
+  </si>
+  <si>
+    <t>A. Lựa chọn và ký kết hợp đồng đại lý bảo hiểm đối với doanh nghiệp bảo hiểm theo đúng quy định pháp luật
+B. Yêu cầu doanh nghiệp bảo hiểm hoàn trả tiền ký quỹ hoặc tài sản thế chấp theo thỏa thuận trong hợp đồng đại lý bảo hiểm
+C. Sửa đổi, bổ sung điều khoản trong hợp đồng bảo hiểm theo ý kiến của bên mua bảo hiểm
+D. A, B đúng</t>
+  </si>
+  <si>
+    <t>27. Tỷ lệ hoa hồng tối đa tính trên phí bảo hiểm của hợp đồng bảo hiểm nhân thọ cá nhân đối với nghiệp vụ bảo hiểm trả tiền định kỳ, phương thức nộp phí bảo hiểm 1 lần là:</t>
+  </si>
+  <si>
+    <t>A. 10%
+B. 15%
+C. 5%
+D. 7%</t>
+  </si>
+  <si>
+    <t>28. Chọn một phương án đúng về các đặc điểm của sản phẩm bảo hiểm nhân thọ hỗn hợp</t>
+  </si>
+  <si>
+    <t>A. Có giá trị hoàn lại, có chia lãi hoặc không chia lãi
+B. Có cả 2 yếu tố bảo vệ và tiết kiệm
+C. A, B đúng
+D. Không có đáp án đúng</t>
+  </si>
+  <si>
+    <t>29. Chọn phương án đúng về nghiệp vụ bảo hiểm mà doanh nghiệp bảo hiểm nhân thọ và phi nhân thọ đều được triển khai:</t>
+  </si>
+  <si>
+    <t>A. Bảo hiểm hưu trí.
+B. Bảo hiểm tài sản.
+C. Bảo hiểm sức khỏe.
+D. Không trường hợp nào đúng.</t>
+  </si>
+  <si>
+    <t>30. Đại lý bảo hiểm có thể được lựa chọn và ký kết hợp đồng đại lý bảo hiểm với đối tượng nào dưới đây:</t>
+  </si>
+  <si>
+    <t>A. Doanh nghiệp bảo hiểm nhân thọ, doanh nghiệp bảo hiểm phi nhân thọ
+B. Doanh nghiệp bảo hiểm sức khỏe, doanh nghiệp tái bảo hiểm
+C. Chi nhánh doanh nghiệp bảo hiểm phi nhân thọ nước ngoài
+D. Cả A, B, C</t>
+  </si>
+  <si>
+    <t>31. Trong trường hợp bên mua bảo hiểm chứng minh được rằng họ không biết thời điểm xảy ra sự kiện bảo hiểm thì thời hạn yêu cầu trả tiền bảo hiểm hoặc bồi thường là:</t>
+  </si>
+  <si>
+    <t>A. 1 năm kể từ ngày xảy ra sự kiện bảo hiểm.
+B. 1 năm kể từ ngày bên mua bảo hiểm biết việc xảy ra sự kiện bảo hiểm.
+C.  2 năm kể từ ngày xảy ra sự kiện bảo hiểm.
+D. 2 năm kể từ ngày bên mua bảo hiểm biết việc xảy ra sự kiện bảo hiểm.</t>
+  </si>
+  <si>
+    <t>32. Bên mua bảo hiểm đã đóng phí bảo hiểm nhân thọ từ hai năm trở lên, nhưng không thể đóng các khoản phí bảo hiểm tiếp theo thì sau thời hạn 60 ngày, kể từ ngày gia hạn đóng phí, trừ trường hợp các bên có thỏa thuận khác, doanh nghiệp bảo hiểm có quyền đơn phương đình chỉ hợp đồng và bên mua bảo hiểm:</t>
+  </si>
+  <si>
+    <t>A. Nhận giá trị hoàn lại của hợp đồng bảo hiểm
+B. Không có quyền đòi lại khoản phí bảo hiểm đã đóng
+C. Nhận lại toàn bộ phí bảo hiểm đã đóng</t>
+  </si>
+  <si>
+    <t>33. Quỹ bảo vệ người được bảo hiểm được thành lập tại doanh nghiệp bảo hiểm nhằm bảo vệ quyền lợi của người được bảo hiểm trong trường hợp nào sau đây:</t>
+  </si>
+  <si>
+    <t>A. Người được bảo hiểm bị thất nghiệp 
+B. Doanh nghiệp bảo hiểm phá sản hoặc mất khả năng thanh toán
+C. Người được bảo hiểm gặp khó khăn về tài chính, không có khả năng đóng phí bảo hiểm
+D. Người được bảo hiểm gặp rủi ro do chiến tranh, động đất</t>
+  </si>
+  <si>
+    <t>34. Phát biểu nào sau đây là đúng về QLBH Ung Thư Chi Phí Lớn của Sản phẩm Bảo hiểm Ung Thư 360: </t>
+  </si>
+  <si>
+    <t>A. Chi trả 100% STBH khi NĐBH được chẩn đoán Ung Thư Giai Đoạn Sớm hoặc Ung Thư Giai Đoạn Cuối thuộc danh sách bệnh Ung Thư Chi Phí Lớn. QLBH này sẽ chấm dứt ngay sau khi Manulife chi trả quyền lợi Ung Thư Giai Đoạn Sớm hoặc Ung Thư Giai Đoạn Cuối. 
+B. Chi trả 100% STBH khi NĐBH được chẩn đoán Ung Thư Giai Đoạn Cuối thuộc danh sách bệnh Ung Thư Chi Phí Lớn. QLBH nàysẽ chấm dứt ngay sau khi Manulife chi trả QLBH Ung Thư Giai Đoạn Sớm hoặc Ung Thư Giai Đoạn Cuối. 
+C. Chi trả 50% STBH khi NĐBH được chẩn đoán Ung Thư Giai Đoạn Cuối thuộc danh sách bệnh Ung Thư Chi Phí Lớn. QLBH này sẽ chấm dứt ngay sau khi Manulife chấp nhận chi trả hoặc khi QLBH Ung Thư Giai Đoạn Cuối đã được chi trả. 
+D. Chi trả 50% STBH khi NĐBH được chẩn đoán Ung Thư Giai Đoạn Sớm hoặc Ung Thư Giai Đoạn Cuối thuộc danh sách bệnh Ung Thư Chi Phí Lớn. QLBH này sẽ chấm dứt ngay sau khi Manulife chi trả QLBH Ung Thư Giai Đoạn Sớm hoặc Ung Thư Giai Đoạn Cuối. </t>
+  </si>
+  <si>
+    <t>35. Luật kinh doanh bảo hiểm quy định Bên mua bảo hiểm đóng phí bảo hiểm nhân thọ theo cách:</t>
+  </si>
+  <si>
+    <t>A. Đóng một lần theo quy định bắt buộc của Doanh nghiệp bảo hiểm
+B. Đóng nhiều lần theo quy định bắt buộc của Doanh nghiệp bảo hiểm
+C. Đóng một lần hoặc nhiều lần theo thời hạn, phương thức thỏa thuận trong hợp đồng bảo hiểm
+D. A, B, C sai</t>
+  </si>
+  <si>
+    <t>36. Ngày 1/1/2019, khách hàng A tham gia Sản phẩm Bảo hiểm Ung Thư 360. Đến 31/5/2020, khách hàng A được chẩn đoán mắc ung thư giai đoạn cuối, thuộc danh mục ung thư chi phí lớn, các quyền lợi mà khách hàng A nhận được là:</t>
+  </si>
+  <si>
+    <t>A. 150% số tiền bảo hiểm + quyền lợi miễn đóng phí +  quyền lợi trợ cấp thu nhập + quyền lợi miễn phí dành cho con
+B. 150% số tiền bảo hiểm + quyền lợi miễn đóng phí + quyền lợi miễn phí dành cho con
+C. 105% số tiền bảo hiểm + quyền lợi miễn đóng phí + quyền lợi trợ cấp thu nhập + quyền lợi miễn phí dành cho con
+D. 160% số tiền bảo hiểm + quyền lợi miễn đóng phí + quyền lợi trợ cấp thu nhập + quyền lợi miễn phí dành cho con </t>
+  </si>
+  <si>
+    <t>37. Theo quy định của Pháp luật, phát biểu nào dưới đây sai:</t>
+  </si>
+  <si>
+    <t>A. Kinh doanh bảo hiểm là hoạt động của doanh nghiệp bảo hiểm nhằm mục đích sinh lợi, theo đó doanh nghiệp bảo hiểm nhận một khoản phí bảo hiểm của doanh nghiệp bảo hiểm khác để cam kết bồi thường cho các trách nhiệm đã nhận bảo hiểm.
+B. Hoạt động đại lý bảo hiểm là hoạt động giới thiệu, chào bán bảo hiểm, thu xếp việc giao kết hợp đồng bảo hiểm và các công việc khác nhằm thực hiện hợp đồng bảo hiểm theo ủy quyền của doanh nghiệp bảo hiểm.
+C. Sự kiện bảo hiểm là sự kiện khách quan do các bên thỏa thuận hoặc pháp luật quy định mà khi sự kiện đó xảy ra thì doanh nghiệp bảo hiểm phải trả tiền bảo hiểm cho người thụ hưởng hoặc bồi thường cho người được bảo hiểm.</t>
+  </si>
+  <si>
+    <t>38. Cơ quan có trách nhiệm kiểm tra, giám sát hoạt động đào tạo đại lý bảo hiểm là:</t>
+  </si>
+  <si>
+    <t>A. Bộ Tài chính.
+B. Bộ Công thương.
+C. Hiệp hội bảo hiểm Việt Nam.
+D. Bộ Giáo dục và Đào tạo.</t>
+  </si>
+  <si>
+    <t>39. Theo quy định của pháp luật về kinh doanh bảo hiểm, các sản phẩm thuộc nghiệp vụ bảo hiểm nhân thọ trước khi triển khai phải được:</t>
+  </si>
+  <si>
+    <t>A. Bộ Tài chính phê chuẩn quy tắc, điều khoản, biểu phí
+B. Đăng ký quy tắc, điều khoản, biểu phí với Hiệp hội Bảo hiểm Việt Nam
+C. Đăng ký quy tắc, điều khoản, biểu phí với Bộ Tài chính
+D. Hiệp hội Bảo hiểm Việt Nam phê chuẩn quy tắc, điều khoản, biểu phí</t>
+  </si>
+  <si>
+    <t>40. Ý nào dưới đây là đúng về thời hạn bảo hiểm của Quyền lợi Bảo Hiểm Miễn Phí Dành Cho Con Của Người Được Bảo Hiểm trong Sản phẩm Bảo hiểm Ung Thư 360:</t>
+  </si>
+  <si>
+    <t>A. Thời hạn bảo hiểm tối đa là 20 năm
+B. Tuổi bảo hiểm tối đa là 30 tuổi
+C. Đáp án A hoặc B tùy thời điểm nào đến trước</t>
+  </si>
+  <si>
+    <t>1. Giá trị hoàn lại của một hợp đồng bảo hiểm liên kết chung được xác định:</t>
+  </si>
+  <si>
+    <t>A. Là giá trị hợp đồng đó trong quỹ liên kết chung vào ngày hủy bỏ hợp đồng bảo hiểm trừ đi phí quản lý hợp đồng bảo hiểm.
+B. Là giá trị hợp đồng đó trong quỹ liên kết chung vào ngày kết thúc hợp đồng bảo hiểm
+C. Là giá trị hợp đồng đó trong quỹ liên kết chung vào ngày hủy bỏ hợp đồng bảo hiểm
+D. Là giá trị hợp đồng đó trong quỹ liên kết chung vào ngày hủy bỏ hợp đồng bảo hiểm trừ đi phí hủy bỏ hợp đồng bảo hiểm.</t>
+  </si>
+  <si>
+    <t>2. Theo Pháp luật kinh doanh bảo hiểm, văn phòng đại diện của doanh nghiệp bảo hiểm, doanh nghiệp môi giới bảo hiểm nước ngoài tại Việt Nam không được thực hiện hoạt động nào sau đây:</t>
+  </si>
+  <si>
+    <t>A. Thúc đẩy và theo dõi việc thực hiện các dự án do doanh nghiệp bảo hiểm, doanh nghiệp môi giới bảo hiểm nước ngoài tài trợ tại Việt Nam.
+B. Kinh doanh bảo hiểm.
+C. Nghiên cứu thị trường
+D. Xúc tiến xây dựng các dự án đầu tư của doanh nghiệp bảo hiểm, doanh nghiệp môi giới bảo hiểm nước ngoài.</t>
+  </si>
+  <si>
+    <t>3. Chi quản lý đại lý của doanh nghiệp bảo hiểm, chi nhánh nước ngoài không bao gồm:</t>
+  </si>
+  <si>
+    <t>A. Chi đào tạo nâng cao kiến thức cho đại lý.
+B. Chi tuyển dụng đại lý, khen thưởng đại lý và hỗ trợ đại lý.
+C. Chi đào tạo ban đầu và thi cấp chứng chỉ đại lý.
+D. Chi hoa hồng bảo hiểm.</t>
+  </si>
+  <si>
+    <t>4. Thời hạn đóng phí và thời hạn hợp đồng của Sản phẩm Bảo hiểm Ung Thư 360 là: </t>
+  </si>
+  <si>
+    <t>A. Thời hạn đóng phí 10 năm; Thời hạn hợp đồng 10 năm 
+B. Thời hạn đóng phí 10 năm; Thời hạn hợp đồng đến khi NĐBH 99 tuổi 
+C. Thời hạn đóng phí 10 năm; Thời hạn hợp đồng 12 năm 
+D. Thời hạn đóng phí 12 năm; Thời hạn hợp đồng đến khi NĐBH 99 tuổi</t>
+  </si>
+  <si>
+    <t>5. Trong Sản phẩm Bảo hiểm Ung thư 360, trường hợp NĐBH là trẻ em 1,5 tuổi số tiền bảo hiểm chi trả khi các sự kiện bảo hiểm xảy ra được điều chỉnh theo tỷ lệ % là bao nhiêu:</t>
+  </si>
+  <si>
+    <t>A. 40%
+B. 60%
+C. 20%
+D. 80%</t>
+  </si>
+  <si>
+    <t>6. Khách hàng A của hợp đồng Sản phẩm Bảo hiểm Ung Thư 360 được chẩn đoán mắc ung thư giai đoạn cuối, quyền lợi bảo hiểm giai đoạn cuối đã được chi trả, hợp đồng của khách hàng A sẽ chấm dứt hiệu lực, đúng hay sai?</t>
+  </si>
+  <si>
+    <t>A. Đúng
+B. Sai</t>
+  </si>
+  <si>
+    <t>7. Trong trường hợp không có thỏa thuận về thời hạn, doanh nghiệp bảo hiểm phải trả tiền bảo hiểm hoặc bồi thường cho người được bảo hiểm trong vòng:</t>
+  </si>
+  <si>
+    <t>A. 60 ngày kể từ ngày nhận được đầy đủ hồ sơ hợp lệ về yêu cầu trả tiền bảo hiểm hoặc bồi thường.
+B. 45 ngày kể từ ngày nhận được đầy đủ hồ sơ hợp lệ về yêu cầu trả tiền bảo hiểm hoặc bồi thường.
+C. 30 ngày kể từ ngày nhận được đầy đủ hồ sơ hợp lệ về yêu cầu trả tiền bảo hiểm hoặc bồi thường. 
+D. 15 ngày kể từ ngày nhận được đầy đủ hồ sơ hợp lệ về yêu cầu trả tiền bảo hiểm hoặc bồi thường. </t>
+  </si>
+  <si>
+    <t>8. Trường hợp nào dưới đây doanh nghiệp bảo hiểm phải trả tiền bảo hiểm trong hợp đồng bảo hiểm con người:</t>
+  </si>
+  <si>
+    <t>A. Người được bảo hiểm chết do bị thi hành án tử hình
+B. Người được bảo hiểm chết hoặc bị thương tật vĩnh viễn do lỗi cố ý của bên mua bảo hiểm
+C. Người được bảo hiểm chết do tự tử trong thời hạn hai năm, kể từ ngày nộp khoản phí bảo hiểm đầu tiên hoặc kể từ ngày hợp đồng bảo hiểm tiếp tục có hiệu lực
+D. Người được bảo hiểm chết do tự tử sau thời hạn hai năm, kể từ ngày nộp khoản phí bảo hiểm đầu tiên hoặc kể từ ngày hợp đồng bảo hiểm tiếp tục có hiệu lực</t>
+  </si>
+  <si>
+    <t>9. Phát biểu nào sau đây là sai về nội dung hoạt động đại lý bảo hiểm:</t>
+  </si>
+  <si>
+    <t>A. Giới thiệu, chào bán bảo hiểm
+B. Thu phí bảo hiểm.
+C. Hỗ trợ giảm phí bảo hiểm hoặc khuyến mại khách hàng tham gia bảo hiểm.
+D. A, B đúng.</t>
+  </si>
+  <si>
+    <t>10. Phát biểu nào sau đây là đúng về quyền lợi Hỗ Trợ Trượt Giá của Sản phẩm Bảo hiểm Ung Thư 360: </t>
+  </si>
+  <si>
+    <t>A. Tương đương 5% STBH từ năm hợp đồng đầu tiên, mỗi năm sau đó cộng thêm 5% STBH (A). 
+B. Được chi trả cùng với quyền lợi Ung Thư Giai Đoạn Cuối (B). 
+C. Mỗi đầu năm hợp đồng, BMBH cần cung cấp bằng chứng NĐBH còn sống. Quyền lợi này sẽ chấm dứt sau khi Manulife đã chi trả đủ 60 lần, hoặc sau khi NĐBH tử vong. 
+D. A và B là đáp án đúng. </t>
+  </si>
+  <si>
+    <t>11. Ngày 1/1/2019, khách hàng A tham gia Sản phẩm Bảo hiểm Ung Thư 360. Đến 31/5/2020, khách hàng A được chẩn đoán mắc ung thư giai đoạn cuối, thuộc danh mục ung thư chi phí lớn. Ngày 9/6/2020, khách hàng A tử vong. Các quyền lợi mà khách hàng A nhận được là:</t>
+  </si>
+  <si>
+    <t>A. 150% số tiền bảo hiểm + quyền lợi miễn đóng phí + quyền lợi trợ cấp thu nhập + quyền lợi miễn phí dành cho con + quyền lợi tử vong
+B. 150% số tiền bảo hiểm + quyền lợi miễn đóng phí + quyền lợi miễn phí dành cho con+ quyền lợi tử vong
+C. 105% số tiền bảo hiểm + quyền lợi miễn đóng phí + quyền lợi trợ cấp thu nhập + quyền lợi miễn phí dành cho con + quyền lợi tử vong
+D. 160% số tiền bảo hiểm + quyền lợi miễn đóng phí + quyền lợi trợ cấp thu nhập + quyền lợi miễn phí dành cho con + quyền lợi tử vong</t>
+  </si>
+  <si>
+    <t>12. Đại lý bảo hiểm là:</t>
+  </si>
+  <si>
+    <t>A. Người được doanh nghiệp bảo hiểm ủy quyền thực hiện tất cả các công việc liên quan đến nghiệp vụ bảo hiểm.
+B. Tổ chức, cá nhân được doanh nghiệp bảo hiểm ủy quyền trên cơ sở hợp đồng đại lý bảo hiểm để thực hiện hoạt động đại lý bảo hiểm theo quy định của pháp luật.
+C.  Người đại diện cho khách hàng.
+D. A, B, C đúng.</t>
+  </si>
+  <si>
+    <t>13. Mức vốn pháp định của doanh nghiệp bảo hiểm nhân thọ, kinh doanh bảo hiểm nhân thọ (bao gồm cả bảo hiểm liên kết đơn vị, bảo hiểm hưu trí) và bảo hiểm sức khỏe là:</t>
+  </si>
+  <si>
+    <t>A. 600 tỷ đồng Việt Nam
+B. 800 tỷ đồng Việt Nam
+C. 1.000 tỷ đồng Việt Nam
+D. 300 tỷ đồng Việt Nam</t>
+  </si>
+  <si>
+    <t>A. Thu xếp giải quyết bồi thường, trả tiền bảo hiểm khi xảy ra sự kiện bảo hiểm.
+B. Đánh giá rủi ro.
+C. Giới thiệu, chào bán bảo hiểm. 
+D. Thu phí bảo hiểm.</t>
+  </si>
+  <si>
+    <t>15. Theo quy định của Pháp luật, phát biểu nào dưới đây sai:</t>
+  </si>
+  <si>
+    <t>A. Các loại hợp đồng bảo hiểm bao gồm: hợp đồng bảo hiểm con người, hợp đồng bảo hiểm tài sản, hợp đồng bảo hiểm trách nhiệm dân sự.
+B. Hợp đồng bảo hiểm là sự thỏa thuận giữa bên mua bảo hiểm và doanh nghiệp bảo hiểm, theo đó bên mua bảo hiểm phải đóng phí bảo hiểm, doanh nghiệp bảo hiểm phải trả tiền bảo hiểm cho người thụ hưởng hoặc bồi thường cho người được bảo hiểm khi xảy ra sự kiện bảo hiểm.
+C. Hợp đồng bảo hiểm phải được lập thành văn bản.
+D. Trong trường hợp hợp đồng bảo hiểm có điều khoản không rõ ràng thì điều khoản đó được giải thích theo hướng có lợi cho doanh nghiệp bảo hiểm.</t>
+  </si>
+  <si>
+    <t>16. Đối với nghiệp vụ bảo hiểm trọn đời, doanh nghiệp bảo hiểm không có trách nhiệm đối với sự kiện nào sau đây:</t>
+  </si>
+  <si>
+    <t>A. Bên mua bảo hiểm chết vào bất kỳ thời điểm nào trong suốt cuộc đời của người đó (A)
+B. Người thụ hưởng chết vào bất kỳ thời điểm nào trong suốt cuộc đời của người đó (B)
+C. Người được bảo hiểm chết vào bất kỳ thời điểm nào trong suốt cuộc đời của người đó
+D. A, B đúng</t>
+  </si>
+  <si>
+    <t>17. Với Sản phẩm Bảo hiểm Ung Thư 360, khách hàng có những lựa chọn gói Bảo hiểm nào sau đây: </t>
+  </si>
+  <si>
+    <t>A. Một trong bốn gói với STBH tương ứng: 200 triệu, 400 triệu, 600 triệu và 800 triệu đồng. 
+B. Số tiền bảo hiểm tối đa 10 tỷ đồng. 
+C. Một trong bốn gói với STBH tương ứng: 500 triệu; 01 tỷ; 1,5 tỷ và 2 tỷ đồng. 
+D. Một trong bốn gói với STBH tương ứng: 300 triệu, 500 triệu, 700 triệu, 01 tỷ đồng; và gói tùy chọn với STBH tối thiểu 100 triệu đồng, tối đa 01 tỷ đồng. </t>
+  </si>
+  <si>
+    <t>18. Theo Luật kinh doanh bảo hiểm, ngoài các nghiệp vụ bảo hiểm đặc thù do Chính phủ qui định, các nghiệp vụ bảo hiểm được chia thành:</t>
+  </si>
+  <si>
+    <t>A. Bảo hiểm con người, bảo hiểm tài sản và bảo hiểm trách nhiệm dân sự.
+B. Bảo hiểm cá nhân, bảo hiểm nhóm.
+C. Bảo hiểm ngắn hạn, bảo hiểm dài hạn.
+D. Bảo hiểm nhân thọ, bảo hiểm phi nhân thọ và bảo hiểm sức khỏe. </t>
+  </si>
+  <si>
+    <t>19. Đáp án nào dưới đây đúng:</t>
+  </si>
+  <si>
+    <t>A. Đại lý bảo hiểm có thể lựa chọn và ký kết hợp đồng đại lý bảo hiểm với doanh nghiệp bảo hiểm, chi nhánh doanh nghiệp bảo hiểm phi nhân thọ nước ngoài
+B. Hoa hồng đại lý bảo hiểm được chi trả cho bên mua bảo hiểm và doanh nghiệp môi giới bảo hiểm
+C. Hoa hồng đại lý bảo hiểm được chi trả cho bên mua bảo hiểm và đại lý bảo hiểm
+D. Đại lý bảo hiểm có thể sửa đổi, bổ sung quy tắc, điều khoản bảo hiểm cho phù hợp với tình hình thực tế của khách hàng.</t>
+  </si>
+  <si>
+    <t>20. Theo quy định của Pháp luật, đáp án nào đúng khi nói về việc chuyển nhượng hợp đồng bảo hiểm:</t>
+  </si>
+  <si>
+    <t>A. Hợp đồng bảo hiểm không được chuyển nhượng
+B. Bên mua bảo hiểm có thể chuyển nhượng hợp đồng bảo hiểm theo thỏa thuận trong hợp đồng bảo hiểm
+C. Bên mua bảo hiểm có thể chuyển nhượng hợp đồng bảo hiểm cho bất kỳ người nào</t>
+  </si>
+  <si>
+    <t>21. Với Sản phẩm Bảo hiểm Ung Thư 360, số tiền bảo hiểm tối thiểu của một Hợp Đồng là: </t>
+  </si>
+  <si>
+    <t>A. 200 triệu đồng. 
+B. 250 triệu đồng. 
+C. 150 triệu đồng. 
+D. 100 triệu đồng. </t>
+  </si>
+  <si>
+    <t>22. Chọn phương án sai về khái niệm sau:</t>
+  </si>
+  <si>
+    <t>A. Người được bảo hiểm có thể đồng thời là người thụ hưởng
+B. Bên mua bảo hiểm có thể đồng thời là người được bảo hiểm và người thụ hưởng.
+C. Người thụ hưởng là người được doanh nghiệp bảo hiểm chỉ định để nhận tiền bảo hiểm theo hợp đồng bảo hiểm con người.   
+D. Người thụ hưởng là người được bên mua bảo hiểm chỉ định để nhận tiền bảo hiểm theo hợp đồng bảo hiểm con người.   </t>
+  </si>
+  <si>
+    <t>23. Theo Luật kinh doanh bảo hiểm, trường hợp doanh nghiệp bảo hiểm không phải bồi thường hoặc không phải trả tiền bảo hiểm khi xảy ra sự kiện bảo hiểm thì:</t>
+  </si>
+  <si>
+    <t>A. Phải được quy định rõ trong hợp đồng bảo hiểm và được doanh nghiệp bảo hiểm giải thích rõ cho bên mua bảo hiểm khi giao kết hợp đồng.
+B. Không cần quy định rõ trong hợp đồng bảo hiểm mà thực hiện theo các nguyên tắc chung mang tính nội bộ doanh nghiệp bảo hiểm.
+C. Không cần quy định rõ trong hợp đồng bảo hiểm vì pháp luật đã quy định rõ các trường hợp này.
+D. Không cần quy định rõ trong hợp đồng bảo hiểm và áp dụng theo thông lệ quốc tế.</t>
+  </si>
+  <si>
+    <t>24. Bên mua bảo hiểm có thể được giảm phí bảo hiểm khi mua bảo hiểm nhân thọ, bảo hiểm sức khỏe trong trường hợp:</t>
+  </si>
+  <si>
+    <t>A. Mua bảo hiểm trực tiếp từ doanh nghiệp bảo hiểm và doanh nghiệp bảo hiểm không phải chi trả hoa hồng bảo hiểm cho đại lý bảo hiểm hoặc doanh nghiệp môi giới bảo hiểm
+B. Mua bảo hiểm thông qua đại lý bảo hiểm 
+C. A, B đúng</t>
+  </si>
+  <si>
+    <t>25.  Quyền lợi bảo hiểm rủi ro của sản phẩm bảo hiểm hưu trí phải bao gồm tối thiểu các quyền lợi nào?</t>
+  </si>
+  <si>
+    <t>A. Quyền lợi trợ cấp mai táng, quyền lợi chăm sóc y tế, quyền lợi hỗ trợ nằm viện.
+B. Quyền lợi chăm sóc y tế.
+C. Quyền lợi trợ cấp mai táng, quyền lợi tử vong hoặc thương tật toàn bộ vĩnh viễn, quyền lợi bảo hiểm thất nghiệp.
+D. Quyền lợi trợ cấp mai táng, quyền lợi tử vong hoặc thương tật toàn bộ vĩnh viễn.</t>
+  </si>
+  <si>
+    <t>26. Chọn phương án đúng khi nói về đại lý bảo hiểm: </t>
+  </si>
+  <si>
+    <t>A. Đại lý bảo hiểm chịu sự kiểm tra giám sát của cơ quan nhà nước có thẩm quyền và thực hiện đầy đủ nghĩa vụ tài chính theo quy định của pháp luật (A).
+B. Đại lý bảo hiểm thực hiện hợp đồng bảo hiểm theo phạm vi được ủy quyền trong hợp đồng đại lý bảo hiểm (B).
+C. Đại lý bảo hiểm có thể đem phí bảo hiểm đi đầu tư và trả một phần lãi cho doanh nghiệp bảo hiểm (C).
+D. A,B đúng</t>
+  </si>
+  <si>
+    <t>27. Tỷ lệ hoa hồng tối đa tính trên phí bảo hiểm của hợp đồng bảo hiểm nhân thọ cá nhân thuộc nghiệp vụ bảo hiểm liên kết đơn vị, thời hạn từ 10 năm trở lên, phương thức nộp phí một lần là: </t>
+  </si>
+  <si>
+    <t>A. 5%
+B. 10%
+C. 7%
+D. 15%</t>
+  </si>
+  <si>
+    <t>28. Theo Luật kinh doanh bảo hiểm, bảo hiểm nhân thọ hỗn hợp là nghiệp vụ bảo hiểm kết hợp:</t>
+  </si>
+  <si>
+    <t>A. Bảo hiểm tử kỳ và bảo hiểm hưu trí. 
+B. Bảo hiểm trọn đời và bảo hiểm hưu trí. 
+C. Bảo hiểm sinh kỳ và bảo hiểm trọn đời. 
+D. Bảo hiểm sinh kỳ và bảo hiểm tử kỳ. </t>
+  </si>
+  <si>
+    <t>29. Đơn vị nào dưới đây được phép kinh doanh bảo hiểm sức khỏe?</t>
+  </si>
+  <si>
+    <t>A. Doanh nghiệp bảo hiểm Nhân thọ, doanh nghiệp bảo hiểm Phi Nhân thọ
+B. Văn phòng doanh nghiệp bảo hiểm nước ngoài tại Việt Nam
+C. Văn phòng doanh nghiệp môi giới bảo hiểm nước ngoài tại Việt Nam
+D. A, B, C đúng</t>
+  </si>
+  <si>
+    <t>30. Đại lý bảo hiểm có quyền:</t>
+  </si>
+  <si>
+    <t>A. Tiết lộ thông tin liên quan đến khách hàng
+B. Tạm ứng hoặc cho khách hàng vay tiền để đóng phí
+C. Dùng tiền hoa hồng để giảm phí hoặc khuyến mãi cho khách hàng
+D. Được hưởng hoa hồng đại lý</t>
+  </si>
+  <si>
+    <t>31. Doanh nghiệp bảo hiểm có nghĩa vụ:</t>
+  </si>
+  <si>
+    <t>A. Giải thích cho bên mua bảo hiểm về các điều kiện, điều khoản bảo hiểm; quyền, nghĩa vụ của bên mua bảo hiểm.
+B. Trả tiền bảo hiểm kịp thời cho người thụ hưởng hoặc bồi thường cho người được bảo hiểm khi xảy ra sự kiện bảo hiểm.
+C. Giải thích bằng văn bản lý do từ chối trả tiền bảo hiểm.
+D. A, B, C đúng.</t>
+  </si>
+  <si>
+    <t>32. Thông thường một hợp đồng bảo hiểm nhân thọ bị chấm dứt vì không tiếp tục đóng phí bảo hiểm, có thể khôi phục:</t>
+  </si>
+  <si>
+    <t>A. Trong vòng 2 năm kể từ khi mất hiệu lực và bên mua bảo hiểm đã đóng đủ phí bảo hiểm còn thiếu.
+B. Tại bất kỳ thời điểm nào kể từ khi mất hiệu lực và bên mua bảo hiểm đã đóng đủ phí bảo hiểm còn thiếu.  
+C. Trong vòng 4 năm kể từ khi mất hiệu lực và bên mua bảo hiểm đã đóng đủ phí bảo hiểm còn thiếu.
+D. Trong vòng 3 năm kể từ khi mất hiệu lực và bên mua bảo hiểm đã đóng đủ phí bảo hiểm còn thiếu.</t>
+  </si>
+  <si>
+    <t>33. Theo Pháp luật kinh doanh bảo hiểm, đối tượng nào sau đây có trách nhiệm nộp Quỹ bảo vệ người được bảo hiểm?</t>
+  </si>
+  <si>
+    <t>A. Doanh nghiệp bảo hiểm, chi nhánh doanh nghiệp bảo hiểm phi nhân thọ nước ngoài, doanh nghiệp môi giới bảo hiểm, đại lý bảo hiểm.
+B. Doanh nghiệp bảo hiểm, chi nhánh doanh nghiệp bảo hiểm phi nhân thọ nước ngoài (trừ doanh nghiệp bảo hiểm sức khỏe).
+C. Doanh nghiệp bảo hiểm, chi nhánh doanh nghiệp bảo hiểm phi nhân thọ nước ngoài, doanh nghiệp môi giới bảo hiểm.
+D. Doanh nghiệp bảo hiểm, chi nhánh doanh nghiệp bảo hiểm phi nhân thọ nước ngoài (trừ doanh nghiệp tái bảo hiểm).</t>
+  </si>
+  <si>
+    <t>34. Kể từ sau thời điểm Manulife đồng ý chi trả quyền lợi Ung Thư Giai Đoạn Cuối cho Người Được Bảo Hiểm của hợp đồng Bảo hiểm Ung Thư 360, vào mỗi ngày kỷ niệm hợp đồng hàng tháng, Manulife sẽ chi trả QLBH Trợ Cấp Thu Nhập bằng:</t>
+  </si>
+  <si>
+    <t>35. Hợp đồng bảo hiểm nhân thọ chấm dứt trong các trường hợp nào sau đây:</t>
+  </si>
+  <si>
+    <t>A. Bên mua bảo hiểm không còn quyền lợi có thể được bảo hiểm.
+B. Bên mua bảo hiểm tham gia một hợp đồng bảo hiểm khác cung cấp quyền lợi tương tự
+C. Câu A và B đều đúng
+D. Câu A và B đều sai</t>
+  </si>
+  <si>
+    <t>36. Trong Sản phẩm Bảo hiểm Ung Thư 360, thời hạn tối đa để con của Người Được Bảo Hiểm hoặc người giám hộ hợp pháp của con của Người Được Bảo Hiểm gửi yêu cầu và hoàn thành hồ sơ yêu cầu Manulife cấp quyền lợi Bảo Hiểm Miễn Phí Dành Cho Con Của NĐBH là:</t>
+  </si>
+  <si>
+    <t>A. 07 ngày kể từ ngày  Manulife chấp nhận chi trả Quyền lợi Ung Thư Giai Đoạn Cuối.
+B. 60 ngày kể từ ngày Manulife chấp nhận chi trả Quyền lợi Ung Thư Giai Đoạn Cuối.
+C. 90 ngày kể từ ngày Manulife chấp nhận chi trả Quyền lợi Ung Thư Giai Đoạn Cuối.
+D. 30 ngày kể từ ngày  Manulife chấp nhận chi trả Quyền lợi Ung Thư Giai Đoạn Cuối.</t>
+  </si>
+  <si>
+    <t>37. Theo Luật kinh doanh bảo hiểm, kinh doanh bảo hiểm là:</t>
+  </si>
+  <si>
+    <t>A. Hoạt động của doanh nghiệp bảo hiểm nhằm mục đích sinh lợi, theo đó doanh nghiệp bảo hiểm chấp nhận rủi ro của người được bảo hiểm, trên cơ sở bên mua bảo hiểm đóng phí bảo hiểm để doanh nghiệp bảo hiểm trả tiền bảo hiểm cho người thụ hưởng hoặc bồi thường cho người được bảo hiểm khi xảy ra sự kiện bảo hiểm.
+B. Hoạt động của doanh nghiệp bảo hiểm nhằm mục đích sinh lợi, theo đó doanh nghiệp bảo hiểm nhận một khoản phí bảo hiểm của doanh nghiệp bảo hiểm khác để cam kết bồi thường cho các trách nhiệm đã nhận bảo hiểm.
+C. Cả A và B</t>
+  </si>
+  <si>
+    <t>38. Chọn phương án sai về đại lý bảo hiểm:</t>
+  </si>
+  <si>
+    <t>A. Đại lý bảo hiểm được hưởng hoa hồng bảo hiểm do doanh nghiệp bảo hiểm trả.
+B. Đại lý bảo hiểm là người đại diện cho khách hàng tham gia bảo hiểm.
+C. Đại lý bảo hiểm có thể được doanh nghiệp bảo hiểm ủy quyền trả tiền bảo hiểm.
+D. Đại lý bảo hiểm là người được doanh nghiệp bảo hiểm ủy quyền để thực hiện những công việc liên quan đến hợp đồng bảo hiểm.</t>
+  </si>
+  <si>
+    <t>39. Đối với hợp đồng bảo hiểm con người, trường hợp một hoặc một số người thụ hưởng cố ý gây ra cái chết hoặc thương tật vĩnh viễn cho người được bảo hiểm thì:</t>
+  </si>
+  <si>
+    <t>40. Trong Sản phẩm Bảo hiểm Ung Thư 360, trong trường hợp con của Người Được Bảo Hiểm được Manulife chấp thuận cấp quyền lợi Bảo Hiểm Miễn Phí Dành Cho Con Của Người Được Bảo Hiểm, ngày bắt đầu bảo hiểm sẽ là:</t>
+  </si>
+  <si>
+    <t>A. Ngày Manulife đồng ý cấp quyền lợi Bảo Hiểm Miễn Phí Dành Cho Con Của Người Được Bảo Hiểm
+B. Ngày Người Được Bảo Hiểm được chẩn đoán mắc bệnh Ung Thư Giai Đoạn Cuối
+C. Ngày hoàn thành hồ sơ yêu cầu cấp quyền lợi Bảo Hiểm Miễn Phí Dành Cho Con Của Người Được Bảo Hiểm
+D. Ngày Manulife chấp nhận chi trả quyền lợi Ung Thư Giai Đoạn Cuối cho Người Được Bảo Hiểm.</t>
   </si>
 </sst>
 </file>
@@ -1561,10 +2288,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E143"/>
+  <dimension ref="A1:E225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="K142" sqref="K142"/>
+    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
+      <selection activeCell="B145" sqref="B145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1575,2010 +2302,3164 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s" s="0">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s" s="0">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s" s="0">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s" s="0">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s" s="0">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s" s="0">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s" s="0">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s" s="0">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s" s="0">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s" s="0">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s" s="0">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s" s="0">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s" s="0">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s" s="0">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s" s="0">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s" s="0">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s" s="0">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s" s="0">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s" s="0">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s" s="0">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s" s="0">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s" s="0">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s" s="0">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s" s="0">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s" s="0">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s" s="0">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s" s="0">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s" s="0">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s" s="0">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s" s="0">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s" s="0">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s" s="0">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s" s="0">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s" s="0">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s" s="0">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s" s="0">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s" s="0">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s" s="0">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s" s="0">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s" s="0">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s" s="0">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s" s="0">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s" s="0">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s" s="0">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s" s="0">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s" s="0">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s" s="0">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s" s="0">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D48" t="s" s="0">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s" s="0">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s" s="0">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s" s="0">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s" s="0">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s" s="0">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s" s="0">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s" s="0">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s" s="0">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s" s="0">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s" s="0">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s" s="0">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D59" t="s" s="0">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s" s="0">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D60" t="s" s="0">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s" s="0">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D61" t="s" s="0">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s" s="0">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D62" t="s" s="0">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s" s="0">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D63" t="s" s="0">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s" s="0">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D64" t="s" s="0">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s" s="0">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D65" t="s" s="0">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s" s="0">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D66" t="s" s="0">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s" s="0">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D67" t="s" s="0">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s" s="0">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C68" t="s" s="0">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D68" t="s" s="0">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s" s="0">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C69" t="s" s="0">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D69" t="s" s="0">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s" s="0">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C70" t="s" s="0">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D70" t="s" s="0">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s" s="0">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D71" t="s" s="0">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s" s="0">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D72" t="s" s="0">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s" s="0">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D73" t="s" s="0">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s" s="0">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C74" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D74" t="s" s="0">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s" s="0">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C75" t="s" s="0">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D75" t="s" s="0">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s" s="0">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C76" t="s" s="0">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D76" t="s" s="0">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s" s="0">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C77" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D77" t="s" s="0">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s" s="0">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C78" t="s" s="0">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D78" t="s" s="0">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s" s="0">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C79" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D79" t="s" s="0">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s" s="0">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C80" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D80" t="s" s="0">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s" s="0">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C81" t="s" s="0">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D81" t="s" s="0">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s" s="0">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C82" t="s" s="0">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D82" t="s" s="0">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s" s="0">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C83" t="s" s="0">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D83" t="s" s="0">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s" s="0">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C84" t="s" s="0">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D84" t="s" s="0">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s" s="0">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C85" t="s" s="0">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D85" t="s" s="0">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s" s="0">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C86" t="s" s="0">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D86" t="s" s="0">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s" s="0">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C87" t="s" s="0">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D87" t="s" s="0">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s" s="0">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C88" t="s" s="0">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D88" t="s" s="0">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s" s="0">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C89" t="s" s="0">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D89" t="s" s="0">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s" s="0">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C90" t="s" s="0">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D90" t="s" s="0">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s" s="0">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C91" t="s" s="0">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D91" t="s" s="0">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s" s="0">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C92" t="s" s="0">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D92" t="s" s="0">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s" s="0">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C93" t="s" s="0">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D93" t="s" s="0">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s" s="0">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C94" t="s" s="0">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D94" t="s" s="0">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s" s="0">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C95" t="s" s="0">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D95" t="s" s="0">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="s" s="0">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C96" t="s" s="0">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D96" t="s" s="0">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s" s="0">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C97" t="s" s="0">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D97" t="s" s="0">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s" s="0">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C98" t="s" s="0">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D98" t="s" s="0">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" t="s" s="0">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C99" t="s" s="0">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D99" t="s" s="0">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="s" s="0">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C100" t="s" s="0">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D100" t="s" s="0">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s" s="0">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C101" t="s" s="0">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D101" t="s" s="0">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s" s="0">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C102" t="s" s="0">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D102" t="s" s="0">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="s" s="0">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C103" t="s" s="0">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D103" t="s" s="0">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" t="s" s="0">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C104" t="s" s="0">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D104" t="s" s="0">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" t="s" s="0">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C105" t="s" s="0">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D105" t="s" s="0">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" t="s" s="0">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C106" t="s" s="0">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D106" t="s" s="0">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" t="s" s="0">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C107" t="s" s="0">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D107" t="s" s="0">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" t="s" s="0">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C108" t="s" s="0">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D108" t="s" s="0">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" t="s" s="0">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C109" t="s" s="0">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D109" t="s" s="0">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" t="s" s="0">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C110" t="s" s="0">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D110" t="s" s="0">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" t="s" s="0">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C111" t="s" s="0">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D111" t="s" s="0">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" t="s" s="0">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C112" t="s" s="0">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D112" t="s" s="0">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" t="s" s="0">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C113" t="s" s="0">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D113" t="s" s="0">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" t="s" s="0">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C114" t="s" s="0">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D114" t="s" s="0">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" t="s" s="0">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B115" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C115" t="s" s="0">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D115" t="s" s="0">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" t="s" s="0">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C116" t="s" s="0">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D116" t="s" s="0">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" t="s" s="0">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C117" t="s" s="0">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D117" t="s" s="0">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" t="s" s="0">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C118" t="s" s="0">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D118" t="s" s="0">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" t="s" s="0">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C119" t="s" s="0">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D119" t="s" s="0">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" t="s" s="0">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C120" t="s" s="0">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D120" t="s" s="0">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" t="s" s="0">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C121" t="s" s="0">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D121" t="s" s="0">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" t="s" s="0">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C122" t="s" s="0">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D122" t="s" s="0">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" t="s" s="0">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C123" t="s" s="0">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D123" t="s" s="0">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" t="s" s="0">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C124" t="s" s="0">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D124" t="s" s="0">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" t="s" s="0">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B125" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C125" t="s" s="0">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D125" t="s" s="0">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" t="s" s="0">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B126" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C126" t="s" s="0">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D126" t="s" s="0">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" t="s" s="0">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C127" t="s" s="0">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D127" t="s" s="0">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" t="s" s="0">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B128" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C128" t="s" s="0">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D128" t="s" s="0">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" t="s" s="0">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B129" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C129" t="s" s="0">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D129" t="s" s="0">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" t="s" s="0">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B130" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C130" t="s" s="0">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D130" t="s" s="0">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" t="s" s="0">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B131" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C131" t="s" s="0">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D131" t="s" s="0">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" t="s" s="0">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C132" t="s" s="0">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D132" t="s" s="0">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" t="s" s="0">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B133" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C133" t="s" s="0">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D133" t="s" s="0">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" t="s" s="0">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B134" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C134" t="s" s="0">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D134" t="s" s="0">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" t="s" s="0">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B135" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C135" t="s" s="0">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D135" t="s" s="0">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" t="s" s="0">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B136" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C136" t="s" s="0">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D136" t="s" s="0">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" t="s" s="0">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B137" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C137" t="s" s="0">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D137" t="s" s="0">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" t="s" s="0">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B138" t="s" s="0">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C138" t="s" s="0">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D138" t="s" s="0">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" t="s" s="0">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B139" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C139" t="s" s="0">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D139" t="s" s="0">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" t="s" s="0">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B140" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C140" t="s" s="0">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D140" t="s" s="0">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" t="s" s="0">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B141" t="s" s="0">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C141" t="s" s="0">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D141" t="s" s="0">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" t="s" s="0">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C142" t="s" s="0">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D142" t="s" s="0">
+        <v>283</v>
+      </c>
+      <c r="E142" t="s" s="0">
         <v>287</v>
-      </c>
-      <c r="E142" t="s" s="0">
-        <v>292</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" t="s" s="0">
+        <v>284</v>
+      </c>
+      <c r="B143" t="s" s="0">
+        <v>281</v>
+      </c>
+      <c r="C143" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D143" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="E143" t="s" s="0">
         <v>288</v>
       </c>
-      <c r="B143" t="s" s="0">
-        <v>285</v>
-      </c>
-      <c r="C143" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="D143" t="s" s="0">
-        <v>289</v>
+    </row>
+    <row r="144" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A144" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="B144" t="s" s="0">
+        <v>281</v>
+      </c>
+      <c r="C144" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E144" t="s" s="0">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A145" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="B145" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C145" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s" s="0">
+        <v>299</v>
+      </c>
+      <c r="B146" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C146" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="D146" t="s" s="0">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s" s="0">
+        <v>301</v>
+      </c>
+      <c r="B147" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C147" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D147" t="s" s="0">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s" s="0">
+        <v>303</v>
+      </c>
+      <c r="B148" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C148" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D148" t="s" s="0">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s" s="0">
+        <v>305</v>
+      </c>
+      <c r="B149" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C149" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D149" t="s" s="0">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="B150" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C150" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D150" t="s" s="0">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="B151" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C151" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D151" t="s" s="0">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s" s="0">
+        <v>311</v>
+      </c>
+      <c r="B152" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C152" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D152" t="s" s="0">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="B153" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C153" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D153" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s" s="0">
+        <v>315</v>
+      </c>
+      <c r="B154" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C154" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D154" t="s" s="0">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s" s="0">
+        <v>317</v>
+      </c>
+      <c r="B155" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C155" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D155" t="s" s="0">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s" s="0">
+        <v>319</v>
+      </c>
+      <c r="B156" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C156" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D156" t="s" s="0">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s" s="0">
+        <v>321</v>
+      </c>
+      <c r="B157" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C157" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D157" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s" s="0">
+        <v>323</v>
+      </c>
+      <c r="B158" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C158" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D158" t="s" s="0">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s" s="0">
+        <v>325</v>
+      </c>
+      <c r="B159" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C159" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D159" t="s" s="0">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s" s="0">
+        <v>327</v>
+      </c>
+      <c r="B160" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C160" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="D160" t="s" s="0">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s" s="0">
+        <v>329</v>
+      </c>
+      <c r="B161" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C161" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D161" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s" s="0">
+        <v>331</v>
+      </c>
+      <c r="B162" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C162" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="D162" t="s" s="0">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s" s="0">
+        <v>333</v>
+      </c>
+      <c r="B163" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C163" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D163" t="s" s="0">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s" s="0">
+        <v>335</v>
+      </c>
+      <c r="B164" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C164" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D164" t="s" s="0">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s" s="0">
+        <v>337</v>
+      </c>
+      <c r="B165" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C165" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D165" t="s" s="0">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s" s="0">
+        <v>339</v>
+      </c>
+      <c r="B166" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C166" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D166" t="s" s="0">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s" s="0">
+        <v>341</v>
+      </c>
+      <c r="B167" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C167" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D167" t="s" s="0">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s" s="0">
+        <v>343</v>
+      </c>
+      <c r="B168" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C168" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D168" t="s" s="0">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s" s="0">
+        <v>345</v>
+      </c>
+      <c r="B169" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C169" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D169" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="B170" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C170" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D170" t="s" s="0">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s" s="0">
+        <v>349</v>
+      </c>
+      <c r="B171" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C171" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D171" t="s" s="0">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="B172" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C172" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D172" t="s" s="0">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s" s="0">
+        <v>353</v>
+      </c>
+      <c r="B173" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C173" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D173" t="s" s="0">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s" s="0">
+        <v>355</v>
+      </c>
+      <c r="B174" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C174" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D174" t="s" s="0">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B175" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C175" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D175" t="s" s="0">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s" s="0">
+        <v>359</v>
+      </c>
+      <c r="B176" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C176" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="D176" t="s" s="0">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s" s="0">
+        <v>361</v>
+      </c>
+      <c r="B177" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C177" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D177" t="s" s="0">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s" s="0">
+        <v>363</v>
+      </c>
+      <c r="B178" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C178" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="D178" t="s" s="0">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s" s="0">
+        <v>365</v>
+      </c>
+      <c r="B179" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C179" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D179" t="s" s="0">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s" s="0">
+        <v>367</v>
+      </c>
+      <c r="B180" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C180" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D180" t="s" s="0">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s" s="0">
+        <v>369</v>
+      </c>
+      <c r="B181" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C181" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D181" t="s" s="0">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s" s="0">
+        <v>371</v>
+      </c>
+      <c r="B182" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C182" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D182" t="s" s="0">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s" s="0">
+        <v>373</v>
+      </c>
+      <c r="B183" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C183" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D183" t="s" s="0">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="B184" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C184" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D184" t="s" s="0">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s" s="0">
+        <v>377</v>
+      </c>
+      <c r="B185" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C185" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D185" t="s" s="0">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s" s="0">
+        <v>379</v>
+      </c>
+      <c r="B186" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C186" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D186" t="s" s="0">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s" s="0">
+        <v>381</v>
+      </c>
+      <c r="B187" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C187" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="D187" t="s" s="0">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s" s="0">
+        <v>383</v>
+      </c>
+      <c r="B188" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C188" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D188" t="s" s="0">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s" s="0">
+        <v>385</v>
+      </c>
+      <c r="B189" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C189" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D189" t="s" s="0">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s" s="0">
+        <v>387</v>
+      </c>
+      <c r="B190" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C190" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D190" t="s" s="0">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s" s="0">
+        <v>389</v>
+      </c>
+      <c r="B191" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C191" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="D191" t="s" s="0">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s" s="0">
+        <v>391</v>
+      </c>
+      <c r="B192" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C192" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D192" t="s" s="0">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s" s="0">
+        <v>393</v>
+      </c>
+      <c r="B193" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C193" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D193" t="s" s="0">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="B194" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C194" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D194" t="s" s="0">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s" s="0">
+        <v>397</v>
+      </c>
+      <c r="B195" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C195" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D195" t="s" s="0">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="B196" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C196" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D196" t="s" s="0">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s" s="0">
+        <v>401</v>
+      </c>
+      <c r="B197" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C197" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="D197" t="s" s="0">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s" s="0">
+        <v>403</v>
+      </c>
+      <c r="B198" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C198" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D198" t="s" s="0">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s" s="0">
+        <v>325</v>
+      </c>
+      <c r="B199" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C199" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="D199" t="s" s="0">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s" s="0">
+        <v>406</v>
+      </c>
+      <c r="B200" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C200" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D200" t="s" s="0">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s" s="0">
+        <v>408</v>
+      </c>
+      <c r="B201" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C201" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D201" t="s" s="0">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s" s="0">
+        <v>410</v>
+      </c>
+      <c r="B202" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C202" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D202" t="s" s="0">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s" s="0">
+        <v>412</v>
+      </c>
+      <c r="B203" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C203" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D203" t="s" s="0">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s" s="0">
+        <v>414</v>
+      </c>
+      <c r="B204" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C204" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D204" t="s" s="0">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s" s="0">
+        <v>416</v>
+      </c>
+      <c r="B205" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C205" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="D205" t="s" s="0">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s" s="0">
+        <v>418</v>
+      </c>
+      <c r="B206" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C206" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D206" t="s" s="0">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s" s="0">
+        <v>420</v>
+      </c>
+      <c r="B207" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C207" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D207" t="s" s="0">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s" s="0">
+        <v>422</v>
+      </c>
+      <c r="B208" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C208" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D208" t="s" s="0">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s" s="0">
+        <v>424</v>
+      </c>
+      <c r="B209" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C209" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D209" t="s" s="0">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s" s="0">
+        <v>426</v>
+      </c>
+      <c r="B210" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C210" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D210" t="s" s="0">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s" s="0">
+        <v>428</v>
+      </c>
+      <c r="B211" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C211" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D211" t="s" s="0">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s" s="0">
+        <v>430</v>
+      </c>
+      <c r="B212" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C212" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D212" t="s" s="0">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s" s="0">
+        <v>432</v>
+      </c>
+      <c r="B213" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C213" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D213" t="s" s="0">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s" s="0">
+        <v>434</v>
+      </c>
+      <c r="B214" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C214" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D214" t="s" s="0">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s" s="0">
+        <v>436</v>
+      </c>
+      <c r="B215" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C215" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D215" t="s" s="0">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s" s="0">
+        <v>438</v>
+      </c>
+      <c r="B216" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C216" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D216" t="s" s="0">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s" s="0">
+        <v>440</v>
+      </c>
+      <c r="B217" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C217" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D217" t="s" s="0">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s" s="0">
+        <v>442</v>
+      </c>
+      <c r="B218" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C218" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D218" t="s" s="0">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s" s="0">
+        <v>444</v>
+      </c>
+      <c r="B219" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C219" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D219" t="s" s="0">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s" s="0">
+        <v>445</v>
+      </c>
+      <c r="B220" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C220" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D220" t="s" s="0">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s" s="0">
+        <v>447</v>
+      </c>
+      <c r="B221" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C221" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D221" t="s" s="0">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s" s="0">
+        <v>449</v>
+      </c>
+      <c r="B222" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C222" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D222" t="s" s="0">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s" s="0">
+        <v>451</v>
+      </c>
+      <c r="B223" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C223" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="D223" t="s" s="0">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s" s="0">
+        <v>453</v>
+      </c>
+      <c r="B224" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C224" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D224" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s" s="0">
+        <v>454</v>
+      </c>
+      <c r="B225" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="C225" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="D225" t="s" s="0">
+        <v>455</v>
       </c>
     </row>
   </sheetData>
@@ -3588,7 +5469,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7375D0D9-A088-4E33-84C0-F60360358F66}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
@@ -3601,15 +5482,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="B1" s="0">
-        <v>165</v>
+        <v>3</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>272.0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s" s="0">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
@@ -3617,23 +5498,23 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s" s="0">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B3" s="0">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s" s="0">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B4" s="0">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B5" s="0">
         <v>0</v>
@@ -3641,7 +5522,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B6" s="0">
         <v>30</v>
@@ -3649,7 +5530,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B7" s="0">
         <v>0</v>
@@ -3657,7 +5538,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s" s="0">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B8" s="0">
         <v>0</v>
@@ -3665,7 +5546,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s" s="0">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B9" s="0">
         <v>0</v>
@@ -3673,7 +5554,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B10" s="0">
         <v>0</v>
@@ -3681,7 +5562,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s" s="0">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B11" s="0">
         <v>0</v>
@@ -3689,7 +5570,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s" s="0">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B12" s="0">
         <v>0</v>
@@ -3697,7 +5578,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B13" s="0">
         <v>77</v>
@@ -3705,7 +5586,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B14" s="0">
         <v>45</v>
@@ -3713,7 +5594,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s" s="0">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B15" s="0">
         <v>32</v>
@@ -3721,7 +5602,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s" s="0">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B16" s="0">
         <v>0</v>
@@ -3729,15 +5610,15 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s" s="0">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B17" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s" s="0">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B18" s="0">
         <v>0</v>
@@ -3745,7 +5626,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s" s="0">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B19" s="0">
         <v>0</v>
@@ -3753,7 +5634,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s" s="0">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B20" s="0">
         <v>0</v>
@@ -3761,7 +5642,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s" s="0">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B21" s="0">
         <v>1</v>
@@ -3769,7 +5650,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s" s="0">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B22" s="0">
         <v>2</v>
@@ -3777,10 +5658,18 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s" s="0">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B23" s="0">
-        <v>2</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>105.0</v>
       </c>
     </row>
   </sheetData>
@@ -3790,10 +5679,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E57CE46-9D74-4C06-8F20-8319158C49B7}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3818,47 +5707,70 @@
         <v>2700</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F1" t="s" s="0">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s" s="0">
-        <v>3</v>
+        <v>277</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>4</v>
+        <v>278</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>5</v>
+        <v>279</v>
       </c>
       <c r="D2" s="0">
-        <v>5400</v>
+        <v>600</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>6</v>
+        <v>286</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s" s="0">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D3" s="0">
         <v>600</v>
       </c>
       <c r="E3" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s" s="0">
         <v>290</v>
       </c>
-      <c r="F3" t="s" s="0">
-        <v>279</v>
+      <c r="B4" t="s" s="0">
+        <v>278</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>278</v>
+      </c>
+      <c r="D4" s="0">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>291</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>275</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/data/QuizTestAppData.xlsx
+++ b/src/main/java/data/QuizTestAppData.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="457">
   <si>
     <t>10-6-2023 12-00-00</t>
   </si>
@@ -1967,6 +1967,9 @@
 B. Ngày Người Được Bảo Hiểm được chẩn đoán mắc bệnh Ung Thư Giai Đoạn Cuối
 C. Ngày hoàn thành hồ sơ yêu cầu cấp quyền lợi Bảo Hiểm Miễn Phí Dành Cho Con Của Người Được Bảo Hiểm
 D. Ngày Manulife chấp nhận chi trả quyền lợi Ung Thư Giai Đoạn Cuối cho Người Được Bảo Hiểm.</t>
+  </si>
+  <si>
+    <t>,141,143,142</t>
   </si>
 </sst>
 </file>
@@ -5747,7 +5750,7 @@
         <v>600</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>294</v>
+        <v>456</v>
       </c>
       <c r="F3" t="s" s="0">
         <v>275</v>

--- a/src/main/java/data/QuizTestAppData.xlsx
+++ b/src/main/java/data/QuizTestAppData.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\btl oop\quiz-test-app\src\main\java\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04FC818-044B-4E63-9797-E092553491B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD20FDB-6694-4E58-BC08-D495439A9489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QuestionBank" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="462">
   <si>
     <t>10-6-2023 12-00-00</t>
   </si>
@@ -1255,9 +1255,6 @@
 </t>
   </si>
   <si>
-    <t>,141,142,143</t>
-  </si>
-  <si>
     <t xml:space="preserve">A. Earth
 B. Sun
 C. Satturn
@@ -1970,13 +1967,43 @@
   </si>
   <si>
     <t>,141,143,142</t>
+  </si>
+  <si>
+    <t>root/Course : IT/Category có vid</t>
+  </si>
+  <si>
+    <t>Hãy theo dõi video sau và cho biết nội dung video?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. Đếm ngược
+B. Chiếu 1 MV
+C. 1 video ngắn về động vật
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V
+N
+N
+N
+N
+N
+N
+N
+N
+N
+</t>
+  </si>
+  <si>
+    <t>Quiz có vid</t>
+  </si>
+  <si>
+    <t>,225</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2291,3178 +2318,3195 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E225"/>
+  <dimension ref="A1:E226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
+    <sheetView topLeftCell="A149" workbookViewId="0">
       <selection activeCell="B145" sqref="B145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="50.26953125"/>
-    <col min="2" max="2" customWidth="true" width="42.453125"/>
+    <col min="1" max="1" width="50.26953125" customWidth="1"/>
+    <col min="2" max="2" width="42.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>102</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D1" t="s" s="0">
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s" s="0">
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>28</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s" s="0">
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>30</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="C4" t="s">
         <v>32</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s" s="0">
+      <c r="A5" t="s">
         <v>33</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="C5" t="s">
         <v>32</v>
       </c>
-      <c r="D5" t="s" s="0">
+      <c r="D5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s" s="0">
+      <c r="A6" t="s">
         <v>35</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s" s="0">
+      <c r="C6" t="s">
         <v>37</v>
       </c>
-      <c r="D6" t="s" s="0">
+      <c r="D6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s" s="0">
+      <c r="A7" t="s">
         <v>38</v>
       </c>
-      <c r="B7" t="s" s="0">
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s" s="0">
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s" s="0">
+      <c r="A8" t="s">
         <v>40</v>
       </c>
-      <c r="B8" t="s" s="0">
+      <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" t="s" s="0">
+      <c r="C8" t="s">
         <v>32</v>
       </c>
-      <c r="D8" t="s" s="0">
+      <c r="D8" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s" s="0">
+      <c r="A9" t="s">
         <v>42</v>
       </c>
-      <c r="B9" t="s" s="0">
+      <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="C9" t="s" s="0">
+      <c r="C9" t="s">
         <v>32</v>
       </c>
-      <c r="D9" t="s" s="0">
+      <c r="D9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s" s="0">
+      <c r="A10" t="s">
         <v>44</v>
       </c>
-      <c r="B10" t="s" s="0">
+      <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="C10" t="s" s="0">
+      <c r="C10" t="s">
         <v>32</v>
       </c>
-      <c r="D10" t="s" s="0">
+      <c r="D10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s" s="0">
+      <c r="A11" t="s">
         <v>46</v>
       </c>
-      <c r="B11" t="s" s="0">
+      <c r="B11" t="s">
         <v>18</v>
       </c>
-      <c r="C11" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s" s="0">
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>47</v>
       </c>
-      <c r="E11" t="s" s="0">
+      <c r="E11" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s" s="0">
+      <c r="A12" t="s">
         <v>48</v>
       </c>
-      <c r="B12" t="s" s="0">
+      <c r="B12" t="s">
         <v>18</v>
       </c>
-      <c r="C12" t="s" s="0">
+      <c r="C12" t="s">
         <v>32</v>
       </c>
-      <c r="D12" t="s" s="0">
+      <c r="D12" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s" s="0">
+      <c r="A13" t="s">
         <v>50</v>
       </c>
-      <c r="B13" t="s" s="0">
+      <c r="B13" t="s">
         <v>18</v>
       </c>
-      <c r="C13" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s" s="0">
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s" s="0">
+      <c r="A14" t="s">
         <v>52</v>
       </c>
-      <c r="B14" t="s" s="0">
+      <c r="B14" t="s">
         <v>18</v>
       </c>
-      <c r="C14" t="s" s="0">
+      <c r="C14" t="s">
         <v>32</v>
       </c>
-      <c r="D14" t="s" s="0">
+      <c r="D14" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s" s="0">
+      <c r="A15" t="s">
         <v>54</v>
       </c>
-      <c r="B15" t="s" s="0">
+      <c r="B15" t="s">
         <v>18</v>
       </c>
-      <c r="C15" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s" s="0">
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" t="s" s="0">
+      <c r="A16" t="s">
         <v>55</v>
       </c>
-      <c r="B16" t="s" s="0">
+      <c r="B16" t="s">
         <v>18</v>
       </c>
-      <c r="C16" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s" s="0">
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" t="s" s="0">
+      <c r="A17" t="s">
         <v>56</v>
       </c>
-      <c r="B17" t="s" s="0">
+      <c r="B17" t="s">
         <v>18</v>
       </c>
-      <c r="C17" t="s" s="0">
+      <c r="C17" t="s">
         <v>32</v>
       </c>
-      <c r="D17" t="s" s="0">
+      <c r="D17" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" t="s" s="0">
+      <c r="A18" t="s">
         <v>55</v>
       </c>
-      <c r="B18" t="s" s="0">
+      <c r="B18" t="s">
         <v>18</v>
       </c>
-      <c r="C18" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s" s="0">
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" t="s" s="0">
+      <c r="A19" t="s">
         <v>58</v>
       </c>
-      <c r="B19" t="s" s="0">
+      <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="C19" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s" s="0">
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" t="s" s="0">
+      <c r="A20" t="s">
         <v>60</v>
       </c>
-      <c r="B20" t="s" s="0">
+      <c r="B20" t="s">
         <v>18</v>
       </c>
-      <c r="C20" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s" s="0">
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" t="s" s="0">
+      <c r="A21" t="s">
         <v>62</v>
       </c>
-      <c r="B21" t="s" s="0">
+      <c r="B21" t="s">
         <v>18</v>
       </c>
-      <c r="C21" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D21" t="s" s="0">
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" t="s" s="0">
+      <c r="A22" t="s">
         <v>64</v>
       </c>
-      <c r="B22" t="s" s="0">
+      <c r="B22" t="s">
         <v>18</v>
       </c>
-      <c r="C22" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s" s="0">
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" t="s" s="0">
+      <c r="A23" t="s">
         <v>66</v>
       </c>
-      <c r="B23" t="s" s="0">
+      <c r="B23" t="s">
         <v>18</v>
       </c>
-      <c r="C23" t="s" s="0">
+      <c r="C23" t="s">
         <v>37</v>
       </c>
-      <c r="D23" t="s" s="0">
+      <c r="D23" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" t="s" s="0">
+      <c r="A24" t="s">
         <v>68</v>
       </c>
-      <c r="B24" t="s" s="0">
+      <c r="B24" t="s">
         <v>18</v>
       </c>
-      <c r="C24" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D24" t="s" s="0">
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" t="s" s="0">
+      <c r="A25" t="s">
         <v>69</v>
       </c>
-      <c r="B25" t="s" s="0">
+      <c r="B25" t="s">
         <v>18</v>
       </c>
-      <c r="C25" t="s" s="0">
+      <c r="C25" t="s">
         <v>37</v>
       </c>
-      <c r="D25" t="s" s="0">
+      <c r="D25" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" t="s" s="0">
+      <c r="A26" t="s">
         <v>70</v>
       </c>
-      <c r="B26" t="s" s="0">
+      <c r="B26" t="s">
         <v>18</v>
       </c>
-      <c r="C26" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="D26" t="s" s="0">
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" t="s" s="0">
+      <c r="A27" t="s">
         <v>72</v>
       </c>
-      <c r="B27" t="s" s="0">
+      <c r="B27" t="s">
         <v>18</v>
       </c>
-      <c r="C27" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="D27" t="s" s="0">
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" t="s" s="0">
+      <c r="A28" t="s">
         <v>73</v>
       </c>
-      <c r="B28" t="s" s="0">
+      <c r="B28" t="s">
         <v>18</v>
       </c>
-      <c r="C28" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D28" t="s" s="0">
+      <c r="C28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" t="s" s="0">
+      <c r="A29" t="s">
         <v>75</v>
       </c>
-      <c r="B29" t="s" s="0">
+      <c r="B29" t="s">
         <v>18</v>
       </c>
-      <c r="C29" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="D29" t="s" s="0">
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" t="s" s="0">
+      <c r="A30" t="s">
         <v>76</v>
       </c>
-      <c r="B30" t="s" s="0">
+      <c r="B30" t="s">
         <v>18</v>
       </c>
-      <c r="C30" t="s" s="0">
+      <c r="C30" t="s">
         <v>32</v>
       </c>
-      <c r="D30" t="s" s="0">
+      <c r="D30" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" t="s" s="0">
+      <c r="A31" t="s">
         <v>78</v>
       </c>
-      <c r="B31" t="s" s="0">
+      <c r="B31" t="s">
         <v>18</v>
       </c>
-      <c r="C31" t="s" s="0">
+      <c r="C31" t="s">
         <v>32</v>
       </c>
-      <c r="D31" t="s" s="0">
+      <c r="D31" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" t="s" s="0">
+      <c r="A32" t="s">
         <v>79</v>
       </c>
-      <c r="B32" t="s" s="0">
+      <c r="B32" t="s">
         <v>18</v>
       </c>
-      <c r="C32" t="s" s="0">
+      <c r="C32" t="s">
         <v>32</v>
       </c>
-      <c r="D32" t="s" s="0">
+      <c r="D32" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" t="s" s="0">
+      <c r="A33" t="s">
         <v>46</v>
       </c>
-      <c r="B33" t="s" s="0">
+      <c r="B33" t="s">
         <v>18</v>
       </c>
-      <c r="C33" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s" s="0">
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" t="s" s="0">
+      <c r="A34" t="s">
         <v>81</v>
       </c>
-      <c r="B34" t="s" s="0">
+      <c r="B34" t="s">
         <v>18</v>
       </c>
-      <c r="C34" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D34" t="s" s="0">
+      <c r="C34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" t="s" s="0">
+      <c r="A35" t="s">
         <v>82</v>
       </c>
-      <c r="B35" t="s" s="0">
+      <c r="B35" t="s">
         <v>18</v>
       </c>
-      <c r="C35" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s" s="0">
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" t="s" s="0">
+      <c r="A36" t="s">
         <v>84</v>
       </c>
-      <c r="B36" t="s" s="0">
+      <c r="B36" t="s">
         <v>18</v>
       </c>
-      <c r="C36" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s" s="0">
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" t="s" s="0">
+      <c r="A37" t="s">
         <v>86</v>
       </c>
-      <c r="B37" t="s" s="0">
+      <c r="B37" t="s">
         <v>18</v>
       </c>
-      <c r="C37" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s" s="0">
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" t="s" s="0">
+      <c r="A38" t="s">
         <v>87</v>
       </c>
-      <c r="B38" t="s" s="0">
+      <c r="B38" t="s">
         <v>18</v>
       </c>
-      <c r="C38" t="s" s="0">
+      <c r="C38" t="s">
         <v>37</v>
       </c>
-      <c r="D38" t="s" s="0">
+      <c r="D38" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" t="s" s="0">
+      <c r="A39" t="s">
         <v>89</v>
       </c>
-      <c r="B39" t="s" s="0">
+      <c r="B39" t="s">
         <v>18</v>
       </c>
-      <c r="C39" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="D39" t="s" s="0">
+      <c r="C39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" t="s" s="0">
+      <c r="A40" t="s">
         <v>91</v>
       </c>
-      <c r="B40" t="s" s="0">
+      <c r="B40" t="s">
         <v>18</v>
       </c>
-      <c r="C40" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="D40" t="s" s="0">
+      <c r="C40" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" t="s" s="0">
+      <c r="A41" t="s">
         <v>93</v>
       </c>
-      <c r="B41" t="s" s="0">
+      <c r="B41" t="s">
         <v>18</v>
       </c>
-      <c r="C41" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D41" t="s" s="0">
+      <c r="C41" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" t="s" s="0">
+      <c r="A42" t="s">
         <v>69</v>
       </c>
-      <c r="B42" t="s" s="0">
+      <c r="B42" t="s">
         <v>18</v>
       </c>
-      <c r="C42" t="s" s="0">
+      <c r="C42" t="s">
         <v>37</v>
       </c>
-      <c r="D42" t="s" s="0">
+      <c r="D42" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" t="s" s="0">
+      <c r="A43" t="s">
         <v>95</v>
       </c>
-      <c r="B43" t="s" s="0">
+      <c r="B43" t="s">
         <v>18</v>
       </c>
-      <c r="C43" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D43" t="s" s="0">
+      <c r="C43" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" t="s" s="0">
+      <c r="A44" t="s">
         <v>97</v>
       </c>
-      <c r="B44" t="s" s="0">
+      <c r="B44" t="s">
         <v>18</v>
       </c>
-      <c r="C44" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="D44" t="s" s="0">
+      <c r="C44" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" t="s" s="0">
+      <c r="A45" t="s">
         <v>98</v>
       </c>
-      <c r="B45" t="s" s="0">
+      <c r="B45" t="s">
         <v>18</v>
       </c>
-      <c r="C45" t="s" s="0">
+      <c r="C45" t="s">
         <v>37</v>
       </c>
-      <c r="D45" t="s" s="0">
+      <c r="D45" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" t="s" s="0">
+      <c r="A46" t="s">
         <v>100</v>
       </c>
-      <c r="B46" t="s" s="0">
+      <c r="B46" t="s">
         <v>18</v>
       </c>
-      <c r="C46" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D46" t="s" s="0">
+      <c r="C46" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" t="s" s="0">
+      <c r="A47" t="s">
         <v>101</v>
       </c>
-      <c r="B47" t="s" s="0">
+      <c r="B47" t="s">
         <v>18</v>
       </c>
-      <c r="C47" t="s" s="0">
+      <c r="C47" t="s">
         <v>37</v>
       </c>
-      <c r="D47" t="s" s="0">
+      <c r="D47" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" t="s" s="0">
+      <c r="A48" t="s">
         <v>75</v>
       </c>
-      <c r="B48" t="s" s="0">
+      <c r="B48" t="s">
         <v>18</v>
       </c>
-      <c r="C48" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="D48" t="s" s="0">
+      <c r="C48" t="s">
+        <v>27</v>
+      </c>
+      <c r="D48" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" t="s" s="0">
+      <c r="A49" t="s">
         <v>73</v>
       </c>
-      <c r="B49" t="s" s="0">
+      <c r="B49" t="s">
         <v>18</v>
       </c>
-      <c r="C49" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D49" t="s" s="0">
+      <c r="C49" t="s">
+        <v>24</v>
+      </c>
+      <c r="D49" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" t="s" s="0">
+      <c r="A50" t="s">
         <v>76</v>
       </c>
-      <c r="B50" t="s" s="0">
+      <c r="B50" t="s">
         <v>18</v>
       </c>
-      <c r="C50" t="s" s="0">
+      <c r="C50" t="s">
         <v>32</v>
       </c>
-      <c r="D50" t="s" s="0">
+      <c r="D50" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" t="s" s="0">
+      <c r="A51" t="s">
         <v>72</v>
       </c>
-      <c r="B51" t="s" s="0">
+      <c r="B51" t="s">
         <v>18</v>
       </c>
-      <c r="C51" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="D51" t="s" s="0">
+      <c r="C51" t="s">
+        <v>27</v>
+      </c>
+      <c r="D51" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" t="s" s="0">
+      <c r="A52" t="s">
         <v>44</v>
       </c>
-      <c r="B52" t="s" s="0">
+      <c r="B52" t="s">
         <v>18</v>
       </c>
-      <c r="C52" t="s" s="0">
+      <c r="C52" t="s">
         <v>32</v>
       </c>
-      <c r="D52" t="s" s="0">
+      <c r="D52" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" t="s" s="0">
+      <c r="A53" t="s">
         <v>46</v>
       </c>
-      <c r="B53" t="s" s="0">
+      <c r="B53" t="s">
         <v>18</v>
       </c>
-      <c r="C53" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="D53" t="s" s="0">
+      <c r="C53" t="s">
+        <v>27</v>
+      </c>
+      <c r="D53" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" t="s" s="0">
+      <c r="A54" t="s">
         <v>81</v>
       </c>
-      <c r="B54" t="s" s="0">
+      <c r="B54" t="s">
         <v>18</v>
       </c>
-      <c r="C54" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D54" t="s" s="0">
+      <c r="C54" t="s">
+        <v>24</v>
+      </c>
+      <c r="D54" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" t="s" s="0">
+      <c r="A55" t="s">
         <v>82</v>
       </c>
-      <c r="B55" t="s" s="0">
+      <c r="B55" t="s">
         <v>18</v>
       </c>
-      <c r="C55" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="D55" t="s" s="0">
+      <c r="C55" t="s">
+        <v>27</v>
+      </c>
+      <c r="D55" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" t="s" s="0">
+      <c r="A56" t="s">
         <v>104</v>
       </c>
-      <c r="B56" t="s" s="0">
+      <c r="B56" t="s">
         <v>14</v>
       </c>
-      <c r="C56" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="D56" t="s" s="0">
+      <c r="C56" t="s">
+        <v>27</v>
+      </c>
+      <c r="D56" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" t="s" s="0">
+      <c r="A57" t="s">
         <v>107</v>
       </c>
-      <c r="B57" t="s" s="0">
+      <c r="B57" t="s">
         <v>103</v>
       </c>
-      <c r="C57" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D57" t="s" s="0">
+      <c r="C57" t="s">
+        <v>24</v>
+      </c>
+      <c r="D57" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" t="s" s="0">
+      <c r="A58" t="s">
         <v>108</v>
       </c>
-      <c r="B58" t="s" s="0">
+      <c r="B58" t="s">
         <v>14</v>
       </c>
-      <c r="C58" t="s" s="0">
+      <c r="C58" t="s">
         <v>37</v>
       </c>
-      <c r="D58" t="s" s="0">
+      <c r="D58" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" t="s" s="0">
+      <c r="A59" t="s">
         <v>110</v>
       </c>
-      <c r="B59" t="s" s="0">
+      <c r="B59" t="s">
         <v>14</v>
       </c>
-      <c r="C59" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D59" t="s" s="0">
+      <c r="C59" t="s">
+        <v>24</v>
+      </c>
+      <c r="D59" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" t="s" s="0">
+      <c r="A60" t="s">
         <v>112</v>
       </c>
-      <c r="B60" t="s" s="0">
+      <c r="B60" t="s">
         <v>14</v>
       </c>
-      <c r="C60" t="s" s="0">
+      <c r="C60" t="s">
         <v>32</v>
       </c>
-      <c r="D60" t="s" s="0">
+      <c r="D60" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" t="s" s="0">
+      <c r="A61" t="s">
         <v>114</v>
       </c>
-      <c r="B61" t="s" s="0">
+      <c r="B61" t="s">
         <v>14</v>
       </c>
-      <c r="C61" t="s" s="0">
+      <c r="C61" t="s">
         <v>32</v>
       </c>
-      <c r="D61" t="s" s="0">
+      <c r="D61" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" t="s" s="0">
+      <c r="A62" t="s">
         <v>116</v>
       </c>
-      <c r="B62" t="s" s="0">
+      <c r="B62" t="s">
         <v>14</v>
       </c>
-      <c r="C62" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="D62" t="s" s="0">
+      <c r="C62" t="s">
+        <v>27</v>
+      </c>
+      <c r="D62" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" t="s" s="0">
+      <c r="A63" t="s">
         <v>118</v>
       </c>
-      <c r="B63" t="s" s="0">
+      <c r="B63" t="s">
         <v>14</v>
       </c>
-      <c r="C63" t="s" s="0">
+      <c r="C63" t="s">
         <v>32</v>
       </c>
-      <c r="D63" t="s" s="0">
+      <c r="D63" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" t="s" s="0">
+      <c r="A64" t="s">
         <v>120</v>
       </c>
-      <c r="B64" t="s" s="0">
+      <c r="B64" t="s">
         <v>14</v>
       </c>
-      <c r="C64" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D64" t="s" s="0">
+      <c r="C64" t="s">
+        <v>24</v>
+      </c>
+      <c r="D64" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" t="s" s="0">
+      <c r="A65" t="s">
         <v>122</v>
       </c>
-      <c r="B65" t="s" s="0">
+      <c r="B65" t="s">
         <v>14</v>
       </c>
-      <c r="C65" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="D65" t="s" s="0">
+      <c r="C65" t="s">
+        <v>27</v>
+      </c>
+      <c r="D65" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" t="s" s="0">
+      <c r="A66" t="s">
         <v>124</v>
       </c>
-      <c r="B66" t="s" s="0">
+      <c r="B66" t="s">
         <v>14</v>
       </c>
-      <c r="C66" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D66" t="s" s="0">
+      <c r="C66" t="s">
+        <v>24</v>
+      </c>
+      <c r="D66" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" t="s" s="0">
+      <c r="A67" t="s">
         <v>126</v>
       </c>
-      <c r="B67" t="s" s="0">
+      <c r="B67" t="s">
         <v>14</v>
       </c>
-      <c r="C67" t="s" s="0">
+      <c r="C67" t="s">
         <v>32</v>
       </c>
-      <c r="D67" t="s" s="0">
+      <c r="D67" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" t="s" s="0">
+      <c r="A68" t="s">
         <v>128</v>
       </c>
-      <c r="B68" t="s" s="0">
+      <c r="B68" t="s">
         <v>14</v>
       </c>
-      <c r="C68" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D68" t="s" s="0">
+      <c r="C68" t="s">
+        <v>24</v>
+      </c>
+      <c r="D68" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" t="s" s="0">
+      <c r="A69" t="s">
         <v>130</v>
       </c>
-      <c r="B69" t="s" s="0">
+      <c r="B69" t="s">
         <v>14</v>
       </c>
-      <c r="C69" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D69" t="s" s="0">
+      <c r="C69" t="s">
+        <v>24</v>
+      </c>
+      <c r="D69" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" t="s" s="0">
+      <c r="A70" t="s">
         <v>132</v>
       </c>
-      <c r="B70" t="s" s="0">
+      <c r="B70" t="s">
         <v>14</v>
       </c>
-      <c r="C70" t="s" s="0">
+      <c r="C70" t="s">
         <v>37</v>
       </c>
-      <c r="D70" t="s" s="0">
+      <c r="D70" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" t="s" s="0">
+      <c r="A71" t="s">
         <v>134</v>
       </c>
-      <c r="B71" t="s" s="0">
+      <c r="B71" t="s">
         <v>14</v>
       </c>
-      <c r="C71" t="s" s="0">
+      <c r="C71" t="s">
         <v>37</v>
       </c>
-      <c r="D71" t="s" s="0">
+      <c r="D71" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" t="s" s="0">
+      <c r="A72" t="s">
         <v>136</v>
       </c>
-      <c r="B72" t="s" s="0">
+      <c r="B72" t="s">
         <v>14</v>
       </c>
-      <c r="C72" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D72" t="s" s="0">
+      <c r="C72" t="s">
+        <v>24</v>
+      </c>
+      <c r="D72" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73" t="s" s="0">
+      <c r="A73" t="s">
         <v>138</v>
       </c>
-      <c r="B73" t="s" s="0">
+      <c r="B73" t="s">
         <v>14</v>
       </c>
-      <c r="C73" t="s" s="0">
+      <c r="C73" t="s">
         <v>32</v>
       </c>
-      <c r="D73" t="s" s="0">
+      <c r="D73" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" t="s" s="0">
+      <c r="A74" t="s">
         <v>140</v>
       </c>
-      <c r="B74" t="s" s="0">
+      <c r="B74" t="s">
         <v>14</v>
       </c>
-      <c r="C74" t="s" s="0">
+      <c r="C74" t="s">
         <v>32</v>
       </c>
-      <c r="D74" t="s" s="0">
+      <c r="D74" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75" t="s" s="0">
+      <c r="A75" t="s">
         <v>142</v>
       </c>
-      <c r="B75" t="s" s="0">
+      <c r="B75" t="s">
         <v>14</v>
       </c>
-      <c r="C75" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D75" t="s" s="0">
+      <c r="C75" t="s">
+        <v>24</v>
+      </c>
+      <c r="D75" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A76" t="s" s="0">
+      <c r="A76" t="s">
         <v>143</v>
       </c>
-      <c r="B76" t="s" s="0">
+      <c r="B76" t="s">
         <v>22</v>
       </c>
-      <c r="C76" t="s" s="0">
+      <c r="C76" t="s">
         <v>37</v>
       </c>
-      <c r="D76" t="s" s="0">
+      <c r="D76" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" t="s" s="0">
+      <c r="A77" t="s">
         <v>145</v>
       </c>
-      <c r="B77" t="s" s="0">
+      <c r="B77" t="s">
         <v>14</v>
       </c>
-      <c r="C77" t="s" s="0">
+      <c r="C77" t="s">
         <v>32</v>
       </c>
-      <c r="D77" t="s" s="0">
+      <c r="D77" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A78" t="s" s="0">
+      <c r="A78" t="s">
         <v>147</v>
       </c>
-      <c r="B78" t="s" s="0">
+      <c r="B78" t="s">
         <v>14</v>
       </c>
-      <c r="C78" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="D78" t="s" s="0">
+      <c r="C78" t="s">
+        <v>27</v>
+      </c>
+      <c r="D78" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A79" t="s" s="0">
+      <c r="A79" t="s">
         <v>149</v>
       </c>
-      <c r="B79" t="s" s="0">
+      <c r="B79" t="s">
         <v>14</v>
       </c>
-      <c r="C79" t="s" s="0">
+      <c r="C79" t="s">
         <v>32</v>
       </c>
-      <c r="D79" t="s" s="0">
+      <c r="D79" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A80" t="s" s="0">
+      <c r="A80" t="s">
         <v>151</v>
       </c>
-      <c r="B80" t="s" s="0">
+      <c r="B80" t="s">
         <v>14</v>
       </c>
-      <c r="C80" t="s" s="0">
+      <c r="C80" t="s">
         <v>32</v>
       </c>
-      <c r="D80" t="s" s="0">
+      <c r="D80" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A81" t="s" s="0">
+      <c r="A81" t="s">
         <v>153</v>
       </c>
-      <c r="B81" t="s" s="0">
+      <c r="B81" t="s">
         <v>14</v>
       </c>
-      <c r="C81" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D81" t="s" s="0">
+      <c r="C81" t="s">
+        <v>24</v>
+      </c>
+      <c r="D81" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A82" t="s" s="0">
+      <c r="A82" t="s">
         <v>154</v>
       </c>
-      <c r="B82" t="s" s="0">
+      <c r="B82" t="s">
         <v>14</v>
       </c>
-      <c r="C82" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D82" t="s" s="0">
+      <c r="C82" t="s">
+        <v>24</v>
+      </c>
+      <c r="D82" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A83" t="s" s="0">
+      <c r="A83" t="s">
         <v>156</v>
       </c>
-      <c r="B83" t="s" s="0">
+      <c r="B83" t="s">
         <v>15</v>
       </c>
-      <c r="C83" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D83" t="s" s="0">
+      <c r="C83" t="s">
+        <v>24</v>
+      </c>
+      <c r="D83" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A84" t="s" s="0">
+      <c r="A84" t="s">
         <v>158</v>
       </c>
-      <c r="B84" t="s" s="0">
+      <c r="B84" t="s">
         <v>15</v>
       </c>
-      <c r="C84" t="s" s="0">
+      <c r="C84" t="s">
         <v>37</v>
       </c>
-      <c r="D84" t="s" s="0">
+      <c r="D84" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A85" t="s" s="0">
+      <c r="A85" t="s">
         <v>160</v>
       </c>
-      <c r="B85" t="s" s="0">
+      <c r="B85" t="s">
         <v>15</v>
       </c>
-      <c r="C85" t="s" s="0">
+      <c r="C85" t="s">
         <v>37</v>
       </c>
-      <c r="D85" t="s" s="0">
+      <c r="D85" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A86" t="s" s="0">
+      <c r="A86" t="s">
         <v>162</v>
       </c>
-      <c r="B86" t="s" s="0">
+      <c r="B86" t="s">
         <v>15</v>
       </c>
-      <c r="C86" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="D86" t="s" s="0">
+      <c r="C86" t="s">
+        <v>27</v>
+      </c>
+      <c r="D86" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A87" t="s" s="0">
+      <c r="A87" t="s">
         <v>164</v>
       </c>
-      <c r="B87" t="s" s="0">
+      <c r="B87" t="s">
         <v>15</v>
       </c>
-      <c r="C87" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D87" t="s" s="0">
+      <c r="C87" t="s">
+        <v>24</v>
+      </c>
+      <c r="D87" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A88" t="s" s="0">
+      <c r="A88" t="s">
         <v>166</v>
       </c>
-      <c r="B88" t="s" s="0">
+      <c r="B88" t="s">
         <v>15</v>
       </c>
-      <c r="C88" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D88" t="s" s="0">
+      <c r="C88" t="s">
+        <v>24</v>
+      </c>
+      <c r="D88" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A89" t="s" s="0">
+      <c r="A89" t="s">
         <v>168</v>
       </c>
-      <c r="B89" t="s" s="0">
+      <c r="B89" t="s">
         <v>15</v>
       </c>
-      <c r="C89" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D89" t="s" s="0">
+      <c r="C89" t="s">
+        <v>24</v>
+      </c>
+      <c r="D89" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A90" t="s" s="0">
+      <c r="A90" t="s">
         <v>170</v>
       </c>
-      <c r="B90" t="s" s="0">
+      <c r="B90" t="s">
         <v>15</v>
       </c>
-      <c r="C90" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D90" t="s" s="0">
+      <c r="C90" t="s">
+        <v>24</v>
+      </c>
+      <c r="D90" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A91" t="s" s="0">
+      <c r="A91" t="s">
         <v>172</v>
       </c>
-      <c r="B91" t="s" s="0">
+      <c r="B91" t="s">
         <v>15</v>
       </c>
-      <c r="C91" t="s" s="0">
+      <c r="C91" t="s">
         <v>37</v>
       </c>
-      <c r="D91" t="s" s="0">
+      <c r="D91" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A92" t="s" s="0">
+      <c r="A92" t="s">
         <v>174</v>
       </c>
-      <c r="B92" t="s" s="0">
+      <c r="B92" t="s">
         <v>15</v>
       </c>
-      <c r="C92" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D92" t="s" s="0">
+      <c r="C92" t="s">
+        <v>24</v>
+      </c>
+      <c r="D92" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A93" t="s" s="0">
+      <c r="A93" t="s">
         <v>176</v>
       </c>
-      <c r="B93" t="s" s="0">
+      <c r="B93" t="s">
         <v>15</v>
       </c>
-      <c r="C93" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="D93" t="s" s="0">
+      <c r="C93" t="s">
+        <v>27</v>
+      </c>
+      <c r="D93" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A94" t="s" s="0">
+      <c r="A94" t="s">
         <v>178</v>
       </c>
-      <c r="B94" t="s" s="0">
+      <c r="B94" t="s">
         <v>15</v>
       </c>
-      <c r="C94" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="D94" t="s" s="0">
+      <c r="C94" t="s">
+        <v>27</v>
+      </c>
+      <c r="D94" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A95" t="s" s="0">
+      <c r="A95" t="s">
         <v>180</v>
       </c>
-      <c r="B95" t="s" s="0">
+      <c r="B95" t="s">
         <v>15</v>
       </c>
-      <c r="C95" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D95" t="s" s="0">
+      <c r="C95" t="s">
+        <v>24</v>
+      </c>
+      <c r="D95" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A96" t="s" s="0">
+      <c r="A96" t="s">
         <v>182</v>
       </c>
-      <c r="B96" t="s" s="0">
+      <c r="B96" t="s">
         <v>15</v>
       </c>
-      <c r="C96" t="s" s="0">
+      <c r="C96" t="s">
         <v>37</v>
       </c>
-      <c r="D96" t="s" s="0">
+      <c r="D96" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A97" t="s" s="0">
+      <c r="A97" t="s">
         <v>184</v>
       </c>
-      <c r="B97" t="s" s="0">
+      <c r="B97" t="s">
         <v>15</v>
       </c>
-      <c r="C97" t="s" s="0">
+      <c r="C97" t="s">
         <v>37</v>
       </c>
-      <c r="D97" t="s" s="0">
+      <c r="D97" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A98" t="s" s="0">
+      <c r="A98" t="s">
         <v>186</v>
       </c>
-      <c r="B98" t="s" s="0">
+      <c r="B98" t="s">
         <v>15</v>
       </c>
-      <c r="C98" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D98" t="s" s="0">
+      <c r="C98" t="s">
+        <v>24</v>
+      </c>
+      <c r="D98" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A99" t="s" s="0">
+      <c r="A99" t="s">
         <v>188</v>
       </c>
-      <c r="B99" t="s" s="0">
+      <c r="B99" t="s">
         <v>15</v>
       </c>
-      <c r="C99" t="s" s="0">
+      <c r="C99" t="s">
         <v>37</v>
       </c>
-      <c r="D99" t="s" s="0">
+      <c r="D99" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A100" t="s" s="0">
+      <c r="A100" t="s">
         <v>190</v>
       </c>
-      <c r="B100" t="s" s="0">
+      <c r="B100" t="s">
         <v>15</v>
       </c>
-      <c r="C100" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D100" t="s" s="0">
+      <c r="C100" t="s">
+        <v>24</v>
+      </c>
+      <c r="D100" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A101" t="s" s="0">
+      <c r="A101" t="s">
         <v>192</v>
       </c>
-      <c r="B101" t="s" s="0">
+      <c r="B101" t="s">
         <v>15</v>
       </c>
-      <c r="C101" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D101" t="s" s="0">
+      <c r="C101" t="s">
+        <v>24</v>
+      </c>
+      <c r="D101" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A102" t="s" s="0">
+      <c r="A102" t="s">
         <v>194</v>
       </c>
-      <c r="B102" t="s" s="0">
+      <c r="B102" t="s">
         <v>15</v>
       </c>
-      <c r="C102" t="s" s="0">
+      <c r="C102" t="s">
         <v>37</v>
       </c>
-      <c r="D102" t="s" s="0">
+      <c r="D102" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A103" t="s" s="0">
+      <c r="A103" t="s">
         <v>196</v>
       </c>
-      <c r="B103" t="s" s="0">
+      <c r="B103" t="s">
         <v>15</v>
       </c>
-      <c r="C103" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D103" t="s" s="0">
+      <c r="C103" t="s">
+        <v>24</v>
+      </c>
+      <c r="D103" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A104" t="s" s="0">
+      <c r="A104" t="s">
         <v>198</v>
       </c>
-      <c r="B104" t="s" s="0">
+      <c r="B104" t="s">
         <v>15</v>
       </c>
-      <c r="C104" t="s" s="0">
+      <c r="C104" t="s">
         <v>37</v>
       </c>
-      <c r="D104" t="s" s="0">
+      <c r="D104" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A105" t="s" s="0">
+      <c r="A105" t="s">
         <v>200</v>
       </c>
-      <c r="B105" t="s" s="0">
+      <c r="B105" t="s">
         <v>15</v>
       </c>
-      <c r="C105" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="D105" t="s" s="0">
+      <c r="C105" t="s">
+        <v>27</v>
+      </c>
+      <c r="D105" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A106" t="s" s="0">
+      <c r="A106" t="s">
         <v>202</v>
       </c>
-      <c r="B106" t="s" s="0">
+      <c r="B106" t="s">
         <v>15</v>
       </c>
-      <c r="C106" t="s" s="0">
+      <c r="C106" t="s">
         <v>37</v>
       </c>
-      <c r="D106" t="s" s="0">
+      <c r="D106" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A107" t="s" s="0">
+      <c r="A107" t="s">
         <v>204</v>
       </c>
-      <c r="B107" t="s" s="0">
+      <c r="B107" t="s">
         <v>15</v>
       </c>
-      <c r="C107" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D107" t="s" s="0">
+      <c r="C107" t="s">
+        <v>24</v>
+      </c>
+      <c r="D107" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A108" t="s" s="0">
+      <c r="A108" t="s">
         <v>206</v>
       </c>
-      <c r="B108" t="s" s="0">
+      <c r="B108" t="s">
         <v>15</v>
       </c>
-      <c r="C108" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D108" t="s" s="0">
+      <c r="C108" t="s">
+        <v>24</v>
+      </c>
+      <c r="D108" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A109" t="s" s="0">
+      <c r="A109" t="s">
         <v>208</v>
       </c>
-      <c r="B109" t="s" s="0">
+      <c r="B109" t="s">
         <v>15</v>
       </c>
-      <c r="C109" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="D109" t="s" s="0">
+      <c r="C109" t="s">
+        <v>27</v>
+      </c>
+      <c r="D109" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A110" t="s" s="0">
+      <c r="A110" t="s">
         <v>210</v>
       </c>
-      <c r="B110" t="s" s="0">
+      <c r="B110" t="s">
         <v>15</v>
       </c>
-      <c r="C110" t="s" s="0">
+      <c r="C110" t="s">
         <v>37</v>
       </c>
-      <c r="D110" t="s" s="0">
+      <c r="D110" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A111" t="s" s="0">
+      <c r="A111" t="s">
         <v>212</v>
       </c>
-      <c r="B111" t="s" s="0">
+      <c r="B111" t="s">
         <v>15</v>
       </c>
-      <c r="C111" t="s" s="0">
+      <c r="C111" t="s">
         <v>37</v>
       </c>
-      <c r="D111" t="s" s="0">
+      <c r="D111" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A112" t="s" s="0">
+      <c r="A112" t="s">
         <v>214</v>
       </c>
-      <c r="B112" t="s" s="0">
+      <c r="B112" t="s">
         <v>15</v>
       </c>
-      <c r="C112" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D112" t="s" s="0">
+      <c r="C112" t="s">
+        <v>24</v>
+      </c>
+      <c r="D112" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A113" t="s" s="0">
+      <c r="A113" t="s">
         <v>216</v>
       </c>
-      <c r="B113" t="s" s="0">
+      <c r="B113" t="s">
         <v>7</v>
       </c>
-      <c r="C113" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D113" t="s" s="0">
+      <c r="C113" t="s">
+        <v>24</v>
+      </c>
+      <c r="D113" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A114" t="s" s="0">
+      <c r="A114" t="s">
         <v>218</v>
       </c>
-      <c r="B114" t="s" s="0">
+      <c r="B114" t="s">
         <v>7</v>
       </c>
-      <c r="C114" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D114" t="s" s="0">
+      <c r="C114" t="s">
+        <v>24</v>
+      </c>
+      <c r="D114" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A115" t="s" s="0">
+      <c r="A115" t="s">
         <v>220</v>
       </c>
-      <c r="B115" t="s" s="0">
+      <c r="B115" t="s">
         <v>7</v>
       </c>
-      <c r="C115" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="D115" t="s" s="0">
+      <c r="C115" t="s">
+        <v>27</v>
+      </c>
+      <c r="D115" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A116" t="s" s="0">
+      <c r="A116" t="s">
         <v>222</v>
       </c>
-      <c r="B116" t="s" s="0">
+      <c r="B116" t="s">
         <v>7</v>
       </c>
-      <c r="C116" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="D116" t="s" s="0">
+      <c r="C116" t="s">
+        <v>27</v>
+      </c>
+      <c r="D116" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A117" t="s" s="0">
+      <c r="A117" t="s">
         <v>224</v>
       </c>
-      <c r="B117" t="s" s="0">
+      <c r="B117" t="s">
         <v>7</v>
       </c>
-      <c r="C117" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D117" t="s" s="0">
+      <c r="C117" t="s">
+        <v>24</v>
+      </c>
+      <c r="D117" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A118" t="s" s="0">
+      <c r="A118" t="s">
         <v>226</v>
       </c>
-      <c r="B118" t="s" s="0">
+      <c r="B118" t="s">
         <v>7</v>
       </c>
-      <c r="C118" t="s" s="0">
+      <c r="C118" t="s">
         <v>37</v>
       </c>
-      <c r="D118" t="s" s="0">
+      <c r="D118" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A119" t="s" s="0">
+      <c r="A119" t="s">
         <v>228</v>
       </c>
-      <c r="B119" t="s" s="0">
+      <c r="B119" t="s">
         <v>7</v>
       </c>
-      <c r="C119" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D119" t="s" s="0">
+      <c r="C119" t="s">
+        <v>24</v>
+      </c>
+      <c r="D119" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A120" t="s" s="0">
+      <c r="A120" t="s">
         <v>230</v>
       </c>
-      <c r="B120" t="s" s="0">
+      <c r="B120" t="s">
         <v>7</v>
       </c>
-      <c r="C120" t="s" s="0">
+      <c r="C120" t="s">
         <v>37</v>
       </c>
-      <c r="D120" t="s" s="0">
+      <c r="D120" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A121" t="s" s="0">
+      <c r="A121" t="s">
         <v>232</v>
       </c>
-      <c r="B121" t="s" s="0">
+      <c r="B121" t="s">
         <v>7</v>
       </c>
-      <c r="C121" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D121" t="s" s="0">
+      <c r="C121" t="s">
+        <v>24</v>
+      </c>
+      <c r="D121" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A122" t="s" s="0">
+      <c r="A122" t="s">
         <v>234</v>
       </c>
-      <c r="B122" t="s" s="0">
+      <c r="B122" t="s">
         <v>7</v>
       </c>
-      <c r="C122" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="D122" t="s" s="0">
+      <c r="C122" t="s">
+        <v>27</v>
+      </c>
+      <c r="D122" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A123" t="s" s="0">
+      <c r="A123" t="s">
         <v>236</v>
       </c>
-      <c r="B123" t="s" s="0">
+      <c r="B123" t="s">
         <v>7</v>
       </c>
-      <c r="C123" t="s" s="0">
+      <c r="C123" t="s">
         <v>37</v>
       </c>
-      <c r="D123" t="s" s="0">
+      <c r="D123" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A124" t="s" s="0">
+      <c r="A124" t="s">
         <v>238</v>
       </c>
-      <c r="B124" t="s" s="0">
+      <c r="B124" t="s">
         <v>7</v>
       </c>
-      <c r="C124" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D124" t="s" s="0">
+      <c r="C124" t="s">
+        <v>24</v>
+      </c>
+      <c r="D124" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A125" t="s" s="0">
+      <c r="A125" t="s">
         <v>240</v>
       </c>
-      <c r="B125" t="s" s="0">
+      <c r="B125" t="s">
         <v>7</v>
       </c>
-      <c r="C125" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D125" t="s" s="0">
+      <c r="C125" t="s">
+        <v>24</v>
+      </c>
+      <c r="D125" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A126" t="s" s="0">
+      <c r="A126" t="s">
         <v>242</v>
       </c>
-      <c r="B126" t="s" s="0">
+      <c r="B126" t="s">
         <v>7</v>
       </c>
-      <c r="C126" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D126" t="s" s="0">
+      <c r="C126" t="s">
+        <v>24</v>
+      </c>
+      <c r="D126" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A127" t="s" s="0">
+      <c r="A127" t="s">
         <v>244</v>
       </c>
-      <c r="B127" t="s" s="0">
+      <c r="B127" t="s">
         <v>7</v>
       </c>
-      <c r="C127" t="s" s="0">
+      <c r="C127" t="s">
         <v>37</v>
       </c>
-      <c r="D127" t="s" s="0">
+      <c r="D127" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A128" t="s" s="0">
+      <c r="A128" t="s">
         <v>246</v>
       </c>
-      <c r="B128" t="s" s="0">
+      <c r="B128" t="s">
         <v>7</v>
       </c>
-      <c r="C128" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D128" t="s" s="0">
+      <c r="C128" t="s">
+        <v>24</v>
+      </c>
+      <c r="D128" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A129" t="s" s="0">
+      <c r="A129" t="s">
         <v>248</v>
       </c>
-      <c r="B129" t="s" s="0">
+      <c r="B129" t="s">
         <v>7</v>
       </c>
-      <c r="C129" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="D129" t="s" s="0">
+      <c r="C129" t="s">
+        <v>27</v>
+      </c>
+      <c r="D129" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A130" t="s" s="0">
+      <c r="A130" t="s">
         <v>250</v>
       </c>
-      <c r="B130" t="s" s="0">
+      <c r="B130" t="s">
         <v>7</v>
       </c>
-      <c r="C130" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="D130" t="s" s="0">
+      <c r="C130" t="s">
+        <v>27</v>
+      </c>
+      <c r="D130" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A131" t="s" s="0">
+      <c r="A131" t="s">
         <v>252</v>
       </c>
-      <c r="B131" t="s" s="0">
+      <c r="B131" t="s">
         <v>7</v>
       </c>
-      <c r="C131" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D131" t="s" s="0">
+      <c r="C131" t="s">
+        <v>24</v>
+      </c>
+      <c r="D131" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A132" t="s" s="0">
+      <c r="A132" t="s">
         <v>254</v>
       </c>
-      <c r="B132" t="s" s="0">
+      <c r="B132" t="s">
         <v>7</v>
       </c>
-      <c r="C132" t="s" s="0">
+      <c r="C132" t="s">
         <v>37</v>
       </c>
-      <c r="D132" t="s" s="0">
+      <c r="D132" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A133" t="s" s="0">
+      <c r="A133" t="s">
         <v>256</v>
       </c>
-      <c r="B133" t="s" s="0">
+      <c r="B133" t="s">
         <v>7</v>
       </c>
-      <c r="C133" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="D133" t="s" s="0">
+      <c r="C133" t="s">
+        <v>27</v>
+      </c>
+      <c r="D133" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A134" t="s" s="0">
+      <c r="A134" t="s">
         <v>258</v>
       </c>
-      <c r="B134" t="s" s="0">
+      <c r="B134" t="s">
         <v>7</v>
       </c>
-      <c r="C134" t="s" s="0">
+      <c r="C134" t="s">
         <v>37</v>
       </c>
-      <c r="D134" t="s" s="0">
+      <c r="D134" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A135" t="s" s="0">
+      <c r="A135" t="s">
         <v>260</v>
       </c>
-      <c r="B135" t="s" s="0">
+      <c r="B135" t="s">
         <v>7</v>
       </c>
-      <c r="C135" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D135" t="s" s="0">
+      <c r="C135" t="s">
+        <v>24</v>
+      </c>
+      <c r="D135" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A136" t="s" s="0">
+      <c r="A136" t="s">
         <v>262</v>
       </c>
-      <c r="B136" t="s" s="0">
+      <c r="B136" t="s">
         <v>7</v>
       </c>
-      <c r="C136" t="s" s="0">
+      <c r="C136" t="s">
         <v>37</v>
       </c>
-      <c r="D136" t="s" s="0">
+      <c r="D136" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A137" t="s" s="0">
+      <c r="A137" t="s">
         <v>264</v>
       </c>
-      <c r="B137" t="s" s="0">
+      <c r="B137" t="s">
         <v>7</v>
       </c>
-      <c r="C137" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D137" t="s" s="0">
+      <c r="C137" t="s">
+        <v>24</v>
+      </c>
+      <c r="D137" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A138" t="s" s="0">
+      <c r="A138" t="s">
         <v>273</v>
       </c>
-      <c r="B138" t="s" s="0">
+      <c r="B138" t="s">
         <v>103</v>
       </c>
-      <c r="C138" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D138" t="s" s="0">
+      <c r="C138" t="s">
+        <v>24</v>
+      </c>
+      <c r="D138" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A139" t="s" s="0">
+      <c r="A139" t="s">
         <v>266</v>
       </c>
-      <c r="B139" t="s" s="0">
+      <c r="B139" t="s">
         <v>7</v>
       </c>
-      <c r="C139" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D139" t="s" s="0">
+      <c r="C139" t="s">
+        <v>24</v>
+      </c>
+      <c r="D139" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A140" t="s" s="0">
+      <c r="A140" t="s">
         <v>268</v>
       </c>
-      <c r="B140" t="s" s="0">
+      <c r="B140" t="s">
         <v>7</v>
       </c>
-      <c r="C140" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D140" t="s" s="0">
+      <c r="C140" t="s">
+        <v>24</v>
+      </c>
+      <c r="D140" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A141" t="s" s="0">
+      <c r="A141" t="s">
         <v>270</v>
       </c>
-      <c r="B141" t="s" s="0">
+      <c r="B141" t="s">
         <v>103</v>
       </c>
-      <c r="C141" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D141" t="s" s="0">
+      <c r="C141" t="s">
+        <v>24</v>
+      </c>
+      <c r="D141" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A142" t="s" s="0">
+      <c r="A142" t="s">
         <v>282</v>
       </c>
-      <c r="B142" t="s" s="0">
+      <c r="B142" t="s">
         <v>281</v>
       </c>
-      <c r="C142" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="D142" t="s" s="0">
+      <c r="C142" t="s">
+        <v>27</v>
+      </c>
+      <c r="D142" t="s">
         <v>283</v>
       </c>
-      <c r="E142" t="s" s="0">
+      <c r="E142" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A143" t="s" s="0">
+      <c r="A143" t="s">
         <v>284</v>
       </c>
-      <c r="B143" t="s" s="0">
+      <c r="B143" t="s">
         <v>281</v>
       </c>
-      <c r="C143" t="s" s="0">
+      <c r="C143" t="s">
         <v>32</v>
       </c>
-      <c r="D143" t="s" s="0">
+      <c r="D143" t="s">
         <v>285</v>
       </c>
-      <c r="E143" t="s" s="0">
+      <c r="E143" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A144" t="s" s="0">
+      <c r="A144" t="s">
         <v>292</v>
       </c>
-      <c r="B144" t="s" s="0">
+      <c r="B144" t="s">
         <v>281</v>
       </c>
-      <c r="C144" t="s" s="0">
+      <c r="C144" t="s">
         <v>24</v>
       </c>
       <c r="D144" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E144" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
         <v>295</v>
       </c>
-      <c r="E144" t="s" s="0">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A145" t="s" s="0">
+      <c r="B145" t="s">
+        <v>18</v>
+      </c>
+      <c r="C145" t="s">
+        <v>27</v>
+      </c>
+      <c r="D145" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B145" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="C145" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="s" s="0">
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>298</v>
+      </c>
+      <c r="B146" t="s">
+        <v>297</v>
+      </c>
+      <c r="C146" t="s">
+        <v>37</v>
+      </c>
+      <c r="D146" t="s">
         <v>299</v>
       </c>
-      <c r="B146" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="C146" t="s" s="0">
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>300</v>
+      </c>
+      <c r="B147" t="s">
+        <v>297</v>
+      </c>
+      <c r="C147" t="s">
+        <v>32</v>
+      </c>
+      <c r="D147" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>302</v>
+      </c>
+      <c r="B148" t="s">
+        <v>297</v>
+      </c>
+      <c r="C148" t="s">
+        <v>27</v>
+      </c>
+      <c r="D148" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>304</v>
+      </c>
+      <c r="B149" t="s">
+        <v>297</v>
+      </c>
+      <c r="C149" t="s">
+        <v>24</v>
+      </c>
+      <c r="D149" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>306</v>
+      </c>
+      <c r="B150" t="s">
+        <v>297</v>
+      </c>
+      <c r="C150" t="s">
+        <v>27</v>
+      </c>
+      <c r="D150" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>308</v>
+      </c>
+      <c r="B151" t="s">
+        <v>297</v>
+      </c>
+      <c r="C151" t="s">
+        <v>27</v>
+      </c>
+      <c r="D151" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>310</v>
+      </c>
+      <c r="B152" t="s">
+        <v>297</v>
+      </c>
+      <c r="C152" t="s">
+        <v>32</v>
+      </c>
+      <c r="D152" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>312</v>
+      </c>
+      <c r="B153" t="s">
+        <v>297</v>
+      </c>
+      <c r="C153" t="s">
+        <v>27</v>
+      </c>
+      <c r="D153" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>314</v>
+      </c>
+      <c r="B154" t="s">
+        <v>297</v>
+      </c>
+      <c r="C154" t="s">
+        <v>27</v>
+      </c>
+      <c r="D154" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>316</v>
+      </c>
+      <c r="B155" t="s">
+        <v>297</v>
+      </c>
+      <c r="C155" t="s">
+        <v>32</v>
+      </c>
+      <c r="D155" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>318</v>
+      </c>
+      <c r="B156" t="s">
+        <v>297</v>
+      </c>
+      <c r="C156" t="s">
+        <v>24</v>
+      </c>
+      <c r="D156" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>320</v>
+      </c>
+      <c r="B157" t="s">
+        <v>297</v>
+      </c>
+      <c r="C157" t="s">
+        <v>32</v>
+      </c>
+      <c r="D157" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>322</v>
+      </c>
+      <c r="B158" t="s">
+        <v>297</v>
+      </c>
+      <c r="C158" t="s">
+        <v>27</v>
+      </c>
+      <c r="D158" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>324</v>
+      </c>
+      <c r="B159" t="s">
+        <v>297</v>
+      </c>
+      <c r="C159" t="s">
+        <v>32</v>
+      </c>
+      <c r="D159" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>326</v>
+      </c>
+      <c r="B160" t="s">
+        <v>297</v>
+      </c>
+      <c r="C160" t="s">
         <v>37</v>
       </c>
-      <c r="D146" t="s" s="0">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="s" s="0">
-        <v>301</v>
-      </c>
-      <c r="B147" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="C147" t="s" s="0">
+      <c r="D160" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>328</v>
+      </c>
+      <c r="B161" t="s">
+        <v>297</v>
+      </c>
+      <c r="C161" t="s">
+        <v>27</v>
+      </c>
+      <c r="D161" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>330</v>
+      </c>
+      <c r="B162" t="s">
+        <v>297</v>
+      </c>
+      <c r="C162" t="s">
+        <v>37</v>
+      </c>
+      <c r="D162" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>332</v>
+      </c>
+      <c r="B163" t="s">
+        <v>297</v>
+      </c>
+      <c r="C163" t="s">
+        <v>27</v>
+      </c>
+      <c r="D163" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>334</v>
+      </c>
+      <c r="B164" t="s">
+        <v>297</v>
+      </c>
+      <c r="C164" t="s">
         <v>32</v>
       </c>
-      <c r="D147" t="s" s="0">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="s" s="0">
-        <v>303</v>
-      </c>
-      <c r="B148" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="C148" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="D148" t="s" s="0">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="s" s="0">
-        <v>305</v>
-      </c>
-      <c r="B149" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="C149" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D149" t="s" s="0">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="s" s="0">
-        <v>307</v>
-      </c>
-      <c r="B150" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="C150" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="D150" t="s" s="0">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="s" s="0">
+      <c r="D164" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>336</v>
+      </c>
+      <c r="B165" t="s">
+        <v>297</v>
+      </c>
+      <c r="C165" t="s">
+        <v>32</v>
+      </c>
+      <c r="D165" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>338</v>
+      </c>
+      <c r="B166" t="s">
+        <v>297</v>
+      </c>
+      <c r="C166" t="s">
+        <v>32</v>
+      </c>
+      <c r="D166" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>340</v>
+      </c>
+      <c r="B167" t="s">
+        <v>297</v>
+      </c>
+      <c r="C167" t="s">
+        <v>32</v>
+      </c>
+      <c r="D167" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>342</v>
+      </c>
+      <c r="B168" t="s">
+        <v>297</v>
+      </c>
+      <c r="C168" t="s">
+        <v>32</v>
+      </c>
+      <c r="D168" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>344</v>
+      </c>
+      <c r="B169" t="s">
+        <v>297</v>
+      </c>
+      <c r="C169" t="s">
+        <v>32</v>
+      </c>
+      <c r="D169" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>346</v>
+      </c>
+      <c r="B170" t="s">
+        <v>297</v>
+      </c>
+      <c r="C170" t="s">
+        <v>27</v>
+      </c>
+      <c r="D170" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>348</v>
+      </c>
+      <c r="B171" t="s">
+        <v>297</v>
+      </c>
+      <c r="C171" t="s">
+        <v>32</v>
+      </c>
+      <c r="D171" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>350</v>
+      </c>
+      <c r="B172" t="s">
+        <v>297</v>
+      </c>
+      <c r="C172" t="s">
+        <v>32</v>
+      </c>
+      <c r="D172" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>352</v>
+      </c>
+      <c r="B173" t="s">
+        <v>297</v>
+      </c>
+      <c r="C173" t="s">
+        <v>27</v>
+      </c>
+      <c r="D173" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>354</v>
+      </c>
+      <c r="B174" t="s">
+        <v>297</v>
+      </c>
+      <c r="C174" t="s">
+        <v>27</v>
+      </c>
+      <c r="D174" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>356</v>
+      </c>
+      <c r="B175" t="s">
+        <v>297</v>
+      </c>
+      <c r="C175" t="s">
+        <v>32</v>
+      </c>
+      <c r="D175" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>358</v>
+      </c>
+      <c r="B176" t="s">
+        <v>297</v>
+      </c>
+      <c r="C176" t="s">
+        <v>37</v>
+      </c>
+      <c r="D176" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>360</v>
+      </c>
+      <c r="B177" t="s">
+        <v>297</v>
+      </c>
+      <c r="C177" t="s">
+        <v>24</v>
+      </c>
+      <c r="D177" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>362</v>
+      </c>
+      <c r="B178" t="s">
+        <v>297</v>
+      </c>
+      <c r="C178" t="s">
+        <v>37</v>
+      </c>
+      <c r="D178" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>364</v>
+      </c>
+      <c r="B179" t="s">
+        <v>297</v>
+      </c>
+      <c r="C179" t="s">
+        <v>27</v>
+      </c>
+      <c r="D179" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>366</v>
+      </c>
+      <c r="B180" t="s">
+        <v>297</v>
+      </c>
+      <c r="C180" t="s">
+        <v>27</v>
+      </c>
+      <c r="D180" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>368</v>
+      </c>
+      <c r="B181" t="s">
+        <v>297</v>
+      </c>
+      <c r="C181" t="s">
+        <v>32</v>
+      </c>
+      <c r="D181" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>370</v>
+      </c>
+      <c r="B182" t="s">
+        <v>297</v>
+      </c>
+      <c r="C182" t="s">
+        <v>24</v>
+      </c>
+      <c r="D182" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>372</v>
+      </c>
+      <c r="B183" t="s">
+        <v>297</v>
+      </c>
+      <c r="C183" t="s">
+        <v>24</v>
+      </c>
+      <c r="D183" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>374</v>
+      </c>
+      <c r="B184" t="s">
+        <v>297</v>
+      </c>
+      <c r="C184" t="s">
+        <v>24</v>
+      </c>
+      <c r="D184" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>376</v>
+      </c>
+      <c r="B185" t="s">
+        <v>297</v>
+      </c>
+      <c r="C185" t="s">
+        <v>27</v>
+      </c>
+      <c r="D185" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>378</v>
+      </c>
+      <c r="B186" t="s">
+        <v>297</v>
+      </c>
+      <c r="C186" t="s">
+        <v>32</v>
+      </c>
+      <c r="D186" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
+        <v>380</v>
+      </c>
+      <c r="B187" t="s">
+        <v>297</v>
+      </c>
+      <c r="C187" t="s">
+        <v>37</v>
+      </c>
+      <c r="D187" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>382</v>
+      </c>
+      <c r="B188" t="s">
+        <v>297</v>
+      </c>
+      <c r="C188" t="s">
+        <v>32</v>
+      </c>
+      <c r="D188" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>384</v>
+      </c>
+      <c r="B189" t="s">
+        <v>297</v>
+      </c>
+      <c r="C189" t="s">
+        <v>24</v>
+      </c>
+      <c r="D189" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
+        <v>386</v>
+      </c>
+      <c r="B190" t="s">
+        <v>297</v>
+      </c>
+      <c r="C190" t="s">
+        <v>24</v>
+      </c>
+      <c r="D190" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>388</v>
+      </c>
+      <c r="B191" t="s">
+        <v>297</v>
+      </c>
+      <c r="C191" t="s">
+        <v>37</v>
+      </c>
+      <c r="D191" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>390</v>
+      </c>
+      <c r="B192" t="s">
+        <v>297</v>
+      </c>
+      <c r="C192" t="s">
+        <v>32</v>
+      </c>
+      <c r="D192" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>392</v>
+      </c>
+      <c r="B193" t="s">
+        <v>297</v>
+      </c>
+      <c r="C193" t="s">
+        <v>32</v>
+      </c>
+      <c r="D193" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>394</v>
+      </c>
+      <c r="B194" t="s">
+        <v>297</v>
+      </c>
+      <c r="C194" t="s">
+        <v>27</v>
+      </c>
+      <c r="D194" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>396</v>
+      </c>
+      <c r="B195" t="s">
+        <v>297</v>
+      </c>
+      <c r="C195" t="s">
+        <v>32</v>
+      </c>
+      <c r="D195" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>398</v>
+      </c>
+      <c r="B196" t="s">
+        <v>297</v>
+      </c>
+      <c r="C196" t="s">
+        <v>32</v>
+      </c>
+      <c r="D196" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>400</v>
+      </c>
+      <c r="B197" t="s">
+        <v>297</v>
+      </c>
+      <c r="C197" t="s">
+        <v>37</v>
+      </c>
+      <c r="D197" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>402</v>
+      </c>
+      <c r="B198" t="s">
+        <v>297</v>
+      </c>
+      <c r="C198" t="s">
+        <v>27</v>
+      </c>
+      <c r="D198" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>324</v>
+      </c>
+      <c r="B199" t="s">
+        <v>297</v>
+      </c>
+      <c r="C199" t="s">
+        <v>37</v>
+      </c>
+      <c r="D199" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>405</v>
+      </c>
+      <c r="B200" t="s">
+        <v>297</v>
+      </c>
+      <c r="C200" t="s">
+        <v>32</v>
+      </c>
+      <c r="D200" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>407</v>
+      </c>
+      <c r="B201" t="s">
+        <v>297</v>
+      </c>
+      <c r="C201" t="s">
+        <v>32</v>
+      </c>
+      <c r="D201" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>409</v>
+      </c>
+      <c r="B202" t="s">
+        <v>297</v>
+      </c>
+      <c r="C202" t="s">
+        <v>32</v>
+      </c>
+      <c r="D202" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>411</v>
+      </c>
+      <c r="B203" t="s">
+        <v>297</v>
+      </c>
+      <c r="C203" t="s">
+        <v>32</v>
+      </c>
+      <c r="D203" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>413</v>
+      </c>
+      <c r="B204" t="s">
+        <v>297</v>
+      </c>
+      <c r="C204" t="s">
+        <v>24</v>
+      </c>
+      <c r="D204" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>415</v>
+      </c>
+      <c r="B205" t="s">
+        <v>297</v>
+      </c>
+      <c r="C205" t="s">
+        <v>37</v>
+      </c>
+      <c r="D205" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
+        <v>417</v>
+      </c>
+      <c r="B206" t="s">
+        <v>297</v>
+      </c>
+      <c r="C206" t="s">
+        <v>32</v>
+      </c>
+      <c r="D206" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>419</v>
+      </c>
+      <c r="B207" t="s">
+        <v>297</v>
+      </c>
+      <c r="C207" t="s">
+        <v>27</v>
+      </c>
+      <c r="D207" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
+        <v>421</v>
+      </c>
+      <c r="B208" t="s">
+        <v>297</v>
+      </c>
+      <c r="C208" t="s">
+        <v>24</v>
+      </c>
+      <c r="D208" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
+        <v>423</v>
+      </c>
+      <c r="B209" t="s">
+        <v>297</v>
+      </c>
+      <c r="C209" t="s">
+        <v>24</v>
+      </c>
+      <c r="D209" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
+        <v>425</v>
+      </c>
+      <c r="B210" t="s">
+        <v>297</v>
+      </c>
+      <c r="C210" t="s">
+        <v>32</v>
+      </c>
+      <c r="D210" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
+        <v>427</v>
+      </c>
+      <c r="B211" t="s">
+        <v>297</v>
+      </c>
+      <c r="C211" t="s">
+        <v>32</v>
+      </c>
+      <c r="D211" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
+        <v>429</v>
+      </c>
+      <c r="B212" t="s">
+        <v>297</v>
+      </c>
+      <c r="C212" t="s">
+        <v>27</v>
+      </c>
+      <c r="D212" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
+        <v>431</v>
+      </c>
+      <c r="B213" t="s">
+        <v>297</v>
+      </c>
+      <c r="C213" t="s">
+        <v>32</v>
+      </c>
+      <c r="D213" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A214" t="s">
+        <v>433</v>
+      </c>
+      <c r="B214" t="s">
+        <v>297</v>
+      </c>
+      <c r="C214" t="s">
+        <v>24</v>
+      </c>
+      <c r="D214" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A215" t="s">
+        <v>435</v>
+      </c>
+      <c r="B215" t="s">
+        <v>297</v>
+      </c>
+      <c r="C215" t="s">
+        <v>32</v>
+      </c>
+      <c r="D215" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A216" t="s">
+        <v>437</v>
+      </c>
+      <c r="B216" t="s">
+        <v>297</v>
+      </c>
+      <c r="C216" t="s">
+        <v>32</v>
+      </c>
+      <c r="D216" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A217" t="s">
+        <v>439</v>
+      </c>
+      <c r="B217" t="s">
+        <v>297</v>
+      </c>
+      <c r="C217" t="s">
+        <v>24</v>
+      </c>
+      <c r="D217" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A218" t="s">
+        <v>441</v>
+      </c>
+      <c r="B218" t="s">
+        <v>297</v>
+      </c>
+      <c r="C218" t="s">
+        <v>32</v>
+      </c>
+      <c r="D218" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A219" t="s">
+        <v>443</v>
+      </c>
+      <c r="B219" t="s">
+        <v>297</v>
+      </c>
+      <c r="C219" t="s">
+        <v>27</v>
+      </c>
+      <c r="D219" t="s">
         <v>309</v>
       </c>
-      <c r="B151" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="C151" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="D151" t="s" s="0">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="s" s="0">
-        <v>311</v>
-      </c>
-      <c r="B152" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="C152" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D152" t="s" s="0">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="s" s="0">
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A220" t="s">
+        <v>444</v>
+      </c>
+      <c r="B220" t="s">
+        <v>297</v>
+      </c>
+      <c r="C220" t="s">
+        <v>24</v>
+      </c>
+      <c r="D220" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A221" t="s">
+        <v>446</v>
+      </c>
+      <c r="B221" t="s">
+        <v>297</v>
+      </c>
+      <c r="C221" t="s">
+        <v>27</v>
+      </c>
+      <c r="D221" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A222" t="s">
+        <v>448</v>
+      </c>
+      <c r="B222" t="s">
+        <v>297</v>
+      </c>
+      <c r="C222" t="s">
+        <v>24</v>
+      </c>
+      <c r="D222" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A223" t="s">
+        <v>450</v>
+      </c>
+      <c r="B223" t="s">
+        <v>297</v>
+      </c>
+      <c r="C223" t="s">
+        <v>37</v>
+      </c>
+      <c r="D223" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A224" t="s">
+        <v>452</v>
+      </c>
+      <c r="B224" t="s">
+        <v>297</v>
+      </c>
+      <c r="C224" t="s">
+        <v>27</v>
+      </c>
+      <c r="D224" t="s">
         <v>313</v>
       </c>
-      <c r="B153" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="C153" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="D153" t="s" s="0">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="s" s="0">
-        <v>315</v>
-      </c>
-      <c r="B154" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="C154" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="D154" t="s" s="0">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="s" s="0">
-        <v>317</v>
-      </c>
-      <c r="B155" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="C155" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D155" t="s" s="0">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="s" s="0">
-        <v>319</v>
-      </c>
-      <c r="B156" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="C156" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D156" t="s" s="0">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="s" s="0">
-        <v>321</v>
-      </c>
-      <c r="B157" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="C157" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D157" t="s" s="0">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="s" s="0">
-        <v>323</v>
-      </c>
-      <c r="B158" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="C158" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="D158" t="s" s="0">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="s" s="0">
-        <v>325</v>
-      </c>
-      <c r="B159" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="C159" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D159" t="s" s="0">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="s" s="0">
-        <v>327</v>
-      </c>
-      <c r="B160" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="C160" t="s" s="0">
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
+        <v>453</v>
+      </c>
+      <c r="B225" t="s">
+        <v>297</v>
+      </c>
+      <c r="C225" t="s">
         <v>37</v>
       </c>
-      <c r="D160" t="s" s="0">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="s" s="0">
-        <v>329</v>
-      </c>
-      <c r="B161" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="C161" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="D161" t="s" s="0">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="s" s="0">
-        <v>331</v>
-      </c>
-      <c r="B162" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="C162" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="D162" t="s" s="0">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="s" s="0">
-        <v>333</v>
-      </c>
-      <c r="B163" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="C163" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="D163" t="s" s="0">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="s" s="0">
-        <v>335</v>
-      </c>
-      <c r="B164" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="C164" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D164" t="s" s="0">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="s" s="0">
-        <v>337</v>
-      </c>
-      <c r="B165" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="C165" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D165" t="s" s="0">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="s" s="0">
-        <v>339</v>
-      </c>
-      <c r="B166" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="C166" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D166" t="s" s="0">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="s" s="0">
-        <v>341</v>
-      </c>
-      <c r="B167" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="C167" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D167" t="s" s="0">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="s" s="0">
-        <v>343</v>
-      </c>
-      <c r="B168" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="C168" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D168" t="s" s="0">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="s" s="0">
-        <v>345</v>
-      </c>
-      <c r="B169" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="C169" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D169" t="s" s="0">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="s" s="0">
-        <v>347</v>
-      </c>
-      <c r="B170" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="C170" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="D170" t="s" s="0">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="s" s="0">
-        <v>349</v>
-      </c>
-      <c r="B171" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="C171" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D171" t="s" s="0">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="s" s="0">
-        <v>351</v>
-      </c>
-      <c r="B172" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="C172" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D172" t="s" s="0">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="s" s="0">
-        <v>353</v>
-      </c>
-      <c r="B173" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="C173" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="D173" t="s" s="0">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="s" s="0">
-        <v>355</v>
-      </c>
-      <c r="B174" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="C174" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="D174" t="s" s="0">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="s" s="0">
-        <v>357</v>
-      </c>
-      <c r="B175" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="C175" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D175" t="s" s="0">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="s" s="0">
-        <v>359</v>
-      </c>
-      <c r="B176" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="C176" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="D176" t="s" s="0">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="s" s="0">
-        <v>361</v>
-      </c>
-      <c r="B177" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="C177" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D177" t="s" s="0">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="s" s="0">
-        <v>363</v>
-      </c>
-      <c r="B178" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="C178" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="D178" t="s" s="0">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="s" s="0">
-        <v>365</v>
-      </c>
-      <c r="B179" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="C179" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="D179" t="s" s="0">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="s" s="0">
-        <v>367</v>
-      </c>
-      <c r="B180" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="C180" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="D180" t="s" s="0">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="s" s="0">
-        <v>369</v>
-      </c>
-      <c r="B181" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="C181" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D181" t="s" s="0">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="s" s="0">
-        <v>371</v>
-      </c>
-      <c r="B182" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="C182" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D182" t="s" s="0">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="s" s="0">
-        <v>373</v>
-      </c>
-      <c r="B183" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="C183" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D183" t="s" s="0">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="s" s="0">
-        <v>375</v>
-      </c>
-      <c r="B184" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="C184" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D184" t="s" s="0">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="s" s="0">
-        <v>377</v>
-      </c>
-      <c r="B185" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="C185" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="D185" t="s" s="0">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="s" s="0">
-        <v>379</v>
-      </c>
-      <c r="B186" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="C186" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D186" t="s" s="0">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="s" s="0">
-        <v>381</v>
-      </c>
-      <c r="B187" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="C187" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="D187" t="s" s="0">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="s" s="0">
-        <v>383</v>
-      </c>
-      <c r="B188" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="C188" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D188" t="s" s="0">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="s" s="0">
-        <v>385</v>
-      </c>
-      <c r="B189" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="C189" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D189" t="s" s="0">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="s" s="0">
-        <v>387</v>
-      </c>
-      <c r="B190" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="C190" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D190" t="s" s="0">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="s" s="0">
-        <v>389</v>
-      </c>
-      <c r="B191" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="C191" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="D191" t="s" s="0">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="s" s="0">
-        <v>391</v>
-      </c>
-      <c r="B192" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="C192" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D192" t="s" s="0">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="s" s="0">
-        <v>393</v>
-      </c>
-      <c r="B193" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="C193" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D193" t="s" s="0">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="s" s="0">
-        <v>395</v>
-      </c>
-      <c r="B194" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="C194" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="D194" t="s" s="0">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="s" s="0">
-        <v>397</v>
-      </c>
-      <c r="B195" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="C195" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D195" t="s" s="0">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="s" s="0">
-        <v>399</v>
-      </c>
-      <c r="B196" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="C196" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D196" t="s" s="0">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="s" s="0">
-        <v>401</v>
-      </c>
-      <c r="B197" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="C197" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="D197" t="s" s="0">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="s" s="0">
-        <v>403</v>
-      </c>
-      <c r="B198" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="C198" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="D198" t="s" s="0">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="s" s="0">
-        <v>325</v>
-      </c>
-      <c r="B199" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="C199" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="D199" t="s" s="0">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="s" s="0">
-        <v>406</v>
-      </c>
-      <c r="B200" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="C200" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D200" t="s" s="0">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="s" s="0">
-        <v>408</v>
-      </c>
-      <c r="B201" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="C201" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D201" t="s" s="0">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="s" s="0">
-        <v>410</v>
-      </c>
-      <c r="B202" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="C202" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D202" t="s" s="0">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="s" s="0">
-        <v>412</v>
-      </c>
-      <c r="B203" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="C203" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D203" t="s" s="0">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="s" s="0">
-        <v>414</v>
-      </c>
-      <c r="B204" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="C204" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D204" t="s" s="0">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="s" s="0">
-        <v>416</v>
-      </c>
-      <c r="B205" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="C205" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="D205" t="s" s="0">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="s" s="0">
-        <v>418</v>
-      </c>
-      <c r="B206" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="C206" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D206" t="s" s="0">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="s" s="0">
-        <v>420</v>
-      </c>
-      <c r="B207" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="C207" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="D207" t="s" s="0">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="s" s="0">
-        <v>422</v>
-      </c>
-      <c r="B208" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="C208" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D208" t="s" s="0">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="s" s="0">
-        <v>424</v>
-      </c>
-      <c r="B209" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="C209" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D209" t="s" s="0">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="s" s="0">
-        <v>426</v>
-      </c>
-      <c r="B210" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="C210" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D210" t="s" s="0">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="s" s="0">
-        <v>428</v>
-      </c>
-      <c r="B211" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="C211" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D211" t="s" s="0">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="s" s="0">
-        <v>430</v>
-      </c>
-      <c r="B212" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="C212" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="D212" t="s" s="0">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="s" s="0">
-        <v>432</v>
-      </c>
-      <c r="B213" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="C213" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D213" t="s" s="0">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="s" s="0">
-        <v>434</v>
-      </c>
-      <c r="B214" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="C214" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D214" t="s" s="0">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="s" s="0">
-        <v>436</v>
-      </c>
-      <c r="B215" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="C215" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D215" t="s" s="0">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="s" s="0">
-        <v>438</v>
-      </c>
-      <c r="B216" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="C216" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D216" t="s" s="0">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="s" s="0">
-        <v>440</v>
-      </c>
-      <c r="B217" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="C217" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D217" t="s" s="0">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="s" s="0">
-        <v>442</v>
-      </c>
-      <c r="B218" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="C218" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D218" t="s" s="0">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="s" s="0">
-        <v>444</v>
-      </c>
-      <c r="B219" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="C219" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="D219" t="s" s="0">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="s" s="0">
-        <v>445</v>
-      </c>
-      <c r="B220" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="C220" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D220" t="s" s="0">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="s" s="0">
-        <v>447</v>
-      </c>
-      <c r="B221" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="C221" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="D221" t="s" s="0">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="s" s="0">
-        <v>449</v>
-      </c>
-      <c r="B222" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="C222" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D222" t="s" s="0">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="s" s="0">
-        <v>451</v>
-      </c>
-      <c r="B223" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="C223" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="D223" t="s" s="0">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="s" s="0">
-        <v>453</v>
-      </c>
-      <c r="B224" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="C224" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="D224" t="s" s="0">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="s" s="0">
+      <c r="D225" t="s">
         <v>454</v>
       </c>
-      <c r="B225" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="C225" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="D225" t="s" s="0">
-        <v>455</v>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A226" t="s">
+        <v>457</v>
+      </c>
+      <c r="B226" t="s">
+        <v>456</v>
+      </c>
+      <c r="C226" t="s">
+        <v>24</v>
+      </c>
+      <c r="D226" t="s">
+        <v>458</v>
+      </c>
+      <c r="E226" t="s">
+        <v>459</v>
       </c>
     </row>
   </sheetData>
@@ -5472,7 +5516,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7375D0D9-A088-4E33-84C0-F60360358F66}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
@@ -5480,199 +5524,207 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="66.1796875"/>
+    <col min="1" max="1" width="66.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="0" t="n">
-        <v>272.0</v>
+      <c r="B1">
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="0">
+      <c r="B2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="0">
-        <v>90</v>
+      <c r="B3">
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="0">
+      <c r="B4">
         <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s" s="0">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="0">
+      <c r="B5">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s" s="0">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="0">
+      <c r="B6">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s" s="0">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="0">
+      <c r="B7">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s" s="0">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="0">
+      <c r="B8">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s" s="0">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="0">
+      <c r="B9">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s" s="0">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="0">
+      <c r="B10">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s" s="0">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="0">
+      <c r="B11">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s" s="0">
+      <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="0">
+      <c r="B12">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s" s="0">
+      <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="0">
+      <c r="B13">
         <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s" s="0">
+      <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="0">
+      <c r="B14">
         <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s" s="0">
+      <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="0">
+      <c r="B15">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s" s="0">
+      <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="0">
+      <c r="B16">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s" s="0">
+      <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="0">
+      <c r="B17">
         <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s" s="0">
+      <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="0">
+      <c r="B18">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s" s="0">
+      <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="0">
+      <c r="B19">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s" s="0">
+      <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="0">
+      <c r="B20">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s" s="0">
+      <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="0">
+      <c r="B21">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s" s="0">
+      <c r="A22" t="s">
         <v>103</v>
       </c>
-      <c r="B22" s="0">
+      <c r="B22">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s" s="0">
+      <c r="A23" t="s">
         <v>281</v>
       </c>
-      <c r="B23" s="0">
+      <c r="B23">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" t="s" s="0">
-        <v>298</v>
-      </c>
-      <c r="B24" s="0" t="n">
-        <v>105.0</v>
+      <c r="A24" t="s">
+        <v>297</v>
+      </c>
+      <c r="B24">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>456</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5682,97 +5734,117 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E57CE46-9D74-4C06-8F20-8319158C49B7}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.54296875"/>
-    <col min="2" max="2" customWidth="true" width="19.1796875"/>
-    <col min="3" max="3" customWidth="true" width="17.453125"/>
-    <col min="5" max="5" customWidth="true" width="38.81640625"/>
+    <col min="1" max="1" width="35.54296875" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" customWidth="1"/>
+    <col min="5" max="5" width="38.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="0">
+      <c r="D1">
         <v>2700</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>276</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>277</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>278</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>279</v>
       </c>
-      <c r="D2" s="0">
+      <c r="D2">
         <v>600</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="E2" t="s">
         <v>286</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="F2" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>289</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>278</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C3" t="s">
         <v>278</v>
       </c>
-      <c r="D3" s="0">
-        <v>600</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>456</v>
-      </c>
-      <c r="F3" t="s" s="0">
+      <c r="D3">
+        <v>60</v>
+      </c>
+      <c r="E3" t="s">
+        <v>455</v>
+      </c>
+      <c r="F3" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>290</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s">
         <v>278</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="C4" t="s">
         <v>278</v>
       </c>
-      <c r="D4" s="0">
+      <c r="D4">
         <v>10</v>
       </c>
-      <c r="E4" t="s" s="0">
+      <c r="E4" t="s">
         <v>291</v>
       </c>
-      <c r="F4" t="s" s="0">
+      <c r="F4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>460</v>
+      </c>
+      <c r="B5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C5" t="s">
+        <v>278</v>
+      </c>
+      <c r="D5">
+        <v>60</v>
+      </c>
+      <c r="E5" t="s">
+        <v>461</v>
+      </c>
+      <c r="F5" t="s">
         <v>275</v>
       </c>
     </row>

--- a/src/main/java/data/QuizTestAppData.xlsx
+++ b/src/main/java/data/QuizTestAppData.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="541">
   <si>
     <t>10-6-2023 12-00-00</t>
   </si>
@@ -2246,6 +2246,70 @@
   </si>
   <si>
     <t>,227,226,230,234,236,231,232,228,229,243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N
+P
+N
+N
+N
+N
+N
+N
+N
+N
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A, D, </t>
+  </si>
+  <si>
+    <t>A. Máy tính xách tay
+B. Máy tính để bàn
+C. Máy tính siêu việt
+D. Siêu máy tính</t>
+  </si>
+  <si>
+    <t>,123,124,125,126,127,128,112</t>
+  </si>
+  <si>
+    <t>,123,124,125,126,127,128,112,113</t>
+  </si>
+  <si>
+    <t>,125,124,113,126,123,128,127,112</t>
+  </si>
+  <si>
+    <t>,125,124,113,126,123,128,127,112,142</t>
+  </si>
+  <si>
+    <t>,65,81,61,63,60,62,55,64,80,90</t>
+  </si>
+  <si>
+    <t>,65,81,61,63,60,62,55,64,80,90,101</t>
+  </si>
+  <si>
+    <t>,65,81,61,63,60,62,55,64,80,90,101,85</t>
+  </si>
+  <si>
+    <t>,65,81,61,63,60,62,55,64,80,90,101,85,100</t>
+  </si>
+  <si>
+    <t>,65,81,61,63,60,62,55,64,80,90,101,85,100,109</t>
+  </si>
+  <si>
+    <t>,65,81,61,63,60,62,55,64,80,90,101,85,100,109,88</t>
+  </si>
+  <si>
+    <t>,65,81,61,63,60,62,55,64,80,90,101,85,100,109,88,87</t>
+  </si>
+  <si>
+    <t>,65,81,61,63,60,62,55,64,80,90,101,85,100,109,88,87,74</t>
+  </si>
+  <si>
+    <t>,65,81,61,63,60,62,55,64,80,90,101,85,100,109,88,87,74,143</t>
+  </si>
+  <si>
+    <t>,65,81,61,63,60,62,55,64,80,90,101,85,100,109,88,87,74,143,141</t>
   </si>
 </sst>
 </file>
@@ -4272,6 +4336,9 @@
       <c r="D120" t="s" s="0">
         <v>230</v>
       </c>
+      <c r="E120" t="s" s="0">
+        <v>524</v>
+      </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" t="s" s="0">
@@ -4323,10 +4390,10 @@
         <v>6</v>
       </c>
       <c r="C124" t="s" s="0">
-        <v>23</v>
+        <v>525</v>
       </c>
       <c r="D124" t="s" s="0">
-        <v>238</v>
+        <v>526</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
@@ -6090,8 +6157,8 @@
       <c r="A6" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B6" s="0">
-        <v>30</v>
+      <c r="B6" s="0" t="n">
+        <v>30.0</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -6305,7 +6372,7 @@
         <v>2700</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>275</v>
+        <v>530</v>
       </c>
       <c r="F1" t="s" s="0">
         <v>274</v>
@@ -6365,7 +6432,7 @@
         <v>10</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>290</v>
+        <v>540</v>
       </c>
       <c r="F4" t="s" s="0">
         <v>274</v>

--- a/src/main/java/data/QuizTestAppData.xlsx
+++ b/src/main/java/data/QuizTestAppData.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="243">
   <si>
     <t>root</t>
   </si>
@@ -542,6 +542,465 @@
   </si>
   <si>
     <t>,26,27,28,29,30,31,32,33,34,35,36</t>
+  </si>
+  <si>
+    <t>1. CPU thực hiện các phép tính số học như thế nào?</t>
+  </si>
+  <si>
+    <t>A. Dùng bộ nhớ cache.
+B. Sử dụng bộ nhớ RAM.
+C. Qua đơn vị điều khiển.
+D. Đơn vị ALU thực hiện.</t>
+  </si>
+  <si>
+    <t>2. Điểm chung giữa bộ nhớ RAM và ROM là gì?</t>
+  </si>
+  <si>
+    <t>A. Cả hai đều là bộ nhớ tạm thời.
+B. Cả hai đều là bộ nhớ chỉ đọc.
+C. Cả hai đều giữ dữ liệu khi nguồn điện bị mất.
+D. Cả hai đều nằm trong CPU.</t>
+  </si>
+  <si>
+    <t>3. Điều gì xác định tốc độ xử lý của CPU?</t>
+  </si>
+  <si>
+    <t>A. Số lõi.
+B. Số bit.
+C. Tần số xung nhịp.
+D. Dung lượng bộ nhớ cache.</t>
+  </si>
+  <si>
+    <t>4. Để nâng cao hiệu suất xử lý của CPU, ta có thể sử dụng công nghệ nào sau đây?</t>
+  </si>
+  <si>
+    <t>A. Clock tăng tần số.
+B. Clock giảm tần số.
+C. Đa luồng (multithreading).
+D. Giảm số lõi xử lý (cores).</t>
+  </si>
+  <si>
+    <t>5. Điều gì xác định độ rộng của bus dữ liệu?</t>
+  </si>
+  <si>
+    <t>A. Số lõi của CPU.
+B. Số bit mà CPU có thể xử lý cùng lúc.
+C. Tốc độ xử lý của CPU.
+D. Tần số xung nhịp của CPU.</t>
+  </si>
+  <si>
+    <t>6. Để cải thiện tốc độ xử lý, CPU sử dụng một chiến lược nào dựa trên việc xử lý các công việc đồng thời?</t>
+  </si>
+  <si>
+    <t>A. Đa nhiệm (multitasking).
+B. Đa luồng (multithreading).
+C. Đa phương tiện (multimedia).
+D. Đa cấu trúc (multistructure).</t>
+  </si>
+  <si>
+    <t>7. Điểm chung giữa bộ nhớ cache và RAM là gì?</t>
+  </si>
+  <si>
+    <t>A. Cả hai đều lưu trữ dữ liệu lâu dài.
+B. Cả hai đều có dung lượng lớn hơn ổ cứng.
+C. Cả hai đều nằm ngoài CPU.
+D. Cả hai đều dùng để lưu trữ dữ liệu tạm thời.</t>
+  </si>
+  <si>
+    <t>8. Bus dữ liệu là gì trong kiến trúc máy tính?</t>
+  </si>
+  <si>
+    <t>A. Đường dẫn kết nối CPU với bộ nhớ RAM.
+B. Đường truyền dữ liệu giữa CPU và bộ nhớ ngoài.
+C. Đường dẫn kết nối các thành phần trong CPU.
+D. Đường truyền dữ liệu giữa CPU và các thiết bị ngoại vi.</t>
+  </si>
+  <si>
+    <t>9. Bộ nhớ cache thường được đặt gần đâu để giảm thời gian truy cập dữ liệu?</t>
+  </si>
+  <si>
+    <t>A. RAM.
+B. Ổ cứng.
+C. CPU.
+D. Bộ nhớ ngoài.</t>
+  </si>
+  <si>
+    <t>10. Địa chỉ IP (IP address) là gì trong kiến trúc mạng?</t>
+  </si>
+  <si>
+    <t>A. Một số nhận dạng duy nhất cho mỗi thiết bị trong mạng.
+B. Tên miền của trang web.
+C. Mã bí mật để truy cập mạng.
+D. Địa chỉ vật lý của thiết bị.</t>
+  </si>
+  <si>
+    <t>11. Địa chỉ bộ nhớ nào được sử dụng để lưu trữ địa chỉ dòng tiếp theo của dữ liệu trong bộ nhớ cache?</t>
+  </si>
+  <si>
+    <t>A. Địa chỉ vật lý.
+B. Địa chỉ ảo.
+C. Địa chỉ logic.
+D. Địa chỉ tương đối.</t>
+  </si>
+  <si>
+    <t>12. Bộ xử lý đa lõi (multi-core) có lợi ích gì so với bộ xử lý đơn lõi (single-core)?</t>
+  </si>
+  <si>
+    <t>A. Tiết kiệm điện năng.
+B. Tăng hiệu suất xử lý.
+C. Giảm kích thước.
+D. Tăng tốc độ xung nhịp.</t>
+  </si>
+  <si>
+    <t>13. Điểm chung giữa RAM và ổ cứng là gì?</t>
+  </si>
+  <si>
+    <t>A. Cả hai đều là bộ nhớ lưu trữ dữ liệu lâu dài.
+B. Cả hai đều nằm trong CPU.
+C. Cả hai đều là bộ nhớ chỉ đọc.
+D. Cả hai đều nhanh hơn bộ nhớ cache.</t>
+  </si>
+  <si>
+    <t>14. Đơn vị điều khiển của CPU có nhiệm vụ gì?</t>
+  </si>
+  <si>
+    <t>A. Thực hiện các phép tính số học.
+B. Quản lý lưu trữ dữ liệu trong RAM.
+C. Kiểm soát và điều phối các hoạt động của CPU.
+D. Lưu trữ các chương trình ứng dụng.</t>
+  </si>
+  <si>
+    <t>15. Điểm chung giữa bộ nhớ RAM và ROM là gì?</t>
+  </si>
+  <si>
+    <t>16. Điều gì xác định tốc độ xử lý của CPU?</t>
+  </si>
+  <si>
+    <t>17. Để nâng cao hiệu suất xử lý của CPU, ta có thể sử dụng công nghệ nào sau đây?</t>
+  </si>
+  <si>
+    <t>18. Điểm chung giữa bộ nhớ cache và RAM là gì?</t>
+  </si>
+  <si>
+    <t>19. Bus dữ liệu là gì trong kiến trúc máy tính?</t>
+  </si>
+  <si>
+    <t>20. Bộ nhớ cache thường được đặt gần đâu để giảm thời gian truy cập dữ liệu?</t>
+  </si>
+  <si>
+    <t>21. Địa chỉ IP (IP address) là gì trong kiến trúc mạng?</t>
+  </si>
+  <si>
+    <t>22. Địa chỉ bộ nhớ nào được sử dụng để lưu trữ địa chỉ dòng tiếp theo của dữ liệu trong bộ nhớ cache?</t>
+  </si>
+  <si>
+    <t>23. Bộ xử lý đa lõi (multi-core) có lợi ích gì so với bộ xử lý đơn lõi (single-core)?</t>
+  </si>
+  <si>
+    <t>24. Điểm chung giữa RAM và ổ cứng là gì?</t>
+  </si>
+  <si>
+    <t>25. Đơn vị điều khiển của CPU có nhiệm vụ gì?</t>
+  </si>
+  <si>
+    <t>26. Điểm chung giữa bộ nhớ RAM và ROM là gì?</t>
+  </si>
+  <si>
+    <t>27. Điều gì xác định tốc độ xử lý của CPU?</t>
+  </si>
+  <si>
+    <t>28. Để nâng cao hiệu suất xử lý của CPU, ta có thể sử dụng công nghệ nào sau đây?</t>
+  </si>
+  <si>
+    <t>29. Điểm chung giữa bộ nhớ cache và RAM là gì?</t>
+  </si>
+  <si>
+    <t>30. Bus dữ liệu là gì trong kiến trúc máy tính?</t>
+  </si>
+  <si>
+    <t>31. Bộ nhớ ROM (Read-Only Memory) được dùng để lưu trữ thông tin gì?</t>
+  </si>
+  <si>
+    <t>A. Dữ liệu lưu trữ tạm thời.
+B. Chương trình hệ điều hành.
+C. Các chương trình ứng dụng.
+D. Dữ liệu chỉ đọc.</t>
+  </si>
+  <si>
+    <t>32. Đồng hồ thời gian thực (RTC) trong máy tính làm gì?</t>
+  </si>
+  <si>
+    <t>A. Đo thời gian CPU hoạt động.
+B. Đo thời gian các chương trình ứng dụng.
+C. Đo thời gian các sự kiện trong hệ thống.
+D. Đo thời gian thực của máy tính.</t>
+  </si>
+  <si>
+    <t>33. Hệ thống nhị phân được sử dụng trong máy tính để làm gì?</t>
+  </si>
+  <si>
+    <t>A. Lưu trữ dữ liệu số.
+B. Thực hiện phép tính số học.
+C. Hiển thị các thông tin đồ họa.
+D. Xử lý âm thanh và video.</t>
+  </si>
+  <si>
+    <t>34. Điều gì quyết định số lượng bit mà CPU có thể xử lý trong một chu kỳ xung nhịp?</t>
+  </si>
+  <si>
+    <t>A. Tần số xung nhịp của CPU.
+B. Dung lượng bộ nhớ cache.
+C. Điện áp hoạt động của CPU.
+D. Kiến trúc bộ xử lý.</t>
+  </si>
+  <si>
+    <t>35. Thiết bị nào dùng để kết nối các phần tử trong một mạch tích hợp?</t>
+  </si>
+  <si>
+    <t>A. Điện trở.
+B. Transistor.
+C. Đầu nối (connector).
+D. Chip bán dẫn (semiconductor).</t>
+  </si>
+  <si>
+    <t>36. Để tăng tốc độ xử lý, một số CPU sử dụng kỹ thuật "pipelining". Kỹ thuật này có ý nghĩa gì?</t>
+  </si>
+  <si>
+    <t>A. CPU có nhiều lõi xử lý đồng thời.
+B. CPU chia các tác vụ thành nhiều giai đoạn xử lý và thực hiện song song.
+C. CPU giảm số lõi xử lý để tiết kiệm điện năng.
+D. CPU tăng tần số xung nhịp để thực hiện nhanh hơn.</t>
+  </si>
+  <si>
+    <t>37. Trong kiến trúc von Neumann, CPU và bộ nhớ được kết nối như thế nào?</t>
+  </si>
+  <si>
+    <t>A. Bộ nhớ nằm ngoài CPU và truyền dữ liệu qua bus.
+B. CPU và bộ nhớ kết nối trực tiếp bằng các đường dẫn điện tử.
+C. CPU và bộ nhớ kết nối thông qua mạch tích hợp.
+D. Bộ nhớ nằm trong CPU.</t>
+  </si>
+  <si>
+    <t>38. Tốc độ xung nhịp của CPU được đo bằng đơn vị gì?</t>
+  </si>
+  <si>
+    <t>A. Hertz (Hz).
+B. Byte (B).
+C. Bit (b).
+D. Megapixel (MP).</t>
+  </si>
+  <si>
+    <t>39. Để truy xuất dữ liệu từ bộ nhớ RAM, CPU cần biết địa chỉ nào?</t>
+  </si>
+  <si>
+    <t>40. Trong kiến trúc máy tính, CPU làm gì với các chỉ thị mà nó nhận được từ bộ nhớ?</t>
+  </si>
+  <si>
+    <t>A. Giải mã (decode) và thực thi (execute) các chỉ thị.
+B. Lưu trữ các chỉ thị vào bộ nhớ cache.
+C. Truy xuất dữ liệu từ các chỉ thị.
+D. Gửi các chỉ thị đến các thiết bị ngoại vi.</t>
+  </si>
+  <si>
+    <t>41. Đơn vị ALU (Arithmetic Logic Unit) của CPU có nhiệm vụ gì?</t>
+  </si>
+  <si>
+    <t>A. Thực hiện các phép tính số học và logic.
+B. Quản lý các đơn vị xử lý khác trong CPU.
+C. Lưu trữ các dữ liệu tạm thời trong RAM.
+D. Điều khiển việc truy xuất dữ liệu từ bộ nhớ.</t>
+  </si>
+  <si>
+    <t>42. Công nghệ "Hyper-Threading" được sử dụng để làm gì?</t>
+  </si>
+  <si>
+    <t>A. Tăng tốc độ xử lý của CPU.
+B. Tăng số lõi xử lý trong CPU.
+C. Tăng hiệu suất đồ họa của máy tính.
+D. Tăng hiệu suất đa luồng của CPU.</t>
+  </si>
+  <si>
+    <t>43. Để tăng khả năng xử lý đồ họa, các card đồ họa hiện đại thường sử dụng kiến trúc nào?</t>
+  </si>
+  <si>
+    <t>A. CUDA.
+B. Vulkan.
+C. OpenCL.
+D. OpenGL.</t>
+  </si>
+  <si>
+    <t>44. Điều gì quyết định dung lượng bộ nhớ cache của CPU?</t>
+  </si>
+  <si>
+    <t>A. Tần số xung nhịp của CPU.
+B. Số lõi xử lý trong CPU.
+C. Kiến trúc bộ xử lý.
+D. Dung lượng bộ nhớ RAM.</t>
+  </si>
+  <si>
+    <t>45. Hệ điều hành (OS) là gì trong kiến trúc máy tính?</t>
+  </si>
+  <si>
+    <t>A. Phần cứng của máy tính.
+B. Phần mềm quản lý và điều khiển các tác vụ trong máy tính.
+C. Bộ nhớ lưu trữ dữ liệu tạm thời trong máy tính.
+D. Tất cả các chương trình và ứng dụng trong máy tính.</t>
+  </si>
+  <si>
+    <t>46. Điểm chung giữa bộ nhớ RAM và bộ nhớ ROM là gì?</t>
+  </si>
+  <si>
+    <t>A. Cả hai đều có thể đọc và ghi dữ liệu.
+B. Cả hai đều giữ dữ liệu khi nguồn điện bị mất.
+C. Cả hai đều có dung lượng giới hạn.
+D. Cả hai đều được sử dụng để lưu trữ dữ liệu tạm thời.</t>
+  </si>
+  <si>
+    <t>47. Điều gì đo lường số lượng bit mà CPU có thể xử lý cùng lúc trong một chu kỳ xung nhịp?</t>
+  </si>
+  <si>
+    <t>A. Kiến trúc bộ xử lý.
+B. Số lõi xử lý của CPU.
+C. Điện áp hoạt động của CPU.
+D. Tần số xung nhịp của CPU.</t>
+  </si>
+  <si>
+    <t>48. Để tăng tốc độ xử lý, một số CPU sử dụng kỹ thuật "overclocking". Kỹ thuật này là gì?</t>
+  </si>
+  <si>
+    <t>A. Tăng số lõi xử lý để thực hiện nhanh hơn.
+B. Tăng tần số xung nhịp để thực hiện nhanh hơn.
+C. Giảm số lõi xử lý để tiết kiệm điện năng.
+D. Giảm tần số xung nhịp để giảm nhiệt độ.</t>
+  </si>
+  <si>
+    <t>49. Điểm chung giữa bộ nhớ cache và bộ nhớ RAM là gì?</t>
+  </si>
+  <si>
+    <t>50. Hệ thống nhị phân được sử dụng trong máy tính để làm gì?</t>
+  </si>
+  <si>
+    <t>,75</t>
+  </si>
+  <si>
+    <t>,75,84</t>
+  </si>
+  <si>
+    <t>,75,84,67</t>
+  </si>
+  <si>
+    <t>,75,84,67,71</t>
+  </si>
+  <si>
+    <t>,75,84,67,71,48</t>
+  </si>
+  <si>
+    <t>,75,84,67,71,48,57</t>
+  </si>
+  <si>
+    <t>,75,84,67,71,48,57,58</t>
+  </si>
+  <si>
+    <t>,75,84,67,71,48,57,58,77</t>
+  </si>
+  <si>
+    <t>,75,84,67,71,48,57,58,77,66</t>
+  </si>
+  <si>
+    <t>,75,84,67,71,48,57,58,77,66,81</t>
+  </si>
+  <si>
+    <t>,75,84,67,71,48,57,58,77,66,81,69</t>
+  </si>
+  <si>
+    <t>,75,84,67,71,48,57,58,77,66,81,69,50</t>
+  </si>
+  <si>
+    <t>,75,84,67,71,48,57,58,77,66,81,69,50,49</t>
+  </si>
+  <si>
+    <t>,75,84,67,71,48,57,58,77,66,81,69,50,49,70</t>
+  </si>
+  <si>
+    <t>,75,84,67,71,48,57,58,77,66,81,69,50,49,70,37</t>
+  </si>
+  <si>
+    <t>,75,84,67,71,48,57,58,77,66,81,69,50,49,70,37,53</t>
+  </si>
+  <si>
+    <t>,75,84,67,71,48,57,58,77,66,81,69,50,49,70,37,53,40</t>
+  </si>
+  <si>
+    <t>,75,84,67,71,48,57,58,77,66,81,69,50,49,70,37,53,40,56</t>
+  </si>
+  <si>
+    <t>,75,84,67,71,48,57,58,77,66,81,69,50,49,70,37,53,40,56,76</t>
+  </si>
+  <si>
+    <t>,75,84,67,71,48,57,58,77,66,81,69,50,49,70,37,53,40,56,76,73</t>
+  </si>
+  <si>
+    <t>What's name of this planet?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. Satturn
+B. Earth
+C. Sun 
+D. Moon
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G
+N
+N
+N
+N
+N
+N
+N
+N
+N
+</t>
+  </si>
+  <si>
+    <t>Quiz có ảnh</t>
+  </si>
+  <si>
+    <t>,87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N
+N
+N
+N
+N
+N
+N
+N
+N
+N
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C, </t>
+  </si>
+  <si>
+    <t>A. RAM
+B. Ổ cứng
+C. CPU
+D. Bộ nhớ ngoài</t>
+  </si>
+  <si>
+    <t>Quá trình nào sau đây dùng để xác định giới tính của một con người?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C, D, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D, </t>
   </si>
 </sst>
 </file>
@@ -860,7 +1319,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E88"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
@@ -902,16 +1361,19 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s" s="0">
-        <v>28</v>
+        <v>240</v>
       </c>
       <c r="B3" t="s" s="0">
         <v>11</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>30</v>
+        <v>242</v>
       </c>
       <c r="D3" t="s" s="0">
         <v>29</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -1391,6 +1853,726 @@
       </c>
       <c r="D37" t="s" s="0">
         <v>117</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="D38" t="s" s="0">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="D39" t="s" s="0">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="D40" t="s" s="0">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D41" t="s" s="0">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D42" t="s" s="0">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D43" t="s" s="0">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C44" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="D44" t="s" s="0">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="D45" t="s" s="0">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D46" t="s" s="0">
+        <v>239</v>
+      </c>
+      <c r="E46" t="s" s="0">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C47" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D47" t="s" s="0">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C48" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="D48" t="s" s="0">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C49" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D49" t="s" s="0">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C50" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D50" t="s" s="0">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C51" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="D51" t="s" s="0">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C52" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="D52" t="s" s="0">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C53" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="D53" t="s" s="0">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C54" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D54" t="s" s="0">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C55" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="D55" t="s" s="0">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C56" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="D56" t="s" s="0">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C57" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="D57" t="s" s="0">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C58" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D58" t="s" s="0">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C59" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="D59" t="s" s="0">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C60" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D60" t="s" s="0">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="B61" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C61" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D61" t="s" s="0">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="B62" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C62" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="D62" t="s" s="0">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C63" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="D63" t="s" s="0">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="B64" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C64" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="D64" t="s" s="0">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="B65" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C65" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D65" t="s" s="0">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="B66" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C66" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="D66" t="s" s="0">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="B67" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C67" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="D67" t="s" s="0">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="B68" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C68" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D68" t="s" s="0">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C69" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="D69" t="s" s="0">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C70" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D70" t="s" s="0">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="B71" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C71" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="D71" t="s" s="0">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="B72" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C72" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="D72" t="s" s="0">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="B73" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C73" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D73" t="s" s="0">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="B74" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C74" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D74" t="s" s="0">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="B75" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C75" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D75" t="s" s="0">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="B76" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C76" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D76" t="s" s="0">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="B77" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C77" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D77" t="s" s="0">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="B78" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C78" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D78" t="s" s="0">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="B79" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C79" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="D79" t="s" s="0">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="B80" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C80" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D80" t="s" s="0">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="B81" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C81" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="D81" t="s" s="0">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="B82" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C82" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D82" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="B83" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C83" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D83" t="s" s="0">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="B84" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C84" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D84" t="s" s="0">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="B85" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C85" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D85" t="s" s="0">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="B86" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C86" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D86" t="s" s="0">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="B87" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C87" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D87" t="s" s="0">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="B88" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="C88" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="D88" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="E88" t="s" s="0">
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -1417,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="n">
-        <v>37.0</v>
+        <v>88.0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -1433,7 +2615,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>11.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -1512,16 +2694,16 @@
       <c r="A13" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B13" s="0">
-        <v>25</v>
+      <c r="B13" s="0" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B14" s="0">
-        <v>25</v>
+      <c r="B14" s="0" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -1592,16 +2774,16 @@
       <c r="A23" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="B23" s="0">
-        <v>0</v>
+      <c r="B23" s="0" t="n">
+        <v>50.0</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="B24" s="0">
-        <v>0</v>
+      <c r="B24" s="0" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="25">
@@ -1619,7 +2801,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E57CE46-9D74-4C06-8F20-8319158C49B7}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
@@ -1667,10 +2849,10 @@
         <v>600</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>77</v>
+        <v>230</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3">
@@ -1710,6 +2892,26 @@
         <v>129</v>
       </c>
       <c r="F4" t="s" s="0">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>120.0</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="F5" t="s" s="0">
         <v>79</v>
       </c>
     </row>

--- a/src/main/java/data/QuizTestAppData.xlsx
+++ b/src/main/java/data/QuizTestAppData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\btl oop\quiz-test-app\src\main\java\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BAE1DCB-372C-49A0-9D70-FF150D4A2311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74D19C3-6961-4770-905C-D315E3A2306B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QuestionBank" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="446">
   <si>
     <t>root</t>
   </si>
@@ -130,9 +130,6 @@
     <t>A</t>
   </si>
   <si>
-    <t>Quá trình nào dùng để xác định giới tính của một con người?</t>
-  </si>
-  <si>
     <t>A. Tiếp xúc da
 B. Kiểm tra xương
 C. Xét nghiệm máu
@@ -338,12 +335,6 @@
   </si>
   <si>
     <t>21/March/2023</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>wil fix</t>
   </si>
   <si>
     <t>will fix</t>
@@ -511,36 +502,6 @@
     <t>B, C</t>
   </si>
   <si>
-    <t>,26</t>
-  </si>
-  <si>
-    <t>,26,27</t>
-  </si>
-  <si>
-    <t>,26,27,28</t>
-  </si>
-  <si>
-    <t>,26,27,28,29</t>
-  </si>
-  <si>
-    <t>,26,27,28,29,30</t>
-  </si>
-  <si>
-    <t>,26,27,28,29,30,31</t>
-  </si>
-  <si>
-    <t>,26,27,28,29,30,31,32</t>
-  </si>
-  <si>
-    <t>,26,27,28,29,30,31,32,33</t>
-  </si>
-  <si>
-    <t>,26,27,28,29,30,31,32,33,34</t>
-  </si>
-  <si>
-    <t>,26,27,28,29,30,31,32,33,34,35</t>
-  </si>
-  <si>
     <t>,26,27,28,29,30,31,32,33,34,35,36</t>
   </si>
   <si>
@@ -878,66 +839,6 @@
   </si>
   <si>
     <t>50. Hệ thống nhị phân được sử dụng trong máy tính để làm gì?</t>
-  </si>
-  <si>
-    <t>,75</t>
-  </si>
-  <si>
-    <t>,75,84</t>
-  </si>
-  <si>
-    <t>,75,84,67</t>
-  </si>
-  <si>
-    <t>,75,84,67,71</t>
-  </si>
-  <si>
-    <t>,75,84,67,71,48</t>
-  </si>
-  <si>
-    <t>,75,84,67,71,48,57</t>
-  </si>
-  <si>
-    <t>,75,84,67,71,48,57,58</t>
-  </si>
-  <si>
-    <t>,75,84,67,71,48,57,58,77</t>
-  </si>
-  <si>
-    <t>,75,84,67,71,48,57,58,77,66</t>
-  </si>
-  <si>
-    <t>,75,84,67,71,48,57,58,77,66,81</t>
-  </si>
-  <si>
-    <t>,75,84,67,71,48,57,58,77,66,81,69</t>
-  </si>
-  <si>
-    <t>,75,84,67,71,48,57,58,77,66,81,69,50</t>
-  </si>
-  <si>
-    <t>,75,84,67,71,48,57,58,77,66,81,69,50,49</t>
-  </si>
-  <si>
-    <t>,75,84,67,71,48,57,58,77,66,81,69,50,49,70</t>
-  </si>
-  <si>
-    <t>,75,84,67,71,48,57,58,77,66,81,69,50,49,70,37</t>
-  </si>
-  <si>
-    <t>,75,84,67,71,48,57,58,77,66,81,69,50,49,70,37,53</t>
-  </si>
-  <si>
-    <t>,75,84,67,71,48,57,58,77,66,81,69,50,49,70,37,53,40</t>
-  </si>
-  <si>
-    <t>,75,84,67,71,48,57,58,77,66,81,69,50,49,70,37,53,40,56</t>
-  </si>
-  <si>
-    <t>,75,84,67,71,48,57,58,77,66,81,69,50,49,70,37,53,40,56,76</t>
-  </si>
-  <si>
-    <t>,75,84,67,71,48,57,58,77,66,81,69,50,49,70,37,53,40,56,76,73</t>
   </si>
   <si>
     <t>What's name of this planet?</t>
@@ -969,9 +870,6 @@
     <t>Quiz có ảnh</t>
   </si>
   <si>
-    <t>,87</t>
-  </si>
-  <si>
     <t xml:space="preserve">N
 N
 N
@@ -997,10 +895,1034 @@
     <t>Quá trình nào sau đây dùng để xác định giới tính của một con người?</t>
   </si>
   <si>
-    <t xml:space="preserve">C, D, </t>
-  </si>
-  <si>
     <t xml:space="preserve">D, </t>
+  </si>
+  <si>
+    <t>Đâu là số 1 :</t>
+  </si>
+  <si>
+    <t>A.
+B.
+C.
+D.</t>
+  </si>
+  <si>
+    <t>Trong hình là con gì?</t>
+  </si>
+  <si>
+    <t>A. Hươu
+B. Nai
+C. Chồn
+D. Voi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N
+P
+P
+P
+P
+N
+N
+N
+N
+N
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+N
+N
+N
+N
+N
+N
+N
+N
+N
+</t>
+  </si>
+  <si>
+    <t>Quiz bảo hiểm</t>
+  </si>
+  <si>
+    <t>Đối với sản phẩm bảo hiểm liên kết đơn vị, phí chuyển đổi quỹ liên kết đơn vị là:</t>
+  </si>
+  <si>
+    <t>A. Khoản phí dùng để trang trải chi phí phát hành hợp đồng bảo hiểm, chi phí thẩm định bảo hiểm, chi phí kiểm tra y tế, chi hoa hồng đại lý và chi phí khác.
+B. Khoản phí bên mua bảo hiểm phải trả cho doanh nghiệp bảo hiểm khi thực hiện chuyển đổi tài sản đầu tư giữa các quỹ liên kết đơn vị.
+C. Khoản phí để bù đắp chi phí liên quan đến việc duy trì hợp đồng bảo hiểm và cung cấp thông tin liên quan đến hợp đồng bảo hiểm cho bên mua bảo hiểm.
+D. Khoản phí đối với quyền lợi bảo hiểm rủi ro theo cam kết tại hợp đồng bảo hiểm.</t>
+  </si>
+  <si>
+    <t>2. Theo quy định của Pháp luật, Văn phòng đại diện của doanh nghiệp bảo hiểm, doanh nghiệp môi giới bảo hiểm nước ngoài tại Việt Nam được thực hiện hoạt động nào sau đây:</t>
+  </si>
+  <si>
+    <t>A. Xúc tiến xây dựng các dự án đầu tư của doanh nghiệp bảo hiểm, doanh nghiệp môi giới bảo hiểm nước ngoài.
+B. Thúc đẩy và theo dõi việc thực hiện các dự án do doanh nghiệp bảo hiểm, doanh nghiệp môi giới bảo hiểm nước ngoài tài trợ tại Việt Nam.
+C. Nghiên cứu thị trường.
+D. A, B, C đúng.</t>
+  </si>
+  <si>
+    <t>3. Đại lý bảo hiểm không có quyền nào sau đây:</t>
+  </si>
+  <si>
+    <t>A. Yêu cầu doanh nghiệp bảo hiểm hoàn trả tiền ký quĩ hoặc thế chấp tài sản theo thỏa thuận trong hợp đồng đại lý bảo hiểm.
+B. Tham dự các lớp đào tạo, bồi dưỡng, nâng cao trình độ cho đại lý bảo hiểm do doanh nghiệp bảo hiểm tổ chức.
+C. Ký thay khách hàng.
+D. Hưởng hoa hồng và các quyền, lợi ích hợp pháp khác từ hoạt động đại lý bảo hiểm.</t>
+  </si>
+  <si>
+    <t>4. Anh A 33 tuổi tham gia một hợp đồng Bảo Hiểm Ung Thư 360 vào ngày 01/05/2019 với STBH 01 tỷ đồng. Trong thời gian hợp đồng có hiệu lực, anh A lần lượt gặp các rủi ro sau: Ngày 04/07/2025: được chẩn đoán mắc ung thư dạ dày giai đoạn sớm.  Ngày 30/10/2025: phẫu thuật tái tạo hình dạng dạ dày (Phẫu Thuật Phục Hồi). Ngày 07/09/2028: tử vong do tai nạn. Giả sử các sự kiện trên đều được Manulife chấp thuận chi trả, tổng số tiền mà anh A sẽ nhận được là: </t>
+  </si>
+  <si>
+    <t>A. 1,7 tỷ đồng. 
+B. 2,7 tỷ đồng. 
+C. 1,5 tỷ đồng. 
+D. 2,5 tỷ đồng.</t>
+  </si>
+  <si>
+    <t>A </t>
+  </si>
+  <si>
+    <t>5. Khách hàng A tham gia Sản phẩm Bảo hiểm Ung Thư 360 vào ngày 1/1/2019 với số tiền bảo hiểm là 500 triệu đồng. Ngày 17/03/2019, khách hàng A được chẩn đoán mắc ung thư giai đoạn sớm. Quyền lợi ung thư giai đoạn sớm khách hàng A nhận được là:</t>
+  </si>
+  <si>
+    <t>A. 250 triệu đồng
+B. 300 triệu đồng
+C. 0 đồng
+D. 500 triệu đồng</t>
+  </si>
+  <si>
+    <t>6. Kể từ sau thời điểm Manulife đồng ý chi trả quyền lợi Ung Thư Giai Đoạn Cuối cho Người Được Bảo Hiểm của hợp đồng Bảo hiểm Ung Thư 360, vào mỗi ngày kỷ niệm hợp đồng hàng tháng, Manulife sẽ chi trả QLBH Trợ Cấp Thu Nhập bằng:</t>
+  </si>
+  <si>
+    <t>A. 1% Số Tiền Bảo Hiểm
+B. 0,5% Số Tiền Bảo Hiểm
+C. 1,5% Số Tiền Bảo Hiểm</t>
+  </si>
+  <si>
+    <t>7. Doanh nghiệp bảo hiểm có quyền từ chối trả tiền bảo hiểm cho người thụ hưởng hoặc từ chối bồi thường cho người được bảo hiểm trong trường hợp:</t>
+  </si>
+  <si>
+    <t>A. Sự kiện bảo hiểm xảy ra không thuộc phạm vi trách nhiệm bảo hiểm theo thỏa thuận trong hợp đồng bảo hiểm (A).
+B. Sự kiện bảo hiểm xảy ra thuộc các trường hợp loại trừ trách nhiệm bảo hiểm theo thỏa thuận trong hợp đồng bảo hiểm (B).
+C. Sự kiện bảo hiểm xảy ra trong thời gian gia hạn nộp phí bảo hiểm.  
+D. A, B đúng. </t>
+  </si>
+  <si>
+    <t>8. Đối với hợp đồng bảo hiểm con người, trường hợp một hoặc một số người thụ hưởng cố ý gây ra cái chết hoặc thương tật vĩnh viễn cho người được bảo hiểm thì:</t>
+  </si>
+  <si>
+    <t>A. Doanh nghiệp bảo hiểm không phải trả tiền bảo hiểm.
+B. Doanh nghiệp bảo hiểm vẫn trả tiền cho tất cả người thụ hưởng bảo hiểm.
+C. Doanh nghiệp bảo hiểm vẫn phải trả tiền bảo hiểm cho những người thụ hưởng khác theo thoả thuận trong hợp đồng bảo hiểm.
+D. Không trường hợp nào đúng.</t>
+  </si>
+  <si>
+    <t>9. Doanh nghiệp bảo hiểm có nghĩa vụ:</t>
+  </si>
+  <si>
+    <t>A. Chi trả tất cả các chi phí khai thác hợp đồng bảo hiểm cho đại lý ngoài hoa hồng bảo hiểm (A).
+B. Yêu cầu đại lý bảo hiểm phải có tài sản thế chấp.
+C. Chịu trách nhiệm về những thiệt hại hay tổn thất do hoạt động đại lý bảo hiểm của mình gây ra theo thỏa thuận trong hợp đồng đại lý bảo hiểm (C).
+D. A, C đúng.</t>
+  </si>
+  <si>
+    <t>10. Trong Sản phẩm Bảo hiểm Ung Thư 360, quyền lợi nào sau đây sẽ chấm dứt ngay khi Manulife chấp nhận chi trả:</t>
+  </si>
+  <si>
+    <t>A. Quyền lợi bảo hiểm Ung Thư Giai Đoạn Cuối
+B. Quyền lợi bảo hiểm Ung Thư Chi Phí Lớn
+C. Quyền lợi bảo hiểm Miễn Đóng Phí
+D. Cả ba đáp án A, B và C.</t>
+  </si>
+  <si>
+    <t>11. Khách hàng A tham gia Sản phẩm Bảo hiểm Ung Thư 360 với số tiền bảo hiểm là 800 triệu đồng. Trong thời gian hợp đồng có hiệu lực, khách hàng A được chẩn đoán mắc 2 bệnh ung thư giai đoạn sớm thuộc phạm vi bảo hiểm, được chẩn đoán trong cùng 1 ngày. Tổng quyền lợi ung thư giai đoạn sớm khách hàng nhận được là:</t>
+  </si>
+  <si>
+    <t>A. 480 triệu đồng
+B. 920 triệu đồng
+C. 600 triệu đồng
+D. 800 triệu đồng</t>
+  </si>
+  <si>
+    <t>12. Theo qui định của Pháp luật, chương trình đào tạo Phần kiến thức chung dành cho đại lý bảo hiểm gồm:</t>
+  </si>
+  <si>
+    <t>A. Kiến thức chung về bảo hiểm; Pháp luật về kinh doanh bảo hiểm
+B. Trách nhiệm của đại lý, đạo đức hành nghề đại lý; Quyền và nghĩa vụ của doanh nghiệp bảo hiểm, chi nhánh doanh nghiệp bảo hiểm phi nhân thọ nước ngoài, đại lý bảo hiểm trong hoạt động đại lý bảo hiểm
+C. Kỹ năng bán bảo hiểm
+D. Cả A,B,C</t>
+  </si>
+  <si>
+    <t>13. Mức vốn pháp định của doanh nghiệp bảo hiểm nhân thọ, kinh doanh bảo hiểm nhân thọ (trừ bảo hiểm liên kết đơn vị, bảo hiểm hưu trí) và bảo hiểm sức khỏe là:</t>
+  </si>
+  <si>
+    <t>A. 1.000 tỷ đồng Việt Nam
+B. 800 tỷ đồng Việt Nam
+C. 600 tỷ đồng Việt Nam
+D. 300 tỷ đồng Việt Nam</t>
+  </si>
+  <si>
+    <t>14. Đại lý bảo hiểm không được doanh nghiệp bảo hiểm uỷ quyền tiến hành hoạt động nào dưới đây:</t>
+  </si>
+  <si>
+    <t>A. Thu xếp việc giao kết hợp đồng bảo hiểm.
+B. Thu xếp giải quyết bồi thường, trả tiền bảo hiểm khi xảy ra sự kiện bảo hiểm.
+C. Thu phí bảo hiểm.
+D. Trực tiếp ký kết hợp đồng bảo hiểm.</t>
+  </si>
+  <si>
+    <t>15. Theo Luật kinh doanh bảo hiểm, thời gian 15 ngày là quy định về thời hạn nào trong những thời hạn dưới đây:</t>
+  </si>
+  <si>
+    <t>A. Thời hiệu khởi kiện về hợp đồng bảo hiểm, kể từ ngày pháp sinh tranh chấp.
+B. Thời hạn doanh nghiệp bảo hiểm phải trả tiền bảo hiểm hoặc bồi thường kể từ ngày nhận được đầy đủ hồ sơ hợp lệ về yêu cầu trả tiền bảo hiểm hoặc bồi thường (trừ trường hợp có thỏa thuận khác về thời hạn trong hợp đồng bảo hiểm).
+C. Thời hạn yêu cầu trả tiền bảo hiểm hoặc bồi thường theo hợp đồng bảo hiểm, kể từ ngày xảy ra sự kiện bảo hiểm.</t>
+  </si>
+  <si>
+    <t>16.  Chọn 1 phương án đúng về đặc điểm của nghiệp vụ bảo hiểm trọn đời:</t>
+  </si>
+  <si>
+    <t>A. Doanh nghiệp bảo hiểm trả tiền bảo hiểm cho người thụ hưởng khi bên mua bảo hiểm chết ở bất kỳ thời điểm nào trong suốt cuộc đời của người đó
+B. Doanh nghiệp bảo hiểm trả tiền bảo hiểm cho người thụ hưởng khi người được bảo hiểm vẫn sống tại thời điểm kết thúc hiệu lực hợp đồng
+C. Doanh nghiệp bảo hiểm trả tiền bảo hiểm cho người thụ hưởng khi người được bảo hiểm chết vào bất kỳ thời điểm nào trong suốt cuộc đời của người đó</t>
+  </si>
+  <si>
+    <t>17. Trong trường hợp NĐBH của Sản phẩm Bảo hiểm Ung Thư 360 tử vong và Manulife đã chi trả QLBH Trợ Cấp Thu Nhập vượt quá thời điểm này, Manulife sẽ: </t>
+  </si>
+  <si>
+    <t>A. Không cấn trừ số tiền đã chi trả dư vào quyền lợi Tử Vong. 
+B. Cấn trừ số tiền đã chi trả dư vào quyền lợi Tử Vong. 
+C. Cả hai đáp án trên đều đúng. </t>
+  </si>
+  <si>
+    <t>18. Chọn phương án sai về trường hợp Hợp đồng bảo hiểm vô hiệu:</t>
+  </si>
+  <si>
+    <t>A. Tại thời điểm giao kết hợp đồng bảo hiểm, đối tượng bảo hiểm không tồn tại.
+B. Tại thời điểm giao kết hợp đồng bảo hiểm, bên mua bảo hiểm biết sự kiện bảo hiểm đã xảy ra.
+C. Đại lý bảo hiểm không nộp phí bảo hiểm đã thu của bên mua bảo hiểm cho doanh nghiệp bảo hiểm.
+D. Bên mua bảo hiểm không có quyền lợi có thể được bảo hiểm.</t>
+  </si>
+  <si>
+    <t>19. Đại lý bảo hiểm không được tranh giành khách hàng dưới các hình thức ngăn cản, lôi kéo, mua chuộc, đe dọa nhân viên hoặc khách hàng của:</t>
+  </si>
+  <si>
+    <t>A. Doanh nghiệp bảo hiểm khác
+B. Đại lý bảo hiểm khác
+C. Doanh nghiệp môi giới bảo hiểm khác
+D. Cả A, B, C</t>
+  </si>
+  <si>
+    <t>20. Theo quy định của Pháp luật, hợp đồng bảo hiểm chấm dứt nếu bên mua bảo hiểm không đóng đủ phí bảo hiểm hoặc không đóng phí bảo hiểm theo thời hạn thỏa thuận trong hợp đồng bảo hiểm (trừ trường hợp các bên có thỏa thuận khác). Khi đó, bên mua bảo hiểm vẫn phải đóng đủ phí bảo hiểm đến thời điểm chấm dứt hợp đồng bảo hiểm nếu hợp đồng bảo hiểm đó là:</t>
+  </si>
+  <si>
+    <t>A. Hợp đồng bảo hiểm con người (A)
+B. Hợp đồng bảo hiểm tài sản (B)
+C. Hợp đồng bảo hiểm trách nhiệm dân sự (C)
+D. B, C đúng</t>
+  </si>
+  <si>
+    <t>21. Trong Sản phẩm Bảo hiểm Ung Thư 360, trong trường hợp con của Người Được Bảo Hiểm được Manulife chấp thuận cấp quyền lợi Bảo Hiểm Miễn Phí Dành Cho Con Của Người Được Bảo Hiểm, ngày bắt đầu bảo hiểm sẽ là:</t>
+  </si>
+  <si>
+    <t>A. Ngày Manulife đồng ý cấp quyền lợi Bảo Hiểm Miễn Phí Dành Cho Con Của Người Được Bảo Hiểm
+B. Ngày Manulife chấp nhận chi trả quyền lợi Ung Thư Giai Đoạn Cuối cho Người Được Bảo Hiểm.
+C. Ngày hoàn thành hồ sơ yêu cầu cấp quyền lợi Bảo Hiểm Miễn Phí Dành Cho Con Của Người Được Bảo Hiểm
+D. Ngày Người Được Bảo Hiểm được chẩn đoán mắc bệnh Ung Thư Giai Đoạn Cuối</t>
+  </si>
+  <si>
+    <t>22. Khoản tiền mà bên mua bảo hiểm đóng cho doanh nghiệp bảo hiểm theo thỏa thuận trong hợp đồng bảo hiểm là:</t>
+  </si>
+  <si>
+    <t>A. Số tiền bảo hiểm.
+B. Giá trị bảo hiểm.
+C. Số tiền bồi thường.
+D. Phí bảo hiểm.</t>
+  </si>
+  <si>
+    <t>23. Trong trường hợp không có thỏa thuận về thời hạn, doanh nghiệp bảo hiểm phải trả tiền bảo hiểm hoặc bồi thường cho người được bảo hiểm trong vòng:</t>
+  </si>
+  <si>
+    <t>A. 45 ngày kể từ ngày nhận được đầy đủ hồ sơ hợp lệ về yêu cầu trả tiền bảo hiểm hoặc bồi thường.
+B. 30 ngày kể từ ngày nhận được đầy đủ hồ sơ hợp lệ về yêu cầu trả tiền bảo hiểm hoặc bồi thường. 
+C. 60 ngày kể từ ngày nhận được đầy đủ hồ sơ hợp lệ về yêu cầu trả tiền bảo hiểm hoặc bồi thường.
+D. 15 ngày kể từ ngày nhận được đầy đủ hồ sơ hợp lệ về yêu cầu trả tiền bảo hiểm hoặc bồi thường. </t>
+  </si>
+  <si>
+    <t>24. Việc yêu cầu tham gia bảo hiểm được thực hiện bởi: </t>
+  </si>
+  <si>
+    <t>A. Môi giới bảo hiểm.
+B. Doanh nghiệp bảo hiểm
+C. Đại lý bảo hiểm.
+D. Bên mua bảo hiểm.</t>
+  </si>
+  <si>
+    <t>25. Trong nghiệp vụ bảo hiểm trả tiền định kỳ, khi người được bảo hiểm còn sống nhưng chưa đạt đến thời hạn nhất định theo thỏa thuận trong hợp đồng bảo hiểm, doanh nghiệp bảo hiểm có trách nhiệm:</t>
+  </si>
+  <si>
+    <t>A. Chi trả tiền bảo hiểm cho Bên mua bảo hiểm
+B. Chi trả tiền bảo hiểm cho Người thụ hưởng
+C. Không chi trả bất cứ quyền lợi bảo hiểm nào cả
+D. Chi trả tiền bảo hiểm cho Người được bảo hiểm</t>
+  </si>
+  <si>
+    <t>26. Đại lý bảo hiểm có thể:</t>
+  </si>
+  <si>
+    <t>A. Lựa chọn và ký kết hợp đồng đại lý bảo hiểm đối với doanh nghiệp bảo hiểm theo đúng quy định pháp luật
+B. Yêu cầu doanh nghiệp bảo hiểm hoàn trả tiền ký quỹ hoặc tài sản thế chấp theo thỏa thuận trong hợp đồng đại lý bảo hiểm
+C. Sửa đổi, bổ sung điều khoản trong hợp đồng bảo hiểm theo ý kiến của bên mua bảo hiểm
+D. A, B đúng</t>
+  </si>
+  <si>
+    <t>27. Tỷ lệ hoa hồng tối đa tính trên phí bảo hiểm của hợp đồng bảo hiểm nhân thọ cá nhân đối với nghiệp vụ bảo hiểm trả tiền định kỳ, phương thức nộp phí bảo hiểm 1 lần là:</t>
+  </si>
+  <si>
+    <t>A. 10%
+B. 15%
+C. 5%
+D. 7%</t>
+  </si>
+  <si>
+    <t>28. Chọn một phương án đúng về các đặc điểm của sản phẩm bảo hiểm nhân thọ hỗn hợp</t>
+  </si>
+  <si>
+    <t>A. Có giá trị hoàn lại, có chia lãi hoặc không chia lãi
+B. Có cả 2 yếu tố bảo vệ và tiết kiệm
+C. A, B đúng
+D. Không có đáp án đúng</t>
+  </si>
+  <si>
+    <t>29. Chọn phương án đúng về nghiệp vụ bảo hiểm mà doanh nghiệp bảo hiểm nhân thọ và phi nhân thọ đều được triển khai:</t>
+  </si>
+  <si>
+    <t>A. Bảo hiểm hưu trí.
+B. Bảo hiểm tài sản.
+C. Bảo hiểm sức khỏe.
+D. Không trường hợp nào đúng.</t>
+  </si>
+  <si>
+    <t>30. Đại lý bảo hiểm có thể được lựa chọn và ký kết hợp đồng đại lý bảo hiểm với đối tượng nào dưới đây:</t>
+  </si>
+  <si>
+    <t>A. Doanh nghiệp bảo hiểm nhân thọ, doanh nghiệp bảo hiểm phi nhân thọ
+B. Doanh nghiệp bảo hiểm sức khỏe, doanh nghiệp tái bảo hiểm
+C. Chi nhánh doanh nghiệp bảo hiểm phi nhân thọ nước ngoài
+D. Cả A, B, C</t>
+  </si>
+  <si>
+    <t>31. Trong trường hợp bên mua bảo hiểm chứng minh được rằng họ không biết thời điểm xảy ra sự kiện bảo hiểm thì thời hạn yêu cầu trả tiền bảo hiểm hoặc bồi thường là:</t>
+  </si>
+  <si>
+    <t>A. 1 năm kể từ ngày xảy ra sự kiện bảo hiểm.
+B. 1 năm kể từ ngày bên mua bảo hiểm biết việc xảy ra sự kiện bảo hiểm.
+C.  2 năm kể từ ngày xảy ra sự kiện bảo hiểm.
+D. 2 năm kể từ ngày bên mua bảo hiểm biết việc xảy ra sự kiện bảo hiểm.</t>
+  </si>
+  <si>
+    <t>32. Bên mua bảo hiểm đã đóng phí bảo hiểm nhân thọ từ hai năm trở lên, nhưng không thể đóng các khoản phí bảo hiểm tiếp theo thì sau thời hạn 60 ngày, kể từ ngày gia hạn đóng phí, trừ trường hợp các bên có thỏa thuận khác, doanh nghiệp bảo hiểm có quyền đơn phương đình chỉ hợp đồng và bên mua bảo hiểm:</t>
+  </si>
+  <si>
+    <t>A. Nhận giá trị hoàn lại của hợp đồng bảo hiểm
+B. Không có quyền đòi lại khoản phí bảo hiểm đã đóng
+C. Nhận lại toàn bộ phí bảo hiểm đã đóng</t>
+  </si>
+  <si>
+    <t>33. Quỹ bảo vệ người được bảo hiểm được thành lập tại doanh nghiệp bảo hiểm nhằm bảo vệ quyền lợi của người được bảo hiểm trong trường hợp nào sau đây:</t>
+  </si>
+  <si>
+    <t>A. Người được bảo hiểm bị thất nghiệp 
+B. Doanh nghiệp bảo hiểm phá sản hoặc mất khả năng thanh toán
+C. Người được bảo hiểm gặp khó khăn về tài chính, không có khả năng đóng phí bảo hiểm
+D. Người được bảo hiểm gặp rủi ro do chiến tranh, động đất</t>
+  </si>
+  <si>
+    <t>34. Phát biểu nào sau đây là đúng về QLBH Ung Thư Chi Phí Lớn của Sản phẩm Bảo hiểm Ung Thư 360: </t>
+  </si>
+  <si>
+    <t>A. Chi trả 100% STBH khi NĐBH được chẩn đoán Ung Thư Giai Đoạn Sớm hoặc Ung Thư Giai Đoạn Cuối thuộc danh sách bệnh Ung Thư Chi Phí Lớn. QLBH này sẽ chấm dứt ngay sau khi Manulife chi trả quyền lợi Ung Thư Giai Đoạn Sớm hoặc Ung Thư Giai Đoạn Cuối. 
+B. Chi trả 100% STBH khi NĐBH được chẩn đoán Ung Thư Giai Đoạn Cuối thuộc danh sách bệnh Ung Thư Chi Phí Lớn. QLBH nàysẽ chấm dứt ngay sau khi Manulife chi trả QLBH Ung Thư Giai Đoạn Sớm hoặc Ung Thư Giai Đoạn Cuối. 
+C. Chi trả 50% STBH khi NĐBH được chẩn đoán Ung Thư Giai Đoạn Cuối thuộc danh sách bệnh Ung Thư Chi Phí Lớn. QLBH này sẽ chấm dứt ngay sau khi Manulife chấp nhận chi trả hoặc khi QLBH Ung Thư Giai Đoạn Cuối đã được chi trả. 
+D. Chi trả 50% STBH khi NĐBH được chẩn đoán Ung Thư Giai Đoạn Sớm hoặc Ung Thư Giai Đoạn Cuối thuộc danh sách bệnh Ung Thư Chi Phí Lớn. QLBH này sẽ chấm dứt ngay sau khi Manulife chi trả QLBH Ung Thư Giai Đoạn Sớm hoặc Ung Thư Giai Đoạn Cuối. </t>
+  </si>
+  <si>
+    <t>35. Luật kinh doanh bảo hiểm quy định Bên mua bảo hiểm đóng phí bảo hiểm nhân thọ theo cách:</t>
+  </si>
+  <si>
+    <t>A. Đóng một lần theo quy định bắt buộc của Doanh nghiệp bảo hiểm
+B. Đóng nhiều lần theo quy định bắt buộc của Doanh nghiệp bảo hiểm
+C. Đóng một lần hoặc nhiều lần theo thời hạn, phương thức thỏa thuận trong hợp đồng bảo hiểm
+D. A, B, C sai</t>
+  </si>
+  <si>
+    <t>36. Ngày 1/1/2019, khách hàng A tham gia Sản phẩm Bảo hiểm Ung Thư 360. Đến 31/5/2020, khách hàng A được chẩn đoán mắc ung thư giai đoạn cuối, thuộc danh mục ung thư chi phí lớn, các quyền lợi mà khách hàng A nhận được là:</t>
+  </si>
+  <si>
+    <t>A. 150% số tiền bảo hiểm + quyền lợi miễn đóng phí +  quyền lợi trợ cấp thu nhập + quyền lợi miễn phí dành cho con
+B. 150% số tiền bảo hiểm + quyền lợi miễn đóng phí + quyền lợi miễn phí dành cho con
+C. 105% số tiền bảo hiểm + quyền lợi miễn đóng phí + quyền lợi trợ cấp thu nhập + quyền lợi miễn phí dành cho con
+D. 160% số tiền bảo hiểm + quyền lợi miễn đóng phí + quyền lợi trợ cấp thu nhập + quyền lợi miễn phí dành cho con </t>
+  </si>
+  <si>
+    <t>37. Theo quy định của Pháp luật, phát biểu nào dưới đây sai:</t>
+  </si>
+  <si>
+    <t>A. Kinh doanh bảo hiểm là hoạt động của doanh nghiệp bảo hiểm nhằm mục đích sinh lợi, theo đó doanh nghiệp bảo hiểm nhận một khoản phí bảo hiểm của doanh nghiệp bảo hiểm khác để cam kết bồi thường cho các trách nhiệm đã nhận bảo hiểm.
+B. Hoạt động đại lý bảo hiểm là hoạt động giới thiệu, chào bán bảo hiểm, thu xếp việc giao kết hợp đồng bảo hiểm và các công việc khác nhằm thực hiện hợp đồng bảo hiểm theo ủy quyền của doanh nghiệp bảo hiểm.
+C. Sự kiện bảo hiểm là sự kiện khách quan do các bên thỏa thuận hoặc pháp luật quy định mà khi sự kiện đó xảy ra thì doanh nghiệp bảo hiểm phải trả tiền bảo hiểm cho người thụ hưởng hoặc bồi thường cho người được bảo hiểm.</t>
+  </si>
+  <si>
+    <t>38. Cơ quan có trách nhiệm kiểm tra, giám sát hoạt động đào tạo đại lý bảo hiểm là:</t>
+  </si>
+  <si>
+    <t>A. Bộ Tài chính.
+B. Bộ Công thương.
+C. Hiệp hội bảo hiểm Việt Nam.
+D. Bộ Giáo dục và Đào tạo.</t>
+  </si>
+  <si>
+    <t>39. Theo quy định của pháp luật về kinh doanh bảo hiểm, các sản phẩm thuộc nghiệp vụ bảo hiểm nhân thọ trước khi triển khai phải được:</t>
+  </si>
+  <si>
+    <t>A. Bộ Tài chính phê chuẩn quy tắc, điều khoản, biểu phí
+B. Đăng ký quy tắc, điều khoản, biểu phí với Hiệp hội Bảo hiểm Việt Nam
+C. Đăng ký quy tắc, điều khoản, biểu phí với Bộ Tài chính
+D. Hiệp hội Bảo hiểm Việt Nam phê chuẩn quy tắc, điều khoản, biểu phí</t>
+  </si>
+  <si>
+    <t>40. Ý nào dưới đây là đúng về thời hạn bảo hiểm của Quyền lợi Bảo Hiểm Miễn Phí Dành Cho Con Của Người Được Bảo Hiểm trong Sản phẩm Bảo hiểm Ung Thư 360:</t>
+  </si>
+  <si>
+    <t>A. Thời hạn bảo hiểm tối đa là 20 năm
+B. Tuổi bảo hiểm tối đa là 30 tuổi
+C. Đáp án A hoặc B tùy thời điểm nào đến trước</t>
+  </si>
+  <si>
+    <t>1. Giá trị hoàn lại của một hợp đồng bảo hiểm liên kết chung được xác định:</t>
+  </si>
+  <si>
+    <t>A. Là giá trị hợp đồng đó trong quỹ liên kết chung vào ngày hủy bỏ hợp đồng bảo hiểm trừ đi phí quản lý hợp đồng bảo hiểm.
+B. Là giá trị hợp đồng đó trong quỹ liên kết chung vào ngày kết thúc hợp đồng bảo hiểm
+C. Là giá trị hợp đồng đó trong quỹ liên kết chung vào ngày hủy bỏ hợp đồng bảo hiểm
+D. Là giá trị hợp đồng đó trong quỹ liên kết chung vào ngày hủy bỏ hợp đồng bảo hiểm trừ đi phí hủy bỏ hợp đồng bảo hiểm.</t>
+  </si>
+  <si>
+    <t>2. Theo Pháp luật kinh doanh bảo hiểm, văn phòng đại diện của doanh nghiệp bảo hiểm, doanh nghiệp môi giới bảo hiểm nước ngoài tại Việt Nam không được thực hiện hoạt động nào sau đây:</t>
+  </si>
+  <si>
+    <t>A. Thúc đẩy và theo dõi việc thực hiện các dự án do doanh nghiệp bảo hiểm, doanh nghiệp môi giới bảo hiểm nước ngoài tài trợ tại Việt Nam.
+B. Kinh doanh bảo hiểm.
+C. Nghiên cứu thị trường
+D. Xúc tiến xây dựng các dự án đầu tư của doanh nghiệp bảo hiểm, doanh nghiệp môi giới bảo hiểm nước ngoài.</t>
+  </si>
+  <si>
+    <t>3. Chi quản lý đại lý của doanh nghiệp bảo hiểm, chi nhánh nước ngoài không bao gồm:</t>
+  </si>
+  <si>
+    <t>A. Chi đào tạo nâng cao kiến thức cho đại lý.
+B. Chi tuyển dụng đại lý, khen thưởng đại lý và hỗ trợ đại lý.
+C. Chi đào tạo ban đầu và thi cấp chứng chỉ đại lý.
+D. Chi hoa hồng bảo hiểm.</t>
+  </si>
+  <si>
+    <t>4. Thời hạn đóng phí và thời hạn hợp đồng của Sản phẩm Bảo hiểm Ung Thư 360 là: </t>
+  </si>
+  <si>
+    <t>A. Thời hạn đóng phí 10 năm; Thời hạn hợp đồng 10 năm 
+B. Thời hạn đóng phí 10 năm; Thời hạn hợp đồng đến khi NĐBH 99 tuổi 
+C. Thời hạn đóng phí 10 năm; Thời hạn hợp đồng 12 năm 
+D. Thời hạn đóng phí 12 năm; Thời hạn hợp đồng đến khi NĐBH 99 tuổi</t>
+  </si>
+  <si>
+    <t>5. Trong Sản phẩm Bảo hiểm Ung thư 360, trường hợp NĐBH là trẻ em 1,5 tuổi số tiền bảo hiểm chi trả khi các sự kiện bảo hiểm xảy ra được điều chỉnh theo tỷ lệ % là bao nhiêu:</t>
+  </si>
+  <si>
+    <t>A. 40%
+B. 60%
+C. 20%
+D. 80%</t>
+  </si>
+  <si>
+    <t>6. Khách hàng A của hợp đồng Sản phẩm Bảo hiểm Ung Thư 360 được chẩn đoán mắc ung thư giai đoạn cuối, quyền lợi bảo hiểm giai đoạn cuối đã được chi trả, hợp đồng của khách hàng A sẽ chấm dứt hiệu lực, đúng hay sai?</t>
+  </si>
+  <si>
+    <t>A. Đúng
+B. Sai</t>
+  </si>
+  <si>
+    <t>7. Trong trường hợp không có thỏa thuận về thời hạn, doanh nghiệp bảo hiểm phải trả tiền bảo hiểm hoặc bồi thường cho người được bảo hiểm trong vòng:</t>
+  </si>
+  <si>
+    <t>A. 60 ngày kể từ ngày nhận được đầy đủ hồ sơ hợp lệ về yêu cầu trả tiền bảo hiểm hoặc bồi thường.
+B. 45 ngày kể từ ngày nhận được đầy đủ hồ sơ hợp lệ về yêu cầu trả tiền bảo hiểm hoặc bồi thường.
+C. 30 ngày kể từ ngày nhận được đầy đủ hồ sơ hợp lệ về yêu cầu trả tiền bảo hiểm hoặc bồi thường. 
+D. 15 ngày kể từ ngày nhận được đầy đủ hồ sơ hợp lệ về yêu cầu trả tiền bảo hiểm hoặc bồi thường. </t>
+  </si>
+  <si>
+    <t>8. Trường hợp nào dưới đây doanh nghiệp bảo hiểm phải trả tiền bảo hiểm trong hợp đồng bảo hiểm con người:</t>
+  </si>
+  <si>
+    <t>A. Người được bảo hiểm chết do bị thi hành án tử hình
+B. Người được bảo hiểm chết hoặc bị thương tật vĩnh viễn do lỗi cố ý của bên mua bảo hiểm
+C. Người được bảo hiểm chết do tự tử trong thời hạn hai năm, kể từ ngày nộp khoản phí bảo hiểm đầu tiên hoặc kể từ ngày hợp đồng bảo hiểm tiếp tục có hiệu lực
+D. Người được bảo hiểm chết do tự tử sau thời hạn hai năm, kể từ ngày nộp khoản phí bảo hiểm đầu tiên hoặc kể từ ngày hợp đồng bảo hiểm tiếp tục có hiệu lực</t>
+  </si>
+  <si>
+    <t>9. Phát biểu nào sau đây là sai về nội dung hoạt động đại lý bảo hiểm:</t>
+  </si>
+  <si>
+    <t>A. Giới thiệu, chào bán bảo hiểm
+B. Thu phí bảo hiểm.
+C. Hỗ trợ giảm phí bảo hiểm hoặc khuyến mại khách hàng tham gia bảo hiểm.
+D. A, B đúng.</t>
+  </si>
+  <si>
+    <t>10. Phát biểu nào sau đây là đúng về quyền lợi Hỗ Trợ Trượt Giá của Sản phẩm Bảo hiểm Ung Thư 360: </t>
+  </si>
+  <si>
+    <t>A. Tương đương 5% STBH từ năm hợp đồng đầu tiên, mỗi năm sau đó cộng thêm 5% STBH (A). 
+B. Được chi trả cùng với quyền lợi Ung Thư Giai Đoạn Cuối (B). 
+C. Mỗi đầu năm hợp đồng, BMBH cần cung cấp bằng chứng NĐBH còn sống. Quyền lợi này sẽ chấm dứt sau khi Manulife đã chi trả đủ 60 lần, hoặc sau khi NĐBH tử vong. 
+D. A và B là đáp án đúng. </t>
+  </si>
+  <si>
+    <t>11. Ngày 1/1/2019, khách hàng A tham gia Sản phẩm Bảo hiểm Ung Thư 360. Đến 31/5/2020, khách hàng A được chẩn đoán mắc ung thư giai đoạn cuối, thuộc danh mục ung thư chi phí lớn. Ngày 9/6/2020, khách hàng A tử vong. Các quyền lợi mà khách hàng A nhận được là:</t>
+  </si>
+  <si>
+    <t>A. 150% số tiền bảo hiểm + quyền lợi miễn đóng phí + quyền lợi trợ cấp thu nhập + quyền lợi miễn phí dành cho con + quyền lợi tử vong
+B. 150% số tiền bảo hiểm + quyền lợi miễn đóng phí + quyền lợi miễn phí dành cho con+ quyền lợi tử vong
+C. 105% số tiền bảo hiểm + quyền lợi miễn đóng phí + quyền lợi trợ cấp thu nhập + quyền lợi miễn phí dành cho con + quyền lợi tử vong
+D. 160% số tiền bảo hiểm + quyền lợi miễn đóng phí + quyền lợi trợ cấp thu nhập + quyền lợi miễn phí dành cho con + quyền lợi tử vong</t>
+  </si>
+  <si>
+    <t>12. Đại lý bảo hiểm là:</t>
+  </si>
+  <si>
+    <t>A. Người được doanh nghiệp bảo hiểm ủy quyền thực hiện tất cả các công việc liên quan đến nghiệp vụ bảo hiểm.
+B. Tổ chức, cá nhân được doanh nghiệp bảo hiểm ủy quyền trên cơ sở hợp đồng đại lý bảo hiểm để thực hiện hoạt động đại lý bảo hiểm theo quy định của pháp luật.
+C.  Người đại diện cho khách hàng.
+D. A, B, C đúng.</t>
+  </si>
+  <si>
+    <t>13. Mức vốn pháp định của doanh nghiệp bảo hiểm nhân thọ, kinh doanh bảo hiểm nhân thọ (bao gồm cả bảo hiểm liên kết đơn vị, bảo hiểm hưu trí) và bảo hiểm sức khỏe là:</t>
+  </si>
+  <si>
+    <t>A. 600 tỷ đồng Việt Nam
+B. 800 tỷ đồng Việt Nam
+C. 1.000 tỷ đồng Việt Nam
+D. 300 tỷ đồng Việt Nam</t>
+  </si>
+  <si>
+    <t>A. Thu xếp giải quyết bồi thường, trả tiền bảo hiểm khi xảy ra sự kiện bảo hiểm.
+B. Đánh giá rủi ro.
+C. Giới thiệu, chào bán bảo hiểm. 
+D. Thu phí bảo hiểm.</t>
+  </si>
+  <si>
+    <t>15. Theo quy định của Pháp luật, phát biểu nào dưới đây sai:</t>
+  </si>
+  <si>
+    <t>A. Các loại hợp đồng bảo hiểm bao gồm: hợp đồng bảo hiểm con người, hợp đồng bảo hiểm tài sản, hợp đồng bảo hiểm trách nhiệm dân sự.
+B. Hợp đồng bảo hiểm là sự thỏa thuận giữa bên mua bảo hiểm và doanh nghiệp bảo hiểm, theo đó bên mua bảo hiểm phải đóng phí bảo hiểm, doanh nghiệp bảo hiểm phải trả tiền bảo hiểm cho người thụ hưởng hoặc bồi thường cho người được bảo hiểm khi xảy ra sự kiện bảo hiểm.
+C. Hợp đồng bảo hiểm phải được lập thành văn bản.
+D. Trong trường hợp hợp đồng bảo hiểm có điều khoản không rõ ràng thì điều khoản đó được giải thích theo hướng có lợi cho doanh nghiệp bảo hiểm.</t>
+  </si>
+  <si>
+    <t>16. Đối với nghiệp vụ bảo hiểm trọn đời, doanh nghiệp bảo hiểm không có trách nhiệm đối với sự kiện nào sau đây:</t>
+  </si>
+  <si>
+    <t>A. Bên mua bảo hiểm chết vào bất kỳ thời điểm nào trong suốt cuộc đời của người đó (A)
+B. Người thụ hưởng chết vào bất kỳ thời điểm nào trong suốt cuộc đời của người đó (B)
+C. Người được bảo hiểm chết vào bất kỳ thời điểm nào trong suốt cuộc đời của người đó
+D. A, B đúng</t>
+  </si>
+  <si>
+    <t>17. Với Sản phẩm Bảo hiểm Ung Thư 360, khách hàng có những lựa chọn gói Bảo hiểm nào sau đây: </t>
+  </si>
+  <si>
+    <t>A. Một trong bốn gói với STBH tương ứng: 200 triệu, 400 triệu, 600 triệu và 800 triệu đồng. 
+B. Số tiền bảo hiểm tối đa 10 tỷ đồng. 
+C. Một trong bốn gói với STBH tương ứng: 500 triệu; 01 tỷ; 1,5 tỷ và 2 tỷ đồng. 
+D. Một trong bốn gói với STBH tương ứng: 300 triệu, 500 triệu, 700 triệu, 01 tỷ đồng; và gói tùy chọn với STBH tối thiểu 100 triệu đồng, tối đa 01 tỷ đồng. </t>
+  </si>
+  <si>
+    <t>18. Theo Luật kinh doanh bảo hiểm, ngoài các nghiệp vụ bảo hiểm đặc thù do Chính phủ qui định, các nghiệp vụ bảo hiểm được chia thành:</t>
+  </si>
+  <si>
+    <t>A. Bảo hiểm con người, bảo hiểm tài sản và bảo hiểm trách nhiệm dân sự.
+B. Bảo hiểm cá nhân, bảo hiểm nhóm.
+C. Bảo hiểm ngắn hạn, bảo hiểm dài hạn.
+D. Bảo hiểm nhân thọ, bảo hiểm phi nhân thọ và bảo hiểm sức khỏe. </t>
+  </si>
+  <si>
+    <t>19. Đáp án nào dưới đây đúng:</t>
+  </si>
+  <si>
+    <t>A. Đại lý bảo hiểm có thể lựa chọn và ký kết hợp đồng đại lý bảo hiểm với doanh nghiệp bảo hiểm, chi nhánh doanh nghiệp bảo hiểm phi nhân thọ nước ngoài
+B. Hoa hồng đại lý bảo hiểm được chi trả cho bên mua bảo hiểm và doanh nghiệp môi giới bảo hiểm
+C. Hoa hồng đại lý bảo hiểm được chi trả cho bên mua bảo hiểm và đại lý bảo hiểm
+D. Đại lý bảo hiểm có thể sửa đổi, bổ sung quy tắc, điều khoản bảo hiểm cho phù hợp với tình hình thực tế của khách hàng.</t>
+  </si>
+  <si>
+    <t>20. Theo quy định của Pháp luật, đáp án nào đúng khi nói về việc chuyển nhượng hợp đồng bảo hiểm:</t>
+  </si>
+  <si>
+    <t>A. Hợp đồng bảo hiểm không được chuyển nhượng
+B. Bên mua bảo hiểm có thể chuyển nhượng hợp đồng bảo hiểm theo thỏa thuận trong hợp đồng bảo hiểm
+C. Bên mua bảo hiểm có thể chuyển nhượng hợp đồng bảo hiểm cho bất kỳ người nào</t>
+  </si>
+  <si>
+    <t>21. Với Sản phẩm Bảo hiểm Ung Thư 360, số tiền bảo hiểm tối thiểu của một Hợp Đồng là: </t>
+  </si>
+  <si>
+    <t>A. 200 triệu đồng. 
+B. 250 triệu đồng. 
+C. 150 triệu đồng. 
+D. 100 triệu đồng. </t>
+  </si>
+  <si>
+    <t>22. Chọn phương án sai về khái niệm sau:</t>
+  </si>
+  <si>
+    <t>A. Người được bảo hiểm có thể đồng thời là người thụ hưởng
+B. Bên mua bảo hiểm có thể đồng thời là người được bảo hiểm và người thụ hưởng.
+C. Người thụ hưởng là người được doanh nghiệp bảo hiểm chỉ định để nhận tiền bảo hiểm theo hợp đồng bảo hiểm con người.   
+D. Người thụ hưởng là người được bên mua bảo hiểm chỉ định để nhận tiền bảo hiểm theo hợp đồng bảo hiểm con người.   </t>
+  </si>
+  <si>
+    <t>23. Theo Luật kinh doanh bảo hiểm, trường hợp doanh nghiệp bảo hiểm không phải bồi thường hoặc không phải trả tiền bảo hiểm khi xảy ra sự kiện bảo hiểm thì:</t>
+  </si>
+  <si>
+    <t>A. Phải được quy định rõ trong hợp đồng bảo hiểm và được doanh nghiệp bảo hiểm giải thích rõ cho bên mua bảo hiểm khi giao kết hợp đồng.
+B. Không cần quy định rõ trong hợp đồng bảo hiểm mà thực hiện theo các nguyên tắc chung mang tính nội bộ doanh nghiệp bảo hiểm.
+C. Không cần quy định rõ trong hợp đồng bảo hiểm vì pháp luật đã quy định rõ các trường hợp này.
+D. Không cần quy định rõ trong hợp đồng bảo hiểm và áp dụng theo thông lệ quốc tế.</t>
+  </si>
+  <si>
+    <t>24. Bên mua bảo hiểm có thể được giảm phí bảo hiểm khi mua bảo hiểm nhân thọ, bảo hiểm sức khỏe trong trường hợp:</t>
+  </si>
+  <si>
+    <t>A. Mua bảo hiểm trực tiếp từ doanh nghiệp bảo hiểm và doanh nghiệp bảo hiểm không phải chi trả hoa hồng bảo hiểm cho đại lý bảo hiểm hoặc doanh nghiệp môi giới bảo hiểm
+B. Mua bảo hiểm thông qua đại lý bảo hiểm 
+C. A, B đúng</t>
+  </si>
+  <si>
+    <t>25.  Quyền lợi bảo hiểm rủi ro của sản phẩm bảo hiểm hưu trí phải bao gồm tối thiểu các quyền lợi nào?</t>
+  </si>
+  <si>
+    <t>A. Quyền lợi trợ cấp mai táng, quyền lợi chăm sóc y tế, quyền lợi hỗ trợ nằm viện.
+B. Quyền lợi chăm sóc y tế.
+C. Quyền lợi trợ cấp mai táng, quyền lợi tử vong hoặc thương tật toàn bộ vĩnh viễn, quyền lợi bảo hiểm thất nghiệp.
+D. Quyền lợi trợ cấp mai táng, quyền lợi tử vong hoặc thương tật toàn bộ vĩnh viễn.</t>
+  </si>
+  <si>
+    <t>26. Chọn phương án đúng khi nói về đại lý bảo hiểm: </t>
+  </si>
+  <si>
+    <t>A. Đại lý bảo hiểm chịu sự kiểm tra giám sát của cơ quan nhà nước có thẩm quyền và thực hiện đầy đủ nghĩa vụ tài chính theo quy định của pháp luật (A).
+B. Đại lý bảo hiểm thực hiện hợp đồng bảo hiểm theo phạm vi được ủy quyền trong hợp đồng đại lý bảo hiểm (B).
+C. Đại lý bảo hiểm có thể đem phí bảo hiểm đi đầu tư và trả một phần lãi cho doanh nghiệp bảo hiểm (C).
+D. A,B đúng</t>
+  </si>
+  <si>
+    <t>27. Tỷ lệ hoa hồng tối đa tính trên phí bảo hiểm của hợp đồng bảo hiểm nhân thọ cá nhân thuộc nghiệp vụ bảo hiểm liên kết đơn vị, thời hạn từ 10 năm trở lên, phương thức nộp phí một lần là: </t>
+  </si>
+  <si>
+    <t>A. 5%
+B. 10%
+C. 7%
+D. 15%</t>
+  </si>
+  <si>
+    <t>28. Theo Luật kinh doanh bảo hiểm, bảo hiểm nhân thọ hỗn hợp là nghiệp vụ bảo hiểm kết hợp:</t>
+  </si>
+  <si>
+    <t>A. Bảo hiểm tử kỳ và bảo hiểm hưu trí. 
+B. Bảo hiểm trọn đời và bảo hiểm hưu trí. 
+C. Bảo hiểm sinh kỳ và bảo hiểm trọn đời. 
+D. Bảo hiểm sinh kỳ và bảo hiểm tử kỳ. </t>
+  </si>
+  <si>
+    <t>29. Đơn vị nào dưới đây được phép kinh doanh bảo hiểm sức khỏe?</t>
+  </si>
+  <si>
+    <t>A. Doanh nghiệp bảo hiểm Nhân thọ, doanh nghiệp bảo hiểm Phi Nhân thọ
+B. Văn phòng doanh nghiệp bảo hiểm nước ngoài tại Việt Nam
+C. Văn phòng doanh nghiệp môi giới bảo hiểm nước ngoài tại Việt Nam
+D. A, B, C đúng</t>
+  </si>
+  <si>
+    <t>30. Đại lý bảo hiểm có quyền:</t>
+  </si>
+  <si>
+    <t>A. Tiết lộ thông tin liên quan đến khách hàng
+B. Tạm ứng hoặc cho khách hàng vay tiền để đóng phí
+C. Dùng tiền hoa hồng để giảm phí hoặc khuyến mãi cho khách hàng
+D. Được hưởng hoa hồng đại lý</t>
+  </si>
+  <si>
+    <t>31. Doanh nghiệp bảo hiểm có nghĩa vụ:</t>
+  </si>
+  <si>
+    <t>A. Giải thích cho bên mua bảo hiểm về các điều kiện, điều khoản bảo hiểm; quyền, nghĩa vụ của bên mua bảo hiểm.
+B. Trả tiền bảo hiểm kịp thời cho người thụ hưởng hoặc bồi thường cho người được bảo hiểm khi xảy ra sự kiện bảo hiểm.
+C. Giải thích bằng văn bản lý do từ chối trả tiền bảo hiểm.
+D. A, B, C đúng.</t>
+  </si>
+  <si>
+    <t>32. Thông thường một hợp đồng bảo hiểm nhân thọ bị chấm dứt vì không tiếp tục đóng phí bảo hiểm, có thể khôi phục:</t>
+  </si>
+  <si>
+    <t>A. Trong vòng 2 năm kể từ khi mất hiệu lực và bên mua bảo hiểm đã đóng đủ phí bảo hiểm còn thiếu.
+B. Tại bất kỳ thời điểm nào kể từ khi mất hiệu lực và bên mua bảo hiểm đã đóng đủ phí bảo hiểm còn thiếu.  
+C. Trong vòng 4 năm kể từ khi mất hiệu lực và bên mua bảo hiểm đã đóng đủ phí bảo hiểm còn thiếu.
+D. Trong vòng 3 năm kể từ khi mất hiệu lực và bên mua bảo hiểm đã đóng đủ phí bảo hiểm còn thiếu.</t>
+  </si>
+  <si>
+    <t>33. Theo Pháp luật kinh doanh bảo hiểm, đối tượng nào sau đây có trách nhiệm nộp Quỹ bảo vệ người được bảo hiểm?</t>
+  </si>
+  <si>
+    <t>A. Doanh nghiệp bảo hiểm, chi nhánh doanh nghiệp bảo hiểm phi nhân thọ nước ngoài, doanh nghiệp môi giới bảo hiểm, đại lý bảo hiểm.
+B. Doanh nghiệp bảo hiểm, chi nhánh doanh nghiệp bảo hiểm phi nhân thọ nước ngoài (trừ doanh nghiệp bảo hiểm sức khỏe).
+C. Doanh nghiệp bảo hiểm, chi nhánh doanh nghiệp bảo hiểm phi nhân thọ nước ngoài, doanh nghiệp môi giới bảo hiểm.
+D. Doanh nghiệp bảo hiểm, chi nhánh doanh nghiệp bảo hiểm phi nhân thọ nước ngoài (trừ doanh nghiệp tái bảo hiểm).</t>
+  </si>
+  <si>
+    <t>34. Kể từ sau thời điểm Manulife đồng ý chi trả quyền lợi Ung Thư Giai Đoạn Cuối cho Người Được Bảo Hiểm của hợp đồng Bảo hiểm Ung Thư 360, vào mỗi ngày kỷ niệm hợp đồng hàng tháng, Manulife sẽ chi trả QLBH Trợ Cấp Thu Nhập bằng:</t>
+  </si>
+  <si>
+    <t>35. Hợp đồng bảo hiểm nhân thọ chấm dứt trong các trường hợp nào sau đây:</t>
+  </si>
+  <si>
+    <t>A. Bên mua bảo hiểm không còn quyền lợi có thể được bảo hiểm.
+B. Bên mua bảo hiểm tham gia một hợp đồng bảo hiểm khác cung cấp quyền lợi tương tự
+C. Câu A và B đều đúng
+D. Câu A và B đều sai</t>
+  </si>
+  <si>
+    <t>36. Trong Sản phẩm Bảo hiểm Ung Thư 360, thời hạn tối đa để con của Người Được Bảo Hiểm hoặc người giám hộ hợp pháp của con của Người Được Bảo Hiểm gửi yêu cầu và hoàn thành hồ sơ yêu cầu Manulife cấp quyền lợi Bảo Hiểm Miễn Phí Dành Cho Con Của NĐBH là:</t>
+  </si>
+  <si>
+    <t>A. 07 ngày kể từ ngày  Manulife chấp nhận chi trả Quyền lợi Ung Thư Giai Đoạn Cuối.
+B. 60 ngày kể từ ngày Manulife chấp nhận chi trả Quyền lợi Ung Thư Giai Đoạn Cuối.
+C. 90 ngày kể từ ngày Manulife chấp nhận chi trả Quyền lợi Ung Thư Giai Đoạn Cuối.
+D. 30 ngày kể từ ngày  Manulife chấp nhận chi trả Quyền lợi Ung Thư Giai Đoạn Cuối.</t>
+  </si>
+  <si>
+    <t>37. Theo Luật kinh doanh bảo hiểm, kinh doanh bảo hiểm là:</t>
+  </si>
+  <si>
+    <t>A. Hoạt động của doanh nghiệp bảo hiểm nhằm mục đích sinh lợi, theo đó doanh nghiệp bảo hiểm chấp nhận rủi ro của người được bảo hiểm, trên cơ sở bên mua bảo hiểm đóng phí bảo hiểm để doanh nghiệp bảo hiểm trả tiền bảo hiểm cho người thụ hưởng hoặc bồi thường cho người được bảo hiểm khi xảy ra sự kiện bảo hiểm.
+B. Hoạt động của doanh nghiệp bảo hiểm nhằm mục đích sinh lợi, theo đó doanh nghiệp bảo hiểm nhận một khoản phí bảo hiểm của doanh nghiệp bảo hiểm khác để cam kết bồi thường cho các trách nhiệm đã nhận bảo hiểm.
+C. Cả A và B</t>
+  </si>
+  <si>
+    <t>38. Chọn phương án sai về đại lý bảo hiểm:</t>
+  </si>
+  <si>
+    <t>A. Đại lý bảo hiểm được hưởng hoa hồng bảo hiểm do doanh nghiệp bảo hiểm trả.
+B. Đại lý bảo hiểm là người đại diện cho khách hàng tham gia bảo hiểm.
+C. Đại lý bảo hiểm có thể được doanh nghiệp bảo hiểm ủy quyền trả tiền bảo hiểm.
+D. Đại lý bảo hiểm là người được doanh nghiệp bảo hiểm ủy quyền để thực hiện những công việc liên quan đến hợp đồng bảo hiểm.</t>
+  </si>
+  <si>
+    <t>39. Đối với hợp đồng bảo hiểm con người, trường hợp một hoặc một số người thụ hưởng cố ý gây ra cái chết hoặc thương tật vĩnh viễn cho người được bảo hiểm thì:</t>
+  </si>
+  <si>
+    <t>40. Trong Sản phẩm Bảo hiểm Ung Thư 360, trong trường hợp con của Người Được Bảo Hiểm được Manulife chấp thuận cấp quyền lợi Bảo Hiểm Miễn Phí Dành Cho Con Của Người Được Bảo Hiểm, ngày bắt đầu bảo hiểm sẽ là:</t>
+  </si>
+  <si>
+    <t>A. Ngày Manulife đồng ý cấp quyền lợi Bảo Hiểm Miễn Phí Dành Cho Con Của Người Được Bảo Hiểm
+B. Ngày Người Được Bảo Hiểm được chẩn đoán mắc bệnh Ung Thư Giai Đoạn Cuối
+C. Ngày hoàn thành hồ sơ yêu cầu cấp quyền lợi Bảo Hiểm Miễn Phí Dành Cho Con Của Người Được Bảo Hiểm
+D. Ngày Manulife chấp nhận chi trả quyền lợi Ung Thư Giai Đoạn Cuối cho Người Được Bảo Hiểm.</t>
+  </si>
+  <si>
+    <t>,116,104,137,145,159,109,110,162,90,106,105,118,108,158,126,169,103,117,147,130,167,131,152,101,113,120,102,140,92,143</t>
+  </si>
+  <si>
+    <t>,66,48,70,77,81,49,71,69,53,58,75,56,57,37,40,84,76,67,50,73</t>
+  </si>
+  <si>
+    <t>,88,87,89</t>
+  </si>
+  <si>
+    <t>Where is bug</t>
+  </si>
+  <si>
+    <t>A. In here
+B. In some where</t>
+  </si>
+  <si>
+    <t>Bug in anywhere, damn it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. Yes
+B. No
+</t>
+  </si>
+  <si>
+    <t>Quiz linh tinh</t>
+  </si>
+  <si>
+    <t>,171</t>
+  </si>
+  <si>
+    <t>Đơn vị đo dung lượng bộ nhớ được sử dụng trong máy tính là:</t>
+  </si>
+  <si>
+    <t>A. Byte
+B. Bit
+C. Kilobyte</t>
+  </si>
+  <si>
+    <t>Đâu là phần mềm văn bản phổ biến nhất?</t>
+  </si>
+  <si>
+    <t>A. Microsoft Word
+B. Adobe Photoshop
+C. Google Chrome</t>
+  </si>
+  <si>
+    <t>Loại màn hình nào có khả năng hiển thị hình ảnh chất lượng cao nhất?</t>
+  </si>
+  <si>
+    <t>A. LCD
+B. LED
+C. OLED</t>
+  </si>
+  <si>
+    <t>Thiết bị nào dùng để lưu trữ dữ liệu lâu dài và có khả năng di động?</t>
+  </si>
+  <si>
+    <t>A. USB
+B. CD/DVD
+C. Ổ cứng di động</t>
+  </si>
+  <si>
+    <t>Giao thức truyền thông phổ biến trong mạng Internet là:</t>
+  </si>
+  <si>
+    <t>A. HTTP
+B. FTP
+C. SMTP</t>
+  </si>
+  <si>
+    <t>Đâu không phải là phần cứng của máy tính?</t>
+  </si>
+  <si>
+    <t>A. Bàn phím
+B. Hệ điều hành
+C. Chuột</t>
+  </si>
+  <si>
+    <t>Định dạng file hình ảnh phổ biến là:</t>
+  </si>
+  <si>
+    <t>A. JPG
+B. MP3
+C. PDF</t>
+  </si>
+  <si>
+    <t>Loại kết nối không dây phổ biến cho các thiết bị di động là:</t>
+  </si>
+  <si>
+    <t>A. Wi-Fi
+B. Bluetooth
+C. NFC</t>
+  </si>
+  <si>
+    <t>Loại máy in nào sử dụng mực để in ảnh và tài liệu?</t>
+  </si>
+  <si>
+    <t>A. Máy in laser
+B. Máy in kim
+C. Máy in phun mực</t>
+  </si>
+  <si>
+    <t>Giao diện nào được sử dụng phổ biến trong các thiết bị di động?</t>
+  </si>
+  <si>
+    <t>A. Touchscreen
+B. Keyboard
+C. Mouse</t>
+  </si>
+  <si>
+    <t>Công nghệ nào cho phép chuyển dữ liệu từ thiết bị di động sang máy tính một cách nhanh chóng và không cần dây?</t>
+  </si>
+  <si>
+    <t>A. Bluetooth
+B. Wi-Fi
+C. NFC</t>
+  </si>
+  <si>
+    <t>Loại pin nào được sử dụng phổ biến trong các thiết bị di động?</t>
+  </si>
+  <si>
+    <t>A. Pin kiềm
+B. Pin lithium-ion
+C. Pin axit chì</t>
+  </si>
+  <si>
+    <t>Loại máy tính nào có kích thước nhỏ gọn, dễ dàng mang theo?</t>
+  </si>
+  <si>
+    <t>A. Máy tính xách tay
+B. Máy tính để bàn
+C. Máy tính siêu việt</t>
+  </si>
+  <si>
+    <t>Đâu là trình duyệt web phổ biến nhất?</t>
+  </si>
+  <si>
+    <t>A. Google Chrome
+B. Safari
+C. Mozilla Firefox</t>
+  </si>
+  <si>
+    <t>Phần mềm nào được sử dụng để chỉnh sửa ảnh chuyên nghiệp?</t>
+  </si>
+  <si>
+    <t>A. Adobe Photoshop
+B. Microsoft Excel
+C. Windows Media Player</t>
+  </si>
+  <si>
+    <t>Loại kết nối dùng để truyền dữ liệu giữa máy tính và máy in là:</t>
+  </si>
+  <si>
+    <t>A. USB
+B. HDMI
+C. Ethernet</t>
+  </si>
+  <si>
+    <t>Loại kết nối dùng để truyền âm thanh và hình ảnh chất lượng cao từ máy tính ra TV là:</t>
+  </si>
+  <si>
+    <t>A. VGA
+B. HDMI
+C. DVI</t>
+  </si>
+  <si>
+    <t>Phần mềm nào được sử dụng để tạo bài thuyết trình?</t>
+  </si>
+  <si>
+    <t>A. Microsoft PowerPoint
+B. Adobe Illustrator
+C. Google Docs</t>
+  </si>
+  <si>
+    <t>Đơn vị đo tốc độ mạng là:</t>
+  </si>
+  <si>
+    <t>A. Kilobyte
+B. Megabyte
+C. Megabit</t>
+  </si>
+  <si>
+    <t>Loại máy tính nào được sử dụng phổ biến trong việc xử lý đồ họa và video?</t>
+  </si>
+  <si>
+    <t>A. Máy tính để bàn
+B. Máy tính xách tay
+C. Máy tính Workstation</t>
+  </si>
+  <si>
+    <t>Phần mềm nào được sử dụng để chỉnh sửa video chuyên nghiệp?</t>
+  </si>
+  <si>
+    <t>A. Adobe Premiere Pro
+B. Microsoft Word
+C. Windows Media Player</t>
+  </si>
+  <si>
+    <t>Loại màn hình nào được sử dụng phổ biến trong các thiết bị di động?</t>
+  </si>
+  <si>
+    <t>A. LCD
+B. AMOLED
+C. IPS</t>
+  </si>
+  <si>
+    <t>Loại ổ đĩa nào không dùng để lưu trữ dữ liệu trong máy tính?</t>
+  </si>
+  <si>
+    <t>A. Ổ cứng SSD
+B. Ổ đĩa CD/DVD
+C. Ổ đĩa RAM</t>
+  </si>
+  <si>
+    <t>Giao diện nào cho phép kết nối nhanh chóng và dễ dàng giữa các thiết bị điện tử?</t>
+  </si>
+  <si>
+    <t>A. USB
+B. Bluetooth
+C. HDMI</t>
+  </si>
+  <si>
+    <t>Phần mềm nào được sử dụng để xử lý và tính toán dữ liệu số lớn?</t>
+  </si>
+  <si>
+    <t>A. Microsoft Excel
+B. Adobe Photoshop
+C. Google Chrome</t>
+  </si>
+  <si>
+    <t>Công nghệ nào cho phép truyền tải dữ liệu không dây trong phạm vi gần?</t>
+  </si>
+  <si>
+    <t>A. Wi-Fi
+B. NFC
+C. Ethernet</t>
+  </si>
+  <si>
+    <t>Loại máy quét nào được sử dụng để chuyển đổi tài liệu giấy thành dạng số?</t>
+  </si>
+  <si>
+    <t>A. Máy quét phẳng
+B. Máy quét mã vạch
+C. Máy quét 3D</t>
+  </si>
+  <si>
+    <t>Loại máy in nào được sử dụng phổ biến trong in ảnh chất lượng cao?</t>
+  </si>
+  <si>
+    <t>A. Máy in laser
+B. Máy in màu
+C. Máy in phun mực</t>
+  </si>
+  <si>
+    <t>Phần mềm nào được sử dụng để duyệt và tìm kiếm thông tin trên Internet?</t>
+  </si>
+  <si>
+    <t>A. Google Chrome
+B. Microsoft Word
+C. Adobe Photoshop</t>
+  </si>
+  <si>
+    <t>Loại ứng dụng nào được sử dụng để giao tiếp và chia sẻ thông tin trong mạng xã hội?</t>
+  </si>
+  <si>
+    <t>A. Facebook
+B. Microsoft Excel
+C. Adobe Illustrator</t>
+  </si>
+  <si>
+    <t>ddm r-thang truong</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dmm
+dmmmmmmm
+</t>
+  </si>
+  <si>
+    <t>,171,202</t>
   </si>
 </sst>
 </file>
@@ -1319,10 +2241,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E88"/>
+  <dimension ref="A1:E203"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="C171" sqref="C171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1331,7 +2253,7 @@
     <col min="2" max="2" customWidth="true" width="42.453125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s" s="0">
         <v>22</v>
       </c>
@@ -1345,7 +2267,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s" s="0">
         <v>25</v>
       </c>
@@ -1359,68 +2281,68 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s" s="0">
-        <v>240</v>
+        <v>206</v>
       </c>
       <c r="B3" t="s" s="0">
         <v>11</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>242</v>
+        <v>207</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>11</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s" s="0">
         <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s" s="0">
-        <v>33</v>
       </c>
       <c r="B5" t="s" s="0">
         <v>11</v>
       </c>
       <c r="C5" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s" s="0">
         <v>35</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s" s="0">
-        <v>36</v>
       </c>
       <c r="B6" t="s" s="0">
         <v>11</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s" s="0">
         <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s" s="0">
-        <v>38</v>
       </c>
       <c r="B7" t="s" s="0">
         <v>11</v>
@@ -1429,26 +2351,26 @@
         <v>27</v>
       </c>
       <c r="D7" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s" s="0">
         <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s" s="0">
-        <v>40</v>
       </c>
       <c r="B8" t="s" s="0">
         <v>11</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s" s="0">
         <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s" s="0">
-        <v>42</v>
       </c>
       <c r="B9" t="s" s="0">
         <v>11</v>
@@ -1457,26 +2379,26 @@
         <v>27</v>
       </c>
       <c r="D9" t="s" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s" s="0">
         <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s" s="0">
-        <v>44</v>
       </c>
       <c r="B10" t="s" s="0">
         <v>11</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s" s="0">
         <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s" s="0">
-        <v>46</v>
       </c>
       <c r="B11" t="s" s="0">
         <v>11</v>
@@ -1485,12 +2407,12 @@
         <v>27</v>
       </c>
       <c r="D11" t="s" s="0">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s" s="0">
         <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s" s="0">
-        <v>48</v>
       </c>
       <c r="B12" t="s" s="0">
         <v>11</v>
@@ -1499,12 +2421,12 @@
         <v>27</v>
       </c>
       <c r="D12" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s" s="0">
         <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" t="s" s="0">
-        <v>50</v>
       </c>
       <c r="B13" t="s" s="0">
         <v>11</v>
@@ -1513,12 +2435,12 @@
         <v>24</v>
       </c>
       <c r="D13" t="s" s="0">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s" s="0">
         <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" t="s" s="0">
-        <v>52</v>
       </c>
       <c r="B14" t="s" s="0">
         <v>11</v>
@@ -1527,12 +2449,12 @@
         <v>24</v>
       </c>
       <c r="D14" t="s" s="0">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s" s="0">
         <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" t="s" s="0">
-        <v>54</v>
       </c>
       <c r="B15" t="s" s="0">
         <v>11</v>
@@ -1541,40 +2463,40 @@
         <v>27</v>
       </c>
       <c r="D15" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s" s="0">
         <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" t="s" s="0">
-        <v>56</v>
       </c>
       <c r="B16" t="s" s="0">
         <v>11</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s" s="0">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s" s="0">
         <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" t="s" s="0">
-        <v>58</v>
       </c>
       <c r="B17" t="s" s="0">
         <v>11</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s" s="0">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s" s="0">
         <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" t="s" s="0">
-        <v>60</v>
       </c>
       <c r="B18" t="s" s="0">
         <v>11</v>
@@ -1583,12 +2505,12 @@
         <v>27</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B19" t="s" s="0">
         <v>11</v>
@@ -1597,68 +2519,68 @@
         <v>24</v>
       </c>
       <c r="D19" t="s" s="0">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s" s="0">
         <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" t="s" s="0">
-        <v>63</v>
       </c>
       <c r="B20" t="s" s="0">
         <v>11</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s" s="0">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s" s="0">
         <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" t="s" s="0">
-        <v>65</v>
       </c>
       <c r="B21" t="s" s="0">
         <v>11</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D21" t="s" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s" s="0">
         <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" t="s" s="0">
-        <v>67</v>
       </c>
       <c r="B22" t="s" s="0">
         <v>11</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D22" t="s" s="0">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s" s="0">
         <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" t="s" s="0">
-        <v>69</v>
       </c>
       <c r="B23" t="s" s="0">
         <v>11</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D23" t="s" s="0">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s" s="0">
         <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" t="s" s="0">
-        <v>71</v>
       </c>
       <c r="B24" t="s" s="0">
         <v>11</v>
@@ -1667,12 +2589,12 @@
         <v>27</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B25" t="s" s="0">
         <v>11</v>
@@ -1681,57 +2603,57 @@
         <v>27</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="D26" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="E26" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="B26" t="s" s="0">
-        <v>83</v>
-      </c>
-      <c r="C26" t="s" s="0">
-        <v>85</v>
-      </c>
-      <c r="D26" t="s" s="0">
-        <v>86</v>
-      </c>
-      <c r="E26" t="s" s="0">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="27">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s" s="0">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B27" t="s" s="0">
         <v>2</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s" s="0">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B28" t="s" s="0">
         <v>2</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s" s="0">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B29" t="s" s="0">
         <v>2</v>
@@ -1740,40 +2662,40 @@
         <v>27</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s" s="0">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B30" t="s" s="0">
         <v>2</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s" s="0">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B31" t="s" s="0">
         <v>2</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s" s="0">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B32" t="s" s="0">
         <v>2</v>
@@ -1782,26 +2704,26 @@
         <v>27</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s" s="0">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B33" t="s" s="0">
         <v>2</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s" s="0">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B34" t="s" s="0">
         <v>2</v>
@@ -1810,26 +2732,26 @@
         <v>27</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s" s="0">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B35" t="s" s="0">
         <v>2</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s" s="0">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B36" t="s" s="0">
         <v>2</v>
@@ -1838,741 +2760,2357 @@
         <v>24</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s" s="0">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B37" t="s" s="0">
         <v>2</v>
       </c>
       <c r="C37" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="D37" t="s" s="0">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D38" t="s" s="0">
         <v>118</v>
       </c>
-      <c r="D37" t="s" s="0">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="0">
-        <v>130</v>
-      </c>
-      <c r="B38" t="s" s="0">
-        <v>74</v>
-      </c>
-      <c r="C38" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="D38" t="s" s="0">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="39">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s" s="0">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s" s="0">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s" s="0">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>27</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s" s="0">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>24</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s" s="0">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>24</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s" s="0">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s" s="0">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s" s="0">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>238</v>
+        <v>204</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>239</v>
+        <v>205</v>
       </c>
       <c r="E46" t="s" s="0">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s" s="0">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>27</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s" s="0">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D48" t="s" s="0">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s" s="0">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>24</v>
       </c>
       <c r="D49" t="s" s="0">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="C50" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D50" t="s" s="0">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="C51" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="D51" t="s" s="0">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="C52" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="D52" t="s" s="0">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="C53" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="D53" t="s" s="0">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="C54" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D54" t="s" s="0">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="C55" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D55" t="s" s="0">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="C56" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D56" t="s" s="0">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="C57" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="D57" t="s" s="0">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="C58" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D58" t="s" s="0">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="C59" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="D59" t="s" s="0">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" t="s" s="0">
         <v>153</v>
       </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="0">
-        <v>154</v>
-      </c>
-      <c r="B50" t="s" s="0">
-        <v>74</v>
-      </c>
-      <c r="C50" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="D50" t="s" s="0">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="0">
-        <v>156</v>
-      </c>
-      <c r="B51" t="s" s="0">
-        <v>74</v>
-      </c>
-      <c r="C51" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="D51" t="s" s="0">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="0">
-        <v>158</v>
-      </c>
-      <c r="B52" t="s" s="0">
-        <v>74</v>
-      </c>
-      <c r="C52" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="D52" t="s" s="0">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="0">
-        <v>159</v>
-      </c>
-      <c r="B53" t="s" s="0">
-        <v>74</v>
-      </c>
-      <c r="C53" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="D53" t="s" s="0">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="0">
-        <v>160</v>
-      </c>
-      <c r="B54" t="s" s="0">
-        <v>74</v>
-      </c>
-      <c r="C54" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="D54" t="s" s="0">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s" s="0">
-        <v>161</v>
-      </c>
-      <c r="B55" t="s" s="0">
-        <v>74</v>
-      </c>
-      <c r="C55" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="D55" t="s" s="0">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="0">
-        <v>162</v>
-      </c>
-      <c r="B56" t="s" s="0">
-        <v>74</v>
-      </c>
-      <c r="C56" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="D56" t="s" s="0">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="0">
-        <v>163</v>
-      </c>
-      <c r="B57" t="s" s="0">
-        <v>74</v>
-      </c>
-      <c r="C57" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="D57" t="s" s="0">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="0">
-        <v>164</v>
-      </c>
-      <c r="B58" t="s" s="0">
-        <v>74</v>
-      </c>
-      <c r="C58" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="D58" t="s" s="0">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="0">
-        <v>165</v>
-      </c>
-      <c r="B59" t="s" s="0">
-        <v>74</v>
-      </c>
-      <c r="C59" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="D59" t="s" s="0">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="0">
-        <v>166</v>
-      </c>
       <c r="B60" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>24</v>
       </c>
       <c r="D60" t="s" s="0">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s" s="0">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C61" t="s" s="0">
         <v>27</v>
       </c>
       <c r="D61" t="s" s="0">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" t="s" s="0">
         <v>155</v>
       </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="0">
-        <v>168</v>
-      </c>
       <c r="B62" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D62" t="s" s="0">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="C63" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="D63" t="s" s="0">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" t="s" s="0">
         <v>157</v>
       </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="0">
-        <v>169</v>
-      </c>
-      <c r="B63" t="s" s="0">
-        <v>74</v>
-      </c>
-      <c r="C63" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="D63" t="s" s="0">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="0">
-        <v>170</v>
-      </c>
       <c r="B64" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D64" t="s" s="0">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="65">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s" s="0">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C65" t="s" s="0">
         <v>27</v>
       </c>
       <c r="D65" t="s" s="0">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="66">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s" s="0">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D66" t="s" s="0">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="67">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s" s="0">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D67" t="s" s="0">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="68">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s" s="0">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C68" t="s" s="0">
         <v>24</v>
       </c>
       <c r="D68" t="s" s="0">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="69">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s" s="0">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C69" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D69" t="s" s="0">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="70">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s" s="0">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>27</v>
       </c>
       <c r="D70" t="s" s="0">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="71">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s" s="0">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D71" t="s" s="0">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="72">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s" s="0">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D72" t="s" s="0">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="73">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s" s="0">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C73" t="s" s="0">
         <v>24</v>
       </c>
       <c r="D73" t="s" s="0">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="74">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s" s="0">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C74" t="s" s="0">
         <v>27</v>
       </c>
       <c r="D74" t="s" s="0">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="75">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s" s="0">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C75" t="s" s="0">
         <v>27</v>
       </c>
       <c r="D75" t="s" s="0">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="76">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s" s="0">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C76" t="s" s="0">
         <v>24</v>
       </c>
       <c r="D76" t="s" s="0">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="77">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s" s="0">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C77" t="s" s="0">
         <v>27</v>
       </c>
       <c r="D77" t="s" s="0">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="78">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s" s="0">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C78" t="s" s="0">
         <v>27</v>
       </c>
       <c r="D78" t="s" s="0">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="79">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s" s="0">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C79" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D79" t="s" s="0">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="80">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s" s="0">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C80" t="s" s="0">
         <v>27</v>
       </c>
       <c r="D80" t="s" s="0">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="81">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" t="s" s="0">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C81" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D81" t="s" s="0">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="82">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" t="s" s="0">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C82" t="s" s="0">
         <v>24</v>
       </c>
       <c r="D82" t="s" s="0">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="83">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" t="s" s="0">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C83" t="s" s="0">
         <v>24</v>
       </c>
       <c r="D83" t="s" s="0">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="84">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" t="s" s="0">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C84" t="s" s="0">
         <v>27</v>
       </c>
       <c r="D84" t="s" s="0">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="85">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" t="s" s="0">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C85" t="s" s="0">
         <v>24</v>
       </c>
       <c r="D85" t="s" s="0">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="B86" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="C86" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D86" t="s" s="0">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="B87" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="C87" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D87" t="s" s="0">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="B88" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="C88" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="D88" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="E88" t="s" s="0">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89" t="s" s="0">
         <v>208</v>
       </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s" s="0">
+      <c r="B89" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="C89" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="D89" t="s" s="0">
         <v>209</v>
       </c>
-      <c r="B86" t="s" s="0">
-        <v>74</v>
-      </c>
-      <c r="C86" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="D86" t="s" s="0">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s" s="0">
+      <c r="E89" t="s" s="0">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" t="s" s="0">
         <v>210</v>
       </c>
-      <c r="B87" t="s" s="0">
-        <v>74</v>
-      </c>
-      <c r="C87" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="D87" t="s" s="0">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="0">
+      <c r="B90" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="C90" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="D90" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="E90" t="s" s="0">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="B91" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C91" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D91" t="s" s="0">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92" t="s" s="0">
+        <v>217</v>
+      </c>
+      <c r="B92" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C92" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D92" t="s" s="0">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="B93" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C93" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="D93" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" t="s" s="0">
+        <v>221</v>
+      </c>
+      <c r="B94" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C94" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="D94" t="s" s="0">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="B95" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C95" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="D95" t="s" s="0">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="B96" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C96" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="D96" t="s" s="0">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A97" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="B97" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C97" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D97" t="s" s="0">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A98" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="B98" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C98" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="D98" t="s" s="0">
         <v>231</v>
       </c>
-      <c r="B88" t="s" s="0">
-        <v>82</v>
-      </c>
-      <c r="C88" t="s" s="0">
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A99" t="s" s="0">
         <v>232</v>
       </c>
-      <c r="D88" t="s" s="0">
+      <c r="B99" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C99" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="D99" t="s" s="0">
         <v>233</v>
       </c>
-      <c r="E88" t="s" s="0">
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A100" t="s" s="0">
         <v>234</v>
+      </c>
+      <c r="B100" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C100" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D100" t="s" s="0">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A101" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="B101" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C101" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D101" t="s" s="0">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A102" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="B102" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C102" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D102" t="s" s="0">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A103" t="s" s="0">
+        <v>240</v>
+      </c>
+      <c r="B103" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C103" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="D103" t="s" s="0">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A104" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="B104" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C104" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D104" t="s" s="0">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A105" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="B105" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C105" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D105" t="s" s="0">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A106" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="B106" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C106" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="D106" t="s" s="0">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A107" t="s" s="0">
+        <v>248</v>
+      </c>
+      <c r="B107" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C107" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D107" t="s" s="0">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A108" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="B108" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C108" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="D108" t="s" s="0">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A109" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="B109" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C109" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D109" t="s" s="0">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A110" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="B110" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C110" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D110" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A111" t="s" s="0">
+        <v>256</v>
+      </c>
+      <c r="B111" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C111" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D111" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A112" t="s" s="0">
+        <v>258</v>
+      </c>
+      <c r="B112" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C112" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D112" t="s" s="0">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A113" t="s" s="0">
+        <v>260</v>
+      </c>
+      <c r="B113" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C113" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D113" t="s" s="0">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A114" t="s" s="0">
+        <v>262</v>
+      </c>
+      <c r="B114" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C114" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D114" t="s" s="0">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A115" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="B115" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C115" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="D115" t="s" s="0">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A116" t="s" s="0">
+        <v>266</v>
+      </c>
+      <c r="B116" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C116" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D116" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A117" t="s" s="0">
+        <v>268</v>
+      </c>
+      <c r="B117" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C117" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D117" t="s" s="0">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A118" t="s" s="0">
+        <v>270</v>
+      </c>
+      <c r="B118" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C118" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="D118" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A119" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="B119" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C119" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="D119" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A120" t="s" s="0">
+        <v>274</v>
+      </c>
+      <c r="B120" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C120" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D120" t="s" s="0">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A121" t="s" s="0">
+        <v>276</v>
+      </c>
+      <c r="B121" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C121" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D121" t="s" s="0">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A122" t="s" s="0">
+        <v>278</v>
+      </c>
+      <c r="B122" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C122" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D122" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A123" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="B123" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C123" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D123" t="s" s="0">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A124" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="B124" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C124" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="D124" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A125" t="s" s="0">
+        <v>284</v>
+      </c>
+      <c r="B125" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C125" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="D125" t="s" s="0">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A126" t="s" s="0">
+        <v>286</v>
+      </c>
+      <c r="B126" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C126" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D126" t="s" s="0">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A127" t="s" s="0">
+        <v>288</v>
+      </c>
+      <c r="B127" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C127" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D127" t="s" s="0">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A128" t="s" s="0">
+        <v>290</v>
+      </c>
+      <c r="B128" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C128" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D128" t="s" s="0">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A129" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="B129" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C129" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D129" t="s" s="0">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A130" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="B130" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C130" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="D130" t="s" s="0">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A131" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="B131" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C131" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D131" t="s" s="0">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A132" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="B132" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C132" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D132" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A133" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="B133" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C133" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D133" t="s" s="0">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A134" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="B134" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C134" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D134" t="s" s="0">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A135" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="B135" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C135" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D135" t="s" s="0">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A136" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="B136" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C136" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D136" t="s" s="0">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A137" t="s" s="0">
+        <v>308</v>
+      </c>
+      <c r="B137" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C137" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D137" t="s" s="0">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A138" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="B138" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C138" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D138" t="s" s="0">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A139" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="B139" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C139" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="D139" t="s" s="0">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A140" t="s" s="0">
+        <v>314</v>
+      </c>
+      <c r="B140" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C140" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D140" t="s" s="0">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A141" t="s" s="0">
+        <v>316</v>
+      </c>
+      <c r="B141" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C141" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D141" t="s" s="0">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A142" t="s" s="0">
+        <v>318</v>
+      </c>
+      <c r="B142" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C142" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D142" t="s" s="0">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A143" t="s" s="0">
+        <v>320</v>
+      </c>
+      <c r="B143" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C143" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="D143" t="s" s="0">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A144" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="B144" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C144" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D144" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A145" t="s" s="0">
+        <v>323</v>
+      </c>
+      <c r="B145" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C145" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D145" t="s" s="0">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A146" t="s" s="0">
+        <v>325</v>
+      </c>
+      <c r="B146" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C146" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D146" t="s" s="0">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A147" t="s" s="0">
+        <v>327</v>
+      </c>
+      <c r="B147" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C147" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D147" t="s" s="0">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A148" t="s" s="0">
+        <v>329</v>
+      </c>
+      <c r="B148" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C148" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D148" t="s" s="0">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A149" t="s" s="0">
+        <v>331</v>
+      </c>
+      <c r="B149" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C149" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D149" t="s" s="0">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A150" t="s" s="0">
+        <v>333</v>
+      </c>
+      <c r="B150" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C150" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D150" t="s" s="0">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A151" t="s" s="0">
+        <v>335</v>
+      </c>
+      <c r="B151" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C151" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D151" t="s" s="0">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A152" t="s" s="0">
+        <v>337</v>
+      </c>
+      <c r="B152" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C152" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="D152" t="s" s="0">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A153" t="s" s="0">
+        <v>339</v>
+      </c>
+      <c r="B153" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C153" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D153" t="s" s="0">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A154" t="s" s="0">
+        <v>341</v>
+      </c>
+      <c r="B154" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C154" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D154" t="s" s="0">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A155" t="s" s="0">
+        <v>343</v>
+      </c>
+      <c r="B155" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C155" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D155" t="s" s="0">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A156" t="s" s="0">
+        <v>345</v>
+      </c>
+      <c r="B156" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C156" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D156" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A157" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="B157" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C157" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="D157" t="s" s="0">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A158" t="s" s="0">
+        <v>349</v>
+      </c>
+      <c r="B158" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C158" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D158" t="s" s="0">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A159" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="B159" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C159" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D159" t="s" s="0">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A160" t="s" s="0">
+        <v>353</v>
+      </c>
+      <c r="B160" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C160" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D160" t="s" s="0">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A161" t="s" s="0">
+        <v>355</v>
+      </c>
+      <c r="B161" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C161" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D161" t="s" s="0">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A162" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B162" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C162" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D162" t="s" s="0">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A163" t="s" s="0">
+        <v>359</v>
+      </c>
+      <c r="B163" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C163" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D163" t="s" s="0">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A164" t="s" s="0">
+        <v>361</v>
+      </c>
+      <c r="B164" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C164" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="D164" t="s" s="0">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A165" t="s" s="0">
+        <v>362</v>
+      </c>
+      <c r="B165" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C165" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D165" t="s" s="0">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A166" t="s" s="0">
+        <v>364</v>
+      </c>
+      <c r="B166" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C166" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="D166" t="s" s="0">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A167" t="s" s="0">
+        <v>366</v>
+      </c>
+      <c r="B167" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C167" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D167" t="s" s="0">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A168" t="s" s="0">
+        <v>368</v>
+      </c>
+      <c r="B168" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C168" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D168" t="s" s="0">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A169" t="s" s="0">
+        <v>370</v>
+      </c>
+      <c r="B169" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C169" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="D169" t="s" s="0">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A170" t="s" s="0">
+        <v>371</v>
+      </c>
+      <c r="B170" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C170" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D170" t="s" s="0">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A171" t="s" s="0">
+        <v>376</v>
+      </c>
+      <c r="B171" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C171" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D171" t="s" s="0">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A172" t="s" s="0">
+        <v>378</v>
+      </c>
+      <c r="B172" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C172" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D172" t="s" s="0">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s" s="0">
+        <v>382</v>
+      </c>
+      <c r="B173" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C173" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D173" t="s" s="0">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s" s="0">
+        <v>384</v>
+      </c>
+      <c r="B174" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C174" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D174" t="s" s="0">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s" s="0">
+        <v>386</v>
+      </c>
+      <c r="B175" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C175" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="D175" t="s" s="0">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="B176" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C176" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="D176" t="s" s="0">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s" s="0">
+        <v>390</v>
+      </c>
+      <c r="B177" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C177" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D177" t="s" s="0">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s" s="0">
+        <v>392</v>
+      </c>
+      <c r="B178" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C178" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D178" t="s" s="0">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s" s="0">
+        <v>394</v>
+      </c>
+      <c r="B179" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C179" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D179" t="s" s="0">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s" s="0">
+        <v>396</v>
+      </c>
+      <c r="B180" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C180" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D180" t="s" s="0">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s" s="0">
+        <v>398</v>
+      </c>
+      <c r="B181" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C181" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="D181" t="s" s="0">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s" s="0">
+        <v>400</v>
+      </c>
+      <c r="B182" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C182" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D182" t="s" s="0">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s" s="0">
+        <v>402</v>
+      </c>
+      <c r="B183" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C183" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="D183" t="s" s="0">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s" s="0">
+        <v>404</v>
+      </c>
+      <c r="B184" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C184" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D184" t="s" s="0">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s" s="0">
+        <v>406</v>
+      </c>
+      <c r="B185" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C185" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D185" t="s" s="0">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s" s="0">
+        <v>408</v>
+      </c>
+      <c r="B186" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C186" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D186" t="s" s="0">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s" s="0">
+        <v>410</v>
+      </c>
+      <c r="B187" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C187" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D187" t="s" s="0">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s" s="0">
+        <v>412</v>
+      </c>
+      <c r="B188" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C188" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D188" t="s" s="0">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s" s="0">
+        <v>414</v>
+      </c>
+      <c r="B189" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C189" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D189" t="s" s="0">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s" s="0">
+        <v>416</v>
+      </c>
+      <c r="B190" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C190" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D190" t="s" s="0">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s" s="0">
+        <v>418</v>
+      </c>
+      <c r="B191" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C191" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="D191" t="s" s="0">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s" s="0">
+        <v>420</v>
+      </c>
+      <c r="B192" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C192" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="D192" t="s" s="0">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s" s="0">
+        <v>422</v>
+      </c>
+      <c r="B193" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C193" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D193" t="s" s="0">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s" s="0">
+        <v>424</v>
+      </c>
+      <c r="B194" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C194" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D194" t="s" s="0">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s" s="0">
+        <v>426</v>
+      </c>
+      <c r="B195" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C195" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="D195" t="s" s="0">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s" s="0">
+        <v>428</v>
+      </c>
+      <c r="B196" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C196" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D196" t="s" s="0">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s" s="0">
+        <v>430</v>
+      </c>
+      <c r="B197" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C197" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D197" t="s" s="0">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s" s="0">
+        <v>432</v>
+      </c>
+      <c r="B198" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C198" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D198" t="s" s="0">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s" s="0">
+        <v>434</v>
+      </c>
+      <c r="B199" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C199" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D199" t="s" s="0">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s" s="0">
+        <v>436</v>
+      </c>
+      <c r="B200" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C200" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="D200" t="s" s="0">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s" s="0">
+        <v>438</v>
+      </c>
+      <c r="B201" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C201" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D201" t="s" s="0">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s" s="0">
+        <v>440</v>
+      </c>
+      <c r="B202" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C202" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D202" t="s" s="0">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s" s="0">
+        <v>442</v>
+      </c>
+      <c r="B203" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C203" t="s" s="0">
+        <v>443</v>
+      </c>
+      <c r="D203" t="s" s="0">
+        <v>444</v>
       </c>
     </row>
   </sheetData>
@@ -2583,9 +5121,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7375D0D9-A088-4E33-84C0-F60360358F66}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
@@ -2599,15 +5137,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="n">
-        <v>88.0</v>
+        <v>203.0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="B2" s="0">
-        <v>0</v>
+      <c r="B2" s="0" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -2615,7 +5153,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>61.0</v>
+        <v>91.0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -2623,7 +5161,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>11.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -2638,8 +5176,8 @@
       <c r="A6" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B6" s="0">
-        <v>0</v>
+      <c r="B6" s="0" t="n">
+        <v>30.0</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -2694,16 +5232,16 @@
       <c r="A13" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B13" s="0" t="n">
-        <v>25.0</v>
+      <c r="B13" s="0">
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B14" s="0" t="n">
-        <v>25.0</v>
+      <c r="B14" s="0">
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -2759,39 +5297,47 @@
         <v>20</v>
       </c>
       <c r="B21" s="0">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="B22" s="0">
-        <v>0</v>
+      <c r="B22" s="0" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s" s="0">
-        <v>74</v>
-      </c>
-      <c r="B23" s="0" t="n">
-        <v>50.0</v>
+        <v>73</v>
+      </c>
+      <c r="B23" s="0">
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s" s="0">
-        <v>82</v>
-      </c>
-      <c r="B24" s="0" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>79</v>
+      </c>
+      <c r="B24" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s" s="0">
-        <v>83</v>
-      </c>
-      <c r="B25" t="n" s="0">
-        <v>1.0</v>
+        <v>80</v>
+      </c>
+      <c r="B25" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B26" s="0">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2801,10 +5347,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E57CE46-9D74-4C06-8F20-8319158C49B7}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2817,102 +5363,142 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="B1" t="s" s="0">
-        <v>76</v>
-      </c>
       <c r="C1" t="s" s="0">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D1" s="0">
         <v>600</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F1" t="s" s="0">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s" s="0">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D2" s="0">
         <v>600</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>230</v>
+        <v>374</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s" s="0">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="D3" s="0">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="F3" t="s" s="0">
         <v>76</v>
       </c>
-      <c r="C3" t="s" s="0">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="D4" s="0">
+        <v>600</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="F4" t="s" s="0">
         <v>76</v>
       </c>
-      <c r="D3" t="n" s="0">
-        <v>20.0</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>89</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>90</v>
-      </c>
-      <c r="B4" t="s" s="0">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="D5" s="0">
+        <v>120</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="F5" t="s" s="0">
         <v>76</v>
       </c>
-      <c r="C4" t="s" s="0">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="D6" s="0">
+        <v>3600</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>373</v>
+      </c>
+      <c r="F6" t="s" s="0">
         <v>76</v>
       </c>
-      <c r="D4" t="n" s="0">
-        <v>600.0</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>129</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>235</v>
-      </c>
-      <c r="B5" t="s" s="0">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s" s="0">
+        <v>380</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="D7" s="0">
+        <v>300</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>445</v>
+      </c>
+      <c r="F7" t="s" s="0">
         <v>76</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>76</v>
-      </c>
-      <c r="D5" t="n" s="0">
-        <v>120.0</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>236</v>
-      </c>
-      <c r="F5" t="s" s="0">
-        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/data/QuizTestAppData.xlsx
+++ b/src/main/java/data/QuizTestAppData.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="509">
   <si>
     <t>root</t>
   </si>
@@ -1923,6 +1923,257 @@
   </si>
   <si>
     <t>,171,202</t>
+  </si>
+  <si>
+    <t>Thành phố nào là thủ đô của Brazil?</t>
+  </si>
+  <si>
+    <t>A. Brasília
+B. Rio de Janeiro
+C. São Paulo</t>
+  </si>
+  <si>
+    <t>Dòng sông nổi tiếng chảy qua thung lũng lịch sử nổi tiếng Mesopotamia là:</t>
+  </si>
+  <si>
+    <t>A. Sông Amazon
+B. Sông Nile
+C. Sông Eufrat</t>
+  </si>
+  <si>
+    <t>Đồng bằng nổi tiếng và phù hợp cho nông nghiệp nằm ở miền Bắc Việt Nam là:</t>
+  </si>
+  <si>
+    <t>A. Đồng bằng Sông Cửu Long
+B. Đồng bằng Sông Hồng
+C. Đồng bằng Sông Mê Kông</t>
+  </si>
+  <si>
+    <t>Quốc gia nào không nằm ở châu Á?</t>
+  </si>
+  <si>
+    <t>A. Nhật Bản
+B. Ấn Độ
+C. Brazil</t>
+  </si>
+  <si>
+    <t>Thành phố lớn nhất nước Mỹ là:</t>
+  </si>
+  <si>
+    <t>A. New York
+B. Los Angeles
+C. Chicago</t>
+  </si>
+  <si>
+    <t>Quốc gia nằm ở Đông Nam Á, có thủ đô là Jakarta là:</t>
+  </si>
+  <si>
+    <t>A. Indonesia
+B. Malaysia
+C. Philippines</t>
+  </si>
+  <si>
+    <t>Đỉnh núi nổi tiếng ở châu Phi là:</t>
+  </si>
+  <si>
+    <t>A. Everest
+B. Kilimanjaro
+C. Mont Blanc</t>
+  </si>
+  <si>
+    <t>Quốc gia nào nằm ở Bán đảo Iberia?</t>
+  </si>
+  <si>
+    <t>A. Tây Ban Nha
+B. Italia
+C. Hy Lạp</t>
+  </si>
+  <si>
+    <t>Đảo nổi tiếng với tượng chúa Kitô Vua là:</t>
+  </si>
+  <si>
+    <t>A. Đảo Hawaii
+B. Đảo Jeju
+C. Đảo Corcovado</t>
+  </si>
+  <si>
+    <t>Thành phố nổi tiếng với Cung điện Buckingham là:</t>
+  </si>
+  <si>
+    <t>A. Paris
+B. London
+C. Moscow</t>
+  </si>
+  <si>
+    <t>Quốc gia nào có dân số đông nhất thế giới?</t>
+  </si>
+  <si>
+    <t>A. Trung Quốc
+B. Ấn Độ
+C. Mỹ</t>
+  </si>
+  <si>
+    <t>Dòng sông Mississippi chảy qua bao nhiêu bang của Mỹ?</t>
+  </si>
+  <si>
+    <t>A. 1
+B. 2
+C. 3</t>
+  </si>
+  <si>
+    <t>Thành phố nào là thủ đô của Ý?</t>
+  </si>
+  <si>
+    <t>A. Roma
+B. Milano
+C. Napoli</t>
+  </si>
+  <si>
+    <t>Đảo nằm giữa biển Địa Trung Hải và được biết đến với cung điện Alhambra là:</t>
+  </si>
+  <si>
+    <t>A. Đảo Balearic
+B. Đảo Corsica
+C. Đảo Sicily</t>
+  </si>
+  <si>
+    <t>Hệ thống đường sắt lớn nhất châu Âu là:</t>
+  </si>
+  <si>
+    <t>A. Eurostar
+B. TGV
+C. Trans-Siberian</t>
+  </si>
+  <si>
+    <t>Quốc gia nào là quê hương của đền Taj Mahal?</t>
+  </si>
+  <si>
+    <t>A. Ấn Độ
+B. Trung Quốc
+C. Nhật Bản</t>
+  </si>
+  <si>
+    <t>Dải đất hẹp nằm giữa biển Đen và biển Địa Trung Hải là:</t>
+  </si>
+  <si>
+    <t>A. Bán đảo Balkan
+B. Bán đảo Iberia
+C. Bán đảo Scandinavia</t>
+  </si>
+  <si>
+    <t>Núi lửa Vesuvius nằm ở quốc gia nào?</t>
+  </si>
+  <si>
+    <t>A. Ý
+B. Tây Ban Nha
+C. Hy Lạp</t>
+  </si>
+  <si>
+    <t>Quốc gia nào là quê hương của vịnh Hạ Long?</t>
+  </si>
+  <si>
+    <t>A. Việt Nam
+B. Thái Lan
+C. Indonesia</t>
+  </si>
+  <si>
+    <t>Dải đất hẹp nằm giữa biển Caribe và Đại Tây Dương là:</t>
+  </si>
+  <si>
+    <t>A. Bán đảo Florida
+B. Bán đảo Yucatan
+C. Bán đảo Labrador</t>
+  </si>
+  <si>
+    <t>Thành phố nào được gọi là "thành phố không bao giờ ngủ"?</t>
+  </si>
+  <si>
+    <t>A. Tokyo
+B. New York
+C. London</t>
+  </si>
+  <si>
+    <t>Đồng bằng lớn nhất thế giới là:</t>
+  </si>
+  <si>
+    <t>A. Đồng bằng Sông Cửu Long
+B. Đồng bằng Ganges-Brahmaputra
+C. Đồng bằng Amazon</t>
+  </si>
+  <si>
+    <t>Quốc gia nào là quê hương của vùng đất tuyết Alaska?</t>
+  </si>
+  <si>
+    <t>A. Canada
+B. Mỹ
+C. Nga</t>
+  </si>
+  <si>
+    <t>Đảo nổi tiếng với khối núi Phật A Di Đà là:</t>
+  </si>
+  <si>
+    <t>A. Đảo Bali
+B. Đảo Lombok
+C. Đảo Jeju</t>
+  </si>
+  <si>
+    <t>Dòng sông nào là dòng sông dài nhất châu Á?</t>
+  </si>
+  <si>
+    <t>A. Sông Mekong
+B. Sông Ganges
+C. Sông Yangtze</t>
+  </si>
+  <si>
+    <t>Quốc gia nào nằm ở Bắc Âu?</t>
+  </si>
+  <si>
+    <t>A. Phần Lan
+B. Hà Lan
+C. Đan Mạch</t>
+  </si>
+  <si>
+    <t>Quốc gia nào nằm ở khu vực Đông Nam Á?</t>
+  </si>
+  <si>
+    <t>A. Argentina
+B. Malaysia
+C. Ba Lan</t>
+  </si>
+  <si>
+    <t>Đại ngàn nổi tiếng của Việt Nam là:</t>
+  </si>
+  <si>
+    <t>A. Đại Sơn
+B. Trường Sơn
+C. Trường Giang</t>
+  </si>
+  <si>
+    <t>Nước nào là quốc gia lớn nhất thế giới về diện tích?</t>
+  </si>
+  <si>
+    <t>A. Nga
+B. Trung Quốc
+C. Mỹ</t>
+  </si>
+  <si>
+    <t>Kênh đào nổi tiếng nằm ở Ai Cập là:</t>
+  </si>
+  <si>
+    <t>A. Kênh Panama
+B. Kênh Suez
+C. Kênh Kiel</t>
+  </si>
+  <si>
+    <t>A. In here
+B. In some where
+C. Ở đâu đó</t>
+  </si>
+  <si>
+    <t>,171,202,170</t>
+  </si>
+  <si>
+    <t>A, B, C</t>
   </si>
 </sst>
 </file>
@@ -2241,7 +2492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E203"/>
+  <dimension ref="A1:E233"/>
   <sheetViews>
     <sheetView topLeftCell="A163" workbookViewId="0">
       <selection activeCell="C171" sqref="C171"/>
@@ -4659,10 +4910,13 @@
         <v>21</v>
       </c>
       <c r="C171" t="s" s="0">
-        <v>24</v>
+        <v>508</v>
       </c>
       <c r="D171" t="s" s="0">
-        <v>377</v>
+        <v>506</v>
+      </c>
+      <c r="E171" t="s" s="0">
+        <v>203</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.35">
@@ -5111,6 +5365,426 @@
       </c>
       <c r="D203" t="s" s="0">
         <v>444</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s" s="0">
+        <v>446</v>
+      </c>
+      <c r="B204" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C204" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D204" t="s" s="0">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s" s="0">
+        <v>448</v>
+      </c>
+      <c r="B205" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C205" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="D205" t="s" s="0">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s" s="0">
+        <v>450</v>
+      </c>
+      <c r="B206" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C206" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D206" t="s" s="0">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s" s="0">
+        <v>452</v>
+      </c>
+      <c r="B207" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C207" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="D207" t="s" s="0">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s" s="0">
+        <v>454</v>
+      </c>
+      <c r="B208" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C208" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D208" t="s" s="0">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s" s="0">
+        <v>456</v>
+      </c>
+      <c r="B209" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C209" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D209" t="s" s="0">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s" s="0">
+        <v>458</v>
+      </c>
+      <c r="B210" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C210" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D210" t="s" s="0">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s" s="0">
+        <v>460</v>
+      </c>
+      <c r="B211" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C211" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D211" t="s" s="0">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s" s="0">
+        <v>462</v>
+      </c>
+      <c r="B212" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C212" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="D212" t="s" s="0">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s" s="0">
+        <v>464</v>
+      </c>
+      <c r="B213" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C213" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D213" t="s" s="0">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s" s="0">
+        <v>466</v>
+      </c>
+      <c r="B214" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C214" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D214" t="s" s="0">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s" s="0">
+        <v>468</v>
+      </c>
+      <c r="B215" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C215" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D215" t="s" s="0">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s" s="0">
+        <v>470</v>
+      </c>
+      <c r="B216" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C216" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D216" t="s" s="0">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s" s="0">
+        <v>472</v>
+      </c>
+      <c r="B217" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C217" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="D217" t="s" s="0">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s" s="0">
+        <v>474</v>
+      </c>
+      <c r="B218" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C218" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="D218" t="s" s="0">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s" s="0">
+        <v>476</v>
+      </c>
+      <c r="B219" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C219" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D219" t="s" s="0">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s" s="0">
+        <v>478</v>
+      </c>
+      <c r="B220" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C220" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D220" t="s" s="0">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s" s="0">
+        <v>480</v>
+      </c>
+      <c r="B221" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C221" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D221" t="s" s="0">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s" s="0">
+        <v>482</v>
+      </c>
+      <c r="B222" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C222" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D222" t="s" s="0">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s" s="0">
+        <v>484</v>
+      </c>
+      <c r="B223" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C223" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D223" t="s" s="0">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s" s="0">
+        <v>486</v>
+      </c>
+      <c r="B224" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C224" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D224" t="s" s="0">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s" s="0">
+        <v>488</v>
+      </c>
+      <c r="B225" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C225" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="D225" t="s" s="0">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s" s="0">
+        <v>490</v>
+      </c>
+      <c r="B226" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C226" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D226" t="s" s="0">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s" s="0">
+        <v>492</v>
+      </c>
+      <c r="B227" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C227" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D227" t="s" s="0">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s" s="0">
+        <v>494</v>
+      </c>
+      <c r="B228" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C228" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="D228" t="s" s="0">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s" s="0">
+        <v>496</v>
+      </c>
+      <c r="B229" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C229" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D229" t="s" s="0">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s" s="0">
+        <v>498</v>
+      </c>
+      <c r="B230" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C230" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D230" t="s" s="0">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s" s="0">
+        <v>500</v>
+      </c>
+      <c r="B231" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C231" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D231" t="s" s="0">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s" s="0">
+        <v>502</v>
+      </c>
+      <c r="B232" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C232" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D232" t="s" s="0">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s" s="0">
+        <v>504</v>
+      </c>
+      <c r="B233" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C233" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D233" t="s" s="0">
+        <v>505</v>
       </c>
     </row>
   </sheetData>
@@ -5137,7 +5811,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="n">
-        <v>203.0</v>
+        <v>233.0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -5232,8 +5906,8 @@
       <c r="A13" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B13" s="0">
-        <v>25</v>
+      <c r="B13" s="0" t="n">
+        <v>55.0</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -5248,8 +5922,8 @@
       <c r="A15" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B15" s="0">
-        <v>0</v>
+      <c r="B15" s="0" t="n">
+        <v>30.0</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -5495,7 +6169,7 @@
         <v>300</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>445</v>
+        <v>507</v>
       </c>
       <c r="F7" t="s" s="0">
         <v>76</v>
